--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Others\Kamal\IP\IP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="163">
   <si>
     <t>Topic</t>
   </si>
@@ -1717,8 +1722,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1852,7 +1857,124 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2438400</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>533400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>704850</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2562225</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>781050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1898,7 +2020,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1930,9 +2052,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1964,6 +2087,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2139,14 +2263,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -2155,7 +2279,7 @@
     <col min="5" max="5" width="97.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2172,7 +2296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39">
+    <row r="2" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2183,7 +2307,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="64.5">
+    <row r="3" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2194,7 +2318,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="39">
+    <row r="4" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2205,7 +2329,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="26.25">
+    <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -2216,7 +2340,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -2227,7 +2351,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="26.25">
+    <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -2238,7 +2362,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="64.5">
+    <row r="8" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -2252,7 +2376,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51.75">
+    <row r="9" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -2263,7 +2387,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="39">
+    <row r="10" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -2274,7 +2398,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="51.75">
+    <row r="11" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -2285,7 +2409,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="102.75">
+    <row r="12" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -2296,7 +2420,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="26.25">
+    <row r="13" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -2307,7 +2431,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="26.25">
+    <row r="14" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2318,7 +2442,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="166.5">
+    <row r="15" spans="1:5" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -2332,7 +2456,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="39">
+    <row r="16" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -2346,7 +2470,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="64.5">
+    <row r="17" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -2357,7 +2481,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="26.25">
+    <row r="18" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -2368,7 +2492,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="64.5">
+    <row r="19" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -2379,7 +2503,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="102.75">
+    <row r="20" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -2390,7 +2514,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="77.25">
+    <row r="21" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -2404,7 +2528,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="39">
+    <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -2418,7 +2542,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="26.25">
+    <row r="23" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -2429,7 +2553,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="39">
+    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -2440,7 +2564,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="26.25">
+    <row r="25" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -2451,7 +2575,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="26.25">
+    <row r="26" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -2462,7 +2586,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="26.25">
+    <row r="27" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2473,7 +2597,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="51.75">
+    <row r="28" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -2484,7 +2608,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="39">
+    <row r="29" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
@@ -2495,7 +2619,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="39">
+    <row r="30" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
@@ -2506,7 +2630,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="39">
+    <row r="31" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -2520,7 +2644,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
@@ -2528,29 +2652,78 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId3"/>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId4"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2438400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>533400</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId6">
+          <objectPr locked="0" defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>704850</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>342900</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2562225</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>781050</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="127.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1">
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2558,7 +2731,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="51.75">
+    <row r="2" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -2572,14 +2745,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
@@ -2589,7 +2762,7 @@
     <col min="6" max="6" width="96" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2609,7 +2782,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.25">
+    <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2626,7 +2799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="64.5">
+    <row r="3" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2643,7 +2816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="39">
+    <row r="4" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2661,7 +2834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="26.25">
+    <row r="5" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2676,7 +2849,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="26.25">
+    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2696,7 +2869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.25">
+    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -2711,7 +2884,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="39">
+    <row r="8" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -2726,7 +2899,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="26.25">
+    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -2741,7 +2914,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="26.25">
+    <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -2756,7 +2929,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="26.25">
+    <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -2771,7 +2944,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -2786,7 +2959,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -2801,7 +2974,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="26.25">
+    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2816,7 +2989,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -2831,7 +3004,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="26.25">
+    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -2846,7 +3019,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="39">
+    <row r="17" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -2861,7 +3034,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="51.75">
+    <row r="18" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -2876,7 +3049,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="39">
+    <row r="19" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -2891,7 +3064,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -2906,7 +3079,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -2919,7 +3092,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -2932,7 +3105,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -2945,7 +3118,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -2958,7 +3131,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -2971,7 +3144,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -2984,7 +3157,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2997,7 +3170,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -3010,7 +3183,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
@@ -3023,7 +3196,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
@@ -3036,7 +3209,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -3049,7 +3222,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
@@ -3062,7 +3235,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -3075,7 +3248,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>26</v>
       </c>
@@ -3088,7 +3261,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>26</v>
       </c>
@@ -3099,7 +3272,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="51.75">
+    <row r="36" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
@@ -3114,7 +3287,7 @@
       </c>
       <c r="E36" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="64.5">
+    <row r="38" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>26</v>
       </c>
@@ -3134,452 +3307,454 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D41" s="3"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="3"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="3"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="3"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="3"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="3"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="3"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="3"/>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="3"/>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3593,14 +3768,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -3608,7 +3783,7 @@
     <col min="4" max="4" width="51.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3622,7 +3797,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26.25">
+    <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -3633,7 +3808,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="77.25">
+    <row r="3" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -3644,7 +3819,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="26.25">
+    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -3661,26 +3836,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="110.85546875" style="3" customWidth="1"/>
@@ -3688,7 +3863,7 @@
     <col min="4" max="4" width="46" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3702,7 +3877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="64.5">
+    <row r="2" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -3716,7 +3891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -3730,21 +3905,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="107.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3755,7 +3930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Others\Kamal\IP\IP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="198">
   <si>
     <t>Topic</t>
   </si>
@@ -1718,12 +1713,351 @@
   <si>
     <t>A task that returns a result and may throw an exception. Implementers define a single method with no arguments called call.  The Callable interface is similar to java.lang.Runnable, in that both are designed for classes whose instances are potentially executed by another thread. A Runnable, however, does not return a result and cannot throw a checked exception</t>
   </si>
+  <si>
+    <t xml:space="preserve">A java.util.Queue that additionally supports operations that wait for the queue to become non-empty when retrieving an element, and wait for space to become available in the queue when storing an element. </t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>ArrayBlockingQueue</t>
+    </r>
+  </si>
+  <si>
+    <t>A bounded blocking queue backed by an array. This queue orders elements FIFO (first-in-first-out). The head of the queue is that element that has been on the queue the longest time. The tail of the queue is that element that has been on the queue the shortest time. New elements are inserted at the tail of the queue, and the queue retrieval operations obtain elements at the head of the queue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditions (also known as condition queues or condition variables) provide a means for one thread to suspend execution (to "wait") until notified by another thread that some state condition may now be true. Because access to this shared state information occurs in different threads, it must be protected, so a lock of some form is associated with the condition. The key property that waiting for a condition provides is that it atomically releases the associated lock and suspends the current thread, just like Object.wait. </t>
+  </si>
+  <si>
+    <t>A mix-in style interface for marking objects that should be acted upon after a given delay</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Delayed</t>
+    </r>
+  </si>
+  <si>
+    <t>An unbounded blocking queue of Delayed elements, in which an element can only be taken when its delay has expired. The head of the queue is that Delayed element whose delay expired furthest in the past. If no delay has expired there is no head and poll will return null. Expiration occurs when an element's getDelay(TimeUnit.NANOSECONDS) method returns a value less than or equal to zero. Even though unexpired elements cannot be removed using take or poll, they are otherwise treated as normal elements. For example, the size method returns the count of both expired and unexpired elements. This queue does not permit null elements.</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>DelayQueue</t>
+    </r>
+  </si>
+  <si>
+    <t>ip.multithreading.delayqueue</t>
+  </si>
+  <si>
+    <t>An optionally-bounded blocking queue based on linked nodes. This queue orders elements FIFO (first-in-first-out). The head of the queue is that element that has been on the queue the longest time. The tail of the queue is that element that has been on the queue the shortest time. New elements are inserted at the tail of the queue, and the queue retrieval operations obtain elements at the head of the queue. Linked queues typically have higher throughput than array-based queues but less predictable performance in most concurrent applications.</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>LinkedBlockingQueue</t>
+    </r>
+  </si>
+  <si>
+    <t>An unbounded priority queue based on a priority heap. The elements of the priority queue are ordered according to their natural ordering, or by a Comparator provided at queue construction time, depending on which constructor is used. A priority queue does not permit null elements. A priority queue relying on natural ordering also does not permit insertion of non-comparable objects (doing so may result in ClassCastException). 
+The head of this queue is the least element with respect to the specified ordering. If multiple elements are tied for least value, the head is one of those elements -- ties are broken arbitrarily. The queue retrieval operations poll, remove, peek, and element access the element at the head of the queue.</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>PriorityQueue</t>
+    </r>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>PriorityBlockingQueue</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">An unbounded blocking queue that uses the same ordering rules as class PriorityQueue and supplies blocking retrieval operations. While this queue is logically unbounded, attempted additions may fail due to resource exhaustion (causing OutOfMemoryError). This class does not permit null elements. A priority queue relying on natural ordering also does not permit insertion of non-comparable objects (doing so results in ClassCastException). </t>
+  </si>
+  <si>
+    <t>A blocking queue in which each insert operation must wait for a corresponding remove operation by another thread, and vice versa. A synchronous queue does not have any internal capacity, not even a capacity of one. You cannot peek at a synchronous queue because an element is only present when you try to remove it; you cannot insert an element (using any method) unless another thread is trying to remove it; you cannot iterate as there is nothing to iterate. The head of the queue is the element that the first queued inserting thread is trying to add to the queue; if there is no such queued thread then no element is available for removal and poll() will return null</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>SynchronousQueue</t>
+    </r>
+  </si>
+  <si>
+    <t>deque</t>
+  </si>
+  <si>
+    <t>Abbrevation</t>
+  </si>
+  <si>
+    <t>Expansion</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">ouble </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">nded </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>ue</t>
+    </r>
+  </si>
+  <si>
+    <t>A linear collection that supports element insertion and removal at both ends. The name deque is short for "double ended queue" and is usually pronounced "deck". Most Deque implementations place no fixed limits on the number of elements they may contain, but this interface supports capacity-restricted deques as well as those with no fixed size limit</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Deque</t>
+    </r>
+  </si>
+  <si>
+    <t>A Deque that additionally supports blocking operations that wait for the deque to become non-empty when retrieving an element, and wait for space to become available in the deque when storing an element.</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>BlockingDeque</t>
+    </r>
+  </si>
+  <si>
+    <t>An optionally-bounded blocking deque based on linked nodes. The optional capacity bound constructor argument serves as a way to prevent excessive expansion. The capacity, if unspecified, is equal to Integer.MAX_VALUE. Linked nodes are dynamically created upon each insertion unless this would bring the deque above capacity.</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">LinkedBlockingDeque </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A hash table supporting full concurrency of retrievals and high expected concurrency for updates. This class obeys the same functional specification as java.util.Hashtable, and includes versions of methods corresponding to each method of Hashtable. However, even though all operations are thread-safe, retrieval operations do not entail locking, and there is not any support for locking the entire table in a way that prevents all access. This class is fully interoperable with Hashtable in programs that rely on its thread safety but not on its synchronization details. </t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">ConcurrentHashMap </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A synchronization aid that allows one or more threads to wait until a set of operations being performed in other threads completes. 
+A CountDownLatch is initialized with a given count. The await methods block until the current count reaches zero due to invocations of the countDown method, after which all waiting threads are released and any subsequent invocations of await return immediately. This is a one-shot phenomenon -- the count cannot be reset. If you need a version that resets the count, consider using a CyclicBarrier. 
+</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>CountDownLatch</t>
+    </r>
+  </si>
+  <si>
+    <t>example required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A synchronization aid that allows a set of threads to all wait for each other to reach a common barrier point. CyclicBarriers are useful in programs involving a fixed sized party of threads that must occasionally wait for each other. The barrier is called cyclic because it can be re-used after the waiting threads are released. A CyclicBarrier supports an optional Runnable command that is run once per barrier point, after the last thread in the party arrives, but before any threads are released. This barrier action is useful for updating shared-state before any of the parties continue. </t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>CyclicBarrier</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1822,7 +2156,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1850,6 +2184,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1866,115 +2201,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>2438400</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>533400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>2562225</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>781050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1027"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2020,7 +2246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2052,10 +2278,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2087,7 +2312,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2263,14 +2487,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -2279,7 +2503,7 @@
     <col min="5" max="5" width="97.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2296,7 +2520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="39">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2307,7 +2531,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="64.5">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2318,7 +2542,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="39">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2329,7 +2553,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="26.25">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -2340,7 +2564,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -2351,7 +2575,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="26.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -2362,7 +2586,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="64.5">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -2376,7 +2600,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="51.75">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -2387,7 +2611,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="39">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -2398,7 +2622,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="51.75">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -2409,7 +2633,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="102.75">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -2420,7 +2644,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="26.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -2431,7 +2655,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="26.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2442,7 +2666,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="166.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="166.5">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -2456,7 +2680,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="39">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -2470,7 +2694,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="64.5">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -2481,7 +2705,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="26.25">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -2492,7 +2716,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="64.5">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -2503,7 +2727,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="102.75">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -2514,7 +2738,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="77.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -2528,7 +2752,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="39">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -2542,7 +2766,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="26.25">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -2553,7 +2777,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="39">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -2564,7 +2788,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="26.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -2575,7 +2799,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="26.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -2586,7 +2810,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="26.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2597,7 +2821,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="51.75">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -2608,7 +2832,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="39">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
@@ -2619,7 +2843,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="39">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
@@ -2630,7 +2854,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="39">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -2644,7 +2868,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2">
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
@@ -2652,78 +2876,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2438400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>533400</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId6">
-          <objectPr locked="0" defaultSize="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>342900</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2562225</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>781050</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId3"/>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId4"/>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="127.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="4" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2731,7 +2906,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="51.75">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -2745,24 +2920,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="96.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="109.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="96" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2782,335 +2957,339 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="90">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="39">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="26.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51.75">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="39">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="26.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="26.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="9" spans="1:6" ht="26.25">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="39">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="26.25">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="26.25">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="26.25">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>130</v>
+      <c r="D14" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>131</v>
+      <c r="D15" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="26.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="26.25">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="39">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="51.75">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="39">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="9" t="s">
+        <v>141</v>
+      </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>114</v>
@@ -3118,12 +3297,12 @@
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>114</v>
@@ -3131,12 +3310,12 @@
       <c r="D24" s="3"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>114</v>
@@ -3144,12 +3323,12 @@
       <c r="D25" s="3"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>114</v>
@@ -3157,12 +3336,12 @@
       <c r="D26" s="3"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>114</v>
@@ -3170,12 +3349,12 @@
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>114</v>
@@ -3183,38 +3362,38 @@
       <c r="D28" s="3"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>127</v>
@@ -3222,12 +3401,12 @@
       <c r="D31" s="3"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>127</v>
@@ -3235,531 +3414,739 @@
       <c r="D32" s="3"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="51.75">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="51.75">
       <c r="A34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="26.25">
       <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E36" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="51.75">
+      <c r="A37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="64.5">
       <c r="A38" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="64.5">
+      <c r="A39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="3"/>
+    <row r="40" spans="1:5" ht="51.75">
+      <c r="A40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="77.25">
       <c r="A41" s="2" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="3"/>
+    <row r="42" spans="1:5" ht="26.25">
+      <c r="A42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="3"/>
+    <row r="43" spans="1:5" ht="39">
+      <c r="A43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+    <row r="44" spans="1:5" ht="64.5">
+      <c r="A44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="64.5">
+      <c r="A45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="64.5">
+      <c r="A46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6" ht="64.5">
+      <c r="A53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D56" s="3"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="3"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="3"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="3"/>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="3"/>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="5"/>
+    <row r="102" spans="1:5">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3768,14 +4155,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -3783,7 +4170,7 @@
     <col min="4" max="4" width="51.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3797,7 +4184,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="26.25">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -3808,7 +4195,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="77.25">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -3819,7 +4206,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="26.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -3836,26 +4223,59 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="110.85546875" style="3" customWidth="1"/>
@@ -3863,7 +4283,7 @@
     <col min="4" max="4" width="46" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3877,7 +4297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="64.5">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -3891,7 +4311,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -3905,21 +4325,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="107.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3930,7 +4350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="199">
   <si>
     <t>Topic</t>
   </si>
@@ -2051,6 +2051,9 @@
       </rPr>
       <t>CyclicBarrier</t>
     </r>
+  </si>
+  <si>
+    <t>java.util.ConcurrentModificationException</t>
   </si>
 </sst>
 </file>
@@ -2490,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2923,7 +2926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
@@ -3239,7 +3242,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="51.75">
+    <row r="20" spans="1:5" ht="39">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -3429,7 +3432,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="51.75">
+    <row r="34" spans="1:5" ht="39">
       <c r="A34" s="2" t="s">
         <v>26</v>
       </c>
@@ -3473,7 +3476,7 @@
       </c>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" ht="51.75">
+    <row r="37" spans="1:5" ht="39">
       <c r="A37" s="2" t="s">
         <v>26</v>
       </c>
@@ -4156,16 +4159,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="99.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="51.140625" style="3" customWidth="1"/>
   </cols>
@@ -4184,36 +4187,44 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="26.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="77.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="1:4" ht="77.25">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="26.25">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:4" ht="26.25">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>111</v>
       </c>
     </row>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="236">
   <si>
     <t>Topic</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Class</t>
   </si>
   <si>
-    <t>ip.multithreading.weakreference</t>
-  </si>
-  <si>
     <r>
       <t>java.lang.ref.</t>
     </r>
@@ -139,9 +136,6 @@
     </r>
   </si>
   <si>
-    <t>ip.multithreading.weakhashmap</t>
-  </si>
-  <si>
     <r>
       <t>java.lang.ref.</t>
     </r>
@@ -211,9 +205,6 @@
       </rPr>
       <t>ReferenceQueue</t>
     </r>
-  </si>
-  <si>
-    <t>ip.multithreading.referencequeue</t>
   </si>
   <si>
     <t>Daemon thread</t>
@@ -1182,9 +1173,6 @@
     <t>Signals that a method has been invoked at an illegal or inappropriate time. In other words, the Java environment or Java application is not in an appropriate state for the requested operation.</t>
   </si>
   <si>
-    <t>Other Info (Example when they are thrown)</t>
-  </si>
-  <si>
     <t>Causes the current thread to wait until another thread invokes the java.lang.Object.notify() method or the java.lang.Object.notifyAll() method for this object</t>
   </si>
   <si>
@@ -2010,9 +1998,344 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>CountDownLatch</t>
+    </r>
+  </si>
+  <si>
+    <t>example required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A synchronization aid that allows a set of threads to all wait for each other to reach a common barrier point. CyclicBarriers are useful in programs involving a fixed sized party of threads that must occasionally wait for each other. The barrier is called cyclic because it can be re-used after the waiting threads are released. A CyclicBarrier supports an optional Runnable command that is run once per barrier point, after the last thread in the party arrives, but before any threads are released. This barrier action is useful for updating shared-state before any of the parties continue. </t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>CyclicBarrier</t>
+    </r>
+  </si>
+  <si>
+    <t>java.util.ConcurrentModificationException</t>
+  </si>
+  <si>
+    <t>How does a Fail-Fast Iterator identifies that collection has been modified for throwing java.util.ConcurrentModificationException?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class java.util.AbstractList has a transient int variable "modCount" to keep track of modification count. When iterator object is created it gets the modCount value from the collection (AbstractList) and keeps this to find whether any modification happens during the iteration. Whenever next() method is called in iterator object, it checks whether current modCount value in the collection is same as the initial count it got when it was created. If it is not same, ConcurrentModificationException will be thrown.
+Iterator re-gets the modCount value from collection during its own remove() method those avoiding ConcurrentModificationException whenever the structure of the collection is changed by its remove() method. </t>
+  </si>
+  <si>
+    <t>Fail-Fast Iterator</t>
+  </si>
+  <si>
+    <t>Fail-Safe Iterator</t>
+  </si>
+  <si>
+    <t>Multithreading
+Collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This exception may be thrown by methods that have detected concurrent modification of an object when such modification is not permissible. 
+For example, it is not generally permissible for one thread to modify a Collection while another thread is iterating over it. In general, the results of the iteration are undefined under these circumstances. Some Iterator implementations (including those of all the general purpose collection implementations provided by the JRE) may choose to throw this exception if this behavior is detected. Iterators that do this are known as fail-fast iterators, as they fail quickly and cleanly, rather that risking arbitrary, non-deterministic behavior at an undetermined time in the future. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Fail fast iterator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> while iterating through the collection , instantly throws Concurrent Modification Exception if there is structural modification  of the collection . Thus, in the face of concurrent modification, the iterator fails quickly and cleanly, rather than risking arbitrary, non-deterministic behavior at an undetermined time in the future
+Fail-fast iterator can throw ConcurrentModificationException in two scenarios:
+    1) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Single Threaded Environment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">: After the creation of the iterator , structure is modified at any time by any method other than iterator's own remove method
+    2) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Multiple Threaded Environment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">: If one thread is modifying the structure of the collection while other thread is iterating over it.
+Fail-fast iterators throw ConcurrentModificationException on a best-effort basis. Therefore, it would be wrong to write a program that depended on this exception for its correctness: the fail-fast behavior of iterators should be used only to detect bugs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Examples:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> java.util.HashMap, java.util.Vector, java.util.ArrayList, java.util.HashSet</t>
+    </r>
+  </si>
+  <si>
+    <t>ip.collection.failfastiterator</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fail Safe Iterator makes copy of the internal data structure (object array) and iterates over the copied data structure.Any structural modification done to the iterator affects the copied data structure.  So, original data structure remains  structurally unchanged. Hence , no ConcurrentModificationException throws by the fail safe iterator
+Two  issues associated with Fail Safe Iterator are :
+    1) Overhead of maintaining the copied data structure i.e memory.
+    2)  Fail safe iterator does not guarantee that the data being read is the data currently in the original data structure. 
+Element-changing operations on iterators themselves (remove(), set(), and add()) are not supported. These methods throw UnsupportedOperationException
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Examples:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> java.util.concurrent.CopyOnWriteArrayList, java.util.concurrent.CopyOnWriteArraySet, java.util.concurrent.ConcurrentHashMap</t>
+    </r>
+  </si>
+  <si>
+    <t>ip.collection.failsafeiterator</t>
+  </si>
+  <si>
+    <t>java.lang.UnsupportedOperationException</t>
+  </si>
+  <si>
+    <t>Thrown to indicate that the requested operation is not supported.</t>
+  </si>
+  <si>
+    <t>ip.collection.unsupportedoperationexception</t>
+  </si>
+  <si>
+    <t>Example required</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.locks.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>ReentrantLock</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A thread-safe variant of java.util.ArrayList in which all mutative operations (add, set, and so on) are implemented by making a fresh copy of the underlying array. This is ordinarily too costly, but may be more efficient than alternatives when traversal operations vastly outnumber mutations, and is useful when you cannot or don't want to synchronize traversals, yet need to preclude interference among concurrent threads. 
+The "snapshot" style iterator method uses a reference to the state of the array at the point that the iterator was created. This array never changes during the lifetime of the iterator, so interference is impossible and the iterator is guaranteed not to throw ConcurrentModificationException. The iterator will not reflect additions, removals, or changes to the list since the iterator was created. Element-changing operations on iterators themselves (remove, set, and add) are not supported. These methods throw UnsupportedOperationException. 
+All elements are permitted, including null. </t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>CopyOnWriteArrayList</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A java.util.Set that uses an internal CopyOnWriteArrayList for all of its operations. Thus, it shares the same basic properties. It is best suited for applications in which set sizes generally stay small, read-only operations vastly outnumber mutative operations, and you need to prevent interference among threads during traversal. It is thread-safe. Mutative operations (add, set, remove, etc.) are expensive since they usually entail copying the entire underlying array. Iterators do not support the mutative remove operation. Traversal via iterators is fast and cannot encounter interference from other threads. Iterators rely on unchanging snapshots of the array at the time the iterators were constructed. </t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>CopyOnWriteArraySet</t>
+    </r>
+  </si>
+  <si>
+    <t>Any server side core Java application which uses services architecture,  where multiple services is provided by multiple threads and application can not start processing  until all services have started successfully</t>
+  </si>
+  <si>
+    <t>ip.collection.countdownlatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fork-join framework of Java 7</t>
+  </si>
+  <si>
     <t xml:space="preserve">A synchronization aid that allows one or more threads to wait until a set of operations being performed in other threads completes. 
-A CountDownLatch is initialized with a given count. The await methods block until the current count reaches zero due to invocations of the countDown method, after which all waiting threads are released and any subsequent invocations of await return immediately. This is a one-shot phenomenon -- the count cannot be reset. If you need a version that resets the count, consider using a CyclicBarrier. 
+A CountDownLatch is initialized with a given count. The await methods block until the current count reaches zero due to invocations of the countDown method, after which all waiting threads are released and any subsequent invocations of await return immediately. This is a one-shot phenomenon -- the count cannot be reset. If you need a version that resets the count, consider using a CyclicBarrier. </t>
+  </si>
+  <si>
+    <t>Exception thrown when a thread tries to wait upon a barrier that is in a broken state, or which enters the broken state while the thread is waiting.</t>
+  </si>
+  <si>
+    <t>java.util.concurrent.BrokenBarrierException</t>
+  </si>
+  <si>
+    <t>Resets the barrier to its initial state. If any parties are currently waiting at the barrier, they will return with a BrokenBarrierException. Note that resets after a breakage has occurred for other reasons can be complicated to carry out; threads need to re-synchronize in some other way, and choose one to perform the reset. It may be preferable to instead create a new barrier for subsequent use.</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.CyclicBarrier.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>reset()</t>
+    </r>
+  </si>
+  <si>
+    <t>ip.multithreading.cyclicbarrier</t>
+  </si>
+  <si>
+    <t>Perform lengthy calculation by breaking it into smaller individual tasks, in general, to implement Map reduce technique.
+To count the number of words in files which are present in say 3 folders; folders will have files in any depth. Word count should be calculated for individual files, files in same depth and word count in all files.  Three thread can be created for 3 folders, these threads will calculated word count in individual files and they can have CyclicBarrier to wait for other threads to finish word counting in a particular folder depth before moving on. Before they are awaken from await  call, they can calculated word count in a particular file depth.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A reentrant mutual exclusion Lock with the same basic behavior and semantics as the implicit monitor lock accessed using synchronized methods and statements, but with extended capabilities. 
+A ReentrantLock is owned by the thread last successfully locking, but not yet unlocking it. A thread invoking lock will return, successfully acquiring the lock, when the lock is not owned by another thread. The method will return immediately if the current thread already owns the lock. This can be checked using methods isHeldByCurrentThread, and getHoldCount. 
+The constructor for this class accepts an optional fairness parameter. When set true, under contention, locks favor granting access to the longest-waiting thread. Otherwise this lock does not guarantee any particular access order.
 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Advantages of ReentrantLock over Synchronization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>:
+    1) Ability to lock interruptibly.
+    2) Ability to timeout while waiting for lock.
+    3) Power to create fair lock.
+    4) API to get list of waiting thread for lock.
+    5) Flexibility to try for lock without blocking.</t>
+    </r>
+  </si>
+  <si>
+    <t>A synchronization point at which threads can pair and swap elements within pairs. Each thread presents some object on entry to the exchange method, matches with a partner thread, and receives its partner's object on return. An Exchanger may be viewed as a bidirectional form of a SynchronousQueue.</t>
   </si>
   <si>
     <r>
@@ -2027,14 +2350,98 @@
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
-      <t>CountDownLatch</t>
-    </r>
-  </si>
-  <si>
-    <t>example required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A synchronization aid that allows a set of threads to all wait for each other to reach a common barrier point. CyclicBarriers are useful in programs involving a fixed sized party of threads that must occasionally wait for each other. The barrier is called cyclic because it can be re-used after the waiting threads are released. A CyclicBarrier supports an optional Runnable command that is run once per barrier point, after the last thread in the party arrives, but before any threads are released. This barrier action is useful for updating shared-state before any of the parties continue. </t>
+      <t>Exchanger</t>
+    </r>
+  </si>
+  <si>
+    <t>ip.multithreading.exchanger</t>
+  </si>
+  <si>
+    <t>JMM</t>
+  </si>
+  <si>
+    <t>Java Memory Management</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">ava </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">emeory </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>odel</t>
+    </r>
+  </si>
+  <si>
+    <t>ip.javamemorymanagement.referencequeue</t>
+  </si>
+  <si>
+    <t>ip.javamemorymanagement.weakhashmap</t>
+  </si>
+  <si>
+    <t>ip.javamemorymanagement.weakreference</t>
+  </si>
+  <si>
+    <t>ip.multithreading.semaphore</t>
+  </si>
+  <si>
+    <t>A counting semaphore. Conceptually, a semaphore maintains a set of permits. Each acquire blocks if necessary until a permit is available, and then takes it. Each release adds a permit, potentially releasing a blocking acquirer. However, no actual permit objects are used; the Semaphore just keeps a count of the number available and acts accordingly. 
+Semaphores are often used to restrict the number of threads than can access some (physical or logical) resource.</t>
   </si>
   <si>
     <r>
@@ -2049,18 +2456,15 @@
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
-      <t>CyclicBarrier</t>
-    </r>
-  </si>
-  <si>
-    <t>java.util.ConcurrentModificationException</t>
+      <t>Semaphore</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2134,6 +2538,20 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2159,7 +2577,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2188,6 +2606,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2491,16 +2910,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="98.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="77.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="97.28515625" style="2" customWidth="1"/>
@@ -2523,356 +2942,389 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39">
+    <row r="2" spans="1:5" ht="153.75">
       <c r="A2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39">
+      <c r="A3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="64.5">
+      <c r="A4" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="39">
+      <c r="A5" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="26.25">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="64.5">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="39">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="26.25">
-      <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="8" spans="1:5" ht="26.25">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="64.5">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="51.75">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="26.25">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="64.5">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="39">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="51.75">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="51.75">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="39">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="51.75">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="102.75">
-      <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="26.25">
+    <row r="13" spans="1:5" ht="102.75">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>55</v>
+        <v>79</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="26.25">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="26.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="166.5">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="166.5">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="17" spans="1:5" ht="39">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="39">
-      <c r="A16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="3" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="64.5">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="64.5">
-      <c r="A17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="26.25">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="3" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="64.5">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="26.25">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="3" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="102.75">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="64.5">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="102.75">
-      <c r="A20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="77.25">
-      <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="22" spans="1:5" ht="77.25">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="39">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="39">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="24" spans="1:5" ht="26.25">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="3" t="s">
+    </row>
+    <row r="25" spans="1:5" ht="39">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="26.25">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="C25" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="3" t="s">
+    </row>
+    <row r="26" spans="1:5" ht="26.25">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="39">
-      <c r="A24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="C26" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="26.25">
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="26.25">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="C27" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="3" t="s">
+    </row>
+    <row r="28" spans="1:5" ht="26.25">
+      <c r="A28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="26.25">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="10" t="s">
+    <row r="29" spans="1:5" ht="51.75">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="26.25">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="3" t="s">
+    <row r="30" spans="1:5" ht="39">
+      <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="51.75">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="C30" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="39">
+      <c r="A31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="39">
-      <c r="A29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="39">
-      <c r="A30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="39">
-      <c r="A31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="2" t="s">
+    </row>
+    <row r="32" spans="1:5" ht="39">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="128.25">
+      <c r="B33" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2906,15 +3358,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="51.75">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2924,20 +3376,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="109.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
-    <col min="6" max="6" width="96" style="8" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="96" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2957,59 +3409,59 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="90">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="39">
       <c r="A3" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="26.25">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>228</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="51.75">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>228</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -3018,732 +3470,774 @@
         <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="39">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>228</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="8" t="s">
-        <v>29</v>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>228</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="26.25">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>228</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>31</v>
+        <v>230</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.25">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="39">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="26.25">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="26.25">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="26.25">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="26.25">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="26.25">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="39">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="39">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="39">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
-        <v>26</v>
-      </c>
+    <row r="32" spans="1:5" ht="179.25">
+      <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="51.75">
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>166</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D33" s="3"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="39">
+    <row r="34" spans="1:6" ht="51.75">
       <c r="A34" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>162</v>
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6" ht="39">
       <c r="A35" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="26.25">
+        <v>158</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" ht="39">
-      <c r="A37" s="2" t="s">
-        <v>26</v>
+    </row>
+    <row r="37" spans="1:6" ht="26.25">
+      <c r="A37" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="64.5">
-      <c r="A38" s="2" t="s">
-        <v>26</v>
+    <row r="38" spans="1:6" ht="39">
+      <c r="A38" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="64.5">
-      <c r="A39" s="2" t="s">
-        <v>26</v>
+        <v>161</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="64.5">
+      <c r="A39" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="51.75">
-      <c r="A40" s="2" t="s">
-        <v>26</v>
+        <v>165</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="64.5">
+      <c r="A40" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" ht="77.25">
-      <c r="A41" s="2" t="s">
-        <v>26</v>
+    <row r="41" spans="1:6" ht="51.75">
+      <c r="A41" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" ht="26.25">
-      <c r="A42" s="2" t="s">
-        <v>26</v>
+    <row r="42" spans="1:6" ht="77.25">
+      <c r="A42" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" ht="39">
-      <c r="A43" s="2" t="s">
-        <v>26</v>
+    <row r="43" spans="1:6" ht="26.25">
+      <c r="A43" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" ht="64.5">
-      <c r="A44" s="2" t="s">
-        <v>26</v>
+    <row r="44" spans="1:6" ht="39">
+      <c r="A44" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="64.5">
-      <c r="A45" s="2" t="s">
-        <v>26</v>
+        <v>185</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="64.5">
+      <c r="A45" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="64.5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="51.75">
       <c r="A46" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>216</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="102.75">
       <c r="A47" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="39">
       <c r="A48" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:6">
+        <v>110</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="39">
       <c r="A49" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="51.75">
+      <c r="A50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="A52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" ht="64.5">
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="57" spans="1:6" ht="128.25">
+      <c r="A57" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="D57" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="77.25">
+      <c r="A58" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="2"/>
+      <c r="D58" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="64.5">
+      <c r="A59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2"/>
@@ -3760,9 +4254,15 @@
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="A62" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D62" s="3"/>
       <c r="E62" s="2"/>
     </row>
@@ -4145,11 +4645,53 @@
       <c r="E116" s="2"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="5"/>
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4159,18 +4701,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="99.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1">
@@ -4178,54 +4721,85 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="90">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="26.25">
+        <v>193</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.25">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="77.25">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.25">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="77.25">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="26.25">
-      <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>111</v>
+      <c r="D6" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.25">
+      <c r="B7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4235,17 +4809,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4254,24 +4828,35 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4280,17 +4865,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="110.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="96" style="2" customWidth="1"/>
+    <col min="3" max="3" width="96" style="3" customWidth="1"/>
     <col min="4" max="4" width="46" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4299,39 +4884,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="64.5">
+    <row r="2" spans="1:4" ht="90">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="64.5">
       <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>58</v>
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4363,10 +4960,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Others\Kamal\IP\IP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="238">
   <si>
     <t>Topic</t>
   </si>
@@ -2459,12 +2464,18 @@
       <t>Semaphore</t>
     </r>
   </si>
+  <si>
+    <t>http://www.javatechnologycenter.com/question/java_technical_architect/technical_architect1.php</t>
+  </si>
+  <si>
+    <t>http://www.oracle.com/technetwork/articles/java/vmoptions-jsp-140102.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2625,6 +2636,115 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2438400</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>533400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>704850</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2562225</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>781050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2668,7 +2788,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2700,9 +2820,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2734,6 +2855,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2909,14 +3031,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="2" bestFit="1" customWidth="1"/>
@@ -2925,7 +3047,7 @@
     <col min="5" max="5" width="97.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2942,7 +3064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="153.75">
+    <row r="2" spans="1:5" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>172</v>
       </c>
@@ -2956,7 +3078,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39">
+    <row r="3" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>228</v>
       </c>
@@ -2967,7 +3089,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="64.5">
+    <row r="4" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>228</v>
       </c>
@@ -2978,7 +3100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39">
+    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>228</v>
       </c>
@@ -2989,7 +3111,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.25">
+    <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -3000,7 +3122,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -3011,7 +3133,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="26.25">
+    <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -3022,7 +3144,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="64.5">
+    <row r="9" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -3036,7 +3158,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="51.75">
+    <row r="10" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -3047,7 +3169,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="39">
+    <row r="11" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -3058,7 +3180,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="51.75">
+    <row r="12" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -3069,7 +3191,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="102.75">
+    <row r="13" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -3080,7 +3202,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="26.25">
+    <row r="14" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -3091,7 +3213,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="26.25">
+    <row r="15" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -3102,7 +3224,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="166.5">
+    <row r="16" spans="1:5" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -3116,7 +3238,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="39">
+    <row r="17" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -3130,7 +3252,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="64.5">
+    <row r="18" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -3141,7 +3263,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="26.25">
+    <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -3152,7 +3274,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="64.5">
+    <row r="20" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -3163,7 +3285,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="102.75">
+    <row r="21" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -3174,7 +3296,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="77.25">
+    <row r="22" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -3188,7 +3310,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="39">
+    <row r="23" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -3202,7 +3324,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="26.25">
+    <row r="24" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -3213,7 +3335,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="39">
+    <row r="25" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -3224,7 +3346,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="26.25">
+    <row r="26" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -3235,7 +3357,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="26.25">
+    <row r="27" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -3246,7 +3368,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="26.25">
+    <row r="28" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
@@ -3257,7 +3379,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="51.75">
+    <row r="29" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -3268,7 +3390,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="39">
+    <row r="30" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -3279,7 +3401,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="39">
+    <row r="31" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>23</v>
       </c>
@@ -3290,7 +3412,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="39">
+    <row r="32" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
@@ -3307,7 +3429,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="128.25">
+    <row r="33" spans="2:5" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>197</v>
       </c>
@@ -3318,12 +3440,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
@@ -3331,29 +3453,76 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId3"/>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId4"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2438400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>533400</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId6">
+          <objectPr locked="0" defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>704850</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>342900</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2562225</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>781050</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="127.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1">
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3361,7 +3530,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="51.75">
+    <row r="2" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -3375,14 +3544,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
@@ -3392,7 +3561,7 @@
     <col min="6" max="6" width="96" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3412,7 +3581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="90">
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>172</v>
       </c>
@@ -3427,7 +3596,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="39">
+    <row r="3" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>172</v>
       </c>
@@ -3442,7 +3611,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25">
+    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>228</v>
       </c>
@@ -3459,7 +3628,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.75">
+    <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>228</v>
       </c>
@@ -3476,7 +3645,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="39">
+    <row r="6" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>228</v>
       </c>
@@ -3494,7 +3663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.25">
+    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>228</v>
       </c>
@@ -3509,7 +3678,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="26.25">
+    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>228</v>
       </c>
@@ -3529,7 +3698,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="26.25">
+    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -3544,7 +3713,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="39">
+    <row r="10" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -3559,7 +3728,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="26.25">
+    <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -3574,7 +3743,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="26.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -3589,7 +3758,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="26.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -3604,7 +3773,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -3619,7 +3788,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -3634,7 +3803,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="26.25">
+    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -3649,7 +3818,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -3664,7 +3833,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="26.25">
+    <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -3679,7 +3848,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="39">
+    <row r="19" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -3694,7 +3863,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="39">
+    <row r="20" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -3709,7 +3878,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="39">
+    <row r="21" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -3724,7 +3893,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -3739,7 +3908,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -3752,7 +3921,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -3765,7 +3934,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -3778,7 +3947,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -3791,7 +3960,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -3804,7 +3973,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
@@ -3817,7 +3986,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -3830,7 +3999,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -3843,7 +4012,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>23</v>
       </c>
@@ -3856,7 +4025,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="179.25">
+    <row r="32" spans="1:5" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>208</v>
@@ -3869,7 +4038,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
@@ -3882,7 +4051,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="51.75">
+    <row r="34" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -3897,7 +4066,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:6" ht="39">
+    <row r="35" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>23</v>
       </c>
@@ -3912,7 +4081,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
@@ -3926,7 +4095,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="26.25">
+    <row r="37" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>198</v>
       </c>
@@ -3941,7 +4110,7 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="39">
+    <row r="38" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>198</v>
       </c>
@@ -3956,7 +4125,7 @@
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:6" ht="64.5">
+    <row r="39" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>198</v>
       </c>
@@ -3973,7 +4142,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="64.5">
+    <row r="40" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>198</v>
       </c>
@@ -3988,7 +4157,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:6" ht="51.75">
+    <row r="41" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>198</v>
       </c>
@@ -4003,7 +4172,7 @@
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:6" ht="77.25">
+    <row r="42" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>198</v>
       </c>
@@ -4018,7 +4187,7 @@
       </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:6" ht="26.25">
+    <row r="43" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>198</v>
       </c>
@@ -4033,7 +4202,7 @@
       </c>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="39">
+    <row r="44" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>198</v>
       </c>
@@ -4048,7 +4217,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="64.5">
+    <row r="45" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>198</v>
       </c>
@@ -4065,7 +4234,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="51.75">
+    <row r="46" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>23</v>
       </c>
@@ -4085,7 +4254,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="102.75">
+    <row r="47" spans="1:6" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>23</v>
       </c>
@@ -4105,7 +4274,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="39">
+    <row r="48" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>23</v>
       </c>
@@ -4122,7 +4291,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="39">
+    <row r="49" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>23</v>
       </c>
@@ -4139,7 +4308,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="51.75">
+    <row r="50" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>23</v>
       </c>
@@ -4154,7 +4323,7 @@
       </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>23</v>
       </c>
@@ -4167,7 +4336,7 @@
       <c r="D51" s="3"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>23</v>
       </c>
@@ -4180,7 +4349,7 @@
       <c r="D52" s="3"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>23</v>
       </c>
@@ -4191,7 +4360,7 @@
       <c r="D53" s="3"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="128.25">
+    <row r="57" spans="1:6" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>198</v>
       </c>
@@ -4205,7 +4374,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="77.25">
+    <row r="58" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>198</v>
       </c>
@@ -4219,7 +4388,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="64.5">
+    <row r="59" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>23</v>
       </c>
@@ -4239,21 +4408,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>153</v>
       </c>
@@ -4266,427 +4435,427 @@
       <c r="D62" s="3"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="3"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="3"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="3"/>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="3"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="3"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="3"/>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="3"/>
       <c r="E102" s="2"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3"/>
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="3"/>
       <c r="E105" s="2"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
       <c r="E106" s="2"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
       <c r="E107" s="2"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="3"/>
       <c r="E108" s="2"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
       <c r="E109" s="2"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
       <c r="E112" s="2"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
       <c r="E116" s="2"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="3"/>
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
       <c r="E120" s="2"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
       <c r="E121" s="2"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
       <c r="E122" s="2"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -4700,14 +4869,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -4716,7 +4885,7 @@
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4730,7 +4899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="90">
+    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>172</v>
       </c>
@@ -4744,7 +4913,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>172</v>
       </c>
@@ -4758,7 +4927,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="26.25">
+    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -4769,7 +4938,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="77.25">
+    <row r="5" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -4780,7 +4949,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.25">
+    <row r="6" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -4794,7 +4963,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="26.25">
+    <row r="7" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>218</v>
       </c>
@@ -4808,14 +4977,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="2" bestFit="1" customWidth="1"/>
@@ -4823,7 +4992,7 @@
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4835,7 +5004,7 @@
       </c>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>172</v>
       </c>
@@ -4847,7 +5016,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -4864,14 +5033,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="110.85546875" style="3" customWidth="1"/>
@@ -4879,7 +5046,7 @@
     <col min="4" max="4" width="46" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4893,7 +5060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="90">
+    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>172</v>
       </c>
@@ -4904,7 +5071,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="64.5">
+    <row r="3" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -4918,7 +5085,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -4933,21 +5100,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="107.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4958,17 +5125,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="11" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="245">
   <si>
     <t>Topic</t>
   </si>
@@ -2464,6 +2464,27 @@
   </si>
   <si>
     <t>http://www.oracle.com/technetwork/articles/java/vmoptions-jsp-140102.html</t>
+  </si>
+  <si>
+    <t>Core Java</t>
+  </si>
+  <si>
+    <t>java.lang.NumberFormatException</t>
+  </si>
+  <si>
+    <t>Thrown to indicate that the application has attempted to convert a string to one of the numeric types, but that the string does not have the appropriate format.</t>
+  </si>
+  <si>
+    <t>UnChecked Exception</t>
+  </si>
+  <si>
+    <t>Thrown to indicate that a method has been passed an illegal or inappropriate argument.</t>
+  </si>
+  <si>
+    <t>java.lang.IllegalArgumentException</t>
+  </si>
+  <si>
+    <t>ip.networking.socket</t>
   </si>
 </sst>
 </file>
@@ -3384,8 +3405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3960,7 +3981,9 @@
       <c r="D38" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="64.5">
       <c r="A39" s="3" t="s">
@@ -4022,7 +4045,9 @@
       <c r="D42" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="26.25">
       <c r="A43" s="3" t="s">
@@ -4184,7 +4209,9 @@
         <v>123</v>
       </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
@@ -4707,22 +4734,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="99.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4732,79 +4760,112 @@
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="90">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="26.25">
+      <c r="A3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="90">
+      <c r="A4" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="26.25">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="6" spans="1:5" ht="26.25">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="77.25">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="7" spans="1:5" ht="77.25">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.25">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="8" spans="1:5" ht="26.25">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="26.25">
-      <c r="B7" s="2" t="s">
+    <row r="9" spans="1:5" ht="26.25">
+      <c r="B9" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4942,7 +5003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="290">
   <si>
     <t>Topic</t>
   </si>
@@ -2485,6 +2485,384 @@
   </si>
   <si>
     <t>ip.networking.socket</t>
+  </si>
+  <si>
+    <t>An object that executes submitted Runnable tasks. This interface provides a way of decoupling task submission from the mechanics of how each task will be run, including details of thread use, scheduling, etc. An Executor is normally used instead of explicitly creating threads</t>
+  </si>
+  <si>
+    <t>An Executor that provides methods to manage termination and methods that can produce a Future for tracking progress of one or more asynchronous tasks. An ExecutorService can be shut down, which will cause it to reject new tasks</t>
+  </si>
+  <si>
+    <t>Initiates an orderly shutdown in which previously submitted tasks are executed, but no new tasks will be accepted. Invocation has no additional effect if already shut down. This method does not wait for previously submitted tasks to complete execution.</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.ExecutorService.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>shutdown()</t>
+    </r>
+  </si>
+  <si>
+    <t>Blocks until all tasks have completed execution after a shutdown request, or the timeout occurs, or the current thread is interrupted, whichever happens first</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.ExecutorService.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>awaitTermination()</t>
+    </r>
+  </si>
+  <si>
+    <t>Attempts to stop all actively executing tasks, halts the processing of waiting tasks, and returns a list of the tasks that were awaiting execution. This method does not wait for actively executing tasks to terminate. 
+There are no guarantees beyond best-effort attempts to stop processing actively executing tasks. For example, typical implementations will cancel via Thread.interrupt, so any task that fails to respond to interrupts may never terminate.</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.ExecutorService.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>shutdownNow()</t>
+    </r>
+  </si>
+  <si>
+    <t>Executes the given command at some time in the future. The command may execute in a new thread, in a pooled thread, or in the calling thread, at the discretion of the Executor implementation</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.Executor.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>execute()</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns true if this executor has been shut down.</t>
+  </si>
+  <si>
+    <t>Returns true if all tasks have completed following shut down. Note that isTerminated is never true unless either shutdown or shutdownNow was called first.</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.ExecutorService.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>isShutdown()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.ExecutorService.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>isTerminated()</t>
+    </r>
+  </si>
+  <si>
+    <t>Submits a Runnable task for execution and returns a Future representing that task. The Future's get method will return null upon successful completion</t>
+  </si>
+  <si>
+    <t>Submits a Runnable task for execution and returns a Future representing that task. The Future's get method will return the given result upon successful completion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submits a value-returning task for execution and returns a Future representing the pending results of the task. The Future's get method will return the task's result upon successful completion. </t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.ExecutorService.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>submit(Runnable)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.ExecutorService.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>submit(Runnable, T)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.ExecutorService.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>submit(Callable&lt;T&gt;)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.ExecutorService.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>invokeAll()</t>
+    </r>
+  </si>
+  <si>
+    <t>Executes the given tasks, returning a list of Futures holding their status and results when all complete. Future.isDone is true for each element of the returned list. Note that a completed task could have terminated either normally or by throwing an exception. The results of this method are undefined if the given collection is modified while this operation is in progress.</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.ExecutorService.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>invokeAny()</t>
+    </r>
+  </si>
+  <si>
+    <t>Executes the given tasks, returning the result of one that has completed successfully (i.e., without throwing an exception), if any do. Upon normal or exceptional return, tasks that have not completed are cancelled. The results of this method are undefined if the given collection is modified while this operation is in progress.</t>
+  </si>
+  <si>
+    <t>ip.multithreading.runnablefuturesubmit</t>
+  </si>
+  <si>
+    <t>Exception indicating that the result of a value-producing task, such as a FutureTask, cannot be retrieved because the task was cancelled.</t>
+  </si>
+  <si>
+    <t>java.util.concurrent.CancellationException</t>
+  </si>
+  <si>
+    <t>A Future represents the result of an asynchronous computation. Methods are provided to check if the computation is complete, to wait for its completion, and to retrieve the result of the computation. The result can only be retrieved using method get when the computation has completed, blocking if necessary until it is ready. Cancellation is performed by the cancel method. Additional methods are provided to determine if the task completed normally or was cancelled. Once a computation has completed, the computation cannot be cancelled</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Future</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>FutureTask</t>
+    </r>
+  </si>
+  <si>
+    <t>Waits if necessary for the computation to complete, and then retrieves its result</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.Future.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>get()</t>
+    </r>
+  </si>
+  <si>
+    <t>Waits if necessary for at most the given time for the computation to complete, and then retrieves its result, if available</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.Future.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>get(long, TimeUnit)</t>
+    </r>
+  </si>
+  <si>
+    <t>Attempts to cancel execution of this task. This attempt will fail if the task has already completed, has already been cancelled, or could not be cancelled for some other reason. If successful, and this task has not started when cancel is called, this task should never run. If the task has already started, then the parameter passed determines whether the thread executing this task should be interrupted in an attempt to stop the task. After this method returns, subsequent calls to isDone will always return true. Subsequent calls to isCancelled will always return true if this method returned true</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.Future.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>cancel(boolean)</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns true if this task was cancelled before it completed normally</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.Future.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>isCancelled()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.Future.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>isDone()</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns true if this task completed. Completion may be due to normal termination, an exception, or cancellation -- in all of these cases, this method will return true.</t>
+  </si>
+  <si>
+    <t>All submit methods in java.util.concurrent.ExecutorService returns java.util.concurrent.Future object to get the result of the thread execution</t>
+  </si>
+  <si>
+    <t>A cancellable asynchronous computation. This class provides a base implementation of Future, with methods to start and cancel a computation, query to see if the computation is complete, and retrieve the result of the computation. The result can only be retrieved when the computation has completed; the get methods will block if the computation has not yet completed. 
+Once the computation has completed, the computation cannot be restarted or cancelled (unless the computation is invoked using runAndReset)
+The FutureTask class is an implementation of Future that implements Runnable, and so may be executed by an Executor</t>
+  </si>
+  <si>
+    <t>ip.multithreading.futuretask</t>
+  </si>
+  <si>
+    <t>ip.multithreading.future</t>
+  </si>
+  <si>
+    <t>Factory and utility methods for Executor, ExecutorService, ScheduledExecutorService, ThreadFactory, and Callable classes. 
+This class supports the following kinds of methods: 
+    1) Methods that create and return an ExecutorService set up with commonly useful configuration settings. 
+    2) Methods that create and return a ScheduledExecutorService set up with commonly useful configuration settings. 
+    3) Methods that create and return a "wrapped" ExecutorService, that disables reconfiguration by making implementation-specific methods inaccessible. 
+    4) Methods that create and return a ThreadFactory that sets newly created threads to a known state. 
+    5) Methods that create and return a Callable out of other closure-like forms, so they can be used in execution methods requiring Callable.</t>
   </si>
 </sst>
 </file>
@@ -3368,10 +3746,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3396,6 +3774,11 @@
         <v>59</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3403,16 +3786,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="109.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
@@ -4153,7 +4536,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="39">
+    <row r="49" spans="1:5" ht="39">
       <c r="A49" s="2" t="s">
         <v>23</v>
       </c>
@@ -4170,7 +4553,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="51.75">
+    <row r="50" spans="1:5" ht="51.75">
       <c r="A50" s="2" t="s">
         <v>23</v>
       </c>
@@ -4185,7 +4568,7 @@
       </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:5" ht="39">
       <c r="A51" s="2" t="s">
         <v>23</v>
       </c>
@@ -4195,230 +4578,411 @@
       <c r="C51" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D51" s="3"/>
+      <c r="D51" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="2" t="s">
-        <v>23</v>
-      </c>
+    <row r="52" spans="1:5" ht="26.25">
+      <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="26.25">
+      <c r="A53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="2" t="s">
+      <c r="D53" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="2" t="s">
+    <row r="54" spans="1:5" ht="26.25">
+      <c r="A54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="51.75">
+      <c r="A55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" ht="26.25">
+      <c r="A56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" ht="26.25">
+      <c r="A58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" ht="26.25">
+      <c r="A59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="26.25">
+      <c r="A60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="26.25">
+      <c r="A61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" ht="39">
+      <c r="A62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="39">
+      <c r="A63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="115.5">
+      <c r="A64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="57" spans="1:6" ht="128.25">
-      <c r="A57" s="3" t="s">
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" ht="64.5">
+      <c r="A65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" ht="64.5">
+      <c r="A68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" ht="26.25">
+      <c r="A70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" ht="77.25">
+      <c r="A71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="128.25">
+      <c r="A72" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="77.25">
-      <c r="A58" s="3" t="s">
+    <row r="73" spans="1:6" ht="77.25">
+      <c r="A73" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="64.5">
-      <c r="A59" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" s="2" t="s">
+    <row r="74" spans="1:6" ht="64.5">
+      <c r="A74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:6">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D77" s="3"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:6">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:6">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4720,11 +5284,116 @@
       <c r="E122" s="2"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="5"/>
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4734,10 +5403,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4862,11 +5531,25 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="26.25">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="26.25">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="316">
   <si>
     <t>Topic</t>
   </si>
@@ -2863,6 +2863,220 @@
     3) Methods that create and return a "wrapped" ExecutorService, that disables reconfiguration by making implementation-specific methods inaccessible. 
     4) Methods that create and return a ThreadFactory that sets newly created threads to a known state. 
     5) Methods that create and return a Callable out of other closure-like forms, so they can be used in execution methods requiring Callable.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>ThreadPoolExecutor</t>
+    </r>
+  </si>
+  <si>
+    <t>An ExecutorService that executes each submitted task using one of possibly several pooled threads, normally configured using Executors factory methods. Thread pools address two different problems: they usually provide improved performance when executing large numbers of asynchronous tasks, due to reduced per-task invocation overhead, and they provide a means of bounding and managing the resources, including threads, consumed when executing a collection of tasks. Each ThreadPoolExecutor also maintains some basic statistics, such as the number of completed tasks. 
+The thread pool contained inside the ThreadPoolExecutor can contain a varying amount of threads. The number of threads in the pool is determined by these variables: 1. corePoolSize and 2. maximumPoolSize
+If less than corePoolSize threads are created in the the thread pool when a task is delegated to the thread pool, then a new thread is created, even if idle threads exist in the pool.
+If the internal queue of tasks is full, and corePoolSize threads or more are running, but less than maximumPoolSize threads are running, then a new thread is created to execute the task</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>ScheduledExecutorService</t>
+    </r>
+  </si>
+  <si>
+    <t>An ExecutorService that can schedule commands to run after a given delay, or to execute periodically.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ThreadPoolExecutor that can additionally schedule commands to run after a given delay, or to execute periodically. This class is preferable to java.util.Timer when multiple worker threads are needed, or when the additional flexibility or capabilities of ThreadPoolExecutor (which this class extends) are required. 
+Delayed tasks execute no sooner than they are enabled, but without any real-time guarantees about when, after they are enabled, they will commence. Tasks scheduled for exactly the same execution time are enabled in first-in-first-out (FIFO) order of submission. 
+When a submitted task is cancelled before it is run, execution is suppressed. By default, such a cancelled task is not automatically removed from the work queue until its delay elapses. While this enables further inspection and monitoring, it may also cause unbounded retention of cancelled tasks. To avoid this, set setRemoveOnCancelPolicy to true, which causes tasks to be immediately removed from the work queue at time of cancellation. </t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>ScheduledThreadPoolExecutor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>ScheduledFuture</t>
+    </r>
+  </si>
+  <si>
+    <t>A delayed result-bearing action that can be cancelled. Usually a scheduled future is the result of scheduling a task with a ScheduledExecutorService.</t>
+  </si>
+  <si>
+    <t>This method schedules the given Callable for execution after the given delay. The method returns a ScheduledFuture which you can use to either cancel the task before it has started executing, or obtain the result once it is executed.</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.ScheduledThreadPoolExecutor
+      .</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>schedule(Callable, long, TimeUnit)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.ScheduledThreadPoolExecutor
+      .</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>schedule(Runnable, long, TimeUnit)</t>
+    </r>
+  </si>
+  <si>
+    <t>This method works like the method version taking a Callable as parameter, except a Runnable cannot return a value, so the ScheduledFuture.get() method returns null when the task is finished.</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.ScheduledThreadPoolExecutor
+      .</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>scheduleAtFixedRate(Runnable, long, long, TimeUnit)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.ScheduledThreadPoolExecutor
+      .</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>scheduleWithFixedDelay(Runnable, long, long, TimeUnit)</t>
+    </r>
+  </si>
+  <si>
+    <t>Creates and executes a periodic action that becomes enabled first after the given initial delay, and subsequently with the given delay between the termination of one execution and the commencement of the next. If any execution of the task encounters an exception, subsequent executions are suppressed. Otherwise, the task will only terminate via cancellation or termination of the executor.</t>
+  </si>
+  <si>
+    <t>Creates and executes a periodic action that becomes enabled first after the given initial delay, and subsequently with the given period; that is executions will commence after initialDelay then initialDelay+period, then initialDelay + 2 * period, and so on. If any execution of the task encounters an exception, subsequent executions are suppressed. Otherwise, the task will only terminate via cancellation or termination of the executor. If any execution of this task takes longer than its period, then subsequent executions may start late, but will not concurrently execute.</t>
+  </si>
+  <si>
+    <t>ip.multithreading.schedulethreadpoolexecutor</t>
+  </si>
+  <si>
+    <t>java.util.concurrent.Executors.</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.Executors.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>newFixedThreadPool(int)</t>
+    </r>
+  </si>
+  <si>
+    <t>Creates a thread pool that reuses a fixed number of threads operating off a shared unbounded queue. At any point, at most nThreads threads will be active processing tasks. If additional tasks are submitted when all threads are active, they will wait in the queue until a thread is available. If any thread terminates due to a failure during execution prior to shutdown, a new one will take its place if needed to execute subsequent tasks. The threads in the pool will exist until it is explicitly shutdown.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ArrayList&lt;Integer&gt; list = new ArrayList&lt;&gt;();
+  list.add(3);
+  list.add(5);
+  list.add(2);
+  list.add(8);
+  int removeElement = new Integer(3);
+  list.remove(removeElement);
+  System.out.println(list);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3, 5, 2]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  HashMap&lt;String, Integer&gt; map = new HashMap&lt;&gt;();
+  int a = map.get("abc");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java.lang.NullPointerException
+</t>
+  </si>
+  <si>
+    <t>Exception thrown when attempting to retrieve the result of a task that aborted by throwing an exception. This exception can be inspected using the getCause() method.</t>
+  </si>
+  <si>
+    <t>java.util.concurrent.ExecutionException</t>
   </si>
 </sst>
 </file>
@@ -3317,8 +3531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3786,19 +4000,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="109.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="96" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4769,332 +4983,426 @@
         <v>288</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="115.5">
+    <row r="64" spans="1:5" ht="141">
       <c r="A64" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>157</v>
+        <v>290</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:6" ht="64.5">
+    <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>293</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" ht="115.5">
       <c r="A66" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:5" ht="26.25">
       <c r="A67" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>278</v>
+      <c r="B67" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" ht="64.5">
+        <v>298</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="26.25">
       <c r="A68" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>280</v>
+      <c r="B68" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:5" ht="64.5">
       <c r="A69" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>282</v>
+      <c r="B69" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" ht="26.25">
+        <v>305</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="39">
       <c r="A70" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>283</v>
+      <c r="B70" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:6" ht="77.25">
+        <v>304</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="115.5">
       <c r="A71" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>274</v>
+        <v>157</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="128.25">
-      <c r="A72" s="3" t="s">
-        <v>198</v>
+        <v>289</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" ht="51.75">
+      <c r="A72" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>210</v>
+        <v>308</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="77.25">
-      <c r="A73" s="3" t="s">
-        <v>198</v>
+        <v>309</v>
+      </c>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="64.5">
+        <v>307</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="C75" s="2"/>
       <c r="D75" s="3"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="C76" s="2"/>
       <c r="D76" s="3"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" s="3"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:5">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:5">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="3"/>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:6">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:6">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:6">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="3"/>
+    <row r="84" spans="1:6" ht="64.5">
+      <c r="A84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>275</v>
+      </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="3"/>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="3"/>
+    <row r="87" spans="1:6" ht="64.5">
+      <c r="A87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>279</v>
+      </c>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="3"/>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>281</v>
+      </c>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="3"/>
+    <row r="89" spans="1:6" ht="26.25">
+      <c r="A89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5">
+    <row r="90" spans="1:6" ht="77.25">
+      <c r="A90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="26.25">
       <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="3"/>
+      <c r="B91" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>297</v>
+      </c>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:6">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5">
+    <row r="93" spans="1:6" ht="128.25">
+      <c r="A93" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="77.25">
+      <c r="A94" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="64.5">
+      <c r="A95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5109,9 +5417,15 @@
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
+      <c r="A98" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D98" s="3"/>
       <c r="E98" s="2"/>
     </row>
@@ -5389,11 +5703,158 @@
       <c r="E137" s="2"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="5"/>
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="2"/>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5403,10 +5864,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5550,6 +6011,17 @@
       </c>
       <c r="C10" s="3" t="s">
         <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="26.25">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -5615,10 +6087,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5674,6 +6146,22 @@
       </c>
       <c r="B4" s="10" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="102.75">
+      <c r="B5" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.25">
+      <c r="B6" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="348">
   <si>
     <t>Topic</t>
   </si>
@@ -2262,9 +2262,6 @@
     <t>ip.collection.countdownlatch</t>
   </si>
   <si>
-    <t xml:space="preserve"> fork-join framework of Java 7</t>
-  </si>
-  <si>
     <t xml:space="preserve">A synchronization aid that allows one or more threads to wait until a set of operations being performed in other threads completes. 
 A CountDownLatch is initialized with a given count. The await methods block until the current count reaches zero due to invocations of the countDown method, after which all waiting threads are released and any subsequent invocations of await return immediately. This is a one-shot phenomenon -- the count cannot be reset. If you need a version that resets the count, consider using a CyclicBarrier. </t>
   </si>
@@ -2299,40 +2296,6 @@
   <si>
     <t>Perform lengthy calculation by breaking it into smaller individual tasks, in general, to implement Map reduce technique.
 To count the number of words in files which are present in say 3 folders; folders will have files in any depth. Word count should be calculated for individual files, files in same depth and word count in all files.  Three thread can be created for 3 folders, these threads will calculated word count in individual files and they can have CyclicBarrier to wait for other threads to finish word counting in a particular folder depth before moving on. Before they are awaken from await  call, they can calculated word count in a particular file depth.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A reentrant mutual exclusion Lock with the same basic behavior and semantics as the implicit monitor lock accessed using synchronized methods and statements, but with extended capabilities. 
-A ReentrantLock is owned by the thread last successfully locking, but not yet unlocking it. A thread invoking lock will return, successfully acquiring the lock, when the lock is not owned by another thread. The method will return immediately if the current thread already owns the lock. This can be checked using methods isHeldByCurrentThread, and getHoldCount. 
-The constructor for this class accepts an optional fairness parameter. When set true, under contention, locks favor granting access to the longest-waiting thread. Otherwise this lock does not guarantee any particular access order.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>Advantages of ReentrantLock over Synchronization</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>:
-    1) Ability to lock interruptibly.
-    2) Ability to timeout while waiting for lock.
-    3) Power to create fair lock.
-    4) API to get list of waiting thread for lock.
-    5) Flexibility to try for lock without blocking.</t>
-    </r>
   </si>
   <si>
     <t>A synchronization point at which threads can pair and swap elements within pairs. Each thread presents some object on entry to the exchange method, matches with a partner thread, and receives its partner's object on return. An Exchanger may be viewed as a bidirectional form of a SynchronousQueue.</t>
@@ -3027,9 +2990,6 @@
   </si>
   <si>
     <t>ip.multithreading.schedulethreadpoolexecutor</t>
-  </si>
-  <si>
-    <t>java.util.concurrent.Executors.</t>
   </si>
   <si>
     <r>
@@ -3078,12 +3038,437 @@
   <si>
     <t>java.util.concurrent.ExecutionException</t>
   </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>ForkJoinPool</t>
+    </r>
+  </si>
+  <si>
+    <t>An ExecutorService for running ForkJoinTasks. A ForkJoinPool provides the entry point for submissions from non-ForkJoinTask clients, as well as management and monitoring operations. 
+A ForkJoinPool differs from other kinds of ExecutorService mainly by virtue of employing work-stealing: all threads in the pool attempt to find and execute tasks submitted to the pool and/or created by other active tasks (eventually blocking waiting for work if none exist). This enables efficient processing when most tasks spawn other subtasks (as do most ForkJoinTasks), as well as when many small tasks are submitted to the pool from external clients. Especially when setting asyncMode to true in constructors, ForkJoinPools may also be appropriate for use with event-style tasks that are never joined.</t>
+  </si>
+  <si>
+    <t>Fork-Join Framework</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The heart of a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>fork/join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> framework lies in its lightweight </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>work-stealing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> scheduling mechanics. 
+    1) Each worker thread maintains runnable tasks in its own scheduling queue.
+    2) Queues are maintained as double-ended queues (i.e.,deques), supporting both LIFO push and pop operations, as well as a FIFO take operation.
+    3) Subtasks generated in tasks run by a given worker thread are pushed onto that workers own deque. 
+    4) Worker threads process their own deques in LIFO (youngest-first) order, by popping tasks.
+    5) When a worker thread has no local tasks to run, it attempts to take ("steal") a task from another randomly chosen worker, using a FIFO (oldest first) rule.
+    6) When a worker thread encounters a join operation, it processes other tasks, if available, until the target task is noticed to have completed (via isDone). All tasks otherwise run to completion without blocking.
+    7) When a worker thread has no work and fails to steal any from others, it backs off (via yields, sleeps, and/or priority adjustment and tries again later unless all workers are known to be similarly idle, in which case they all block until another task is invoked from top-level.
+As explained abouve, the use of LIFO rules for each thread processing its own tasks, but FIFO rules for stealing other tasks is optimal for a wide class of recursive fork/join designs. Less formally, the scheme offers two basic advantages:
+    1) It reduces contention by having stealers operate on the opposite side of the deque as owners.
+    2) It also exploits the property of recursive divide-and-conquer algorithms of generating "large" tasks early. Thus, an older stolen task is likely to provide a larger unit of work, leading to further recursive decompositions by the stealing thread.
+As one consequence of these rules, programs that employ relatively small task granularities for base actions tend to run faster than those that only use coarse-grained partitioning or those that do not use recursive decomposition. Even though relatively few tasks are stolen in most fork/join programs, creating many fine-grained tasks means that a task is likely to be available whenever a worker thread is ready to run it.</t>
+    </r>
+  </si>
+  <si>
+    <t>Abstract base class for tasks that run within a ForkJoinPool. A ForkJoinTask is a lightweight form of Future. The efficiency of ForkJoinTasks stems from a set of restrictions (that are only partially statically enforceable) reflecting their main use as computational tasks calculating pure functions or operating on purely isolated objects. The primary coordination mechanisms are fork, that arranges asynchronous execution, and join, that doesn't proceed until the task's result has been computed.
+A ForkJoinTask is a thread-like entity that is much lighter weight than a normal thread. Huge numbers of tasks and subtasks may be hosted by a small number of actual threads in a ForkJoinPool, at the price of some usage limitations. 
+A "main" ForkJoinTask begins execution when it is explicitly submitted to a ForkJoinPool, or, if not already engaged in a ForkJoin computation, commenced in the ForkJoinPool.commonPool() via fork, invoke, or related methods. Once started, it will usually in turn start other subtasks. As indicated by the name of this class, many programs using ForkJoinTask employ only methods fork and join, or derivatives such as invokeAll.</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>ForkJoinTask</t>
+    </r>
+  </si>
+  <si>
+    <t>Arranges to asynchronously execute this task in the pool the current task is running in, if applicable, or using the ForkJoinPool.commonPool(). While it is not necessarily enforced, it is a usage error to fork a task more than once unless it has completed and been reinitialized. Subsequent modifications to the state of this task or any data it operates on are not necessarily consistently observable by any thread other than the one executing it unless preceded by a call to join or related methods, or a call to isDone returning true.</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.ForkJoinTask.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>fork()</t>
+    </r>
+  </si>
+  <si>
+    <t>Returns the result of the computation when it is done. This method differs from get() in that abnormal completion results in RuntimeException or Error, not ExecutionException, and that interrupts of the calling thread do not cause the method to abruptly return by throwing InterruptedException.</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.ForkJoinTask.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>join()</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A recursive result-bearing ForkJoinTask. </t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>RecursiveTask</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A recursive resultless ForkJoinTask. This class establishes conventions to parameterize resultless actions as Void ForkJoinTasks. Because null is the only valid value of type Void, methods such as join always return null upon completion. </t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>RecursiveAction</t>
+    </r>
+  </si>
+  <si>
+    <t>ip.multithreading.excutorservice</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.Executors.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>newWorkStealingPool(int)</t>
+    </r>
+  </si>
+  <si>
+    <t>Creates a thread pool (ForkJoinPool) that maintains enough threads to support the given parallelism level, and may use multiple queues to reduce contention. The parallelism level corresponds to the maximum number of threads actively engaged in, or available to engage in, task processing. The actual number of threads may grow and shrink dynamically. A work-stealing pool makes no guarantees about the order in which submitted tasks are executed.</t>
+  </si>
+  <si>
+    <t>Creates a thread pool that can schedule commands to run after a given delay, or to execute periodically.</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.Executors.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>newScheduledThreadPool(int)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Lock implementations provide more extensive locking operations than can be obtained using synchronized methods and statements. They allow more flexible structuring, may have quite different properties, and may support multiple associated Condition objects. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A reentrant mutual exclusion Lock with the same basic behavior and semantics as the implicit monitor lock accessed using synchronized methods and statements, but with extended capabilities. 
+A ReentrantLock is owned by the thread last successfully locking, but not yet unlocking it. A thread invoking lock will return, successfully acquiring the lock, when the lock is not owned by another thread. The method will return immediately if the current thread already owns the lock. This can be checked using methods isHeldByCurrentThread, and getHoldCount. 
+The constructor for this class accepts an optional fairness parameter. When set true, under contention, locks favor granting access to the longest-waiting thread. Otherwise this lock does not guarantee any particular access order.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Advantages of ReentrantLock over Synchronization</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>:
+    1) Ability to lock interruptibly.
+    2) Ability to timeout while waiting for lock.
+    3) Power to create fair lock.
+    4) API to get list of waiting thread for lock.
+    5) Flexibility to try for lock without blocking.
+    6) The synchronized block must be fully contained within a single method. A Lock can have it's calls to lock() and unlock() in separate methods.</t>
+    </r>
+  </si>
+  <si>
+    <t>The lock() method locks the Lock instance if possible. If the Lock instance is already locked, the thread calling lock() is blocked until the Lock is unlocked</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.locks.Lock.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>lock()</t>
+    </r>
+  </si>
+  <si>
+    <t>The lockInterruptibly() method locks the Lock unless the thread calling the method has been interrupted. Additionally, if a thread is blocked waiting to lock the Lock via this method, and it is interrupted, it exits this method calls</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.locks.Lock.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>lockInterruptibly()</t>
+    </r>
+  </si>
+  <si>
+    <t>The tryLock() method attempts to lock the Lock instance immediately. It returns true if the locking succeeds, false if Lock is already locked. This method never blocks.</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.locks.Lock.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>tryLock()</t>
+    </r>
+  </si>
+  <si>
+    <t>The tryLock(long, TimeUnit) works like the tryLock() method, except it waits up the given timeout before giving up trying to lock the Lock.</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.locks.Lock.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>tryLock(long, TimeUnit)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.locks.Lock.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>unlock()</t>
+    </r>
+  </si>
+  <si>
+    <t>The unlock() method unlocks the Lock instance. Typically, a Lock implementation will only allow the thread that has locked the Lock to call this method. Other threads calling this method may result in an unchecked exception (RuntimeException)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A ReadWriteLock maintains a pair of associated locks, one for read-only operations and one for writing. The read lock may be held simultaneously by multiple reader threads, so long as there are no writers. The write lock is exclusive. 
+The rules by which a thread is allowed to lock the ReadWriteLock either for reading or writing the guarded resource, are as follows:-
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Read Lock:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> If no threads have locked the ReadWriteLock for writing, and no thread have requested a write lock (but not yet obtained it). Thus, multiple threads can lock the lock for reading.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Write Lock:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> If no threads are reading or writing. Thus, only one thread at a time can lock the lock for writing.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Returns a new Condition instance that is bound to this Lock instance. Before waiting on the condition the lock must be held by the current thread. A call to Condition.await() will atomically release the lock before waiting and re-acquire the lock before the wait returns. </t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.locks.Lock.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>newCondition()</t>
+    </r>
+  </si>
+  <si>
+    <t>ip.multithreading.lock</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3167,6 +3552,15 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
       <scheme val="major"/>
@@ -3531,8 +3925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3577,7 +3971,7 @@
     </row>
     <row r="3" spans="1:5" ht="39">
       <c r="A3" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -3588,7 +3982,7 @@
     </row>
     <row r="4" spans="1:5" ht="64.5">
       <c r="A4" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>38</v>
@@ -3599,7 +3993,7 @@
     </row>
     <row r="5" spans="1:5" ht="39">
       <c r="A5" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -3923,7 +4317,7 @@
         <v>152</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="128.25">
@@ -3937,9 +4331,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="13" t="s">
-        <v>215</v>
+    <row r="34" spans="2:5" ht="314.25" customHeight="1">
+      <c r="B34" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -3960,10 +4357,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3989,8 +4386,16 @@
       </c>
     </row>
     <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -4000,10 +4405,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F159"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4068,7 +4473,7 @@
     </row>
     <row r="4" spans="1:6" ht="26.25">
       <c r="A4" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -4080,12 +4485,12 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="51.75">
       <c r="A5" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -4097,12 +4502,12 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="39">
       <c r="A6" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -4120,7 +4525,7 @@
     </row>
     <row r="7" spans="1:6" ht="26.25">
       <c r="A7" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -4135,7 +4540,7 @@
     </row>
     <row r="8" spans="1:6" ht="26.25">
       <c r="A8" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
@@ -4147,7 +4552,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>28</v>
@@ -4467,7 +4872,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="26.25">
       <c r="A31" s="2" t="s">
         <v>23</v>
       </c>
@@ -4477,554 +4882,560 @@
       <c r="C31" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>332</v>
+      </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="179.25">
-      <c r="A32" s="2"/>
+    <row r="32" spans="1:5" ht="26.25">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B32" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="26.25">
+      <c r="A33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="26.25">
+      <c r="A34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" ht="26.25">
+      <c r="A35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="26.25">
+      <c r="A36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="192">
+      <c r="A38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" ht="51.75">
-      <c r="A34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" ht="39">
-      <c r="A35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="26.25">
-      <c r="A37" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="39">
-      <c r="A38" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="64.5">
-      <c r="A39" s="3" t="s">
-        <v>198</v>
+        <v>333</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="77.25">
+      <c r="A39" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="64.5">
-      <c r="A40" s="3" t="s">
-        <v>198</v>
+        <v>344</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="51.75">
+      <c r="A40" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" ht="51.75">
-      <c r="A41" s="3" t="s">
-        <v>198</v>
+        <v>162</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="39">
+      <c r="A41" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:6" ht="77.25">
-      <c r="A42" s="3" t="s">
-        <v>198</v>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="26.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="26.25">
       <c r="A43" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="39">
+    <row r="44" spans="1:5" ht="39">
       <c r="A44" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" ht="64.5">
+        <v>161</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="64.5">
       <c r="A45" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="51.75">
-      <c r="A46" s="2" t="s">
-        <v>23</v>
+        <v>165</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="64.5">
+      <c r="A46" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="102.75">
-      <c r="A47" s="2" t="s">
-        <v>23</v>
+        <v>168</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="51.75">
+      <c r="A47" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="39">
-      <c r="A48" s="2" t="s">
-        <v>23</v>
+        <v>174</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="77.25">
+      <c r="A48" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="39">
-      <c r="A49" s="2" t="s">
-        <v>23</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="26.25">
+      <c r="A49" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="51.75">
-      <c r="A50" s="2" t="s">
-        <v>23</v>
+        <v>183</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="39">
+      <c r="A50" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" ht="39">
-      <c r="A51" s="2" t="s">
-        <v>23</v>
+    <row r="51" spans="1:6" ht="64.5">
+      <c r="A51" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" ht="26.25">
-      <c r="A52" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="51.75">
+      <c r="A52" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B52" s="2" t="s">
-        <v>254</v>
+        <v>189</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="26.25">
+        <v>215</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="102.75">
       <c r="A53" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="26.25">
+        <v>220</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="39">
       <c r="A54" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" ht="51.75">
+        <v>218</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="39">
       <c r="A55" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" ht="26.25">
+        <v>222</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="51.75">
       <c r="A56" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6" ht="64.5">
       <c r="A57" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" ht="26.25">
+        <v>270</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" ht="26.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" ht="26.25">
+    <row r="60" spans="1:6" ht="64.5">
       <c r="A60" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="26.25">
+        <v>277</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" ht="39">
+    <row r="62" spans="1:6" ht="26.25">
       <c r="A62" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="39">
+        <v>282</v>
+      </c>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" ht="77.25">
       <c r="A63" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="141">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="26.25">
       <c r="A64" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" ht="39">
       <c r="A65" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>292</v>
+        <v>156</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" ht="115.5">
-      <c r="A66" s="2" t="s">
-        <v>23</v>
-      </c>
+    <row r="66" spans="1:5" ht="26.25">
+      <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>295</v>
+        <v>252</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="E66" s="2"/>
     </row>
@@ -5032,495 +5443,609 @@
       <c r="A67" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>299</v>
+      <c r="B67" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>306</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="26.25">
       <c r="A68" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>300</v>
+      <c r="B68" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>301</v>
+        <v>245</v>
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" ht="64.5">
+    <row r="69" spans="1:5" ht="51.75">
       <c r="A69" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>302</v>
+      <c r="B69" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="39">
+        <v>249</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" ht="26.25">
       <c r="A70" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>303</v>
+      <c r="B70" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="115.5">
+        <v>247</v>
+      </c>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" ht="51.75">
+    <row r="72" spans="1:5" ht="26.25">
       <c r="A72" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>308</v>
+        <v>256</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>309</v>
+        <v>254</v>
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" ht="26.25">
       <c r="A73" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="3"/>
+        <v>260</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" ht="26.25">
       <c r="A74" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5">
+        <v>261</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="26.25">
       <c r="A75" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="3"/>
+        <v>262</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" ht="39">
       <c r="A76" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5">
+        <v>263</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="39">
       <c r="A77" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5">
+        <v>265</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="141">
       <c r="A78" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="3"/>
+      <c r="A79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="3"/>
+    <row r="80" spans="1:5" ht="115.5">
+      <c r="A80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="26.25">
+      <c r="A81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="26.25">
+      <c r="A82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>299</v>
+      </c>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:6" ht="64.5">
+    <row r="83" spans="1:5" ht="64.5">
+      <c r="A83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="39">
       <c r="A84" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>273</v>
+      <c r="B84" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="90">
       <c r="A85" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>276</v>
+      <c r="B85" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:6">
+        <v>314</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="128.25">
       <c r="A86" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>278</v>
+      <c r="B86" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:6" ht="64.5">
+        <v>317</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="64.5">
       <c r="A87" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>280</v>
+      <c r="B87" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:6">
+        <v>319</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="39">
       <c r="A88" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>282</v>
+      <c r="B88" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:6" ht="26.25">
+        <v>321</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:6" ht="77.25">
+        <v>323</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="26.25">
       <c r="A90" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E90" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" ht="115.5">
+      <c r="A91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="26.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:6" ht="128.25">
-      <c r="A93" s="3" t="s">
+    <row r="92" spans="1:5" ht="51.75">
+      <c r="A92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="51.75">
+      <c r="A93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="128.25">
+      <c r="A95" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="77.25">
-      <c r="A94" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="64.5">
-      <c r="A95" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="77.25">
+      <c r="A96" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="64.5">
+      <c r="A97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="F97" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>12</v>
-      </c>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
       <c r="D98" s="3"/>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:6">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D100" s="3"/>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:6">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="3"/>
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:6">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="3"/>
       <c r="E102" s="2"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:6">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:6">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="3"/>
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:6">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="3"/>
       <c r="E105" s="2"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:6">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
       <c r="E106" s="2"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:6">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
       <c r="E107" s="2"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:6">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="3"/>
       <c r="E108" s="2"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:6">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
       <c r="E109" s="2"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:6">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:6">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:6">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5850,11 +6375,25 @@
       <c r="E158" s="2"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="5"/>
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="2"/>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5866,7 +6405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -5899,31 +6438,31 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="26.25">
       <c r="A3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -5996,10 +6535,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="26.25">
@@ -6007,10 +6546,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="26.25">
@@ -6018,10 +6557,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -6074,10 +6613,10 @@
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -6150,18 +6689,18 @@
     </row>
     <row r="5" spans="1:4" ht="102.75">
       <c r="B5" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25">
       <c r="B6" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -6206,12 +6745,12 @@
     </row>
     <row r="3" spans="1:3">
       <c r="C3" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="349">
   <si>
     <t>Topic</t>
   </si>
@@ -3462,6 +3462,22 @@
   </si>
   <si>
     <t>ip.multithreading.lock</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.locks.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>ReentrantReadWriteLock</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4405,10 +4421,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4965,7 +4981,9 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B37" s="2" t="s">
         <v>346</v>
       </c>
@@ -5009,99 +5027,95 @@
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" ht="51.75">
+    <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="51.75">
+      <c r="A41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="39">
-      <c r="A41" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5">
+        <v>162</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="39">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="26.25">
-      <c r="A43" s="3" t="s">
-        <v>198</v>
+        <v>158</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="39">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="26.25">
       <c r="A44" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="64.5">
+        <v>159</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="39">
       <c r="A45" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="64.5">
@@ -5109,425 +5123,427 @@
         <v>198</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" ht="51.75">
+        <v>165</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="64.5">
       <c r="A47" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" ht="77.25">
+    <row r="48" spans="1:5" ht="51.75">
       <c r="A48" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="26.25">
+        <v>174</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="77.25">
       <c r="A49" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" ht="39">
+        <v>175</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="26.25">
       <c r="A50" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:6" ht="64.5">
+    <row r="51" spans="1:6" ht="39">
       <c r="A51" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="51.75">
-      <c r="A52" s="2" t="s">
-        <v>23</v>
+        <v>185</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="64.5">
+      <c r="A52" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="102.75">
+        <v>187</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="51.75">
       <c r="A53" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="102.75">
+      <c r="A54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="39">
-      <c r="A54" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>220</v>
       </c>
+      <c r="F54" s="3" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="39">
       <c r="A55" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="39">
+      <c r="A56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="51.75">
-      <c r="A56" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="51.75">
+      <c r="A57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" ht="64.5">
-      <c r="A57" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" ht="64.5">
+      <c r="A58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="64.5">
+    <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" ht="64.5">
       <c r="A61" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:6" ht="26.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D62" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" ht="26.25">
+      <c r="A63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" ht="77.25">
-      <c r="A63" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" s="2" t="s">
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" ht="77.25">
+      <c r="A64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="26.25">
-      <c r="A64" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B64" s="2" t="s">
+    <row r="65" spans="1:5" ht="26.25">
+      <c r="A65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" ht="39">
-      <c r="A65" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D65" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" ht="39">
+      <c r="A66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" ht="26.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2" t="s">
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" ht="26.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" ht="26.25">
-      <c r="A67" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>242</v>
-      </c>
+      <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" ht="26.25">
       <c r="A68" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="26.25">
+      <c r="A69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" ht="51.75">
-      <c r="A69" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" ht="26.25">
+    <row r="70" spans="1:5" ht="51.75">
       <c r="A70" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" ht="26.25">
       <c r="A71" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" ht="26.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E72" s="2"/>
     </row>
@@ -5536,13 +5552,13 @@
         <v>23</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E73" s="2"/>
     </row>
@@ -5551,128 +5567,126 @@
         <v>23</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" ht="26.25">
       <c r="A75" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" ht="39">
+        <v>258</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="26.25">
       <c r="A76" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>286</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" ht="39">
       <c r="A77" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="141">
+    <row r="78" spans="1:5" ht="39">
       <c r="A78" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="141">
+      <c r="A79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" s="2" t="s">
+    <row r="80" spans="1:5">
+      <c r="A80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" ht="115.5">
-      <c r="A80" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" s="2" t="s">
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" ht="115.5">
+      <c r="A81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="26.25">
-      <c r="A81" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>304</v>
@@ -5683,270 +5697,280 @@
         <v>23</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" ht="64.5">
+        <v>296</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="26.25">
       <c r="A83" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="39">
+        <v>299</v>
+      </c>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" ht="64.5">
       <c r="A84" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="90">
+    <row r="85" spans="1:5" ht="39">
       <c r="A85" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="90">
+      <c r="A86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="128.25">
-      <c r="A86" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="64.5">
+    <row r="87" spans="1:5" ht="128.25">
       <c r="A87" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="39">
+    <row r="88" spans="1:5" ht="64.5">
       <c r="A88" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" ht="39">
       <c r="A89" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>324</v>
+      <c r="B89" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="26.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" ht="115.5">
+        <v>323</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="26.25">
       <c r="A91" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>157</v>
+        <v>326</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" ht="115.5">
+      <c r="A92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:5" ht="51.75">
-      <c r="A92" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>327</v>
-      </c>
+      <c r="E92" s="2"/>
     </row>
     <row r="93" spans="1:5" ht="51.75">
       <c r="A93" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" ht="51.75">
       <c r="A94" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D94" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="128.25">
-      <c r="A95" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="77.25">
+    <row r="96" spans="1:5" ht="128.25">
       <c r="A96" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="64.5">
-      <c r="A97" s="2" t="s">
-        <v>23</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="77.25">
+      <c r="A97" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="64.5">
+      <c r="A98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="F98" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="2"/>
@@ -5956,22 +5980,22 @@
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
       <c r="D100" s="3"/>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
+      <c r="A101" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D101" s="3"/>
       <c r="E101" s="2"/>
     </row>
@@ -6389,11 +6413,18 @@
       <c r="E160" s="2"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="5"/>
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="5"/>
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="2"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Others\Kamal\IP\IP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="355">
   <si>
     <t>Topic</t>
   </si>
@@ -3479,12 +3484,71 @@
       <t>ReentrantReadWriteLock</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.atomic.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>AtomicBoolean</t>
+    </r>
+  </si>
+  <si>
+    <t>A boolean value that may be updated atomically</t>
+  </si>
+  <si>
+    <t>Atomically sets the value to the given updated value if the current value == the expected value</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.atomic.AtomicBoolean
+    .</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>compareAndSet(boolean, boolean)</t>
+    </r>
+  </si>
+  <si>
+    <t>Atomically sets to the given value and returns the previous value.</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.atomic.AtomicBoolean
+    .</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>getAndSet(boolean)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3654,6 +3718,115 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2438400</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>533400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>704850</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2562225</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>781050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3697,7 +3870,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3729,9 +3902,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3763,6 +3937,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3938,14 +4113,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="2" bestFit="1" customWidth="1"/>
@@ -3954,7 +4129,7 @@
     <col min="5" max="5" width="97.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3971,7 +4146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="153.75">
+    <row r="2" spans="1:5" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>172</v>
       </c>
@@ -3985,7 +4160,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39">
+    <row r="3" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>226</v>
       </c>
@@ -3996,7 +4171,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="64.5">
+    <row r="4" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>226</v>
       </c>
@@ -4007,7 +4182,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39">
+    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>226</v>
       </c>
@@ -4018,7 +4193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.25">
+    <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -4029,7 +4204,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -4040,7 +4215,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="26.25">
+    <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -4051,7 +4226,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="64.5">
+    <row r="9" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -4065,7 +4240,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="51.75">
+    <row r="10" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -4076,7 +4251,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="39">
+    <row r="11" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -4087,7 +4262,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="51.75">
+    <row r="12" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -4098,7 +4273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="102.75">
+    <row r="13" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -4109,7 +4284,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="26.25">
+    <row r="14" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -4120,7 +4295,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="26.25">
+    <row r="15" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -4131,7 +4306,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="166.5">
+    <row r="16" spans="1:5" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -4145,7 +4320,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="39">
+    <row r="17" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -4159,7 +4334,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="64.5">
+    <row r="18" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -4170,7 +4345,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="26.25">
+    <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -4181,7 +4356,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="64.5">
+    <row r="20" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -4192,7 +4367,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="102.75">
+    <row r="21" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -4203,7 +4378,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="77.25">
+    <row r="22" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -4217,7 +4392,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="39">
+    <row r="23" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -4231,7 +4406,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="26.25">
+    <row r="24" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -4242,7 +4417,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="39">
+    <row r="25" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -4253,7 +4428,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="26.25">
+    <row r="26" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -4264,7 +4439,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="26.25">
+    <row r="27" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -4275,7 +4450,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="26.25">
+    <row r="28" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
@@ -4286,7 +4461,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="51.75">
+    <row r="29" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -4297,7 +4472,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="39">
+    <row r="30" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -4308,7 +4483,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="39">
+    <row r="31" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>23</v>
       </c>
@@ -4319,7 +4494,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="39">
+    <row r="32" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
@@ -4336,7 +4511,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="128.25">
+    <row r="33" spans="2:5" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>197</v>
       </c>
@@ -4347,7 +4522,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="314.25" customHeight="1">
+    <row r="34" spans="2:5" ht="314.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>315</v>
       </c>
@@ -4355,7 +4530,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
@@ -4363,29 +4538,78 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId3"/>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId4"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2438400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>533400</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId6">
+          <objectPr locked="0" defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>704850</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>342900</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2562225</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>781050</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="127.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1">
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4393,7 +4617,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="51.75">
+    <row r="2" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -4401,7 +4625,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -4409,7 +4633,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -4420,14 +4644,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F162"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:A40"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.140625" customWidth="1"/>
@@ -4437,7 +4661,7 @@
     <col min="6" max="6" width="96" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4457,7 +4681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="90">
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>172</v>
       </c>
@@ -4472,7 +4696,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="39">
+    <row r="3" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>172</v>
       </c>
@@ -4487,7 +4711,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25">
+    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>226</v>
       </c>
@@ -4504,7 +4728,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.75">
+    <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>226</v>
       </c>
@@ -4521,7 +4745,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="39">
+    <row r="6" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>226</v>
       </c>
@@ -4539,7 +4763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.25">
+    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>226</v>
       </c>
@@ -4554,7 +4778,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="26.25">
+    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>226</v>
       </c>
@@ -4574,7 +4798,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="26.25">
+    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -4589,7 +4813,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="39">
+    <row r="10" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -4604,7 +4828,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="26.25">
+    <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -4619,7 +4843,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="26.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -4634,7 +4858,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="26.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -4649,7 +4873,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -4664,7 +4888,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -4679,7 +4903,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="26.25">
+    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -4694,7 +4918,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -4709,7 +4933,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="26.25">
+    <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -4724,7 +4948,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="39">
+    <row r="19" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -4739,7 +4963,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="39">
+    <row r="20" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -4754,7 +4978,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="39">
+    <row r="21" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -4769,7 +4993,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -4784,7 +5008,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -4797,7 +5021,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -4810,7 +5034,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -4823,7 +5047,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -4836,7 +5060,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -4849,7 +5073,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
@@ -4862,7 +5086,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -4875,7 +5099,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -4888,7 +5112,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="26.25">
+    <row r="31" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>23</v>
       </c>
@@ -4903,7 +5127,7 @@
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="26.25">
+    <row r="32" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
@@ -4918,7 +5142,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="26.25">
+    <row r="33" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
@@ -4933,7 +5157,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="26.25">
+    <row r="34" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -4948,7 +5172,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="26.25">
+    <row r="35" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>23</v>
       </c>
@@ -4963,7 +5187,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="26.25">
+    <row r="36" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
@@ -4980,7 +5204,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28.5" customHeight="1">
+    <row r="37" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
@@ -4997,7 +5221,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="192">
+    <row r="38" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -5012,7 +5236,7 @@
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="77.25">
+    <row r="39" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>23</v>
       </c>
@@ -5027,7 +5251,7 @@
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>23</v>
       </c>
@@ -5040,7 +5264,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" ht="51.75">
+    <row r="41" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>23</v>
       </c>
@@ -5057,7 +5281,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="39">
+    <row r="42" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
@@ -5072,7 +5296,7 @@
       </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>23</v>
       </c>
@@ -5086,7 +5310,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="26.25">
+    <row r="44" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>198</v>
       </c>
@@ -5101,7 +5325,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" ht="39">
+    <row r="45" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>198</v>
       </c>
@@ -5118,7 +5342,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="64.5">
+    <row r="46" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>198</v>
       </c>
@@ -5135,7 +5359,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="64.5">
+    <row r="47" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>198</v>
       </c>
@@ -5150,7 +5374,7 @@
       </c>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" ht="51.75">
+    <row r="48" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>198</v>
       </c>
@@ -5165,7 +5389,7 @@
       </c>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:6" ht="77.25">
+    <row r="49" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>198</v>
       </c>
@@ -5182,7 +5406,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="26.25">
+    <row r="50" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>198</v>
       </c>
@@ -5197,7 +5421,7 @@
       </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:6" ht="39">
+    <row r="51" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>198</v>
       </c>
@@ -5212,7 +5436,7 @@
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:6" ht="64.5">
+    <row r="52" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>198</v>
       </c>
@@ -5229,7 +5453,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="51.75">
+    <row r="53" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>23</v>
       </c>
@@ -5249,7 +5473,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="102.75">
+    <row r="54" spans="1:6" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>23</v>
       </c>
@@ -5269,7 +5493,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="39">
+    <row r="55" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>23</v>
       </c>
@@ -5286,7 +5510,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="39">
+    <row r="56" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>23</v>
       </c>
@@ -5303,7 +5527,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="51.75">
+    <row r="57" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>23</v>
       </c>
@@ -5318,7 +5542,7 @@
       </c>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="64.5">
+    <row r="58" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>23</v>
       </c>
@@ -5335,7 +5559,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>23</v>
       </c>
@@ -5350,7 +5574,7 @@
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>23</v>
       </c>
@@ -5365,7 +5589,7 @@
       </c>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="64.5">
+    <row r="61" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>23</v>
       </c>
@@ -5380,7 +5604,7 @@
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>23</v>
       </c>
@@ -5395,7 +5619,7 @@
       </c>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:6" ht="26.25">
+    <row r="63" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>23</v>
       </c>
@@ -5410,7 +5634,7 @@
       </c>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:6" ht="77.25">
+    <row r="64" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>23</v>
       </c>
@@ -5427,7 +5651,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="26.25">
+    <row r="65" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>23</v>
       </c>
@@ -5442,7 +5666,7 @@
       </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" ht="39">
+    <row r="66" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>23</v>
       </c>
@@ -5457,7 +5681,7 @@
       </c>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" ht="26.25">
+    <row r="67" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
         <v>252</v>
@@ -5470,7 +5694,7 @@
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" ht="26.25">
+    <row r="68" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>23</v>
       </c>
@@ -5487,7 +5711,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="26.25">
+    <row r="69" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>23</v>
       </c>
@@ -5502,7 +5726,7 @@
       </c>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" ht="51.75">
+    <row r="70" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>23</v>
       </c>
@@ -5517,7 +5741,7 @@
       </c>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" ht="26.25">
+    <row r="71" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>23</v>
       </c>
@@ -5532,7 +5756,7 @@
       </c>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>23</v>
       </c>
@@ -5547,7 +5771,7 @@
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" ht="26.25">
+    <row r="73" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>23</v>
       </c>
@@ -5562,7 +5786,7 @@
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" ht="26.25">
+    <row r="74" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>23</v>
       </c>
@@ -5577,7 +5801,7 @@
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" ht="26.25">
+    <row r="75" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>23</v>
       </c>
@@ -5594,7 +5818,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="26.25">
+    <row r="76" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>23</v>
       </c>
@@ -5609,7 +5833,7 @@
       </c>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" ht="39">
+    <row r="77" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>23</v>
       </c>
@@ -5626,7 +5850,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="39">
+    <row r="78" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>23</v>
       </c>
@@ -5643,7 +5867,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="141">
+    <row r="79" spans="1:5" ht="141" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>23</v>
       </c>
@@ -5660,7 +5884,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>23</v>
       </c>
@@ -5675,7 +5899,7 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" ht="115.5">
+    <row r="81" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>23</v>
       </c>
@@ -5692,7 +5916,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="26.25">
+    <row r="82" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>23</v>
       </c>
@@ -5709,7 +5933,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="26.25">
+    <row r="83" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>23</v>
       </c>
@@ -5724,7 +5948,7 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" ht="64.5">
+    <row r="84" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>23</v>
       </c>
@@ -5741,7 +5965,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="39">
+    <row r="85" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>23</v>
       </c>
@@ -5758,7 +5982,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="90">
+    <row r="86" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>23</v>
       </c>
@@ -5775,7 +5999,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="128.25">
+    <row r="87" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>23</v>
       </c>
@@ -5792,7 +6016,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="64.5">
+    <row r="88" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>23</v>
       </c>
@@ -5809,7 +6033,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="39">
+    <row r="89" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>23</v>
       </c>
@@ -5826,7 +6050,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>23</v>
       </c>
@@ -5843,7 +6067,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="26.25">
+    <row r="91" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>23</v>
       </c>
@@ -5858,7 +6082,7 @@
       </c>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" ht="115.5">
+    <row r="92" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>23</v>
       </c>
@@ -5873,7 +6097,7 @@
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" ht="51.75">
+    <row r="93" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>23</v>
       </c>
@@ -5890,7 +6114,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="51.75">
+    <row r="94" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>23</v>
       </c>
@@ -5907,7 +6131,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>23</v>
       </c>
@@ -5924,7 +6148,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="128.25">
+    <row r="96" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>198</v>
       </c>
@@ -5938,7 +6162,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="77.25">
+    <row r="97" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>198</v>
       </c>
@@ -5952,479 +6176,521 @@
         <v>211</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="64.5">
-      <c r="A98" s="2" t="s">
-        <v>23</v>
+    <row r="98" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>22</v>
+        <v>349</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="1:6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D101" s="3"/>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="D101" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="3"/>
       <c r="E102" s="2"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D104" s="3"/>
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="3"/>
       <c r="E105" s="2"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
       <c r="E106" s="2"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="3"/>
       <c r="E107" s="2"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="3"/>
       <c r="E108" s="2"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
       <c r="E109" s="2"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="3"/>
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
       <c r="E112" s="2"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="3"/>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
       <c r="E116" s="2"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="3"/>
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
       <c r="E120" s="2"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
       <c r="E121" s="2"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
       <c r="E122" s="2"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
       <c r="E125" s="2"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="3"/>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3"/>
       <c r="E127" s="2"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
       <c r="E129" s="2"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="3"/>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3"/>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
       <c r="E135" s="2"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="3"/>
       <c r="E137" s="2"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="3"/>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
       <c r="E143" s="2"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
       <c r="E144" s="2"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="3"/>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="3"/>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
       <c r="E153" s="2"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
       <c r="E154" s="2"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="3"/>
       <c r="E157" s="2"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
       <c r="E160" s="2"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
       <c r="E161" s="2"/>
     </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="5"/>
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="5"/>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="2"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="2"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6433,14 +6699,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -6450,7 +6716,7 @@
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6467,7 +6733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>236</v>
       </c>
@@ -6482,7 +6748,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="26.25">
+    <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>236</v>
       </c>
@@ -6497,7 +6763,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="90">
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>172</v>
       </c>
@@ -6511,7 +6777,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>172</v>
       </c>
@@ -6525,7 +6791,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.25">
+    <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -6536,7 +6802,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="77.25">
+    <row r="7" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -6547,7 +6813,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="26.25">
+    <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -6561,7 +6827,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="26.25">
+    <row r="9" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -6572,7 +6838,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="26.25">
+    <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -6583,7 +6849,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="26.25">
+    <row r="11" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -6600,14 +6866,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="2" bestFit="1" customWidth="1"/>
@@ -6615,7 +6881,7 @@
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6627,7 +6893,7 @@
       </c>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>172</v>
       </c>
@@ -6639,7 +6905,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -6656,14 +6922,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="110.85546875" style="3" customWidth="1"/>
@@ -6671,7 +6937,7 @@
     <col min="4" max="4" width="46" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6685,7 +6951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="90">
+    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>172</v>
       </c>
@@ -6696,7 +6962,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="64.5">
+    <row r="3" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -6710,7 +6976,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -6718,7 +6984,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="102.75">
+    <row r="5" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>307</v>
       </c>
@@ -6726,7 +6992,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.25">
+    <row r="6" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>309</v>
       </c>
@@ -6741,21 +7007,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="107.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6766,7 +7032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -6774,12 +7040,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="11" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="11" t="s">
         <v>235</v>
       </c>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="376">
   <si>
     <t>Topic</t>
   </si>
@@ -3541,6 +3541,226 @@
         <scheme val="major"/>
       </rPr>
       <t>getAndSet(boolean)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.atomic.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>AtomicInteger</t>
+    </r>
+  </si>
+  <si>
+    <t>An int value that may be updated atomically. An AtomicInteger is used in applications such as atomically incremented counters, and cannot be used as a replacement for an java.lang.Integer. However, this class does extend Number to allow uniform access by tools and utilities that deal with numerically-based classes</t>
+  </si>
+  <si>
+    <t>Adds a number to the AtomicInteger and returns its value after the addition</t>
+  </si>
+  <si>
+    <t>Adds a number to the AtomicInteger but returns the value the AtomicInteger had before the value was added</t>
+  </si>
+  <si>
+    <t>Increment the current value but returns the value before the value was incremented</t>
+  </si>
+  <si>
+    <t>Increment the current value and return the incremented value.</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.atomic.AtomicInteger.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>addAndGet(int)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.atomic.AtomicInteger.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>getAndAdd(int)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.atomic.AtomicInteger.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>getAndIncrement()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.atomic.AtomicInteger.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>incrementAndGet()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.atomic.AtomicInteger.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>getAndSet(int)</t>
+    </r>
+  </si>
+  <si>
+    <t>Atomically sets to the given value and returns the old value.</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.atomic.AtomicInteger.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>compareAndSet(int, int)</t>
+    </r>
+  </si>
+  <si>
+    <t>A long value that may be updated atomically. An AtomicLong is used in applications such as atomically incremented sequence numbers, and cannot be used as a replacement for a java.lang.Long. However, this class does extend Number to allow uniform access by tools and utilities that deal with numerically-based classes.</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.atomic.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>AtomicLong</t>
+    </r>
+  </si>
+  <si>
+    <t>An object reference that may be updated atomically.</t>
+  </si>
+  <si>
+    <r>
+      <t>java.util.concurrent.atomic.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>AtomicReference</t>
+    </r>
+  </si>
+  <si>
+    <t>Non-blocking algorithm</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Non-blocking algorithms in the context of concurrency are algorithms that allows threads to access shared state (or otherwise collaborate or communicate) without blocking the threads involved. In more general terms, an algorithm is said to be non-blocking if the suspension of one thread cannot lead to the suspension of other threads involved in the algorithm.
+A non-blocking concurrency algorithm is an algorithm which either </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Performs the action requested by the thread or Notifies the requesting thread that the action could not be performed</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Blocking algorithm</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A blocking concurrency algorithm is an algorithm which either </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Performs the action requested by the thread or Blocks the thread until the action can be performed safely.</t>
     </r>
   </si>
 </sst>
@@ -4114,10 +4334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4320,7 +4540,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -4334,7 +4554,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -4345,7 +4565,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -4356,7 +4576,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -4367,7 +4587,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -4378,7 +4598,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -4392,7 +4612,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -4406,7 +4626,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -4417,7 +4637,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -4428,7 +4648,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -4439,7 +4659,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -4450,7 +4670,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
@@ -4461,7 +4681,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -4472,66 +4692,88 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="33" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="2" t="s">
+    <row r="34" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="s">
+    <row r="35" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="314.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
+    <row r="36" spans="1:5" ht="314.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4645,16 +4887,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:F174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.140625" customWidth="1"/>
+    <col min="2" max="2" width="60.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="109.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="38.42578125" bestFit="1" customWidth="1"/>
@@ -6218,94 +6460,151 @@
         <v>353</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>22</v>
+    <row r="101" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="F110" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="3"/>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="2"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
@@ -6322,9 +6621,15 @@
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
+      <c r="A113" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D113" s="3"/>
       <c r="E113" s="2"/>
     </row>
@@ -6686,11 +6991,74 @@
       <c r="E164" s="2"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="5"/>
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="5"/>
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="2"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="2"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="2"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="2"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="2"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Others\Kamal\IP\IP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -18,14 +13,15 @@
     <sheet name="Exceptions" sheetId="3" r:id="rId4"/>
     <sheet name="Abbrevations" sheetId="4" r:id="rId5"/>
     <sheet name="Tricky Questions" sheetId="5" r:id="rId6"/>
-    <sheet name="References" sheetId="6" r:id="rId7"/>
+    <sheet name="Tools" sheetId="8" r:id="rId7"/>
+    <sheet name="References" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="451">
   <si>
     <t>Topic</t>
   </si>
@@ -3763,12 +3759,702 @@
       <t>Performs the action requested by the thread or Blocks the thread until the action can be performed safely.</t>
     </r>
   </si>
+  <si>
+    <t>Memory management is the process of allocating new objects and removing unused objects to make space for those new object allocations.</t>
+  </si>
+  <si>
+    <t>When Garbage collection is performed in PermGen or Metaspace?</t>
+  </si>
+  <si>
+    <t>How Metaspace is different from PermGen?</t>
+  </si>
+  <si>
+    <t>Where exactly is String pool stored? In Heap Memory or PermGen/Metaspace?</t>
+  </si>
+  <si>
+    <t>Difference between Method area and PermGen</t>
+  </si>
+  <si>
+    <t>javap</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Java tool</t>
+  </si>
+  <si>
+    <t>JD-Eclipse</t>
+  </si>
+  <si>
+    <t>Eclipse plugin</t>
+  </si>
+  <si>
+    <t>ObjectAid</t>
+  </si>
+  <si>
+    <t>UML plugin</t>
+  </si>
+  <si>
+    <t>javac</t>
+  </si>
+  <si>
+    <t>Java Compiler</t>
+  </si>
+  <si>
+    <t>Java Decompiler plugin</t>
+  </si>
+  <si>
+    <t>The javap command disassembles a class file. It displays information about the fields, constructors and methods present in a class file. It can also show bytecodes form compiled class files. When executed with -c option , it will print bytecodes of  class file</t>
+  </si>
+  <si>
+    <t>Java Virtual Machine</t>
+  </si>
+  <si>
+    <t>For each type it loads, a Java virtual machine must store a constant pool. A constant pool is an ordered set of constants used by the type, including literals (string, integer, and floating point constants) and symbolic references to types, fields, and methods. Entries in the constant pool are referenced by index, much like the elements of an array. Because it holds symbolic references to all types, fields, and methods used by a type, the constant pool plays a central role in the dynamic linking of Java programs.</t>
+  </si>
+  <si>
+    <t>Java Runtime Constant Pool</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>jconsole</t>
+  </si>
+  <si>
+    <t>JNI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">ava </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">ative </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>nvocation</t>
+    </r>
+  </si>
+  <si>
+    <t>Depends on JVM implementation but usually PermGen is collected every time the old generation is collected. They are both collected when either becomes full.</t>
+  </si>
+  <si>
+    <t>JIT compiler</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>ust-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>n-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>ime complier</t>
+    </r>
+  </si>
+  <si>
+    <t>Just-In-Time compiler</t>
+  </si>
+  <si>
+    <t>The Just-In-Time (JIT) compiler is a component of the Java Runtime Environment that improves the performance of Java applications at run time.
+Java programs consists of classes, which contain platform-neutral bytecodes that can be interpreted by a JVM on many different computer architectures. At run time, the JVM loads the class files, determines the semantics of each individual bytecode, and performs the appropriate computation. The additional processor and memory usage during interpretation means that a Java application performs more slowly than a native application. The JIT compiler helps improve the performance of Java programs by compiling bytecodes into native machine code at run time.
+The JIT compiler is enabled by default, and is activated when a Java method is called. The JIT compiler compiles the bytecodes of that method into native machine code, compiling it "just in time" to run. When a method has been compiled, the JVM calls the compiled code of that method directly instead of interpreting it.</t>
+  </si>
+  <si>
+    <t>Just-In-Time Compilation</t>
+  </si>
+  <si>
+    <t>Java byte code is interpreted however this is not as fast as directly executing native code on the JVM’s host CPU. To improve performance the Oracle Hotspot VM looks for “hot” areas of byte code that are executed regularly and compiles these to native code. The native code is then stored in the code cache in non-heap memory. In this way the Hotspot VM tries to choose the most appropriate way to trade-off the extra time it takes to compile code verses the extra time it take to execute interpreted code</t>
+  </si>
+  <si>
+    <t>JDK</t>
+  </si>
+  <si>
+    <t>JRE</t>
+  </si>
+  <si>
+    <t>JVM</t>
+  </si>
+  <si>
+    <t>Bootstrap classloader</t>
+  </si>
+  <si>
+    <t>Class Loading</t>
+  </si>
+  <si>
+    <t>Class Loading is the process of finding the class file that represents the class or interface type with a particular name and reading it into a byte array. Next the bytes are parsed to confirm they represent a Class object and have the correct major and minor versions. Any class or interface named as a direct superclass is also loaded.</t>
+  </si>
+  <si>
+    <t>System Classloader</t>
+  </si>
+  <si>
+    <t>Extension Classloader</t>
+  </si>
+  <si>
+    <t>User Defined Classloaders</t>
+  </si>
+  <si>
+    <t>User Defined Classloaders can alternatively be used to load application classes. A user defined classloader is used for a number of special reasons including run time reloading of classes or separation between different groups of loaded classes typically required by web servers such as Tomcat</t>
+  </si>
+  <si>
+    <t>JVM Internal Architecture</t>
+  </si>
+  <si>
+    <t>When a JVM starts up, a special chunk of machine code runs that loads the system classloader. This machine code is known as the Bootstrap classloader. The bootstrap classloader is platform specific machine instructions that kick off the whole classloading process. It also takes care of loading all of the code needed to support the basic Java Runtime Environment (JRE), including classes in the java.util and the java.lang packages. 
+It usually loads core java API classes present in JAVA_HOME/jre/lib directory</t>
+  </si>
+  <si>
+    <t>It is child of bootstrap class loader. It loads the classes present in the extensions directories JAVA_HOME/jre/lib/ext(Extension path) or any other directory specified by the java.ext.dirs system property. It is implemented in java.</t>
+  </si>
+  <si>
+    <t>System Classloader is child of extension class loader. It is responsible to load classes from application class path. It internally uses Environment Variable which mapped to java.class.path. It is also implemented in Java.</t>
+  </si>
+  <si>
+    <t>The role of the JVM is to read the Java application through the Class Loader and execute it along with the Java API
+A Java virtual machine (JVM), an implementation of the Java Virtual Machine Specification, interprets compiled Java binary code (called bytecode) for a computer's processor (or "hardware platform") so that it can perform a Java program's instructions. Java was designed to allow application programs to be built that could be run on any platform without having to be rewritten or recompiled by the programmer for each separate platform. A Java virtual machine makes this possible because it is aware of the specific instruction lengths and other particularities of the platform</t>
+  </si>
+  <si>
+    <t>Internal components of JVM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Internal components of a typical JVM:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> Stack Memory
+             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> Program Counter (PC)
+             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> Stack containing Frame
+             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>c)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> Native Stack
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> Heap Memory:
+             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> Young Generation
+                     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> i)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> Eden and Survivor
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> Old Generation (also called Tenured Generation)
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> Non-Heap Memory:
+             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> Permanent Generation
+                     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> i)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> Method Area
+                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> ii)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> Interned Strings
+             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> Code Cache</t>
+    </r>
+  </si>
+  <si>
+    <t>Java Stack memory is used for execution of a thread. They contain method specific values that are short-lived and references to other objects in the heap that are getting referred from the method</t>
+  </si>
+  <si>
+    <t>Stack Memory</t>
+  </si>
+  <si>
+    <t>Program Counter</t>
+  </si>
+  <si>
+    <t>Address of the current instruction (or opcode) unless it is native. If the current method is native then the PC is undefined. All CPUs have a PC, typically the PC is incremented after each instruction and therefore holds the address of the next instruction to be executed. The JVM uses the PC to keep track of where it is executing instructions, the PC will in fact be pointing at a memory address in the Method Area.</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Each thread has its own stack that holds a frame for each method executing on that thread. The stack is a Last In First Out (LIFO) data structure, so the currently executing method is at the top of the stack. A new frame is created and added (pushed) to the top of stack for every method invocation. The frame is removed (popped) when the method returns normally or if an uncaught exception is thrown during the method invocation. The stack is not directly manipulated, except to push and pop frame objects, and therefore the frame objects may be allocated in the Heap and the memory does not need to be contiguous.</t>
+  </si>
+  <si>
+    <t>Native Stack</t>
+  </si>
+  <si>
+    <t>Not all JVMs support native methods, however, those that do typically create a per thread native method stack. If a JVM has been implemented using a C-linkage model for Java Native Invocation (JNI) then the native stack will be a C stack. In this case the order of arguments and return value will be identical in the native stack to typical C program</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>A new frame is created and added (pushed) to the top of stack for every method invocation. The frame is removed (popped) when the method returns normally or if an uncaught exception is thrown during the method invocation.
+Each frame contains:
+    1) Local variable array
+    2) Return value
+    3) Operand stack
+    4) Reference to runtime constant pool for class of the current method</t>
+  </si>
+  <si>
+    <t>Local Variables Array</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The array of local variables contains all the variables used during the execution of the method, including a reference to this, all method parameters and other locally defined variables
+A local variable can be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">boolean, byte,char, long, short, int, float, double, reference, returnAddress
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>All types take a single slot in the local variable array except long and double which both take two consecutive slots because these types are double width (64-bit instead of 32-bit).</t>
+    </r>
+  </si>
+  <si>
+    <t>Operand Stack</t>
+  </si>
+  <si>
+    <t>The operand stack is used during the execution of byte code instructions in a similar way that general-purpose registers are used in a native CPU. Most JVM byte code spends its time manipulating the operand stack by pushing, popping, duplicating, swapping, or executing operations that produce or consume values. Therefore, instructions that move values between the array of local variables and the operand stack are very frequent in byte code.</t>
+  </si>
+  <si>
+    <t>Runtime Constant Pool</t>
+  </si>
+  <si>
+    <t>The Heap is used to allocate class instances and arrays at runtime. Arrays and objects can never be stored on the stack because a frame is not designed to change in size after it has been created. The frame only stores references that point to objects or arrays on the heap. Unlike primitive variables and references in the local variable array (in each frame) objects are always stored on the heap so they are not removed when a method ends. Instead objects are only removed by the garbage collector.</t>
+  </si>
+  <si>
+    <t>Heap Memory</t>
+  </si>
+  <si>
+    <t>Non-Heap Memory</t>
+  </si>
+  <si>
+    <t>Objects that are logically considered as part of the JVM mechanics are not created on the Heap.
+The non-heap memory includes Permanent Generation (that contains Method area and Interned strings) and Code Cache</t>
+  </si>
+  <si>
+    <t>Permanent Generation</t>
+  </si>
+  <si>
+    <t>Method area</t>
+  </si>
+  <si>
+    <t>Interned strings</t>
+  </si>
+  <si>
+    <t>Code Cache</t>
+  </si>
+  <si>
+    <t>It is used for compilation and storage of methods that have been compiled to native code by the JIT compiler</t>
+  </si>
+  <si>
+    <t>String interning is a method of storing only one copy of each distinct string value, which must be immutable. Interning strings makes some string processing tasks more time or space efficient at the cost of requiring more time when the string is created or interned. The distinct values are stored in a string intern pool</t>
+  </si>
+  <si>
+    <t>Old Generation Space</t>
+  </si>
+  <si>
+    <t>Young Generation space</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3865,6 +4551,21 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3890,7 +4591,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3920,6 +4621,14 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3936,115 +4645,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>2438400</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>533400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>2562225</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>781050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1027"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4090,7 +4690,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4122,10 +4722,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4157,7 +4756,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4333,14 +4931,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="2" bestFit="1" customWidth="1"/>
@@ -4349,7 +4947,7 @@
     <col min="5" max="5" width="97.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4366,492 +4964,744 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="153.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:5" ht="90">
+      <c r="A3" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="179.25">
+      <c r="A4" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="26.25">
+      <c r="A5" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="51.75">
+      <c r="A6" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="77.25">
+      <c r="A7" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="39">
+      <c r="A8" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="90">
+      <c r="A9" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="64.5">
+      <c r="A10" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="51.75">
+      <c r="A11" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="64.5">
+      <c r="A12" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="26.25">
+      <c r="A15" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="64.5">
+      <c r="A18" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="39">
+      <c r="A19" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="39">
+      <c r="A25" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="64.5">
+      <c r="A26" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="39">
+      <c r="A27" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="26.25">
+      <c r="A28" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="39">
+      <c r="A29" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="64.5">
+      <c r="A30" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="128.25">
+      <c r="A31" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="64.5">
+      <c r="A40" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="26.25">
+      <c r="A41" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="39">
+      <c r="A42" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="64.5">
+      <c r="A43" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="39">
+      <c r="A44" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="153.75">
+      <c r="A45" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="46" spans="1:5" ht="26.25">
+      <c r="A46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="48" spans="1:5" ht="26.25">
+      <c r="A48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="49" spans="1:4" ht="64.5">
+      <c r="A49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="50" spans="1:4" ht="51.75">
+      <c r="A50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="51" spans="1:4" ht="39">
+      <c r="A51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="52" spans="1:4" ht="51.75">
+      <c r="A52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="53" spans="1:4" ht="102.75">
+      <c r="A53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="54" spans="1:4" ht="26.25">
+      <c r="A54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="55" spans="1:4" ht="26.25">
+      <c r="A55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="166.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="56" spans="1:4" ht="166.5">
+      <c r="A56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="57" spans="1:4" ht="39">
+      <c r="A57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="58" spans="1:4" ht="64.5">
+      <c r="A58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="59" spans="1:4" ht="26.25">
+      <c r="A59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="60" spans="1:4" ht="64.5">
+      <c r="A60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="61" spans="1:4" ht="102.75">
+      <c r="A61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="62" spans="1:4" ht="77.25">
+      <c r="A62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    <row r="63" spans="1:4" ht="39">
+      <c r="A63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    <row r="64" spans="1:4" ht="26.25">
+      <c r="A64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    <row r="65" spans="1:5" ht="39">
+      <c r="A65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="66" spans="1:5" ht="26.25">
+      <c r="A66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="67" spans="1:5" ht="26.25">
+      <c r="A67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="68" spans="1:5" ht="26.25">
+      <c r="A68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="69" spans="1:5" ht="51.75">
+      <c r="A69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    <row r="70" spans="1:5" ht="77.25">
+      <c r="A70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="71" spans="1:5" ht="26.25">
+      <c r="A71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="2" t="s">
+    <row r="72" spans="1:5" ht="39">
+      <c r="A72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="2" t="s">
+    <row r="73" spans="1:5" ht="39">
+      <c r="A73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="2" t="s">
+    <row r="74" spans="1:5" ht="39">
+      <c r="A74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="B35" s="13" t="s">
+    <row r="75" spans="1:5" ht="128.25">
+      <c r="B75" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="314.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+    <row r="76" spans="1:5" ht="314.25" customHeight="1">
+      <c r="B76" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+    <row r="79" spans="1:5">
+      <c r="B79" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2438400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>533400</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId6">
-          <objectPr locked="0" defaultSize="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>342900</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2562225</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>781050</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId3"/>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId4"/>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId5"/>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1033" r:id="rId6"/>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId7"/>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="127.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="4" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4859,7 +5709,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="51.75">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -4867,7 +5717,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -4875,7 +5725,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -4886,14 +5736,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F174"/>
   <sheetViews>
     <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.140625" bestFit="1" customWidth="1"/>
@@ -4903,7 +5753,7 @@
     <col min="6" max="6" width="96" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4923,7 +5773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="90">
       <c r="A2" s="2" t="s">
         <v>172</v>
       </c>
@@ -4938,7 +5788,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="39">
       <c r="A3" s="2" t="s">
         <v>172</v>
       </c>
@@ -4953,7 +5803,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="26.25">
       <c r="A4" s="2" t="s">
         <v>226</v>
       </c>
@@ -4970,7 +5820,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="51.75">
       <c r="A5" s="2" t="s">
         <v>226</v>
       </c>
@@ -4987,7 +5837,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="39">
       <c r="A6" s="2" t="s">
         <v>226</v>
       </c>
@@ -5005,7 +5855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="26.25">
       <c r="A7" s="2" t="s">
         <v>226</v>
       </c>
@@ -5020,7 +5870,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="26.25">
       <c r="A8" s="2" t="s">
         <v>226</v>
       </c>
@@ -5040,7 +5890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="26.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -5055,7 +5905,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="39">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -5070,7 +5920,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="26.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -5085,7 +5935,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -5100,7 +5950,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -5115,7 +5965,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -5130,7 +5980,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -5145,7 +5995,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="26.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -5160,7 +6010,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -5175,7 +6025,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="26.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -5190,7 +6040,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="39">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -5205,7 +6055,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="39">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -5220,7 +6070,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="39">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -5235,7 +6085,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -5250,7 +6100,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -5263,7 +6113,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -5276,7 +6126,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -5289,7 +6139,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -5302,7 +6152,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -5315,7 +6165,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
@@ -5328,7 +6178,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -5341,7 +6191,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -5354,7 +6204,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="26.25">
       <c r="A31" s="2" t="s">
         <v>23</v>
       </c>
@@ -5369,7 +6219,7 @@
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="26.25">
       <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
@@ -5384,7 +6234,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="26.25">
       <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
@@ -5399,7 +6249,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="26.25">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -5414,7 +6264,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="26.25">
       <c r="A35" s="2" t="s">
         <v>23</v>
       </c>
@@ -5429,7 +6279,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="26.25">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
@@ -5446,7 +6296,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="28.5" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
@@ -5463,7 +6313,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="192">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -5478,7 +6328,7 @@
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="77.25">
       <c r="A39" s="2" t="s">
         <v>23</v>
       </c>
@@ -5493,7 +6343,7 @@
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
         <v>23</v>
       </c>
@@ -5506,7 +6356,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="51.75">
       <c r="A41" s="2" t="s">
         <v>23</v>
       </c>
@@ -5523,7 +6373,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="39">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
@@ -5538,7 +6388,7 @@
       </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>23</v>
       </c>
@@ -5552,7 +6402,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="26.25">
       <c r="A44" s="3" t="s">
         <v>198</v>
       </c>
@@ -5567,7 +6417,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="39">
       <c r="A45" s="3" t="s">
         <v>198</v>
       </c>
@@ -5584,7 +6434,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="64.5">
       <c r="A46" s="3" t="s">
         <v>198</v>
       </c>
@@ -5601,7 +6451,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="64.5">
       <c r="A47" s="3" t="s">
         <v>198</v>
       </c>
@@ -5616,7 +6466,7 @@
       </c>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="51.75">
       <c r="A48" s="3" t="s">
         <v>198</v>
       </c>
@@ -5631,7 +6481,7 @@
       </c>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="77.25">
       <c r="A49" s="3" t="s">
         <v>198</v>
       </c>
@@ -5648,7 +6498,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="26.25">
       <c r="A50" s="3" t="s">
         <v>198</v>
       </c>
@@ -5663,7 +6513,7 @@
       </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="39">
       <c r="A51" s="3" t="s">
         <v>198</v>
       </c>
@@ -5678,7 +6528,7 @@
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="64.5">
       <c r="A52" s="3" t="s">
         <v>198</v>
       </c>
@@ -5695,7 +6545,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="51.75">
       <c r="A53" s="2" t="s">
         <v>23</v>
       </c>
@@ -5715,7 +6565,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="102.75">
       <c r="A54" s="2" t="s">
         <v>23</v>
       </c>
@@ -5735,7 +6585,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="39">
       <c r="A55" s="2" t="s">
         <v>23</v>
       </c>
@@ -5752,7 +6602,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="39">
       <c r="A56" s="2" t="s">
         <v>23</v>
       </c>
@@ -5769,7 +6619,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="51.75">
       <c r="A57" s="2" t="s">
         <v>23</v>
       </c>
@@ -5784,7 +6634,7 @@
       </c>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="64.5">
       <c r="A58" s="2" t="s">
         <v>23</v>
       </c>
@@ -5801,7 +6651,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
         <v>23</v>
       </c>
@@ -5816,7 +6666,7 @@
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
         <v>23</v>
       </c>
@@ -5831,7 +6681,7 @@
       </c>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="64.5">
       <c r="A61" s="2" t="s">
         <v>23</v>
       </c>
@@ -5846,7 +6696,7 @@
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
         <v>23</v>
       </c>
@@ -5861,7 +6711,7 @@
       </c>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="26.25">
       <c r="A63" s="2" t="s">
         <v>23</v>
       </c>
@@ -5876,7 +6726,7 @@
       </c>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="77.25">
       <c r="A64" s="2" t="s">
         <v>23</v>
       </c>
@@ -5893,7 +6743,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="26.25">
       <c r="A65" s="2" t="s">
         <v>23</v>
       </c>
@@ -5908,7 +6758,7 @@
       </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="39">
       <c r="A66" s="2" t="s">
         <v>23</v>
       </c>
@@ -5923,7 +6773,7 @@
       </c>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="26.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
         <v>252</v>
@@ -5936,7 +6786,7 @@
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="26.25">
       <c r="A68" s="2" t="s">
         <v>23</v>
       </c>
@@ -5953,7 +6803,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="26.25">
       <c r="A69" s="2" t="s">
         <v>23</v>
       </c>
@@ -5968,7 +6818,7 @@
       </c>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="51.75">
       <c r="A70" s="2" t="s">
         <v>23</v>
       </c>
@@ -5983,7 +6833,7 @@
       </c>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="26.25">
       <c r="A71" s="2" t="s">
         <v>23</v>
       </c>
@@ -5998,7 +6848,7 @@
       </c>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
         <v>23</v>
       </c>
@@ -6013,7 +6863,7 @@
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="26.25">
       <c r="A73" s="2" t="s">
         <v>23</v>
       </c>
@@ -6028,7 +6878,7 @@
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="26.25">
       <c r="A74" s="2" t="s">
         <v>23</v>
       </c>
@@ -6043,7 +6893,7 @@
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="26.25">
       <c r="A75" s="2" t="s">
         <v>23</v>
       </c>
@@ -6060,7 +6910,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="26.25">
       <c r="A76" s="2" t="s">
         <v>23</v>
       </c>
@@ -6075,7 +6925,7 @@
       </c>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="39">
       <c r="A77" s="2" t="s">
         <v>23</v>
       </c>
@@ -6092,7 +6942,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="39">
       <c r="A78" s="2" t="s">
         <v>23</v>
       </c>
@@ -6109,7 +6959,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="141" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="141">
       <c r="A79" s="2" t="s">
         <v>23</v>
       </c>
@@ -6126,7 +6976,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
         <v>23</v>
       </c>
@@ -6141,7 +6991,7 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="115.5">
       <c r="A81" s="2" t="s">
         <v>23</v>
       </c>
@@ -6158,7 +7008,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="26.25">
       <c r="A82" s="2" t="s">
         <v>23</v>
       </c>
@@ -6175,7 +7025,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="26.25">
       <c r="A83" s="2" t="s">
         <v>23</v>
       </c>
@@ -6190,7 +7040,7 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="64.5">
       <c r="A84" s="2" t="s">
         <v>23</v>
       </c>
@@ -6207,7 +7057,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="39">
       <c r="A85" s="2" t="s">
         <v>23</v>
       </c>
@@ -6224,7 +7074,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="90">
       <c r="A86" s="2" t="s">
         <v>23</v>
       </c>
@@ -6241,7 +7091,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="128.25">
       <c r="A87" s="2" t="s">
         <v>23</v>
       </c>
@@ -6258,7 +7108,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="64.5">
       <c r="A88" s="2" t="s">
         <v>23</v>
       </c>
@@ -6275,7 +7125,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="39">
       <c r="A89" s="2" t="s">
         <v>23</v>
       </c>
@@ -6292,7 +7142,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
         <v>23</v>
       </c>
@@ -6309,7 +7159,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="26.25">
       <c r="A91" s="2" t="s">
         <v>23</v>
       </c>
@@ -6324,7 +7174,7 @@
       </c>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="115.5">
       <c r="A92" s="2" t="s">
         <v>23</v>
       </c>
@@ -6339,7 +7189,7 @@
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="51.75">
       <c r="A93" s="2" t="s">
         <v>23</v>
       </c>
@@ -6356,7 +7206,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="51.75">
       <c r="A94" s="2" t="s">
         <v>23</v>
       </c>
@@ -6373,7 +7223,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
         <v>23</v>
       </c>
@@ -6390,7 +7240,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="128.25">
       <c r="A96" s="3" t="s">
         <v>198</v>
       </c>
@@ -6404,7 +7254,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="77.25">
       <c r="A97" s="3" t="s">
         <v>198</v>
       </c>
@@ -6418,7 +7268,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="26.25">
       <c r="A98" s="3" t="s">
         <v>198</v>
       </c>
@@ -6432,7 +7282,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="26.25">
       <c r="A99" s="3" t="s">
         <v>198</v>
       </c>
@@ -6446,7 +7296,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="26.25">
       <c r="A100" s="3" t="s">
         <v>198</v>
       </c>
@@ -6460,7 +7310,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="39">
       <c r="A101" s="3" t="s">
         <v>198</v>
       </c>
@@ -6474,7 +7324,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="26.25">
       <c r="A102" s="3" t="s">
         <v>198</v>
       </c>
@@ -6488,7 +7338,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="26.25">
       <c r="A103" s="3" t="s">
         <v>198</v>
       </c>
@@ -6502,7 +7352,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="26.25">
       <c r="A104" s="3" t="s">
         <v>198</v>
       </c>
@@ -6516,7 +7366,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="26.25">
       <c r="A105" s="3" t="s">
         <v>198</v>
       </c>
@@ -6530,7 +7380,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="26.25">
       <c r="A106" s="3" t="s">
         <v>198</v>
       </c>
@@ -6544,7 +7394,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="26.25">
       <c r="A107" s="3" t="s">
         <v>198</v>
       </c>
@@ -6558,7 +7408,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="39">
       <c r="A108" s="3" t="s">
         <v>198</v>
       </c>
@@ -6572,7 +7422,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109" s="2" t="s">
         <v>23</v>
       </c>
@@ -6586,7 +7436,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="64.5">
       <c r="A110" s="2" t="s">
         <v>23</v>
       </c>
@@ -6606,21 +7456,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
       <c r="E112" s="2"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
         <v>153</v>
       </c>
@@ -6633,427 +7483,427 @@
       <c r="D113" s="3"/>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
       <c r="E116" s="2"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="3"/>
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
       <c r="E120" s="2"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
       <c r="E121" s="2"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
       <c r="E122" s="2"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
       <c r="E125" s="2"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="3"/>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3"/>
       <c r="E127" s="2"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
       <c r="E129" s="2"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="3"/>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3"/>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
       <c r="E135" s="2"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="3"/>
       <c r="E137" s="2"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="3"/>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
       <c r="E143" s="2"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
       <c r="E144" s="2"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="3"/>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="3"/>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
       <c r="E153" s="2"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
       <c r="E154" s="2"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="3"/>
       <c r="E157" s="2"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
       <c r="E160" s="2"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
       <c r="E161" s="2"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="3"/>
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="3"/>
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="3"/>
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
       <c r="E172" s="2"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -7067,14 +7917,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -7084,7 +7934,7 @@
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7101,7 +7951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>236</v>
       </c>
@@ -7116,7 +7966,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="26.25">
       <c r="A3" s="2" t="s">
         <v>236</v>
       </c>
@@ -7131,7 +7981,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="90">
       <c r="A4" s="2" t="s">
         <v>172</v>
       </c>
@@ -7145,7 +7995,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>172</v>
       </c>
@@ -7159,7 +8009,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="26.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -7170,7 +8020,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="77.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -7181,7 +8031,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="26.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -7195,7 +8045,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="26.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -7206,7 +8056,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="26.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -7217,7 +8067,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="26.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -7234,14 +8084,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="2" bestFit="1" customWidth="1"/>
@@ -7249,7 +8099,7 @@
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7261,26 +8111,78 @@
       </c>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>227</v>
       </c>
     </row>
@@ -7290,14 +8192,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="110.85546875" style="3" customWidth="1"/>
@@ -7305,7 +8207,7 @@
     <col min="4" max="4" width="46" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7319,7 +8221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="90">
       <c r="A2" s="2" t="s">
         <v>172</v>
       </c>
@@ -7330,41 +8232,64 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
+    <row r="3" spans="1:4" ht="26.25">
       <c r="B3" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="64.5">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+    <row r="9" spans="1:4" ht="102.75">
+      <c r="B9" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+    <row r="10" spans="1:4" ht="26.25">
+      <c r="B10" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>310</v>
       </c>
     </row>
@@ -7375,21 +8300,115 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="17.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="95.28515625" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" s="4" customFormat="1" ht="15">
+      <c r="B1" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="38.25">
+      <c r="B5" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="107.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7400,7 +8419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -7408,12 +8427,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="C3" s="11" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="C4" s="11" t="s">
         <v>235</v>
       </c>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="472">
   <si>
     <t>Topic</t>
   </si>
@@ -3817,9 +3817,6 @@
     <t>For each type it loads, a Java virtual machine must store a constant pool. A constant pool is an ordered set of constants used by the type, including literals (string, integer, and floating point constants) and symbolic references to types, fields, and methods. Entries in the constant pool are referenced by index, much like the elements of an array. Because it holds symbolic references to all types, fields, and methods used by a type, the constant pool plays a central role in the dynamic linking of Java programs.</t>
   </si>
   <si>
-    <t>Java Runtime Constant Pool</t>
-  </si>
-  <si>
     <t>java</t>
   </si>
   <si>
@@ -3988,24 +3985,6 @@
     <t>JVM</t>
   </si>
   <si>
-    <t>Bootstrap classloader</t>
-  </si>
-  <si>
-    <t>Class Loading</t>
-  </si>
-  <si>
-    <t>Class Loading is the process of finding the class file that represents the class or interface type with a particular name and reading it into a byte array. Next the bytes are parsed to confirm they represent a Class object and have the correct major and minor versions. Any class or interface named as a direct superclass is also loaded.</t>
-  </si>
-  <si>
-    <t>System Classloader</t>
-  </si>
-  <si>
-    <t>Extension Classloader</t>
-  </si>
-  <si>
-    <t>User Defined Classloaders</t>
-  </si>
-  <si>
     <t>User Defined Classloaders can alternatively be used to load application classes. A user defined classloader is used for a number of special reasons including run time reloading of classes or separation between different groups of loaded classes typically required by web servers such as Tomcat</t>
   </si>
   <si>
@@ -4019,16 +3998,10 @@
     <t>It is child of bootstrap class loader. It loads the classes present in the extensions directories JAVA_HOME/jre/lib/ext(Extension path) or any other directory specified by the java.ext.dirs system property. It is implemented in java.</t>
   </si>
   <si>
-    <t>System Classloader is child of extension class loader. It is responsible to load classes from application class path. It internally uses Environment Variable which mapped to java.class.path. It is also implemented in Java.</t>
-  </si>
-  <si>
     <t>The role of the JVM is to read the Java application through the Class Loader and execute it along with the Java API
 A Java virtual machine (JVM), an implementation of the Java Virtual Machine Specification, interprets compiled Java binary code (called bytecode) for a computer's processor (or "hardware platform") so that it can perform a Java program's instructions. Java was designed to allow application programs to be built that could be run on any platform without having to be rewritten or recompiled by the programmer for each separate platform. A Java virtual machine makes this possible because it is aware of the specific instruction lengths and other particularities of the platform</t>
   </si>
   <si>
-    <t>Internal components of JVM</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -4360,9 +4333,6 @@
   </si>
   <si>
     <t>Not all JVMs support native methods, however, those that do typically create a per thread native method stack. If a JVM has been implemented using a C-linkage model for Java Native Invocation (JNI) then the native stack will be a C stack. In this case the order of arguments and return value will be identical in the native stack to typical C program</t>
-  </si>
-  <si>
-    <t>Frame</t>
   </si>
   <si>
     <t>A new frame is created and added (pushed) to the top of stack for every method invocation. The frame is removed (popped) when the method returns normally or if an uncaught exception is thrown during the method invocation.
@@ -4448,6 +4418,385 @@
   </si>
   <si>
     <t>Young Generation space</t>
+  </si>
+  <si>
+    <t>JVM Architecture</t>
+  </si>
+  <si>
+    <t>Stack Frame</t>
+  </si>
+  <si>
+    <t>JVM Internals</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">ava </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">irtual </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>achine</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">ava </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">untime </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>nvironment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">ava </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">evelopment </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">it </t>
+    </r>
+  </si>
+  <si>
+    <t>A Java virtual machine (JVM) is an abstract computing machine that enables a computer to run a Java program. There are three notions of the JVM: specification, implementation, and instance. 
+The specification is a document that formally describes what is required of a JVM implementation. Having a single specification ensures all implementations are interoperable. 
+A JVM implementation is a computer program that meets the requirements of the JVM specification. It is available for  many platforms (OS) and comes from many vendors. 
+An instance of a JVM is an implementation running in a process and hosting a java application.
+Each Java application runs inside a runtime  instance of some concrete implementation of the abstract specification of the Java virtual machine</t>
+  </si>
+  <si>
+    <t>How many Java application can a JVM instance run?</t>
+  </si>
+  <si>
+    <t>What is the starting point of an java application</t>
+  </si>
+  <si>
+    <t>static void main(String[] args) method in any class</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Only one</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>. A runtime instance of the Java virtual machine has a clear mission in life: to run one Java application. When a Java application starts, a runtime instance is born. When the application completes, the instance dies. If you start three Java applications at the same time, on the same computer, using the same concrete implementation, you'll get three Java virtual machine instances. Each Java application runs inside its own Java virtual machine.</t>
+    </r>
+  </si>
+  <si>
+    <t>In the Java virtual machine specification, the behavior of a virtual machine instance is described in terms of subsystems, memory areas, data types, and instructions. These components describe an abstract inner architecture for the abstract Java virtual machine. The purpose of these components is not so much to dictate an inner architecture for implementations but it is more to provide a way to strictly define the external behavior of implementations.</t>
+  </si>
+  <si>
+    <t>Application/System Classloader is child of extension class loader. It is responsible to load classes from application class path. It internally uses Environment Variable which mapped to java.class.path. It is also implemented in Java.</t>
+  </si>
+  <si>
+    <t>Class Loading is the process of finding the class file that represents the class or interface type with a particular name and reading it into a byte array. Loading is performed by BootStrap ClassLoader, Extension ClassLoader, Application/System ClassLoader and User-defined ClassLoader.</t>
+  </si>
+  <si>
+    <t>The part of a Java virtual machine implementation that takes care of finding and loading types is the class loader subsystem. It loads, links and initializes the class file when it refers to a class for the first time at runtime, not compile time.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Linking has following three process.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Verify</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">: Ensure the correctness of the imported type
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Prepare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">: Allocate memory for class variables and initializing the memory to default values
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Resolve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>: Transform symbolic references from the type into direct references from Method Area</t>
+    </r>
+  </si>
+  <si>
+    <t>This is the final phase of Class Loading, here all static variables will be assigned with the original values, and the static block will be executed</t>
+  </si>
+  <si>
+    <t>JVM Architecture - 
+Class Loader Subsystem</t>
+  </si>
+  <si>
+    <t>JVM Architecture - 
+Class Loading</t>
+  </si>
+  <si>
+    <t>JVM Architecture - 
+Bootstrap classloader</t>
+  </si>
+  <si>
+    <t>JVM Architecture - 
+Extension Classloader</t>
+  </si>
+  <si>
+    <t>JVM Architecture - 
+Application Classloader</t>
+  </si>
+  <si>
+    <t>JVM Architecture - 
+User Defined Classloaders</t>
+  </si>
+  <si>
+    <t>JVM Architecture - 
+Linking</t>
+  </si>
+  <si>
+    <t>JVM Architecture - 
+Initialization</t>
+  </si>
+  <si>
+    <t>http://blog.jamesdbloom.com/JVMInternals.html</t>
+  </si>
+  <si>
+    <t>The method area is shared by all threads, created when the JVM starts. It stores runtime constant pool, field and method information, static variable, and method bytecode for each of the classes and interfaces read by the JVM. The method area can be implemented in various formats by JVM vendor. Oracle Hotspot JVM calls it Permanent Area or Permanent Generation (PermGen). The garbage collection for the method area is optional for each JVM vendor.</t>
+  </si>
+  <si>
+    <t>http://www.artima.com/insidejvm/ed2/jvm.html</t>
+  </si>
+  <si>
+    <t>http://tutorials.jenkov.com/java-util-concurrent/index.html</t>
+  </si>
+  <si>
+    <t>Java Concurrency Utilities</t>
+  </si>
+  <si>
+    <t>http://www.journaldev.com/2856/java-jvm-memory-model-memory-management-in-java</t>
   </si>
 </sst>
 </file>
@@ -4591,7 +4940,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4629,6 +4978,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4932,10 +5282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4972,228 +5322,149 @@
         <v>393</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="179.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="115.5">
       <c r="A4" s="2" t="s">
         <v>393</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="26.25">
-      <c r="A5" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="51.75">
-      <c r="A6" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="77.25">
-      <c r="A7" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="39">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="51.75">
       <c r="A8" s="2" t="s">
         <v>393</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="90">
-      <c r="A9" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>432</v>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30.75" customHeight="1">
+      <c r="B9" s="3" t="s">
+        <v>458</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="64.5">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="39">
       <c r="A10" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>434</v>
+      <c r="B10" s="3" t="s">
+        <v>459</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="51.75">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="64.5">
       <c r="A11" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>436</v>
+      <c r="B11" s="3" t="s">
+        <v>460</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="64.5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="39">
       <c r="A12" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>440</v>
+      <c r="B12" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="26.25">
       <c r="A13" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="B13" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="39">
       <c r="A14" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="26.25">
-      <c r="A15" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>441</v>
+      <c r="B14" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="51.75">
+      <c r="B15" s="3" t="s">
+        <v>464</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="64.5">
-      <c r="A18" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="39">
-      <c r="A19" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="39">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="26.25">
+      <c r="B16" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="179.25">
       <c r="A25" s="2" t="s">
         <v>393</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="64.5">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="26.25">
       <c r="A26" s="2" t="s">
         <v>393</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="39">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="51.75">
       <c r="A27" s="2" t="s">
         <v>393</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="26.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="77.25">
       <c r="A28" s="2" t="s">
         <v>393</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>420</v>
@@ -5204,344 +5475,226 @@
         <v>393</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="64.5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="90">
       <c r="A30" s="2" t="s">
         <v>393</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>405</v>
+        <v>442</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="128.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="64.5">
       <c r="A31" s="2" t="s">
         <v>393</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="51.75">
       <c r="A32" s="2" t="s">
         <v>393</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="64.5">
+        <v>426</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="64.5">
+      <c r="A33" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="26.25">
+      <c r="A36" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="51.75">
+      <c r="A38" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="64.5">
+      <c r="A39" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="39">
       <c r="A40" s="2" t="s">
         <v>393</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="26.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="64.5">
+      <c r="A51" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="128.25">
+      <c r="A52" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="26.25">
+      <c r="A61" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="39">
-      <c r="A42" s="2" t="s">
+    <row r="62" spans="1:3" ht="39">
+      <c r="A62" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="64.5">
-      <c r="A43" s="2" t="s">
+    <row r="63" spans="1:3" ht="64.5">
+      <c r="A63" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="39">
-      <c r="A44" s="2" t="s">
+    <row r="64" spans="1:3" ht="39">
+      <c r="A64" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="153.75">
-      <c r="A45" s="2" t="s">
+    <row r="65" spans="1:5" ht="153.75">
+      <c r="A65" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="26.25">
-      <c r="A46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="26.25">
-      <c r="A48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="64.5">
-      <c r="A49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="51.75">
-      <c r="A50" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="39">
-      <c r="A51" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="51.75">
-      <c r="A52" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="102.75">
-      <c r="A53" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="26.25">
-      <c r="A54" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="26.25">
-      <c r="A55" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="166.5">
-      <c r="A56" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="39">
-      <c r="A57" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="64.5">
-      <c r="A58" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="26.25">
-      <c r="A59" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="64.5">
-      <c r="A60" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="102.75">
-      <c r="A61" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="77.25">
-      <c r="A62" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="39">
-      <c r="A63" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="26.25">
-      <c r="A64" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="39">
-      <c r="A65" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="26.25">
@@ -5549,21 +5702,21 @@
         <v>23</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="26.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>96</v>
+        <v>42</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="26.25">
@@ -5571,105 +5724,340 @@
         <v>23</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="64.5">
+      <c r="A69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="51.75">
+      <c r="A70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="39">
+      <c r="A71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="51.75">
+      <c r="A72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="102.75">
+      <c r="A73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="26.25">
+      <c r="A74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="26.25">
+      <c r="A75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="166.5">
+      <c r="A76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="39">
+      <c r="A77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="64.5">
+      <c r="A78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="26.25">
+      <c r="A79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="64.5">
+      <c r="A80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="102.75">
+      <c r="A81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="77.25">
+      <c r="A82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="39">
+      <c r="A83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="26.25">
+      <c r="A84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="39">
+      <c r="A85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="26.25">
+      <c r="A86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="26.25">
+      <c r="A87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="26.25">
+      <c r="A88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="51.75">
-      <c r="A69" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" s="2" t="s">
+    <row r="89" spans="1:5" ht="51.75">
+      <c r="A89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="77.25">
-      <c r="A70" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" s="2" t="s">
+    <row r="90" spans="1:5" ht="77.25">
+      <c r="A90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="26.25">
-      <c r="A71" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="2" t="s">
+    <row r="91" spans="1:5" ht="26.25">
+      <c r="A91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="39">
-      <c r="A72" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" s="2" t="s">
+    <row r="92" spans="1:5" ht="39">
+      <c r="A92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="39">
-      <c r="A73" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73" s="2" t="s">
+    <row r="93" spans="1:5" ht="39">
+      <c r="A93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="39">
-      <c r="A74" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="2" t="s">
+    <row r="94" spans="1:5" ht="39">
+      <c r="A94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E94" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="128.25">
-      <c r="B75" s="13" t="s">
+    <row r="95" spans="1:5" ht="128.25">
+      <c r="B95" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="314.25" customHeight="1">
-      <c r="B76" s="2" t="s">
+    <row r="96" spans="1:5" ht="314.25" customHeight="1">
+      <c r="B96" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="B79" s="2" t="s">
+    <row r="99" spans="2:2">
+      <c r="B99" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5681,8 +6069,9 @@
     <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId3"/>
     <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId4"/>
     <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId5"/>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1033" r:id="rId6"/>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId7"/>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId6"/>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId7"/>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId8"/>
   </oleObjects>
 </worksheet>
 </file>
@@ -8088,7 +8477,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8116,9 +8505,11 @@
         <v>236</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>406</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>446</v>
+      </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4">
@@ -8126,9 +8517,11 @@
         <v>236</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>407</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>445</v>
+      </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
@@ -8136,9 +8529,11 @@
         <v>236</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>408</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>444</v>
+      </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
@@ -8146,10 +8541,10 @@
         <v>393</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8157,10 +8552,10 @@
         <v>393</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8193,10 +8588,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8221,75 +8616,97 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="90">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:4" ht="51.75">
+      <c r="A3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="90">
+      <c r="A5" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="26.25">
-      <c r="B3" s="3" t="s">
+    <row r="6" spans="1:4" ht="26.25">
+      <c r="B6" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="10" t="s">
+      <c r="C6" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="10" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="10" t="s">
+    <row r="8" spans="1:4">
+      <c r="B8" s="10" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="10" t="s">
+    <row r="9" spans="1:4">
+      <c r="B9" s="10" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="64.5">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="10" spans="1:4" ht="64.5">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="10" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="102.75">
-      <c r="B9" s="10" t="s">
+    <row r="12" spans="1:4" ht="102.75">
+      <c r="B12" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="26.25">
-      <c r="B10" s="10" t="s">
+    <row r="13" spans="1:4" ht="26.25">
+      <c r="B13" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>310</v>
       </c>
     </row>
@@ -8340,7 +8757,7 @@
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>384</v>
@@ -8348,7 +8765,7 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>384</v>
@@ -8395,10 +8812,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8437,11 +8854,44 @@
         <v>235</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" s="19" t="s">
+        <v>471</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -5284,8 +5284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="475">
   <si>
     <t>Topic</t>
   </si>
@@ -4798,12 +4798,21 @@
   <si>
     <t>http://www.journaldev.com/2856/java-jvm-memory-model-memory-management-in-java</t>
   </si>
+  <si>
+    <t>What is the need of two survior space in young generation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Eden space is full, Minor GC will run and garbage collect the objects both in Eden space and survivor space. Objects in survivor spaces are scanned and garbage collected in order to give objects more than one changes to get garbage collected (First change was given when objects were in Eden space, objects those survived that collection would have reached the survivor space). In case there is only one survivor space, after minor GC, survived objects from eden space will have to be moved to only available survivor space. Survivor space will have empty spaces in holes which may not be enough to hold the objects moved from eden space. Moreover, objects moved from eden space cannot be allocated contiguously space in survivor space. Objects in survivor space have to be moved around to create contiguous space resulting in lot of complexity. To avoid this two survivor spaces are used. </t>
+  </si>
+  <si>
+    <t>jvisualvm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4915,6 +4924,13 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4940,7 +4956,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4979,6 +4995,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5284,7 +5303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -8588,10 +8607,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8710,6 +8729,17 @@
         <v>310</v>
       </c>
     </row>
+    <row r="14" spans="1:4" ht="102.75">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>473</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8718,10 +8748,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D7"/>
+  <dimension ref="B1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8802,6 +8832,14 @@
       </c>
       <c r="D7" s="8" t="s">
         <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="478">
   <si>
     <t>Topic</t>
   </si>
@@ -4806,6 +4806,16 @@
   </si>
   <si>
     <t>jvisualvm</t>
+  </si>
+  <si>
+    <t>What is generational hypothesis?</t>
+  </si>
+  <si>
+    <t>Is Mark, Sweep and Compact used to clean young generation space (Eden and Survivor spaces)?</t>
+  </si>
+  <si>
+    <t>No.
+Whenever eden space is full, its entire content is copied and the pointer can start tracking the free memory from zero again. So instead of classical Mark, Sweep and Compact, cleaning Eden and Survivor spaces is carried out with Mark and Copy instead. So, no fragmentation actually takes place inside Eden or Survivor spaces. The write pointer is always residing on the top of the eden space.</t>
   </si>
 </sst>
 </file>
@@ -8607,10 +8617,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8740,6 +8750,25 @@
         <v>473</v>
       </c>
     </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="64.5">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8750,7 +8779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="481">
   <si>
     <t>Topic</t>
   </si>
@@ -3022,16 +3022,8 @@
   System.out.println(list);</t>
   </si>
   <si>
-    <t xml:space="preserve">[3, 5, 2]
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">  HashMap&lt;String, Integer&gt; map = new HashMap&lt;&gt;();
   int a = map.get("abc");</t>
-  </si>
-  <si>
-    <t xml:space="preserve">java.lang.NullPointerException
-</t>
   </si>
   <si>
     <t>Exception thrown when attempting to retrieve the result of a task that aborted by throwing an exception. This exception can be inspected using the getCause() method.</t>
@@ -4802,9 +4794,6 @@
     <t>What is the need of two survior space in young generation?</t>
   </si>
   <si>
-    <t xml:space="preserve">When Eden space is full, Minor GC will run and garbage collect the objects both in Eden space and survivor space. Objects in survivor spaces are scanned and garbage collected in order to give objects more than one changes to get garbage collected (First change was given when objects were in Eden space, objects those survived that collection would have reached the survivor space). In case there is only one survivor space, after minor GC, survived objects from eden space will have to be moved to only available survivor space. Survivor space will have empty spaces in holes which may not be enough to hold the objects moved from eden space. Moreover, objects moved from eden space cannot be allocated contiguously space in survivor space. Objects in survivor space have to be moved around to create contiguous space resulting in lot of complexity. To avoid this two survivor spaces are used. </t>
-  </si>
-  <si>
     <t>jvisualvm</t>
   </si>
   <si>
@@ -4816,13 +4805,75 @@
   <si>
     <t>No.
 Whenever eden space is full, its entire content is copied and the pointer can start tracking the free memory from zero again. So instead of classical Mark, Sweep and Compact, cleaning Eden and Survivor spaces is carried out with Mark and Copy instead. So, no fragmentation actually takes place inside Eden or Survivor spaces. The write pointer is always residing on the top of the eden space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During minor GC, objects in Young generation (both Eden and Survivor space) are garbage collected. At the end of the minor GC, Eden space should be empty for new object creation. So instead of classical Mark, Sweep and Compact, Eden space can be cleaned by Mark and Copy. In this approach, first marking process (traversing the object graph from root of the application and marking reachable-live objects) is performed, followed by copying (moving reachable-live objects to different place i.e. survivor space) thereby making Eden space empty of live objects. Eden space may contain non-reachable(dead) objects which need not be deleted or swept as new objects can override them. This is better approach than classical Mark, Sweep and Compact in which first live objects are marked, then non-live (dead) objects are deleted and finally objects are compacted (live objects are arranged contiguously to leave contiguous space for new object creation).
+To give objects more than one change for garbage collection, survivor space will also be garbage collected. If there is only one survivor space, then it needs Mark, Sweep and Compact approach which is less efficient than Mark and Copy. Mark and Copy needs additional space, so another survivor space came into picture. During first minor GC, objects from Eden space are garbage collected and moved to survivor space 1. Then during second minor GC, objects from Eden space and Survivor space 1 are garbage collected and live objects are moved to survivor space 2 leaving Eden and survivor space 1 empty of live objects. Then in third minor GC, objects from Eden space and survivor space 2 are garbage collected and moved to survivor space 1 which was emptied in earlier run of minor GC. In next minor GC, above process is repeated and objects will be moved back to survivor space 1. This process is repeated and objects which survived for certain number of collections will be moved to old generation or tenure space so that they need not go through garbage collection as it is assumed that objects which survives initial few cycle of garbage collection will live longer. </t>
+  </si>
+  <si>
+    <t>Autoboxing and Unboxing</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Autoboxing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> is the automatic conversion that the Java compiler makes between the primitive types and their corresponding object wrapper classes. For example, converting an int to an Integer, a double to a Double, and so on. If the conversion goes the other way, this is called U</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>nboxing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>java.lang.NullPointerException
+During unboxing from Integer to int, null be assigned to int variable. This will result in NullPointerException as null cannot be assigened to int variable.</t>
+  </si>
+  <si>
+    <t>[3, 5, 2]
+Here 'removeElement' is of type int primitive so public E remove(int index) method is invoked instead of public boolean remove(Object o) and element 8 which is at index 3 (4th position) will be removed.</t>
+  </si>
+  <si>
+    <t>ip.corejava.xxx.CodeExample1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4934,13 +4985,6 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4966,7 +5010,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5005,9 +5049,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5311,10 +5352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5345,327 +5386,327 @@
     </row>
     <row r="3" spans="1:5" ht="90">
       <c r="A3" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="115.5">
       <c r="A4" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="51.75">
       <c r="A8" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30.75" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="39">
       <c r="A10" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="64.5">
       <c r="A11" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="39">
       <c r="A12" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="26.25">
       <c r="A13" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="39">
       <c r="A14" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="51.75">
       <c r="B15" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="26.25">
       <c r="B16" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="179.25">
       <c r="A25" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="26.25">
       <c r="A26" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="51.75">
       <c r="A27" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="77.25">
       <c r="A28" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="39">
       <c r="A29" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="90">
       <c r="A30" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="64.5">
       <c r="A31" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="51.75">
       <c r="A32" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="64.5">
       <c r="A33" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="26.25">
       <c r="A36" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="51.75">
       <c r="A38" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="64.5">
       <c r="A39" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="39">
       <c r="A40" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="64.5">
       <c r="A51" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="128.25">
       <c r="A52" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="26.25">
@@ -5676,7 +5717,7 @@
         <v>226</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="39">
@@ -5712,381 +5753,392 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="153.75">
-      <c r="A65" s="2" t="s">
+    <row r="66" spans="1:5" ht="39">
+      <c r="A66" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="153.75">
+      <c r="A68" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="26.25">
-      <c r="A66" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B66" s="2" t="s">
+    <row r="69" spans="1:5" ht="26.25">
+      <c r="A69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67" s="2" t="s">
+    <row r="70" spans="1:5">
+      <c r="A70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="26.25">
-      <c r="A68" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" s="2" t="s">
+    <row r="71" spans="1:5" ht="26.25">
+      <c r="A71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="64.5">
-      <c r="A69" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" s="2" t="s">
+    <row r="72" spans="1:5" ht="64.5">
+      <c r="A72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="51.75">
-      <c r="A70" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" s="2" t="s">
+    <row r="73" spans="1:5" ht="51.75">
+      <c r="A73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="39">
-      <c r="A71" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="2" t="s">
+    <row r="74" spans="1:5" ht="39">
+      <c r="A74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="51.75">
-      <c r="A72" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" s="2" t="s">
+    <row r="75" spans="1:5" ht="51.75">
+      <c r="A75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="102.75">
-      <c r="A73" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73" s="2" t="s">
+    <row r="76" spans="1:5" ht="102.75">
+      <c r="A76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="26.25">
-      <c r="A74" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="2" t="s">
+    <row r="77" spans="1:5" ht="26.25">
+      <c r="A77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="26.25">
-      <c r="A75" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B75" s="2" t="s">
+    <row r="78" spans="1:5" ht="26.25">
+      <c r="A78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="166.5">
-      <c r="A76" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B76" s="2" t="s">
+    <row r="79" spans="1:5" ht="166.5">
+      <c r="A79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="39">
-      <c r="A77" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77" s="2" t="s">
+    <row r="80" spans="1:5" ht="39">
+      <c r="A80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="64.5">
-      <c r="A78" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78" s="2" t="s">
+    <row r="81" spans="1:4" ht="64.5">
+      <c r="A81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="26.25">
-      <c r="A79" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" s="2" t="s">
+    <row r="82" spans="1:4" ht="26.25">
+      <c r="A82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="64.5">
-      <c r="A80" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" s="2" t="s">
+    <row r="83" spans="1:4" ht="64.5">
+      <c r="A83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="102.75">
-      <c r="A81" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B81" s="2" t="s">
+    <row r="84" spans="1:4" ht="102.75">
+      <c r="A84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="77.25">
-      <c r="A82" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B82" s="2" t="s">
+    <row r="85" spans="1:4" ht="77.25">
+      <c r="A85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="39">
-      <c r="A83" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B83" s="2" t="s">
+    <row r="86" spans="1:4" ht="39">
+      <c r="A86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="26.25">
-      <c r="A84" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B84" s="2" t="s">
+    <row r="87" spans="1:4" ht="26.25">
+      <c r="A87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="39">
-      <c r="A85" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B85" s="2" t="s">
+    <row r="88" spans="1:4" ht="39">
+      <c r="A88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="26.25">
-      <c r="A86" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B86" s="2" t="s">
+    <row r="89" spans="1:4" ht="26.25">
+      <c r="A89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="26.25">
-      <c r="A87" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B87" s="2" t="s">
+    <row r="90" spans="1:4" ht="26.25">
+      <c r="A90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="26.25">
-      <c r="A88" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B88" s="2" t="s">
+    <row r="91" spans="1:4" ht="26.25">
+      <c r="A91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="51.75">
-      <c r="A89" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B89" s="2" t="s">
+    <row r="92" spans="1:4" ht="51.75">
+      <c r="A92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="77.25">
-      <c r="A90" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B90" s="2" t="s">
+    <row r="93" spans="1:4" ht="77.25">
+      <c r="A93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="26.25">
+      <c r="A94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="26.25">
-      <c r="A91" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="39">
-      <c r="A92" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B92" s="2" t="s">
+    <row r="95" spans="1:4" ht="39">
+      <c r="A95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="39">
-      <c r="A93" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B93" s="2" t="s">
+    <row r="96" spans="1:4" ht="39">
+      <c r="A96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="39">
-      <c r="A94" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B94" s="2" t="s">
+    <row r="97" spans="1:5" ht="39">
+      <c r="A97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="128.25">
-      <c r="B95" s="13" t="s">
+    <row r="98" spans="1:5" ht="128.25">
+      <c r="B98" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="314.25" customHeight="1">
-      <c r="B96" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="1:5" ht="314.25" customHeight="1">
       <c r="B99" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="B102" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6633,7 +6685,7 @@
         <v>123</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -6642,13 +6694,13 @@
         <v>23</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -6657,13 +6709,13 @@
         <v>23</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -6672,13 +6724,13 @@
         <v>23</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -6687,13 +6739,13 @@
         <v>23</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -6702,16 +6754,16 @@
         <v>23</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="28.5" customHeight="1">
@@ -6719,16 +6771,16 @@
         <v>23</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="192">
@@ -6742,7 +6794,7 @@
         <v>12</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E38" s="2"/>
     </row>
@@ -6757,7 +6809,7 @@
         <v>123</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E39" s="2"/>
     </row>
@@ -6766,7 +6818,7 @@
         <v>23</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
@@ -6788,7 +6840,7 @@
         <v>162</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="39">
@@ -7391,7 +7443,7 @@
         <v>289</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -7497,16 +7549,16 @@
         <v>23</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="128.25">
@@ -7514,16 +7566,16 @@
         <v>23</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="64.5">
@@ -7531,16 +7583,16 @@
         <v>23</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="39">
@@ -7548,16 +7600,16 @@
         <v>23</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -7565,16 +7617,16 @@
         <v>23</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="26.25">
@@ -7582,13 +7634,13 @@
         <v>23</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E91" s="2"/>
     </row>
@@ -7621,7 +7673,7 @@
         <v>306</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="51.75">
@@ -7629,16 +7681,16 @@
         <v>23</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -7646,13 +7698,13 @@
         <v>23</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>304</v>
@@ -7691,13 +7743,13 @@
         <v>198</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="26.25">
@@ -7705,13 +7757,13 @@
         <v>198</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="26.25">
@@ -7719,13 +7771,13 @@
         <v>198</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="39">
@@ -7733,13 +7785,13 @@
         <v>198</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="26.25">
@@ -7747,13 +7799,13 @@
         <v>198</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="26.25">
@@ -7761,13 +7813,13 @@
         <v>198</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="26.25">
@@ -7775,13 +7827,13 @@
         <v>198</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="26.25">
@@ -7789,13 +7841,13 @@
         <v>198</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="26.25">
@@ -7803,13 +7855,13 @@
         <v>198</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="26.25">
@@ -7817,13 +7869,13 @@
         <v>198</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="39">
@@ -7831,13 +7883,13 @@
         <v>198</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -7845,13 +7897,13 @@
         <v>23</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="64.5">
@@ -8490,10 +8542,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -8534,10 +8586,10 @@
         <v>236</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -8546,10 +8598,10 @@
         <v>236</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -8558,33 +8610,33 @@
         <v>236</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8619,15 +8671,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="110.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="96" style="3" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="107.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="46" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8650,10 +8702,10 @@
         <v>236</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8661,10 +8713,10 @@
         <v>236</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="90">
@@ -8680,25 +8732,25 @@
     </row>
     <row r="6" spans="1:4" ht="26.25">
       <c r="B6" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="64.5">
@@ -8724,38 +8776,47 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="102.75">
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="39">
+      <c r="A13" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="26.25">
-      <c r="B13" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="102.75">
+      <c r="C13" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="225" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>472</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="64.5">
@@ -8763,10 +8824,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -8794,10 +8855,10 @@
   <sheetData>
     <row r="1" spans="2:4" s="4" customFormat="1" ht="15">
       <c r="B1" s="15" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>10</v>
@@ -8805,70 +8866,70 @@
     </row>
     <row r="2" spans="2:4">
       <c r="B2" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="38.25">
       <c r="B5" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>386</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -8923,31 +8984,31 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="C8" s="19" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="485">
   <si>
     <t>Topic</t>
   </si>
@@ -4868,12 +4868,26 @@
   <si>
     <t>ip.corejava.xxx.CodeExample1</t>
   </si>
+  <si>
+    <t>Card marking</t>
+  </si>
+  <si>
+    <t>Do objects ever get allocated directly into the old generation?</t>
+  </si>
+  <si>
+    <t>There are two situations where allocation may occur directly into the old generation. 
+    1) If an allocation fails in the young generation and the object is a large array that does not contain any references to objects, it can be allocated directly into the old generation. In some select instances, this strategy was intended to avoid a collection of the young generation by allocating from the old generation.
+    2) There is a flag (available in Java 1.4.2 and later) l-XX:PretenureSizeThreshold that can be set to limit the size of allocations in the young generation. Any allocation larger than this will not be attempted in the young generation and so will be allocated out of the old generation.</t>
+  </si>
+  <si>
+    <t>There is a special card table in JVM, each 512 byte page of memory has associated byte in that table. Each time when program modifies reference in memory, it should mark modified memory page as dirty in cart table by flipping or making some kind of marking in the corresponding byte. This process is called as card marking.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4985,6 +4999,13 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5010,7 +5031,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5049,6 +5070,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5352,10 +5377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5753,51 +5778,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="39">
-      <c r="A66" s="2" t="s">
+    <row r="65" spans="1:5" ht="39">
+      <c r="A65" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="39">
+      <c r="A68" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="153.75">
-      <c r="A68" s="2" t="s">
+    <row r="70" spans="1:5" ht="153.75">
+      <c r="A70" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="26.25">
-      <c r="A69" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="26.25">
@@ -5805,46 +5819,46 @@
         <v>23</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="26.25">
+      <c r="A73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="64.5">
-      <c r="A72" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" s="2" t="s">
+    <row r="74" spans="1:5" ht="64.5">
+      <c r="A74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="51.75">
-      <c r="A73" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="39">
-      <c r="A74" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="51.75">
@@ -5852,93 +5866,93 @@
         <v>23</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="39">
+      <c r="A76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="51.75">
+      <c r="A77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="102.75">
-      <c r="A76" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B76" s="2" t="s">
+    <row r="78" spans="1:5" ht="102.75">
+      <c r="A78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="26.25">
-      <c r="A77" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77" s="2" t="s">
+    <row r="79" spans="1:5" ht="26.25">
+      <c r="A79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="26.25">
-      <c r="A78" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78" s="2" t="s">
+    <row r="80" spans="1:5" ht="26.25">
+      <c r="A80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="166.5">
-      <c r="A79" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" s="2" t="s">
+    <row r="81" spans="1:4" ht="166.5">
+      <c r="A81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="39">
-      <c r="A80" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" s="2" t="s">
+    <row r="82" spans="1:4" ht="39">
+      <c r="A82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="64.5">
-      <c r="A81" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="26.25">
-      <c r="A82" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="64.5">
@@ -5946,60 +5960,57 @@
         <v>23</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="26.25">
+      <c r="A84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="64.5">
+      <c r="A85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="102.75">
-      <c r="A84" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B84" s="2" t="s">
+    <row r="86" spans="1:4" ht="102.75">
+      <c r="A86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="77.25">
-      <c r="A85" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B85" s="2" t="s">
+    <row r="87" spans="1:4" ht="77.25">
+      <c r="A87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="39">
-      <c r="A86" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="26.25">
-      <c r="A87" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="39">
@@ -6007,10 +6018,13 @@
         <v>23</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="26.25">
@@ -6018,21 +6032,21 @@
         <v>23</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="26.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="39">
       <c r="A90" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="26.25">
@@ -6040,65 +6054,65 @@
         <v>23</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="26.25">
+      <c r="A92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="26.25">
+      <c r="A93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="51.75">
-      <c r="A92" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B92" s="2" t="s">
+    <row r="94" spans="1:4" ht="51.75">
+      <c r="A94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="77.25">
-      <c r="A93" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B93" s="2" t="s">
+    <row r="95" spans="1:4" ht="77.25">
+      <c r="A95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="26.25">
-      <c r="A94" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B94" s="2" t="s">
+    <row r="96" spans="1:4" ht="26.25">
+      <c r="A96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>373</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="39">
-      <c r="A95" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="39">
-      <c r="A96" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="39">
@@ -6106,39 +6120,61 @@
         <v>23</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="39">
+      <c r="A98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="39">
+      <c r="A99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D99" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="128.25">
-      <c r="B98" s="13" t="s">
+    <row r="100" spans="1:5" ht="128.25">
+      <c r="B100" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="314.25" customHeight="1">
-      <c r="B99" s="2" t="s">
+    <row r="101" spans="1:5" ht="314.25" customHeight="1">
+      <c r="B101" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
-      <c r="B102" s="2" t="s">
+    <row r="104" spans="1:5">
+      <c r="B104" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8669,10 +8705,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8719,7 +8755,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="90">
+    <row r="5" spans="1:4" ht="77.25">
       <c r="A5" s="2" t="s">
         <v>172</v>
       </c>
@@ -8753,7 +8789,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="64.5">
+    <row r="10" spans="1:4" ht="51.75">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -8767,7 +8803,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="26.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -8819,7 +8855,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="64.5">
+    <row r="16" spans="1:4" ht="51.75">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -8828,6 +8864,17 @@
       </c>
       <c r="C16" s="3" t="s">
         <v>474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="90">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Others\Kamal\IP\IP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" r:id="rId1"/>
@@ -13,15 +18,16 @@
     <sheet name="Exceptions" sheetId="3" r:id="rId4"/>
     <sheet name="Abbrevations" sheetId="4" r:id="rId5"/>
     <sheet name="Tricky Questions" sheetId="5" r:id="rId6"/>
-    <sheet name="Tools" sheetId="8" r:id="rId7"/>
-    <sheet name="References" sheetId="6" r:id="rId8"/>
+    <sheet name="Other Info" sheetId="9" r:id="rId7"/>
+    <sheet name="Tools" sheetId="8" r:id="rId8"/>
+    <sheet name="References" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="520">
   <si>
     <t>Topic</t>
   </si>
@@ -4875,19 +4881,225 @@
     <t>Do objects ever get allocated directly into the old generation?</t>
   </si>
   <si>
-    <t>There are two situations where allocation may occur directly into the old generation. 
-    1) If an allocation fails in the young generation and the object is a large array that does not contain any references to objects, it can be allocated directly into the old generation. In some select instances, this strategy was intended to avoid a collection of the young generation by allocating from the old generation.
-    2) There is a flag (available in Java 1.4.2 and later) l-XX:PretenureSizeThreshold that can be set to limit the size of allocations in the young generation. Any allocation larger than this will not be attempted in the young generation and so will be allocated out of the old generation.</t>
-  </si>
-  <si>
     <t>There is a special card table in JVM, each 512 byte page of memory has associated byte in that table. Each time when program modifies reference in memory, it should mark modified memory page as dirty in cart table by flipping or making some kind of marking in the corresponding byte. This process is called as card marking.</t>
+  </si>
+  <si>
+    <t>When objects are promoted from young generation to old generation (Tenure space)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Promotion occurs in following situations:
+    1) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>-XX:+AlwaysTenure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">  makes JVM to promote objects directly to old space instead of survivor  space (survivor spaces are not used in this case).
+    2) Once survivor space is full, all remaining live object are relocated directly to old space.
+    3) If object has survived certain number of young space collections, it will be promoted to old space (required number of collections can be adjusted using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>–XX:MaxTenuringThreshold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> option and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>–XX:TargetSurvivorRatio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> JVM options).</t>
+    </r>
+  </si>
+  <si>
+    <t>http://blog.ragozin.info/2011/06/understanding-gc-pauses-in-jvm-hotspots.html</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There are two situations where allocation may occur directly into the old generation. 
+    1) If object is larger than size of Eden space it also will be allocated in old space.
+    2) There is a flag (available in Java 1.4.2 and later) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>-XX:PretenureSizeThreshold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> that can be set to limit the size of allocations in the young generation. Any allocation larger than this will not be attempted in the young generation and so will be allocated out of the old generation.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tabular Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC algorithms </t>
+  </si>
+  <si>
+    <t>VM Argument</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>–_x001E__x001F_</t>
+  </si>
+  <si>
+    <t>–_x001E__x001F_XX:+UseSerialGC</t>
+  </si>
+  <si>
+    <t>–_x001E__x001F_XX:+UseParallelGC</t>
+  </si>
+  <si>
+    <t>–_x001E__x001F_XX:+UseParallelOldGC</t>
+  </si>
+  <si>
+    <t>–_x001E__x001F_XX:+UseConcMarkSweepGC
+–XX:-UseParNewGC</t>
+  </si>
+  <si>
+    <t>–_x001E__x001F_XX:+UseConcMarkSweepGC
+–XX:+UseParNewGC</t>
+  </si>
+  <si>
+    <t>–_x001E__x001F_XX:+UseG1GC</t>
+  </si>
+  <si>
+    <t>Thread Local Allocation Buffer</t>
+  </si>
+  <si>
+    <t>Eden is the region in memory where the objects are typically allocated when they are created. As there are typically multiple threads creating a lot of objects simultaneously, Eden is further divided into one or more Thread Local Allocation Buffer (TLAB for short) residing in the Eden space. These buffers allow the JVM to allocate most objects within one thread directly in the corresponding TLAB, avoiding the expensive synchronization with other threads.</t>
+  </si>
+  <si>
+    <t>VM Arguments</t>
+  </si>
+  <si>
+    <t>–_x001E__x001F_XX:+MaxTenuringThreshold</t>
+  </si>
+  <si>
+    <t>Maximum value for tenuring threshold. The default value is 15</t>
+  </si>
+  <si>
+    <t>–_x001E__x001F_XX:MaxPermSize</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>–XX:MaxMetaspaceSize</t>
+  </si>
+  <si>
+    <t>Latency</t>
+  </si>
+  <si>
+    <t>Throughput</t>
+  </si>
+  <si>
+    <t>Collecting garbage from the Young generation is called Minor GC. Minor GC is always triggered when the JVM is unable to allocate space for a new object, e.g. Eden is getting full. So the higher the allocation rate, the more frequently Minor GC occurs.
+Against common belief, Minor GC does trigger stop-the-world pauses, suspending the application threads. For most applications, the length of the pauses is negligible latency-wise if most of the objects in the Eden can be considered garbage and are never copied to Survivor/Old spaces. If the opposite is true and most of the newborn objects are not eligible for collection, Minor GC pauses start taking considerably more time</t>
+  </si>
+  <si>
+    <t>Minor GC</t>
+  </si>
+  <si>
+    <t>jstat</t>
+  </si>
+  <si>
+    <t>The jstat utility uses the built-in instrumentation in the Java HotSpot VM to provide information about performance and resource consumption of running applications. The tool can be used when diagnosing performance issues, and in particular issues related to heap sizing and garbage collection. The jstat utility does not require the VM to be started with any special options. The built-in instrumentation in the Java HotSpot VM is enabled by default. This utility is included in the JDK download for all operating system platforms supported by Oracle</t>
+  </si>
+  <si>
+    <t>jmap</t>
+  </si>
+  <si>
+    <t>–XX:+PrintGCDetails</t>
+  </si>
+  <si>
+    <t>Marking Phase</t>
+  </si>
+  <si>
+    <t>GC traverses the whole object graph in memory, starting from GC roots and following references from the roots to other objects, e.g. instance fields. Every object the GC visits is marked as alive and this process is called as Marking. 
+There are important aspects to note about the marking phase:
+    1) The application threads need to be stopped for the marking to happen as you cannot really traverse the graph if it keeps changing under your feet all the time. Such a situation when the application threads are temporarily stopped so that the JVM can indulge in housekeeping activities is called a safe point resulting in a Stop The World pause.
+    2) The duration of this pause depends neither on the total number of objects in heap nor on the size of the heap but on the number of alive objects. So increasing the size of the heap does not directly affect the duration of the marking phase.</t>
+  </si>
+  <si>
+    <t>–XX:+PrintGCDateStamps</t>
+  </si>
+  <si>
+    <t>–XX:+PrintGCTimeStamps</t>
+  </si>
+  <si>
+    <t>–XX:ParallelGCThreads</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4947,13 +5159,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
@@ -5006,6 +5211,43 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5015,12 +5257,172 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -5031,7 +5433,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5055,25 +5457,77 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5090,6 +5544,323 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2438400</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>533400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>704850</xdr:colOff>
+          <xdr:row>85</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2562225</xdr:colOff>
+          <xdr:row>85</xdr:row>
+          <xdr:rowOff>781050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>704850</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>666750</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1771650</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>1076325</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>476250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2619375</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>990600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Object 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>828675</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2171700</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>600075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Object 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2276475</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>390525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Object 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5135,7 +5906,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5167,9 +5938,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5201,6 +5973,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5376,23 +6149,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="98.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="77.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="97.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5409,18 +6182,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="90">
+    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="115.5">
+    <row r="4" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>391</v>
       </c>
@@ -5431,7 +6204,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="51.75">
+    <row r="8" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>391</v>
       </c>
@@ -5442,7 +6215,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30.75" customHeight="1">
+    <row r="9" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>456</v>
       </c>
@@ -5450,7 +6223,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="39">
+    <row r="10" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>391</v>
       </c>
@@ -5461,7 +6234,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="64.5">
+    <row r="11" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>391</v>
       </c>
@@ -5472,7 +6245,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="39">
+    <row r="12" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>391</v>
       </c>
@@ -5483,7 +6256,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="26.25">
+    <row r="13" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>391</v>
       </c>
@@ -5494,7 +6267,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="39">
+    <row r="14" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>391</v>
       </c>
@@ -5505,7 +6278,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="51.75">
+    <row r="15" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>462</v>
       </c>
@@ -5513,7 +6286,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="26.25">
+    <row r="16" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>463</v>
       </c>
@@ -5521,7 +6294,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="179.25">
+    <row r="25" spans="1:3" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>391</v>
       </c>
@@ -5532,7 +6305,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="26.25">
+    <row r="26" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>391</v>
       </c>
@@ -5543,7 +6316,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="51.75">
+    <row r="27" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>391</v>
       </c>
@@ -5554,7 +6327,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="77.25">
+    <row r="28" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>391</v>
       </c>
@@ -5565,7 +6338,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="39">
+    <row r="29" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>391</v>
       </c>
@@ -5576,7 +6349,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="90">
+    <row r="30" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>391</v>
       </c>
@@ -5587,7 +6360,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="64.5">
+    <row r="31" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>391</v>
       </c>
@@ -5598,7 +6371,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="51.75">
+    <row r="32" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>391</v>
       </c>
@@ -5609,7 +6382,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="64.5">
+    <row r="33" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>391</v>
       </c>
@@ -5620,7 +6393,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>391</v>
       </c>
@@ -5628,7 +6401,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>391</v>
       </c>
@@ -5636,7 +6409,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="26.25">
+    <row r="36" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>391</v>
       </c>
@@ -5647,7 +6420,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>391</v>
       </c>
@@ -5655,7 +6428,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="51.75">
+    <row r="38" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>391</v>
       </c>
@@ -5666,7 +6439,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="64.5">
+    <row r="39" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>391</v>
       </c>
@@ -5677,7 +6450,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="39">
+    <row r="40" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>391</v>
       </c>
@@ -5688,7 +6461,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>391</v>
       </c>
@@ -5699,12 +6472,12 @@
         <v>435</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="64.5">
+    <row r="51" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>391</v>
       </c>
@@ -5715,7 +6488,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="128.25">
+    <row r="52" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>391</v>
       </c>
@@ -5726,7 +6499,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>391</v>
       </c>
@@ -5734,7 +6507,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="26.25">
+    <row r="61" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>226</v>
       </c>
@@ -5745,7 +6518,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="39">
+    <row r="62" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>226</v>
       </c>
@@ -5756,7 +6529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="64.5">
+    <row r="63" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>226</v>
       </c>
@@ -5767,7 +6540,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="39">
+    <row r="64" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>226</v>
       </c>
@@ -5778,436 +6551,630 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="39">
-      <c r="A65" s="21" t="s">
+    <row r="65" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="C65" s="20" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="39">
+      <c r="C65" s="18" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="153.75">
-      <c r="A70" s="2" t="s">
+    <row r="78" spans="1:5" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="26.25">
-      <c r="A71" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="2" t="s">
+    <row r="79" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" s="2" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="26.25">
-      <c r="A73" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73" s="2" t="s">
+    <row r="81" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="64.5">
-      <c r="A74" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="2" t="s">
+    <row r="82" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="51.75">
-      <c r="A75" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B75" s="2" t="s">
+    <row r="83" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="39">
-      <c r="A76" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B76" s="2" t="s">
+    <row r="84" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="51.75">
-      <c r="A77" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77" s="2" t="s">
+    <row r="85" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="102.75">
-      <c r="A78" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78" s="2" t="s">
+    <row r="86" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="26.25">
-      <c r="A79" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" s="2" t="s">
+    <row r="87" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="26.25">
-      <c r="A80" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" s="2" t="s">
+    <row r="88" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="166.5">
-      <c r="A81" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B81" s="2" t="s">
+    <row r="89" spans="1:4" ht="166.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="39">
-      <c r="A82" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B82" s="2" t="s">
+    <row r="90" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="64.5">
-      <c r="A83" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B83" s="2" t="s">
+    <row r="91" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="26.25">
-      <c r="A84" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B84" s="2" t="s">
+    <row r="92" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="64.5">
-      <c r="A85" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B85" s="2" t="s">
+    <row r="93" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="102.75">
-      <c r="A86" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B86" s="2" t="s">
+    <row r="94" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="77.25">
-      <c r="A87" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B87" s="2" t="s">
+    <row r="95" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="39">
-      <c r="A88" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B88" s="2" t="s">
+    <row r="96" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="26.25">
-      <c r="A89" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B89" s="2" t="s">
+    <row r="97" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="39">
-      <c r="A90" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B90" s="2" t="s">
+    <row r="98" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C98" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="26.25">
-      <c r="A91" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B91" s="2" t="s">
+    <row r="99" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="26.25">
-      <c r="A92" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B92" s="2" t="s">
+    <row r="100" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C100" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="26.25">
-      <c r="A93" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B93" s="2" t="s">
+    <row r="101" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="51.75">
-      <c r="A94" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B94" s="2" t="s">
+    <row r="102" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="77.25">
-      <c r="A95" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B95" s="2" t="s">
+    <row r="103" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C103" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="26.25">
-      <c r="A96" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B96" s="2" t="s">
+    <row r="104" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="39">
-      <c r="A97" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B97" s="2" t="s">
+    <row r="105" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="39">
-      <c r="A98" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B98" s="2" t="s">
+    <row r="106" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="39">
-      <c r="A99" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B99" s="2" t="s">
+    <row r="107" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D107" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="128.25">
-      <c r="B100" s="13" t="s">
+    <row r="108" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="B108" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="314.25" customHeight="1">
-      <c r="B101" s="2" t="s">
+    <row r="109" spans="1:5" ht="314.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
-      <c r="B104" s="2" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId3"/>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId4"/>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId5"/>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId6"/>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId7"/>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId8"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2438400</xdr:colOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>533400</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId6">
+          <objectPr locked="0" defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>704850</xdr:colOff>
+                <xdr:row>85</xdr:row>
+                <xdr:rowOff>342900</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2562225</xdr:colOff>
+                <xdr:row>85</xdr:row>
+                <xdr:rowOff>781050</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>704850</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>666750</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1771650</xdr:colOff>
+                <xdr:row>51</xdr:row>
+                <xdr:rowOff>1076325</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId10">
+          <objectPr defaultSize="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>762000</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>476250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2619375</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>990600</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId12">
+          <objectPr defaultSize="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2171700</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>600075</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId14">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2276475</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="127.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1">
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6215,7 +7182,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="51.75">
+    <row r="2" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -6223,7 +7190,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -6231,7 +7198,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -6242,14 +7209,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F174"/>
   <sheetViews>
     <sheetView topLeftCell="A102" workbookViewId="0">
       <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.140625" bestFit="1" customWidth="1"/>
@@ -6259,7 +7226,7 @@
     <col min="6" max="6" width="96" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6279,7 +7246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="90">
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>172</v>
       </c>
@@ -6294,7 +7261,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="39">
+    <row r="3" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>172</v>
       </c>
@@ -6309,7 +7276,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25">
+    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>226</v>
       </c>
@@ -6326,7 +7293,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.75">
+    <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>226</v>
       </c>
@@ -6343,7 +7310,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="39">
+    <row r="6" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>226</v>
       </c>
@@ -6361,7 +7328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.25">
+    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>226</v>
       </c>
@@ -6376,7 +7343,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="26.25">
+    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>226</v>
       </c>
@@ -6396,7 +7363,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="26.25">
+    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -6411,7 +7378,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="39">
+    <row r="10" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -6426,7 +7393,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="26.25">
+    <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -6441,7 +7408,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="26.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -6456,7 +7423,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="26.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -6471,7 +7438,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -6486,7 +7453,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -6501,7 +7468,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="26.25">
+    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -6516,7 +7483,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -6531,7 +7498,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="26.25">
+    <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -6546,7 +7513,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="39">
+    <row r="19" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -6561,7 +7528,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="39">
+    <row r="20" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -6576,7 +7543,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="39">
+    <row r="21" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -6591,7 +7558,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -6606,7 +7573,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -6619,7 +7586,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -6632,7 +7599,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -6645,7 +7612,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -6658,7 +7625,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -6671,7 +7638,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
@@ -6684,7 +7651,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -6697,7 +7664,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -6710,7 +7677,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="26.25">
+    <row r="31" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>23</v>
       </c>
@@ -6725,7 +7692,7 @@
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="26.25">
+    <row r="32" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
@@ -6740,7 +7707,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="26.25">
+    <row r="33" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
@@ -6755,7 +7722,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="26.25">
+    <row r="34" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -6770,7 +7737,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="26.25">
+    <row r="35" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>23</v>
       </c>
@@ -6785,7 +7752,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="26.25">
+    <row r="36" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
@@ -6802,7 +7769,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28.5" customHeight="1">
+    <row r="37" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
@@ -6819,7 +7786,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="192">
+    <row r="38" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -6834,7 +7801,7 @@
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="77.25">
+    <row r="39" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>23</v>
       </c>
@@ -6849,7 +7816,7 @@
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>23</v>
       </c>
@@ -6862,7 +7829,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" ht="51.75">
+    <row r="41" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>23</v>
       </c>
@@ -6879,7 +7846,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="39">
+    <row r="42" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
@@ -6894,7 +7861,7 @@
       </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>23</v>
       </c>
@@ -6908,7 +7875,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="26.25">
+    <row r="44" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>198</v>
       </c>
@@ -6923,7 +7890,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" ht="39">
+    <row r="45" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>198</v>
       </c>
@@ -6940,7 +7907,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="64.5">
+    <row r="46" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>198</v>
       </c>
@@ -6957,7 +7924,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="64.5">
+    <row r="47" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>198</v>
       </c>
@@ -6972,7 +7939,7 @@
       </c>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" ht="51.75">
+    <row r="48" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>198</v>
       </c>
@@ -6987,7 +7954,7 @@
       </c>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:6" ht="77.25">
+    <row r="49" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>198</v>
       </c>
@@ -7004,7 +7971,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="26.25">
+    <row r="50" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>198</v>
       </c>
@@ -7019,7 +7986,7 @@
       </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:6" ht="39">
+    <row r="51" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>198</v>
       </c>
@@ -7034,7 +8001,7 @@
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:6" ht="64.5">
+    <row r="52" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>198</v>
       </c>
@@ -7047,11 +8014,11 @@
       <c r="D52" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="51.75">
+    <row r="53" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>23</v>
       </c>
@@ -7064,14 +8031,14 @@
       <c r="D53" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="13" t="s">
         <v>214</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="102.75">
+    <row r="54" spans="1:6" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>23</v>
       </c>
@@ -7091,7 +8058,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="39">
+    <row r="55" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>23</v>
       </c>
@@ -7108,7 +8075,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="39">
+    <row r="56" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>23</v>
       </c>
@@ -7125,7 +8092,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="51.75">
+    <row r="57" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>23</v>
       </c>
@@ -7140,7 +8107,7 @@
       </c>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="64.5">
+    <row r="58" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>23</v>
       </c>
@@ -7157,7 +8124,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>23</v>
       </c>
@@ -7172,7 +8139,7 @@
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>23</v>
       </c>
@@ -7187,7 +8154,7 @@
       </c>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="64.5">
+    <row r="61" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>23</v>
       </c>
@@ -7202,7 +8169,7 @@
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>23</v>
       </c>
@@ -7217,7 +8184,7 @@
       </c>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:6" ht="26.25">
+    <row r="63" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>23</v>
       </c>
@@ -7232,7 +8199,7 @@
       </c>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:6" ht="77.25">
+    <row r="64" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>23</v>
       </c>
@@ -7249,7 +8216,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="26.25">
+    <row r="65" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>23</v>
       </c>
@@ -7264,7 +8231,7 @@
       </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" ht="39">
+    <row r="66" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>23</v>
       </c>
@@ -7279,7 +8246,7 @@
       </c>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" ht="26.25">
+    <row r="67" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
         <v>252</v>
@@ -7292,7 +8259,7 @@
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" ht="26.25">
+    <row r="68" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>23</v>
       </c>
@@ -7309,7 +8276,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="26.25">
+    <row r="69" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>23</v>
       </c>
@@ -7324,7 +8291,7 @@
       </c>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" ht="51.75">
+    <row r="70" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>23</v>
       </c>
@@ -7339,7 +8306,7 @@
       </c>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" ht="26.25">
+    <row r="71" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>23</v>
       </c>
@@ -7354,7 +8321,7 @@
       </c>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>23</v>
       </c>
@@ -7369,7 +8336,7 @@
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" ht="26.25">
+    <row r="73" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>23</v>
       </c>
@@ -7384,7 +8351,7 @@
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" ht="26.25">
+    <row r="74" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>23</v>
       </c>
@@ -7399,7 +8366,7 @@
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" ht="26.25">
+    <row r="75" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>23</v>
       </c>
@@ -7416,7 +8383,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="26.25">
+    <row r="76" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>23</v>
       </c>
@@ -7431,7 +8398,7 @@
       </c>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" ht="39">
+    <row r="77" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>23</v>
       </c>
@@ -7448,7 +8415,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="39">
+    <row r="78" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>23</v>
       </c>
@@ -7465,7 +8432,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="141">
+    <row r="79" spans="1:5" ht="141" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>23</v>
       </c>
@@ -7482,7 +8449,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>23</v>
       </c>
@@ -7497,7 +8464,7 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" ht="115.5">
+    <row r="81" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>23</v>
       </c>
@@ -7514,7 +8481,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="26.25">
+    <row r="82" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>23</v>
       </c>
@@ -7531,7 +8498,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="26.25">
+    <row r="83" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>23</v>
       </c>
@@ -7546,7 +8513,7 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" ht="64.5">
+    <row r="84" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>23</v>
       </c>
@@ -7563,7 +8530,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="39">
+    <row r="85" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>23</v>
       </c>
@@ -7580,7 +8547,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="90">
+    <row r="86" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>23</v>
       </c>
@@ -7597,7 +8564,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="128.25">
+    <row r="87" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>23</v>
       </c>
@@ -7614,7 +8581,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="64.5">
+    <row r="88" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>23</v>
       </c>
@@ -7631,7 +8598,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="39">
+    <row r="89" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>23</v>
       </c>
@@ -7648,7 +8615,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>23</v>
       </c>
@@ -7665,7 +8632,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="26.25">
+    <row r="91" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>23</v>
       </c>
@@ -7680,7 +8647,7 @@
       </c>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" ht="115.5">
+    <row r="92" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>23</v>
       </c>
@@ -7695,7 +8662,7 @@
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" ht="51.75">
+    <row r="93" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>23</v>
       </c>
@@ -7712,7 +8679,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="51.75">
+    <row r="94" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>23</v>
       </c>
@@ -7729,7 +8696,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>23</v>
       </c>
@@ -7746,7 +8713,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="128.25">
+    <row r="96" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>198</v>
       </c>
@@ -7760,7 +8727,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="77.25">
+    <row r="97" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>198</v>
       </c>
@@ -7774,7 +8741,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="26.25">
+    <row r="98" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>198</v>
       </c>
@@ -7788,7 +8755,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="26.25">
+    <row r="99" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>198</v>
       </c>
@@ -7802,7 +8769,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="26.25">
+    <row r="100" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>198</v>
       </c>
@@ -7816,7 +8783,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="39">
+    <row r="101" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>198</v>
       </c>
@@ -7830,7 +8797,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="26.25">
+    <row r="102" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>198</v>
       </c>
@@ -7844,7 +8811,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="26.25">
+    <row r="103" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>198</v>
       </c>
@@ -7858,7 +8825,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="26.25">
+    <row r="104" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>198</v>
       </c>
@@ -7872,7 +8839,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="26.25">
+    <row r="105" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>198</v>
       </c>
@@ -7886,7 +8853,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="26.25">
+    <row r="106" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>198</v>
       </c>
@@ -7900,7 +8867,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="26.25">
+    <row r="107" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>198</v>
       </c>
@@ -7914,7 +8881,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="39">
+    <row r="108" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>198</v>
       </c>
@@ -7928,7 +8895,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>23</v>
       </c>
@@ -7942,7 +8909,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="64.5">
+    <row r="110" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>23</v>
       </c>
@@ -7962,21 +8929,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
       <c r="E112" s="2"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>153</v>
       </c>
@@ -7989,427 +8956,427 @@
       <c r="D113" s="3"/>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
       <c r="E116" s="2"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="3"/>
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
       <c r="E120" s="2"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
       <c r="E121" s="2"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
       <c r="E122" s="2"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
       <c r="E125" s="2"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="3"/>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3"/>
       <c r="E127" s="2"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
       <c r="E129" s="2"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="3"/>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3"/>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
       <c r="E135" s="2"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="3"/>
       <c r="E137" s="2"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="3"/>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
       <c r="E143" s="2"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
       <c r="E144" s="2"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="3"/>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="3"/>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
       <c r="E153" s="2"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
       <c r="E154" s="2"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="3"/>
       <c r="E157" s="2"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
       <c r="E160" s="2"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
       <c r="E161" s="2"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="3"/>
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="3"/>
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="3"/>
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
       <c r="E172" s="2"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -8423,14 +9390,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -8440,7 +9405,7 @@
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8457,7 +9422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>236</v>
       </c>
@@ -8472,7 +9437,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="26.25">
+    <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>236</v>
       </c>
@@ -8487,7 +9452,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="90">
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>172</v>
       </c>
@@ -8501,7 +9466,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>172</v>
       </c>
@@ -8515,7 +9480,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.25">
+    <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -8526,7 +9491,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="77.25">
+    <row r="7" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -8537,7 +9502,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="26.25">
+    <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -8551,7 +9516,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="26.25">
+    <row r="9" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -8562,7 +9527,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="26.25">
+    <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -8573,7 +9538,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="26.25">
+    <row r="11" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -8590,14 +9555,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="2" bestFit="1" customWidth="1"/>
@@ -8605,7 +9570,7 @@
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8615,9 +9580,9 @@
       <c r="C1" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>236</v>
       </c>
@@ -8629,7 +9594,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>236</v>
       </c>
@@ -8641,7 +9606,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>236</v>
       </c>
@@ -8653,7 +9618,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>391</v>
       </c>
@@ -8664,7 +9629,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>391</v>
       </c>
@@ -8675,7 +9640,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>172</v>
       </c>
@@ -8687,7 +9652,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -8704,14 +9669,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="B15" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="80.42578125" style="3" customWidth="1"/>
@@ -8719,7 +9684,7 @@
     <col min="4" max="4" width="46" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8733,7 +9698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="51.75">
+    <row r="3" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>236</v>
       </c>
@@ -8744,7 +9709,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>236</v>
       </c>
@@ -8755,7 +9720,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="77.25">
+    <row r="5" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>172</v>
       </c>
@@ -8766,7 +9731,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.25">
+    <row r="6" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>375</v>
       </c>
@@ -8774,22 +9739,22 @@
         <v>397</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="51.75">
+    <row r="10" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -8803,7 +9768,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="26.25">
+    <row r="11" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -8811,7 +9776,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="102.75">
+    <row r="12" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>236</v>
       </c>
@@ -8825,7 +9790,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="39">
+    <row r="13" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>236</v>
       </c>
@@ -8836,7 +9801,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="225" customHeight="1">
+    <row r="14" spans="1:4" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -8847,15 +9812,15 @@
         <v>475</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="51.75">
+    <row r="16" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -8866,7 +9831,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="90">
+    <row r="17" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -8874,7 +9839,18 @@
         <v>482</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>483</v>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -8884,34 +9860,474 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="13" width="15.7109375" style="20"/>
+    <col min="14" max="16384" width="15.7109375" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>489</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="46"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="39" t="s">
+        <v>493</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="41" t="s">
+        <v>494</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="41" t="s">
+        <v>495</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="42" t="s">
+        <v>496</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="42" t="s">
+        <v>497</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="41" t="s">
+        <v>492</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="48" t="s">
+        <v>501</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28" t="s">
+        <v>502</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="47" t="s">
+        <v>503</v>
+      </c>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="28" t="s">
+        <v>517</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:J8"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="C11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="17.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="95.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="133.85546875" style="8" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="4" customFormat="1" ht="15">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="2:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B1" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>387</v>
       </c>
@@ -8922,7 +10338,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>393</v>
       </c>
@@ -8930,7 +10346,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>394</v>
       </c>
@@ -8938,7 +10354,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="38.25">
+    <row r="5" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>379</v>
       </c>
@@ -8949,7 +10365,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>383</v>
       </c>
@@ -8960,7 +10376,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>385</v>
       </c>
@@ -8971,11 +10387,30 @@
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>471</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>382</v>
       </c>
     </row>
@@ -8985,22 +10420,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="107.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -9011,62 +10446,85 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="11" t="s">
+    <row r="2" spans="1:3" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="C3" s="11" t="s">
+    <row r="3" spans="1:3" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="C4" s="11" t="s">
+    <row r="4" spans="1:3" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:3" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="21" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:3" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20" t="s">
         <v>406</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="21" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:3" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="21" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="C8" s="19" t="s">
+    <row r="8" spans="1:3" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21" t="s">
         <v>469</v>
       </c>
     </row>
+    <row r="9" spans="1:3" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:3" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId6"/>
+    <hyperlink ref="C2" r:id="rId7"/>
+    <hyperlink ref="C4" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Others\Kamal\IP\IP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" r:id="rId1"/>
@@ -18,16 +13,17 @@
     <sheet name="Exceptions" sheetId="3" r:id="rId4"/>
     <sheet name="Abbrevations" sheetId="4" r:id="rId5"/>
     <sheet name="Tricky Questions" sheetId="5" r:id="rId6"/>
-    <sheet name="Other Info" sheetId="9" r:id="rId7"/>
+    <sheet name="OtherInfo" sheetId="10" r:id="rId7"/>
     <sheet name="Tools" sheetId="8" r:id="rId8"/>
     <sheet name="References" sheetId="6" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="552">
   <si>
     <t>Topic</t>
   </si>
@@ -4887,80 +4883,6 @@
     <t>When objects are promoted from young generation to old generation (Tenure space)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Promotion occurs in following situations:
-    1) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>-XX:+AlwaysTenure</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">  makes JVM to promote objects directly to old space instead of survivor  space (survivor spaces are not used in this case).
-    2) Once survivor space is full, all remaining live object are relocated directly to old space.
-    3) If object has survived certain number of young space collections, it will be promoted to old space (required number of collections can be adjusted using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>–XX:MaxTenuringThreshold</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> option and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>–XX:TargetSurvivorRatio</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> JVM options).</t>
-    </r>
-  </si>
-  <si>
     <t>http://blog.ragozin.info/2011/06/understanding-gc-pauses-in-jvm-hotspots.html</t>
   </si>
   <si>
@@ -4996,38 +4918,6 @@
     <t>Tabular Data</t>
   </si>
   <si>
-    <t xml:space="preserve">GC algorithms </t>
-  </si>
-  <si>
-    <t>VM Argument</t>
-  </si>
-  <si>
-    <t>Algorithm</t>
-  </si>
-  <si>
-    <t>–_x001E__x001F_</t>
-  </si>
-  <si>
-    <t>–_x001E__x001F_XX:+UseSerialGC</t>
-  </si>
-  <si>
-    <t>–_x001E__x001F_XX:+UseParallelGC</t>
-  </si>
-  <si>
-    <t>–_x001E__x001F_XX:+UseParallelOldGC</t>
-  </si>
-  <si>
-    <t>–_x001E__x001F_XX:+UseConcMarkSweepGC
-–XX:-UseParNewGC</t>
-  </si>
-  <si>
-    <t>–_x001E__x001F_XX:+UseConcMarkSweepGC
-–XX:+UseParNewGC</t>
-  </si>
-  <si>
-    <t>–_x001E__x001F_XX:+UseG1GC</t>
-  </si>
-  <si>
     <t>Thread Local Allocation Buffer</t>
   </si>
   <si>
@@ -5037,16 +4927,7 @@
     <t>VM Arguments</t>
   </si>
   <si>
-    <t>–_x001E__x001F_XX:+MaxTenuringThreshold</t>
-  </si>
-  <si>
     <t>Maximum value for tenuring threshold. The default value is 15</t>
-  </si>
-  <si>
-    <t>–_x001E__x001F_XX:MaxPermSize</t>
-  </si>
-  <si>
-    <t>–</t>
   </si>
   <si>
     <t>–XX:MaxMetaspaceSize</t>
@@ -5094,12 +4975,425 @@
   <si>
     <t>–XX:ParallelGCThreads</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Promotion occurs in following situations:
+    1) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>-XX:+AlwaysTenure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> makes JVM to promote objects directly to old space instead of survivor  space (survivor spaces are not used in this case).
+    2) Once survivor space is full, all remaining live object are relocated directly to old space.
+    3) If object has survived certain number of young space collections, it will be promoted to old space (required number of collections can be adjusted using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>–XX:MaxTenuringThreshold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> option and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>–XX:TargetSurvivorRatio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> JVM options).</t>
+    </r>
+  </si>
+  <si>
+    <t>–XX:+AlwaysTenure</t>
+  </si>
+  <si>
+    <t>Difference between Program Arguments and VM Arguments</t>
+  </si>
+  <si>
+    <t>"Program Arguments" are those arguments that are interpreted by YOUR program, ie. they are what appear in the String [] argument in YOUR main() function. As an example, your program may accept the name of a file that it loads, and the user passes this as a program argument.
+"VM Arguments" are those arguments that are interpreted by the JVM that will execute your program. These are for things like setting the memory allocation parameters and possible garbage collection settings. There are standard arguments that all JVM's should understand and then there are others that are specific to each JVM.</t>
+  </si>
+  <si>
+    <t>Java VM option format</t>
+  </si>
+  <si>
+    <t>Options that begins with hipen (-) are standard across different JVM implementations
+Options that begins with -X are non-standard (not guaranteed to be supported on all VM implementations) and are subject to change without notice in subsequent releases of the JDK. X stands for extension from standard
+Options that begins with -XX are not stable and are subject to change without notice.
+Boolean options are turned on with -XX:+&lt;option&gt; and turned off with -XX:-&lt;option&gt;.
+Numeric options are set with -XX:&lt;option&gt;=&lt;number&gt;. Numbers can include 'm' or 'M' for megabytes, 'k' or 'K' for kilobytes, and 'g' or 'G' for gigabytes (for example, 32k is the same as 32768).
+String options are set with -XX:&lt;option&gt;=&lt;string&gt;, are usually used to specify a file, a path, or a list of commands</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>VM Option Format</t>
+  </si>
+  <si>
+    <t>Java VM Option Format</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <t>–classpath</t>
+  </si>
+  <si>
+    <t>–Xms512m</t>
+  </si>
+  <si>
+    <r>
+      <t>Options that begins with hipen (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>) are standard across different JVM implementations</t>
+    </r>
+  </si>
+  <si>
+    <t>–XX:MaxPermSize=256m</t>
+  </si>
+  <si>
+    <r>
+      <t>Options that begins with –</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> are non-standard (not guaranteed to be supported on all VM implementations) and are subject to change without notice in subsequent releases of the JDK. X stands for extension from standard</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Options that begins with –</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> are not stable and are subject to change without notice.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Boolean options are turned on with –</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>XX:+&lt;option&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> and turned off with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>-XX:-&lt;option&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Numeric options are set with –</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>XX:&lt;option&gt;=&lt;number&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">. Numbers can include 'm' or 'M' for megabytes, 'k' or 'K' for kilobytes, and 'g' or 'G' for gigabytes </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">String options are set with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>–XX:&lt;option&gt;=&lt;string&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>, are usually used to specify a file, a path, or a list of commands</t>
+    </r>
+  </si>
+  <si>
+    <t>–XX:HeapDumpPath=/some/path/filename</t>
+  </si>
+  <si>
+    <t>Java VM Arguments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">–XX:MaxTenuringThreshold </t>
+  </si>
+  <si>
+    <t xml:space="preserve">–XX:MaxPermSize </t>
+  </si>
+  <si>
+    <t xml:space="preserve">–XX:+PrintGCDetails </t>
+  </si>
+  <si>
+    <t>XX:ParallelCMSThreads</t>
+  </si>
+  <si>
+    <t>Heap Memory arguments</t>
+  </si>
+  <si>
+    <t>Perm</t>
+  </si>
+  <si>
+    <t>JVM Server Mode vs Client Mode</t>
+  </si>
+  <si>
+    <t>Although the Server and the Client VMs are similar, the Server VM has been specially tuned to maximize peak operating speed. It is intended for executing long-running server applications, which need the fastest possible operating speed more than a fast start-up time or smaller runtime memory footprint.
+The Client VM compiler (Just-in Time compiler) does not try to execute many of the more complex optimizations performed by the compiler in the Server VM, but in exchange, it requires less time to analyze and compile a piece of code. This means the Client VM can start up faster and requires a smaller memory footprint.
+By default, memory size and garbage algorithm also differs between Client VM and Server VM.
+In general the client system is better suited for interactive applications such as GUIs and server for applications where the overall performance is most important.</t>
+  </si>
+  <si>
+    <t>InitiatingHeapOccupancyPercent</t>
+  </si>
+  <si>
+    <t>Sweeping/Deleting</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In Marking phase, all the reachable objects are marked as live objects and non-reachable objects are considered as dead or unused objects. In Sweeping or deleting phase, these non-reachable/unused objects are deleted so that new objects can be allocated in those space. Deleted is really a strange term when it comes to memory management. Objects are not actually deleted in the sense of blanking memory but it's merely returning the memory associated with those objects to the space that the memory system can allocate from - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Freelist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <t>Compacting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compacting is the process of moving the live/used objects towards one end of the heap thereby the other end becomes contiguous free area of memory. This contiguous free area of memory can then be used for allocation new objects. This process also involves updating memory references as the result of objects relocation. </t>
+  </si>
+  <si>
+    <t>Latency is the delay from input into a system to desired outcome. It is the term used to describe about the responsiveness of an application. Responsiveness refers to how quickly an application or system responds with a requested piece of data. Examples include:
+    1) How quickly a desktop UI responds to an event
+    2) How fast a website returns a page
+    3) How fast a database query is returned</t>
+  </si>
+  <si>
+    <t>Throughput focuses on maximizing the amount of work by an application in a specific period of time. Examples of how throughput might be measured include:
+    1) The number of transactions completed in a given time
+    2) The number of jobs that a batch program can complete in an hour
+    3) The number of database queries that can be completed in an hour
+High pause times are acceptable for applications that focus on throughput. Since high throughput applications focus on benchmarks over longer periods of time, quick response time is not a consideration</t>
+  </si>
+  <si>
+    <t>Mark and Sweep algorithms use conceptually the simplest approach for garbage collection by just ignoring unused or dead objects identified in marking phase. After marking phase has completed all space occupied by unvisited or dead objects are considered free and can thus be reused to allocate new objects.
+The approach requires using the so called free-list recording of every free region and its size. The management of the free-lists adds overhead to object allocation. Built into this approach is another weakness – there may exist plenty of free regions but if no single region is large enough to accommodate the allocation, the allocation is still going to fail.</t>
+  </si>
+  <si>
+    <t>Mark and Sweep Algorithm</t>
+  </si>
+  <si>
+    <t>Mark-Sweep-Compact algorithms solve the shortcomings of Mark and Sweep by moving all marked – and thus alive – objects to the beginning of the memory region. The downside of this approach is an increased GC pause duration as we need to copy all objects to a new place and to update all references to such objects. The benefits to Mark and Sweep are also visible – after such a compacting operation new object allocation is again extremely cheap via pointer bumping. Using such approach the location of the free space is always known and no fragmentation issues are triggered either</t>
+  </si>
+  <si>
+    <t>Mark-Sweep-Compact Algorithm</t>
+  </si>
+  <si>
+    <t>Mark and Copy algorithms are very similar to the Mark and Compact as they too relocate all live objects. The important difference is that the target of relocation is a different memory region as a new home for survivors. Mark and Copy approach has some advantages as copying can occur simultaneously with marking during the same phase. The disadvantage is the need for one more memory region, which should be large enough to accommodate survived objects</t>
+  </si>
+  <si>
+    <t>Mark and Copy Algorithm</t>
+  </si>
+  <si>
+    <t>Serial GC</t>
+  </si>
+  <si>
+    <t>This collection of garbage collectors uses mark-copy for the Young Generation and mark-sweep-compact for the Old Generation. As the name implies – both of these collectors are single-threaded collectors, incapable of parallelizing the task at hand. Both collectors also trigger stop-the-world pauses, stopping all application threads.
+This GC algorithm cannot thus take advantage of multiple CPU cores commonly found in modern hardware. Independent of the number of cores available, just one is used by the JVM during garbage collection</t>
+  </si>
+  <si>
+    <t>This Garbage Collectors uses mark-copy in the Young Generation and mark-sweep-compact in the Old Generation. Both Young and Old collections trigger stop-the-world events, stopping all application threads to perform garbage collection. Both collectors run marking and copying / compacting phases using multiple threads, hence the name ‘Parallel’. Using this approach, collection times can be considerably reduced. 
+Parallel Garbage Collector is suitable on multi-core machines in cases where your primary goal is to increase throughput. Higher throughput is achieved due to more efficient usage of system resources:
+    # During collection, all cores are cleaning the garbage in parallel, resulting in shorter pauses
+    # Between garbage collection cycles neither of the collectors is consuming any resources
+On the other hand, as all phases of the collection have to happen without any interruptions, these collectors are still susceptible to long pauses during which your application threads are stopped. So if latency is your primary goal, you should check the next combinations of garbage collectors</t>
+  </si>
+  <si>
+    <t>Parallel GC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5190,14 +5484,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Cambria"/>
@@ -5241,23 +5527,33 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -5425,6 +5721,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5433,7 +5827,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5466,68 +5860,138 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5544,323 +6008,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
-          <xdr:row>62</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>2438400</xdr:colOff>
-          <xdr:row>62</xdr:row>
-          <xdr:rowOff>533400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
-          <xdr:row>85</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>2562225</xdr:colOff>
-          <xdr:row>85</xdr:row>
-          <xdr:rowOff>781050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1027"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData fLocksWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>666750</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1771650</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>1076325</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1029"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>762000</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>476250</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>2619375</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>990600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1035" name="Object 11" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1035"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>828675</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>2171700</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>600075</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1036" name="Object 12" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1036"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>819150</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>2276475</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1037" name="Object 13" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1037"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5906,7 +6053,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5938,10 +6085,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5973,7 +6119,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6149,23 +6294,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="98.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="77.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="97.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6182,999 +6327,1020 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="4" customFormat="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="102.75">
       <c r="A3" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="90">
       <c r="A4" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="115.5">
+      <c r="A5" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:5" ht="51.75">
+      <c r="A9" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="1:5" ht="30.75" customHeight="1">
+      <c r="B10" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="39">
       <c r="A11" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="64.5">
       <c r="A12" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="39">
       <c r="A13" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="26.25">
       <c r="A14" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="39">
+      <c r="A15" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="1:5" ht="51.75">
+      <c r="B16" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+    <row r="17" spans="1:3" ht="26.25">
+      <c r="B17" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="179.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="179.25">
       <c r="A26" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="26.25">
       <c r="A27" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="51.75">
       <c r="A28" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="77.25">
       <c r="A29" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="39">
       <c r="A30" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="90">
       <c r="A31" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="64.5">
       <c r="A32" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="51.75">
       <c r="A33" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="64.5">
       <c r="A34" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="26.25">
       <c r="A37" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="51.75">
       <c r="A39" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="64.5">
       <c r="A40" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="39">
       <c r="A41" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="64.5">
       <c r="A52" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="128.25">
       <c r="A53" s="2" t="s">
         <v>391</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="26.25">
       <c r="A62" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>5</v>
+        <v>226</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="39">
       <c r="A63" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="64.5">
       <c r="A64" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="39">
+      <c r="A65" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
+    <row r="66" spans="1:5" ht="39">
+      <c r="A66" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B66" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C66" s="16" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="67" spans="1:5" ht="51.75">
+      <c r="A67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="90">
       <c r="A69" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="102.75">
+      <c r="A70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="B70" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="64.5">
+      <c r="A71" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="B71" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E71" s="22"/>
+    </row>
+    <row r="72" spans="1:5" ht="39">
+      <c r="A72" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="77.25">
+      <c r="A73" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E73" s="29"/>
+    </row>
+    <row r="74" spans="1:5" ht="64.5">
+      <c r="A74" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E74" s="29"/>
+    </row>
+    <row r="75" spans="1:5" ht="51.75">
+      <c r="A75" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>547</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E75" s="29"/>
+    </row>
+    <row r="76" spans="1:5" ht="64.5">
+      <c r="A76" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>548</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="E76" s="29"/>
+    </row>
+    <row r="77" spans="1:5" ht="141">
+      <c r="A77" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>551</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E77" s="29"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="29"/>
+      <c r="B78" s="29"/>
+      <c r="E78" s="29"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="29"/>
+      <c r="B79" s="29"/>
+      <c r="E79" s="29"/>
+    </row>
+    <row r="81" spans="1:5" ht="77.25">
+      <c r="A81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="90">
+      <c r="A82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="39">
+      <c r="A85" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="153.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="87" spans="1:5" ht="153.75">
+      <c r="A87" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" s="2" t="s">
+    <row r="88" spans="1:5" ht="26.25">
+      <c r="A88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" s="2" t="s">
+    <row r="89" spans="1:5">
+      <c r="A89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B81" s="2" t="s">
+    <row r="90" spans="1:5" ht="26.25">
+      <c r="A90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B82" s="2" t="s">
+    <row r="91" spans="1:5" ht="64.5">
+      <c r="A91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B83" s="2" t="s">
+    <row r="92" spans="1:5" ht="51.75">
+      <c r="A92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B84" s="2" t="s">
+    <row r="93" spans="1:5" ht="39">
+      <c r="A93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B85" s="2" t="s">
+    <row r="94" spans="1:5" ht="51.75">
+      <c r="A94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B86" s="2" t="s">
+    <row r="95" spans="1:5" ht="102.75">
+      <c r="A95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B87" s="2" t="s">
+    <row r="96" spans="1:5" ht="26.25">
+      <c r="A96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C96" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B88" s="2" t="s">
+    <row r="97" spans="1:4" ht="26.25">
+      <c r="A97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="166.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B89" s="2" t="s">
+    <row r="98" spans="1:4" ht="166.5">
+      <c r="A98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D98" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B90" s="2" t="s">
+    <row r="99" spans="1:4" ht="39">
+      <c r="A99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D99" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B91" s="2" t="s">
+    <row r="100" spans="1:4" ht="64.5">
+      <c r="A100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B92" s="2" t="s">
+    <row r="101" spans="1:4" ht="26.25">
+      <c r="A101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B93" s="2" t="s">
+    <row r="102" spans="1:4" ht="64.5">
+      <c r="A102" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B94" s="2" t="s">
+    <row r="103" spans="1:4" ht="102.75">
+      <c r="A103" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C103" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B95" s="2" t="s">
+    <row r="104" spans="1:4" ht="77.25">
+      <c r="A104" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D104" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="39" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B96" s="2" t="s">
+    <row r="105" spans="1:4" ht="39">
+      <c r="A105" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D105" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B97" s="2" t="s">
+    <row r="106" spans="1:4" ht="26.25">
+      <c r="A106" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B98" s="2" t="s">
+    <row r="107" spans="1:4" ht="39">
+      <c r="A107" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C107" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B99" s="2" t="s">
+    <row r="108" spans="1:4" ht="26.25">
+      <c r="A108" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B100" s="2" t="s">
+    <row r="109" spans="1:4" ht="26.25">
+      <c r="A109" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C109" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B101" s="2" t="s">
+    <row r="110" spans="1:4" ht="26.25">
+      <c r="A110" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B102" s="2" t="s">
+    <row r="111" spans="1:4" ht="51.75">
+      <c r="A111" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B103" s="2" t="s">
+    <row r="112" spans="1:4" ht="77.25">
+      <c r="A112" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B104" s="2" t="s">
+    <row r="113" spans="1:5" ht="26.25">
+      <c r="A113" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B105" s="2" t="s">
+    <row r="114" spans="1:5" ht="39">
+      <c r="A114" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B106" s="2" t="s">
+    <row r="115" spans="1:5" ht="39">
+      <c r="A115" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C115" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="39" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B107" s="2" t="s">
+    <row r="116" spans="1:5" ht="39">
+      <c r="A116" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D116" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="B108" s="12" t="s">
+    <row r="117" spans="1:5" ht="128.25">
+      <c r="B117" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="314.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="2" t="s">
+    <row r="118" spans="1:5" ht="314.25" customHeight="1">
+      <c r="B118" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+    <row r="121" spans="1:5">
+      <c r="B121" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>62</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2438400</xdr:colOff>
-                <xdr:row>62</xdr:row>
-                <xdr:rowOff>533400</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId6">
-          <objectPr locked="0" defaultSize="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
-                <xdr:row>85</xdr:row>
-                <xdr:rowOff>342900</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2562225</xdr:colOff>
-                <xdr:row>85</xdr:row>
-                <xdr:rowOff>781050</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId8">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>666750</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1771650</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>1076325</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId10">
-          <objectPr defaultSize="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>762000</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>476250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2619375</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>990600</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId12">
-          <objectPr defaultSize="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2171700</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>600075</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId14">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2276475</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>390525</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId3"/>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId4"/>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId5"/>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId6"/>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId7"/>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId8"/>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1040" r:id="rId9"/>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1041" r:id="rId10"/>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1042" r:id="rId11"/>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId12"/>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId13"/>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId14"/>
   </oleObjects>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="28" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="127.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="4" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7182,7 +7348,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="51.75">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -7190,7 +7356,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -7198,7 +7364,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -7209,14 +7375,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F174"/>
   <sheetViews>
     <sheetView topLeftCell="A102" workbookViewId="0">
       <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.140625" bestFit="1" customWidth="1"/>
@@ -7226,7 +7392,7 @@
     <col min="6" max="6" width="96" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7246,7 +7412,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="90">
       <c r="A2" s="2" t="s">
         <v>172</v>
       </c>
@@ -7261,7 +7427,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="39">
       <c r="A3" s="2" t="s">
         <v>172</v>
       </c>
@@ -7276,7 +7442,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="26.25">
       <c r="A4" s="2" t="s">
         <v>226</v>
       </c>
@@ -7293,7 +7459,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="51.75">
       <c r="A5" s="2" t="s">
         <v>226</v>
       </c>
@@ -7310,7 +7476,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="39">
       <c r="A6" s="2" t="s">
         <v>226</v>
       </c>
@@ -7328,7 +7494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="26.25">
       <c r="A7" s="2" t="s">
         <v>226</v>
       </c>
@@ -7343,7 +7509,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="26.25">
       <c r="A8" s="2" t="s">
         <v>226</v>
       </c>
@@ -7363,7 +7529,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="26.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -7378,7 +7544,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="39">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -7393,7 +7559,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="26.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -7408,7 +7574,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -7423,7 +7589,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -7438,7 +7604,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -7453,7 +7619,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -7468,7 +7634,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="26.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -7483,7 +7649,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -7498,7 +7664,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="26.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -7513,7 +7679,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="39">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -7528,7 +7694,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="39">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -7543,7 +7709,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="39">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -7558,7 +7724,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -7573,7 +7739,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -7586,7 +7752,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -7599,7 +7765,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -7612,7 +7778,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -7625,7 +7791,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -7638,7 +7804,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
@@ -7651,7 +7817,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -7664,7 +7830,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -7677,7 +7843,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="26.25">
       <c r="A31" s="2" t="s">
         <v>23</v>
       </c>
@@ -7692,7 +7858,7 @@
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="26.25">
       <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
@@ -7707,7 +7873,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="26.25">
       <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
@@ -7722,7 +7888,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="26.25">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -7737,7 +7903,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="26.25">
       <c r="A35" s="2" t="s">
         <v>23</v>
       </c>
@@ -7752,7 +7918,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="26.25">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
@@ -7769,7 +7935,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="28.5" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
@@ -7786,7 +7952,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="192">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -7801,7 +7967,7 @@
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="77.25">
       <c r="A39" s="2" t="s">
         <v>23</v>
       </c>
@@ -7816,7 +7982,7 @@
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
         <v>23</v>
       </c>
@@ -7829,7 +7995,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="51.75">
       <c r="A41" s="2" t="s">
         <v>23</v>
       </c>
@@ -7846,7 +8012,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="39">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
@@ -7861,7 +8027,7 @@
       </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>23</v>
       </c>
@@ -7875,7 +8041,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="26.25">
       <c r="A44" s="3" t="s">
         <v>198</v>
       </c>
@@ -7890,7 +8056,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="39">
       <c r="A45" s="3" t="s">
         <v>198</v>
       </c>
@@ -7907,7 +8073,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="64.5">
       <c r="A46" s="3" t="s">
         <v>198</v>
       </c>
@@ -7924,7 +8090,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="64.5">
       <c r="A47" s="3" t="s">
         <v>198</v>
       </c>
@@ -7939,7 +8105,7 @@
       </c>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="51.75">
       <c r="A48" s="3" t="s">
         <v>198</v>
       </c>
@@ -7954,7 +8120,7 @@
       </c>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="77.25">
       <c r="A49" s="3" t="s">
         <v>198</v>
       </c>
@@ -7971,7 +8137,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="26.25">
       <c r="A50" s="3" t="s">
         <v>198</v>
       </c>
@@ -7986,7 +8152,7 @@
       </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="39">
       <c r="A51" s="3" t="s">
         <v>198</v>
       </c>
@@ -8001,7 +8167,7 @@
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="64.5">
       <c r="A52" s="3" t="s">
         <v>198</v>
       </c>
@@ -8018,7 +8184,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="51.75">
       <c r="A53" s="2" t="s">
         <v>23</v>
       </c>
@@ -8038,7 +8204,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="102.75">
       <c r="A54" s="2" t="s">
         <v>23</v>
       </c>
@@ -8058,7 +8224,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="39">
       <c r="A55" s="2" t="s">
         <v>23</v>
       </c>
@@ -8075,7 +8241,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="39">
       <c r="A56" s="2" t="s">
         <v>23</v>
       </c>
@@ -8092,7 +8258,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="51.75">
       <c r="A57" s="2" t="s">
         <v>23</v>
       </c>
@@ -8107,7 +8273,7 @@
       </c>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="64.5">
       <c r="A58" s="2" t="s">
         <v>23</v>
       </c>
@@ -8124,7 +8290,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
         <v>23</v>
       </c>
@@ -8139,7 +8305,7 @@
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
         <v>23</v>
       </c>
@@ -8154,7 +8320,7 @@
       </c>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="64.5">
       <c r="A61" s="2" t="s">
         <v>23</v>
       </c>
@@ -8169,7 +8335,7 @@
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
         <v>23</v>
       </c>
@@ -8184,7 +8350,7 @@
       </c>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="26.25">
       <c r="A63" s="2" t="s">
         <v>23</v>
       </c>
@@ -8199,7 +8365,7 @@
       </c>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="77.25">
       <c r="A64" s="2" t="s">
         <v>23</v>
       </c>
@@ -8216,7 +8382,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="26.25">
       <c r="A65" s="2" t="s">
         <v>23</v>
       </c>
@@ -8231,7 +8397,7 @@
       </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="39">
       <c r="A66" s="2" t="s">
         <v>23</v>
       </c>
@@ -8246,7 +8412,7 @@
       </c>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="26.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
         <v>252</v>
@@ -8259,7 +8425,7 @@
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="26.25">
       <c r="A68" s="2" t="s">
         <v>23</v>
       </c>
@@ -8276,7 +8442,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="26.25">
       <c r="A69" s="2" t="s">
         <v>23</v>
       </c>
@@ -8291,7 +8457,7 @@
       </c>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="51.75">
       <c r="A70" s="2" t="s">
         <v>23</v>
       </c>
@@ -8306,7 +8472,7 @@
       </c>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="26.25">
       <c r="A71" s="2" t="s">
         <v>23</v>
       </c>
@@ -8321,7 +8487,7 @@
       </c>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
         <v>23</v>
       </c>
@@ -8336,7 +8502,7 @@
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="26.25">
       <c r="A73" s="2" t="s">
         <v>23</v>
       </c>
@@ -8351,7 +8517,7 @@
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="26.25">
       <c r="A74" s="2" t="s">
         <v>23</v>
       </c>
@@ -8366,7 +8532,7 @@
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="26.25">
       <c r="A75" s="2" t="s">
         <v>23</v>
       </c>
@@ -8383,7 +8549,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="26.25">
       <c r="A76" s="2" t="s">
         <v>23</v>
       </c>
@@ -8398,7 +8564,7 @@
       </c>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="39">
       <c r="A77" s="2" t="s">
         <v>23</v>
       </c>
@@ -8415,7 +8581,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="39">
       <c r="A78" s="2" t="s">
         <v>23</v>
       </c>
@@ -8432,7 +8598,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="141" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="141">
       <c r="A79" s="2" t="s">
         <v>23</v>
       </c>
@@ -8449,7 +8615,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
         <v>23</v>
       </c>
@@ -8464,7 +8630,7 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="115.5">
       <c r="A81" s="2" t="s">
         <v>23</v>
       </c>
@@ -8481,7 +8647,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="26.25">
       <c r="A82" s="2" t="s">
         <v>23</v>
       </c>
@@ -8498,7 +8664,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="26.25">
       <c r="A83" s="2" t="s">
         <v>23</v>
       </c>
@@ -8513,7 +8679,7 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="64.5">
       <c r="A84" s="2" t="s">
         <v>23</v>
       </c>
@@ -8530,7 +8696,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="39">
       <c r="A85" s="2" t="s">
         <v>23</v>
       </c>
@@ -8547,7 +8713,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="90">
       <c r="A86" s="2" t="s">
         <v>23</v>
       </c>
@@ -8564,7 +8730,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="128.25">
       <c r="A87" s="2" t="s">
         <v>23</v>
       </c>
@@ -8581,7 +8747,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="64.5">
       <c r="A88" s="2" t="s">
         <v>23</v>
       </c>
@@ -8598,7 +8764,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="39">
       <c r="A89" s="2" t="s">
         <v>23</v>
       </c>
@@ -8615,7 +8781,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
         <v>23</v>
       </c>
@@ -8632,7 +8798,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="26.25">
       <c r="A91" s="2" t="s">
         <v>23</v>
       </c>
@@ -8647,7 +8813,7 @@
       </c>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="115.5">
       <c r="A92" s="2" t="s">
         <v>23</v>
       </c>
@@ -8662,7 +8828,7 @@
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="51.75">
       <c r="A93" s="2" t="s">
         <v>23</v>
       </c>
@@ -8679,7 +8845,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="51.75">
       <c r="A94" s="2" t="s">
         <v>23</v>
       </c>
@@ -8696,7 +8862,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
         <v>23</v>
       </c>
@@ -8713,7 +8879,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="128.25">
       <c r="A96" s="3" t="s">
         <v>198</v>
       </c>
@@ -8727,7 +8893,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="77.25">
       <c r="A97" s="3" t="s">
         <v>198</v>
       </c>
@@ -8741,7 +8907,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="26.25">
       <c r="A98" s="3" t="s">
         <v>198</v>
       </c>
@@ -8755,7 +8921,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="26.25">
       <c r="A99" s="3" t="s">
         <v>198</v>
       </c>
@@ -8769,7 +8935,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="26.25">
       <c r="A100" s="3" t="s">
         <v>198</v>
       </c>
@@ -8783,7 +8949,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="39">
       <c r="A101" s="3" t="s">
         <v>198</v>
       </c>
@@ -8797,7 +8963,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="26.25">
       <c r="A102" s="3" t="s">
         <v>198</v>
       </c>
@@ -8811,7 +8977,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="26.25">
       <c r="A103" s="3" t="s">
         <v>198</v>
       </c>
@@ -8825,7 +8991,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="26.25">
       <c r="A104" s="3" t="s">
         <v>198</v>
       </c>
@@ -8839,7 +9005,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="26.25">
       <c r="A105" s="3" t="s">
         <v>198</v>
       </c>
@@ -8853,7 +9019,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="26.25">
       <c r="A106" s="3" t="s">
         <v>198</v>
       </c>
@@ -8867,7 +9033,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="26.25">
       <c r="A107" s="3" t="s">
         <v>198</v>
       </c>
@@ -8881,7 +9047,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="39">
       <c r="A108" s="3" t="s">
         <v>198</v>
       </c>
@@ -8895,7 +9061,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109" s="2" t="s">
         <v>23</v>
       </c>
@@ -8909,7 +9075,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="64.5">
       <c r="A110" s="2" t="s">
         <v>23</v>
       </c>
@@ -8929,21 +9095,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
       <c r="E112" s="2"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
         <v>153</v>
       </c>
@@ -8956,427 +9122,427 @@
       <c r="D113" s="3"/>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
       <c r="E116" s="2"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="3"/>
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
       <c r="E120" s="2"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
       <c r="E121" s="2"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
       <c r="E122" s="2"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
       <c r="E125" s="2"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="3"/>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3"/>
       <c r="E127" s="2"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
       <c r="E129" s="2"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="3"/>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3"/>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
       <c r="E135" s="2"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="3"/>
       <c r="E137" s="2"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="3"/>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
       <c r="E143" s="2"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
       <c r="E144" s="2"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="3"/>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="3"/>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
       <c r="E153" s="2"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
       <c r="E154" s="2"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="3"/>
       <c r="E157" s="2"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
       <c r="E160" s="2"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
       <c r="E161" s="2"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="3"/>
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="3"/>
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="3"/>
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
       <c r="E172" s="2"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -9390,12 +9556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -9405,7 +9573,7 @@
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -9422,7 +9590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>236</v>
       </c>
@@ -9437,7 +9605,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="26.25">
       <c r="A3" s="2" t="s">
         <v>236</v>
       </c>
@@ -9452,7 +9620,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="90">
       <c r="A4" s="2" t="s">
         <v>172</v>
       </c>
@@ -9466,7 +9634,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>172</v>
       </c>
@@ -9480,7 +9648,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="26.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -9491,7 +9659,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="77.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -9502,7 +9670,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="26.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -9516,7 +9684,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="26.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -9527,7 +9695,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="26.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -9538,7 +9706,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="26.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -9555,14 +9723,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="2" bestFit="1" customWidth="1"/>
@@ -9570,7 +9738,7 @@
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -9582,7 +9750,7 @@
       </c>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>236</v>
       </c>
@@ -9594,7 +9762,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>236</v>
       </c>
@@ -9606,7 +9774,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>236</v>
       </c>
@@ -9618,7 +9786,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>391</v>
       </c>
@@ -9629,7 +9797,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>391</v>
       </c>
@@ -9640,7 +9808,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>172</v>
       </c>
@@ -9652,7 +9820,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -9669,22 +9837,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="80.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="107.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="102.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="46" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -9698,7 +9866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="51.75">
       <c r="A3" s="2" t="s">
         <v>236</v>
       </c>
@@ -9709,7 +9877,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>236</v>
       </c>
@@ -9720,7 +9888,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="90">
       <c r="A5" s="2" t="s">
         <v>172</v>
       </c>
@@ -9731,7 +9899,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="26.25">
       <c r="B6" s="3" t="s">
         <v>375</v>
       </c>
@@ -9739,22 +9907,22 @@
         <v>397</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="B7" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="B8" s="10" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="B9" s="10" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="51.75">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -9768,7 +9936,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="26.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -9776,7 +9944,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="102.75">
       <c r="A12" s="2" t="s">
         <v>236</v>
       </c>
@@ -9790,7 +9958,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="39">
       <c r="A13" s="2" t="s">
         <v>236</v>
       </c>
@@ -9801,7 +9969,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="225" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -9812,7 +9980,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="12" t="s">
         <v>5</v>
       </c>
@@ -9820,7 +9988,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="64.5">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -9831,7 +9999,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="64.5">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -9839,10 +10007,10 @@
         <v>482</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="77.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -9850,7 +10018,29 @@
         <v>484</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>485</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="90">
+      <c r="A19" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="115.5">
+      <c r="A20" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -9860,439 +10050,1230 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:J21"/>
+    <sheetView topLeftCell="C5" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="13" width="15.7109375" style="20"/>
-    <col min="14" max="16384" width="15.7109375" style="23"/>
+    <col min="1" max="2" width="10.7109375" style="2"/>
+    <col min="3" max="3" width="2.7109375" style="22" customWidth="1"/>
+    <col min="4" max="18" width="10.7109375" style="2"/>
+    <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:20" ht="15" customHeight="1" thickTop="1">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>488</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>489</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="34" t="s">
-        <v>491</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>490</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="32" t="s">
-        <v>10</v>
-      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="54" t="s">
+        <v>487</v>
+      </c>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="56"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="59"/>
+    </row>
+    <row r="3" spans="1:20" s="22" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A3" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="39" t="s">
-        <v>493</v>
-      </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="41" t="s">
-        <v>494</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="42" t="s">
-        <v>496</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="29"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="42" t="s">
-        <v>497</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="29"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="41" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="64"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="50" t="s">
+        <v>514</v>
+      </c>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="65"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>513</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34" t="s">
+        <v>515</v>
+      </c>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="65"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" customHeight="1">
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="23">
+        <v>1</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>518</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="65"/>
+    </row>
+    <row r="7" spans="1:20" ht="30" customHeight="1">
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="24">
+        <v>2</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>520</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="65"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" customHeight="1">
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="24">
+        <v>3</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>521</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="65"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1">
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="24">
+        <v>4</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>522</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="65"/>
+    </row>
+    <row r="10" spans="1:20" ht="30" customHeight="1">
+      <c r="A10" s="72"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="24">
+        <v>5</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="65"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="A11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="25">
+        <v>6</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="65"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="A12" s="74"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="66"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="26"/>
+    </row>
+    <row r="14" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="50" t="s">
+        <v>526</v>
+      </c>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="26"/>
+    </row>
+    <row r="15" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="34" t="s">
+        <v>490</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="26"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="35" t="s">
+        <v>527</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="26"/>
+    </row>
+    <row r="17" spans="1:20" ht="15" customHeight="1">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="26"/>
+    </row>
+    <row r="18" spans="1:20" ht="15" customHeight="1">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="31" t="s">
         <v>492</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="29"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="43" t="s">
-        <v>498</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="44" t="s">
-        <v>501</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="46"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="48" t="s">
-        <v>501</v>
-      </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28" t="s">
-        <v>502</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="47" t="s">
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="26"/>
+    </row>
+    <row r="19" spans="1:20" ht="15" customHeight="1">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="31" t="s">
+        <v>529</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="26"/>
+    </row>
+    <row r="20" spans="1:20" ht="15" customHeight="1">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="31" t="s">
         <v>503</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28" t="s">
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="26"/>
+    </row>
+    <row r="21" spans="1:20" ht="15" customHeight="1">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="31" t="s">
         <v>504</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="28" t="s">
-        <v>514</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="28" t="s">
-        <v>517</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="28" t="s">
-        <v>518</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="28" t="s">
-        <v>519</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="28" t="s">
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="26"/>
+    </row>
+    <row r="22" spans="1:20" ht="15" customHeight="1">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="31" t="s">
         <v>505</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="26"/>
+    </row>
+    <row r="23" spans="1:20" ht="15" customHeight="1">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="26"/>
+    </row>
+    <row r="24" spans="1:20" ht="15" customHeight="1">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="26"/>
+    </row>
+    <row r="25" spans="1:20" ht="15" customHeight="1">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="26"/>
+    </row>
+    <row r="26" spans="1:20" ht="15" customHeight="1">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="26"/>
+    </row>
+    <row r="27" spans="1:20" ht="15" customHeight="1">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="26"/>
+    </row>
+    <row r="28" spans="1:20" ht="15" customHeight="1">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="26"/>
+    </row>
+    <row r="29" spans="1:20" ht="15" customHeight="1">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="26"/>
+    </row>
+    <row r="30" spans="1:20" ht="15" customHeight="1">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="26"/>
+    </row>
+    <row r="31" spans="1:20" ht="15" customHeight="1">
+      <c r="A31" s="32"/>
+      <c r="B31" s="53"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+    </row>
+    <row r="32" spans="1:20" ht="15" customHeight="1">
+      <c r="A32" s="32"/>
+      <c r="B32" s="53"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+    </row>
+    <row r="33" spans="1:18" ht="15" customHeight="1">
+      <c r="A33" s="32"/>
+      <c r="B33" s="53"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+    </row>
+    <row r="34" spans="1:18" ht="15" customHeight="1">
+      <c r="A34" s="32"/>
+      <c r="B34" s="53"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+    </row>
+    <row r="35" spans="1:18" ht="15" customHeight="1">
+      <c r="A35" s="32"/>
+      <c r="B35" s="53"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+    </row>
+    <row r="36" spans="1:18" ht="15" customHeight="1">
+      <c r="A36" s="32"/>
+      <c r="B36" s="53"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+    </row>
+    <row r="37" spans="1:18" ht="15" customHeight="1">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+    </row>
+    <row r="38" spans="1:18" ht="15" customHeight="1">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+    </row>
+    <row r="39" spans="1:18" ht="15" customHeight="1">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+    </row>
+    <row r="40" spans="1:18" ht="15" customHeight="1">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+    </row>
+    <row r="41" spans="1:18" ht="15" customHeight="1">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+    </row>
+    <row r="42" spans="1:18" ht="15" customHeight="1">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+    </row>
+    <row r="43" spans="1:18" ht="15" customHeight="1">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+    </row>
+    <row r="44" spans="1:18" ht="15" customHeight="1">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+    </row>
+    <row r="45" spans="1:18" ht="15" customHeight="1">
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+    </row>
+    <row r="46" spans="1:18" ht="15" customHeight="1">
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
+    </row>
+    <row r="47" spans="1:18" ht="15" customHeight="1">
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+    </row>
+    <row r="48" spans="1:18" ht="15" customHeight="1">
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+    </row>
+    <row r="49" spans="1:2" ht="15" customHeight="1">
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+    </row>
+    <row r="50" spans="1:2" ht="15" customHeight="1">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+    </row>
+    <row r="51" spans="1:2" ht="15" customHeight="1">
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+    </row>
+    <row r="52" spans="1:2" ht="15" customHeight="1">
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+    </row>
+    <row r="53" spans="1:2" ht="15" customHeight="1">
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
+    </row>
+    <row r="54" spans="1:2" ht="15" customHeight="1">
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
+    </row>
+    <row r="55" spans="1:2" ht="15" customHeight="1">
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+    </row>
+    <row r="56" spans="1:2" ht="15" customHeight="1">
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+    </row>
+    <row r="57" spans="1:2" ht="15" customHeight="1">
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
+    </row>
+    <row r="58" spans="1:2" ht="15" customHeight="1">
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+    </row>
+    <row r="59" spans="1:2" ht="15" customHeight="1">
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+    </row>
+    <row r="60" spans="1:2" ht="15" customHeight="1">
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+    </row>
+    <row r="61" spans="1:2" ht="15" customHeight="1">
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+    </row>
+    <row r="62" spans="1:2" ht="15" customHeight="1">
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
+    </row>
+    <row r="63" spans="1:2" ht="15" customHeight="1">
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
+    </row>
+    <row r="64" spans="1:2" ht="15" customHeight="1">
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+    </row>
+    <row r="65" spans="1:2" ht="15" customHeight="1">
+      <c r="A65" s="30"/>
+      <c r="B65" s="30"/>
+    </row>
+    <row r="66" spans="1:2" ht="15" customHeight="1">
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
+    </row>
+    <row r="67" spans="1:2" ht="15" customHeight="1">
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
+    </row>
+    <row r="68" spans="1:2" ht="15" customHeight="1">
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+    </row>
+    <row r="69" spans="1:2" ht="15" customHeight="1">
+      <c r="A69" s="30"/>
+      <c r="B69" s="30"/>
+    </row>
+    <row r="70" spans="1:2" ht="15" customHeight="1">
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
+    </row>
+    <row r="71" spans="1:2" ht="15" customHeight="1">
+      <c r="A71" s="30"/>
+      <c r="B71" s="30"/>
+    </row>
+    <row r="72" spans="1:2" ht="15" customHeight="1">
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
+    </row>
+    <row r="73" spans="1:2" ht="15" customHeight="1">
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
+    </row>
+    <row r="74" spans="1:2" ht="15" customHeight="1">
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
+    </row>
+    <row r="75" spans="1:2" ht="15" customHeight="1">
+      <c r="A75" s="30"/>
+      <c r="B75" s="30"/>
+    </row>
+    <row r="76" spans="1:2" ht="15" customHeight="1">
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
+    </row>
+    <row r="77" spans="1:2" ht="15" customHeight="1">
+      <c r="A77" s="30"/>
+      <c r="B77" s="30"/>
+    </row>
+    <row r="78" spans="1:2" ht="15" customHeight="1">
+      <c r="A78" s="30"/>
+      <c r="B78" s="30"/>
+    </row>
+    <row r="79" spans="1:2" ht="15" customHeight="1">
+      <c r="A79" s="30"/>
+      <c r="B79" s="30"/>
+    </row>
+    <row r="80" spans="1:2" ht="15" customHeight="1">
+      <c r="A80" s="30"/>
+      <c r="B80" s="30"/>
+    </row>
+    <row r="81" spans="1:2" ht="15" customHeight="1">
+      <c r="A81" s="30"/>
+      <c r="B81" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:J8"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="C11:D11"/>
+  <mergeCells count="145">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D4:R4"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C1:S2"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="D12:R12"/>
+    <mergeCell ref="S3:S12"/>
+    <mergeCell ref="D13:R13"/>
+    <mergeCell ref="C13:C29"/>
+    <mergeCell ref="S13:S30"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A3:B12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D14:R14"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="E9:N9"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D3:R3"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:R20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:R21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:R22"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:R17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:R18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:R19"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:R15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:R16"/>
+    <mergeCell ref="E10:N10"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="G26:R26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:R27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:R28"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:R23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:R24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:R25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:R38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:R39"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:R35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:R36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:R37"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:R32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:R33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:R34"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:R29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:R30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:R31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10300,14 +11281,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="17.140625" style="5" customWidth="1"/>
@@ -10316,103 +11297,117 @@
     <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="15">
+      <c r="A1" s="21"/>
+      <c r="B1" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="25.5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="51">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="D9" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>382</v>
       </c>
+      <c r="D10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10421,21 +11416,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="107.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -10446,75 +11441,75 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+    <row r="2" spans="1:3" s="20" customFormat="1" ht="12">
+      <c r="A2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+    <row r="3" spans="1:3" s="20" customFormat="1" ht="12">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21" t="s">
+    <row r="4" spans="1:3" s="20" customFormat="1" ht="12">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20" t="s">
+    <row r="5" spans="1:3" s="20" customFormat="1" ht="12">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="1:3" s="20" customFormat="1" ht="12">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="1:3" s="20" customFormat="1" ht="12">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21" t="s">
+    <row r="8" spans="1:3" s="20" customFormat="1" ht="12">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:3" s="20" customFormat="1" ht="12">
+      <c r="A9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" s="22" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+      <c r="C9" s="19" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="20" customFormat="1" ht="12"/>
+    <row r="11" spans="1:3" s="20" customFormat="1" ht="12"/>
+    <row r="12" spans="1:3" s="20" customFormat="1" ht="12"/>
+    <row r="13" spans="1:3" s="20" customFormat="1" ht="12"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="583">
   <si>
     <t>Topic</t>
   </si>
@@ -5388,12 +5388,393 @@
   <si>
     <t>Parallel GC</t>
   </si>
+  <si>
+    <t>Mostly Concurrent Mark and Sweep GC</t>
+  </si>
+  <si>
+    <t>This GC uses the parallel stop-the-world mark-copy algorithm in the Young Generation (This slightly differs from the parallel collector used in Parallel GC's young generation) and the mostly concurrent mark-sweep algorithm in the Old Generation.
+This collector was designed to avoid long pauses while collecting in the Old Generation. It achieves this by two means. Firstly, it does not compact the Old Generation but uses free-lists to manage reclaimed space. Secondly, it does most of the job in the mark-and-sweep phases concurrently with the application. This means that garbage collection is not explicitly stopping the application threads to perform these phases. It should be noted, however, that it still competes for CPU time with the application threads. By default, the number of threads used by this GC algorithm equals to ¼ of the number of physical cores of your machine.
+This combination is a good choice on multi-core machines if your primary target is latency. Decreasing the duration of an individual GC pause directly affects the way your application is perceived by end-users, giving them a feel of a more responsive application. As most of the time at least some CPU resources are consumed by the GC and not executing your application’s code, CMS generally often worse throughput than Parallel GC in CPU-bound applications.</t>
+  </si>
+  <si>
+    <t>Different phases of Mostly CMS GC in Old Generation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Phase 1 Initial Mark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">: This is one of the two stop-the-world events during CMS. The goal of this phase is to mark all the objects in the Old Generation that are either direct GC roots or are referenced from some live object in the Young Generation. The latter is important since the Old Generation is collected separately.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Phase 2 Concurrent Mark:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> During this phase the Garbage Collector traverses the Old Generation and marks all live objects, starting from the roots found in the previous phase of “Initial Mark”. The “Concurrent Mark” phase, as its name suggests, runs concurrently with your application and does not stop the application threads. Note that not all the live objects in the Old Generation may be marked, since the application is mutating references during the marking.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Phase 3 Concurrent Preclean:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> This is again a concurrent phase, running in parallel with the application threads, not stopping them. While the previous phase was running concurrently with the application, some references were changed. Whenever that happens, the JVM marks the area of the heap (called “Card”) that contains the mutated object as “dirty” (this is known as Card Marking). In the pre-cleaning phase, these dirty objects are accounted for, and the objects reachable from them are also marked. The cards are cleaned when this is done.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Phase 4 Concurrent Abortable Preclean:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> Again, a concurrent phase that is not stopping the application’s threads. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>This one attempts to take as much work off the shoulders of the stop-the-world Final Remark as possible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">. The exact duration of this phase depends on a number of factors, since it iterates doing the same thing until one of the abortion conditions (such as the number of iterations, amount of useful work done, elapsed wall clock time, etc) is met.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Phase 5 Final Remark:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> This is the second and last stop-the-world phase during the event. The goal of this stop-the-world phase is to finalize marking all live objects in the Old Generation. Since the previous preclean phases were concurrent, they may have been unable to keep up with the application’s mutating speeds. A stop-the-world pause is required to finish the ordeal. Usually CMS tries to run final remark phase when Young Generation is as empty as possible in order to eliminate the possibility of several stop-the-world phases happening back-to-back.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Phase 6 Concurrent Sweep:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> After the five marking phases, all live objects in the Old Generation are marked and now garbage collector is going to reclaim all unused objects by sweeping the Old Generation. This is performed concurrently with the application, without the need for the stop-the-world pauses. The purpose of the phase is to remove unused objects and to reclaim the space occupied by them for future use.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Phase 7 Concurrent Reset:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> Concurrently executed phase, resetting inner data structures of the CMS algorithm and preparing them for the next cycle.</t>
+    </r>
+  </si>
+  <si>
+    <t>Java Garbage Collections</t>
+  </si>
+  <si>
+    <t>GC Name</t>
+  </si>
+  <si>
+    <t>Young Generation</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Serial/ Parallel</t>
+  </si>
+  <si>
+    <t>Stop the World</t>
+  </si>
+  <si>
+    <t>Old Generation</t>
+  </si>
+  <si>
+    <t>JVM Options</t>
+  </si>
+  <si>
+    <t>Other Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serial GC </t>
+  </si>
+  <si>
+    <t>Mark-Copy</t>
+  </si>
+  <si>
+    <t>G1 GC</t>
+  </si>
+  <si>
+    <t>Parallel</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark-Sweep-Compact </t>
+  </si>
+  <si>
+    <t>Mark-Sweep</t>
+  </si>
+  <si>
+    <t>Mostly No</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>–XX:+UseSerialGC</t>
+  </si>
+  <si>
+    <t>–XX:-UseParallelOldGC</t>
+  </si>
+  <si>
+    <t>–XX:+UseConcMarkSweepGC
+It automatically sets -XX:+UseParallelGC</t>
+  </si>
+  <si>
+    <t>–XX:+UseG1GC</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> Suitable for JVM with a couple of hundreds megabytes heap size, running in an environment with a single CPU.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> Not suitable for Servide-side deployment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">→ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Suitable on multi-core machines and achieve higher throughput by efficiently using the multi-core for processing
+→ Best suited for applications where throughput is paramount than latency</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> Number of threads is configurable by -XX:ParallelGCThreads=NN. The default value is equal to the number of cores in machine.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+→ Apt on multi-core machines if your primary target is latency
+→ Generally offers worse throughput than Parallel GC in CPU-bound applications</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">→ Soft real-time garbage collector, meaning that you can set specific performance goals; you can request the stop-the-world pauses to be no longer than x milliseconds within any given y-millisecond long time range.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">→ Apt on multi-core machines if your primary target is latency and not throughput
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">→ XX:InitiatingHeapOccupancyPercent=n is used to set percentage of the (entire) heap occupancy to start a concurrent GC cycle. A value of 0 denotes 'do constant GC cycles'. The default value is 45. </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5531,6 +5912,23 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -5732,15 +6130,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thick">
         <color indexed="64"/>
       </right>
@@ -5819,6 +6208,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5827,7 +6227,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5872,18 +6272,97 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5902,9 +6381,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5914,6 +6395,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5922,75 +6436,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6295,10 +6740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6841,83 +7286,85 @@
       </c>
       <c r="E77" s="29"/>
     </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="29"/>
-      <c r="B78" s="29"/>
+    <row r="78" spans="1:5" ht="170.25" customHeight="1">
+      <c r="A78" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>553</v>
+      </c>
       <c r="E78" s="29"/>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29"/>
+    <row r="79" spans="1:5" ht="345" customHeight="1">
+      <c r="A79" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>555</v>
+      </c>
       <c r="E79" s="29"/>
     </row>
-    <row r="81" spans="1:5" ht="77.25">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:5">
+      <c r="A81" s="30"/>
+      <c r="B81" s="30"/>
+      <c r="E81" s="30"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
+      <c r="E82" s="30"/>
+    </row>
+    <row r="83" spans="1:5" ht="77.25">
+      <c r="A83" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="90">
-      <c r="A82" s="2" t="s">
+    <row r="84" spans="1:5" ht="90">
+      <c r="A84" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="39">
-      <c r="A85" s="2" t="s">
+    <row r="87" spans="1:5" ht="39">
+      <c r="A87" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="153.75">
-      <c r="A87" s="2" t="s">
+    <row r="89" spans="1:5" ht="153.75">
+      <c r="A89" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="26.25">
-      <c r="A88" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="26.25">
@@ -6925,46 +7372,46 @@
         <v>23</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="64.5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="51.75">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="26.25">
       <c r="A92" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="39">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="64.5">
       <c r="A93" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>47</v>
+        <v>68</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="51.75">
@@ -6972,93 +7419,93 @@
         <v>23</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="102.75">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="39">
       <c r="A95" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="26.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="51.75">
       <c r="A96" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="26.25">
+        <v>49</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="102.75">
       <c r="A97" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="166.5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="26.25">
       <c r="A98" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="39">
+        <v>51</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="26.25">
       <c r="A99" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="64.5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="166.5">
       <c r="A100" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="26.25">
+        <v>63</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="39">
       <c r="A101" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="64.5">
@@ -7066,60 +7513,57 @@
         <v>23</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="102.75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="26.25">
       <c r="A103" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="77.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="64.5">
       <c r="A104" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="39">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="102.75">
       <c r="A105" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="26.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="77.25">
       <c r="A106" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="39">
@@ -7127,10 +7571,13 @@
         <v>23</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="26.25">
@@ -7138,21 +7585,21 @@
         <v>23</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="26.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="39">
       <c r="A109" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="26.25">
@@ -7160,65 +7607,65 @@
         <v>23</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="51.75">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="26.25">
       <c r="A111" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="77.25">
+        <v>94</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="26.25">
       <c r="A112" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>370</v>
+        <v>97</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="26.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="51.75">
       <c r="A113" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>372</v>
+        <v>100</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="39">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="77.25">
       <c r="A114" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>101</v>
+        <v>370</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="39">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="26.25">
       <c r="A115" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>103</v>
+        <v>372</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>104</v>
+        <v>373</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="39">
@@ -7226,39 +7673,61 @@
         <v>23</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="39">
+      <c r="A117" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="39">
+      <c r="A118" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C118" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D118" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="128.25">
-      <c r="B117" s="12" t="s">
+    <row r="119" spans="1:5" ht="128.25">
+      <c r="B119" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="314.25" customHeight="1">
-      <c r="B118" s="2" t="s">
+    <row r="120" spans="1:5" ht="314.25" customHeight="1">
+      <c r="B120" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
-      <c r="B121" s="2" t="s">
+    <row r="123" spans="1:5">
+      <c r="B123" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7279,6 +7748,7 @@
     <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId12"/>
     <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId13"/>
     <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId14"/>
+    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1046" r:id="rId15"/>
   </oleObjects>
 </worksheet>
 </file>
@@ -10051,10 +10521,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:Y82"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Y47" sqref="Y47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -10062,15 +10532,17 @@
     <col min="1" max="2" width="10.7109375" style="2"/>
     <col min="3" max="3" width="2.7109375" style="22" customWidth="1"/>
     <col min="4" max="18" width="10.7109375" style="2"/>
-    <col min="19" max="19" width="2.7109375" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="10.7109375" style="2"/>
+    <col min="19" max="19" width="10.7109375" style="2" customWidth="1"/>
+    <col min="20" max="23" width="10.7109375" style="2"/>
+    <col min="24" max="24" width="2.7109375" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:25" ht="15" customHeight="1" thickTop="1">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
+      <c r="B1" s="103"/>
       <c r="C1" s="54" t="s">
         <v>487</v>
       </c>
@@ -10089,11 +10561,16 @@
       <c r="P1" s="55"/>
       <c r="Q1" s="55"/>
       <c r="R1" s="55"/>
-      <c r="S1" s="56"/>
-    </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="56"/>
+    </row>
+    <row r="2" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="104"/>
+      <c r="B2" s="105"/>
       <c r="C2" s="57"/>
       <c r="D2" s="58"/>
       <c r="E2" s="58"/>
@@ -10110,1114 +10587,1519 @@
       <c r="P2" s="58"/>
       <c r="Q2" s="58"/>
       <c r="R2" s="58"/>
-      <c r="S2" s="59"/>
-    </row>
-    <row r="3" spans="1:20" s="22" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="70" t="s">
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="59"/>
+    </row>
+    <row r="3" spans="1:25" s="22" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A3" s="95" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="64"/>
-    </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="50" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="Y3" s="26"/>
+    </row>
+    <row r="4" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="106" t="s">
         <v>514</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="65"/>
-    </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="72"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="61"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="26"/>
+    </row>
+    <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="27" t="s">
         <v>512</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="91" t="s">
         <v>513</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34" t="s">
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91" t="s">
         <v>515</v>
       </c>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="65"/>
-    </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="61"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="26"/>
+    </row>
+    <row r="6" spans="1:25" ht="15" customHeight="1">
+      <c r="A6" s="98"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="23">
         <v>1</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="92" t="s">
         <v>518</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="35" t="s">
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="87" t="s">
         <v>516</v>
       </c>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="65"/>
-    </row>
-    <row r="7" spans="1:20" ht="30" customHeight="1">
-      <c r="A7" s="72"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="61"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="26"/>
+    </row>
+    <row r="7" spans="1:25" ht="30" customHeight="1">
+      <c r="A7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="24">
         <v>2</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="81" t="s">
         <v>520</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="31" t="s">
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="67" t="s">
         <v>517</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="65"/>
-    </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1">
-      <c r="A8" s="72"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="61"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="26"/>
+    </row>
+    <row r="8" spans="1:25" ht="15" customHeight="1">
+      <c r="A8" s="98"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="24">
         <v>3</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="81" t="s">
         <v>521</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="31" t="s">
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="67" t="s">
         <v>500</v>
       </c>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="65"/>
-    </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1">
-      <c r="A9" s="72"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="61"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="26"/>
+    </row>
+    <row r="9" spans="1:25" ht="15" customHeight="1">
+      <c r="A9" s="98"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="24">
         <v>4</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="81" t="s">
         <v>522</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="31" t="s">
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="67" t="s">
         <v>507</v>
       </c>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="65"/>
-    </row>
-    <row r="10" spans="1:20" ht="30" customHeight="1">
-      <c r="A10" s="72"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="61"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="26"/>
+    </row>
+    <row r="10" spans="1:25" ht="30" customHeight="1">
+      <c r="A10" s="98"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="24">
         <v>5</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="81" t="s">
         <v>523</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="31" t="s">
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="67" t="s">
         <v>519</v>
       </c>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="65"/>
-    </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="72"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="61"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="26"/>
+    </row>
+    <row r="11" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A11" s="98"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="25">
         <v>6</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="84" t="s">
         <v>524</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="44" t="s">
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="78" t="s">
         <v>525</v>
       </c>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="65"/>
-    </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="74"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="66"/>
-    </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="26"/>
-    </row>
-    <row r="14" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="50" t="s">
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="26"/>
+    </row>
+    <row r="12" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A12" s="100"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="26"/>
+    </row>
+    <row r="13" spans="1:25" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A13" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="62"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="26"/>
+    </row>
+    <row r="14" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="106" t="s">
         <v>526</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="26"/>
-    </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="34" t="s">
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="108"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="26"/>
+    </row>
+    <row r="15" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="91" t="s">
         <v>490</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34" t="s">
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="26"/>
-    </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="35" t="s">
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="26"/>
+    </row>
+    <row r="16" spans="1:25" ht="15" customHeight="1">
+      <c r="A16" s="63"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="87" t="s">
         <v>527</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="35" t="s">
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="87" t="s">
         <v>491</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="26"/>
-    </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="31" t="s">
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="26"/>
+    </row>
+    <row r="17" spans="1:25" ht="15" customHeight="1">
+      <c r="A17" s="63"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="67" t="s">
         <v>528</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="26"/>
-    </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="31" t="s">
+      <c r="E17" s="68"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="26"/>
+    </row>
+    <row r="18" spans="1:25" ht="15" customHeight="1">
+      <c r="A18" s="63"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="67" t="s">
         <v>492</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="26"/>
-    </row>
-    <row r="19" spans="1:20" ht="15" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="31" t="s">
+      <c r="E18" s="68"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="26"/>
+    </row>
+    <row r="19" spans="1:25" ht="15" customHeight="1">
+      <c r="A19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="67" t="s">
         <v>529</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="26"/>
-    </row>
-    <row r="20" spans="1:20" ht="15" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="31" t="s">
+      <c r="E19" s="68"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="26"/>
+    </row>
+    <row r="20" spans="1:25" ht="15" customHeight="1">
+      <c r="A20" s="63"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="67" t="s">
         <v>503</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="26"/>
-    </row>
-    <row r="21" spans="1:20" ht="15" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="31" t="s">
+      <c r="E20" s="68"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="26"/>
+    </row>
+    <row r="21" spans="1:25" ht="15" customHeight="1">
+      <c r="A21" s="63"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="67" t="s">
         <v>504</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="26"/>
-    </row>
-    <row r="22" spans="1:20" ht="15" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="31" t="s">
+      <c r="E21" s="68"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="26"/>
+    </row>
+    <row r="22" spans="1:25" ht="15" customHeight="1">
+      <c r="A22" s="63"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="67" t="s">
         <v>505</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="26"/>
-    </row>
-    <row r="23" spans="1:20" ht="15" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="31" t="s">
+      <c r="E22" s="68"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="26"/>
+    </row>
+    <row r="23" spans="1:25" ht="15" customHeight="1">
+      <c r="A23" s="63"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="67" t="s">
         <v>507</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="26"/>
-    </row>
-    <row r="24" spans="1:20" ht="15" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="26"/>
-    </row>
-    <row r="25" spans="1:20" ht="15" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="26"/>
-    </row>
-    <row r="26" spans="1:20" ht="15" customHeight="1">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="26"/>
-    </row>
-    <row r="27" spans="1:20" ht="15" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="26"/>
-    </row>
-    <row r="28" spans="1:20" ht="15" customHeight="1">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="26"/>
-    </row>
-    <row r="29" spans="1:20" ht="15" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="26"/>
-    </row>
-    <row r="30" spans="1:20" ht="15" customHeight="1">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="26"/>
-    </row>
-    <row r="31" spans="1:20" ht="15" customHeight="1">
-      <c r="A31" s="32"/>
-      <c r="B31" s="53"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-    </row>
-    <row r="32" spans="1:20" ht="15" customHeight="1">
-      <c r="A32" s="32"/>
-      <c r="B32" s="53"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-    </row>
-    <row r="33" spans="1:18" ht="15" customHeight="1">
-      <c r="A33" s="32"/>
-      <c r="B33" s="53"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-    </row>
-    <row r="34" spans="1:18" ht="15" customHeight="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="53"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-    </row>
-    <row r="35" spans="1:18" ht="15" customHeight="1">
-      <c r="A35" s="32"/>
-      <c r="B35" s="53"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-    </row>
-    <row r="36" spans="1:18" ht="15" customHeight="1">
-      <c r="A36" s="32"/>
-      <c r="B36" s="53"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-    </row>
-    <row r="37" spans="1:18" ht="15" customHeight="1">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-    </row>
-    <row r="38" spans="1:18" ht="15" customHeight="1">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-    </row>
-    <row r="39" spans="1:18" ht="15" customHeight="1">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-    </row>
-    <row r="40" spans="1:18" ht="15" customHeight="1">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-    </row>
-    <row r="41" spans="1:18" ht="15" customHeight="1">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-    </row>
-    <row r="42" spans="1:18" ht="15" customHeight="1">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-    </row>
-    <row r="43" spans="1:18" ht="15" customHeight="1">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-    </row>
-    <row r="44" spans="1:18" ht="15" customHeight="1">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-    </row>
-    <row r="45" spans="1:18" ht="15" customHeight="1">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-    </row>
-    <row r="46" spans="1:18" ht="15" customHeight="1">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-    </row>
-    <row r="47" spans="1:18" ht="15" customHeight="1">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-    </row>
-    <row r="48" spans="1:18" ht="15" customHeight="1">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="26"/>
+    </row>
+    <row r="24" spans="1:25" ht="15" customHeight="1">
+      <c r="A24" s="63"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="26"/>
+    </row>
+    <row r="25" spans="1:25" s="30" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="63"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="26"/>
+    </row>
+    <row r="26" spans="1:25" ht="15" customHeight="1">
+      <c r="A26" s="63"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="26"/>
+    </row>
+    <row r="27" spans="1:25" ht="15" customHeight="1">
+      <c r="A27" s="63"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="26"/>
+    </row>
+    <row r="28" spans="1:25" ht="15" customHeight="1">
+      <c r="A28" s="63"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="26"/>
+    </row>
+    <row r="29" spans="1:25" ht="15" customHeight="1">
+      <c r="A29" s="63"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="26"/>
+    </row>
+    <row r="30" spans="1:25" ht="15" customHeight="1">
+      <c r="A30" s="63"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="69"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="26"/>
+    </row>
+    <row r="31" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A31" s="63"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="80"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="26"/>
+    </row>
+    <row r="32" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A32" s="65"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="26"/>
+    </row>
+    <row r="33" spans="1:25" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A33" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="62"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="26"/>
+    </row>
+    <row r="34" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A34" s="96"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="70" t="s">
+        <v>556</v>
+      </c>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="70"/>
+      <c r="R34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="70"/>
+      <c r="W34" s="70"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="26"/>
+    </row>
+    <row r="35" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A35" s="96"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="70" t="s">
+        <v>557</v>
+      </c>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70" t="s">
+        <v>558</v>
+      </c>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70" t="s">
+        <v>562</v>
+      </c>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70" t="s">
+        <v>563</v>
+      </c>
+      <c r="N35" s="70"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="70" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71"/>
+      <c r="T35" s="71"/>
+      <c r="U35" s="71"/>
+      <c r="V35" s="71"/>
+      <c r="W35" s="71"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="26"/>
+    </row>
+    <row r="36" spans="1:25" ht="30" customHeight="1" thickBot="1">
+      <c r="A36" s="96"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="37" t="s">
+        <v>559</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>560</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>561</v>
+      </c>
+      <c r="I36" s="70" t="s">
+        <v>559</v>
+      </c>
+      <c r="J36" s="70"/>
+      <c r="K36" s="38" t="s">
+        <v>560</v>
+      </c>
+      <c r="L36" s="38" t="s">
+        <v>561</v>
+      </c>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71"/>
+      <c r="T36" s="71"/>
+      <c r="U36" s="71"/>
+      <c r="V36" s="71"/>
+      <c r="W36" s="71"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="26"/>
+    </row>
+    <row r="37" spans="1:25" ht="45" customHeight="1">
+      <c r="A37" s="96"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="75" t="s">
+        <v>565</v>
+      </c>
+      <c r="E37" s="75"/>
+      <c r="F37" s="34" t="s">
+        <v>566</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>570</v>
+      </c>
+      <c r="I37" s="75" t="s">
+        <v>571</v>
+      </c>
+      <c r="J37" s="75"/>
+      <c r="K37" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="L37" s="34" t="s">
+        <v>570</v>
+      </c>
+      <c r="M37" s="75" t="s">
+        <v>575</v>
+      </c>
+      <c r="N37" s="75"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="72" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="72"/>
+      <c r="W37" s="72"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="26"/>
+    </row>
+    <row r="38" spans="1:25" ht="75" customHeight="1">
+      <c r="A38" s="96"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="76" t="s">
+        <v>551</v>
+      </c>
+      <c r="E38" s="76"/>
+      <c r="F38" s="35" t="s">
+        <v>566</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>568</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I38" s="76" t="s">
+        <v>571</v>
+      </c>
+      <c r="J38" s="76"/>
+      <c r="K38" s="35" t="s">
+        <v>568</v>
+      </c>
+      <c r="L38" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="M38" s="76" t="s">
+        <v>576</v>
+      </c>
+      <c r="N38" s="76"/>
+      <c r="O38" s="76"/>
+      <c r="P38" s="73" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="73"/>
+      <c r="W38" s="73"/>
+      <c r="X38" s="49"/>
+      <c r="Y38" s="26"/>
+    </row>
+    <row r="39" spans="1:25" ht="30" customHeight="1">
+      <c r="A39" s="96"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="73" t="s">
+        <v>552</v>
+      </c>
+      <c r="E39" s="73"/>
+      <c r="F39" s="35" t="s">
+        <v>566</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>568</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="I39" s="76" t="s">
+        <v>572</v>
+      </c>
+      <c r="J39" s="76"/>
+      <c r="K39" s="35" t="s">
+        <v>568</v>
+      </c>
+      <c r="L39" s="35" t="s">
+        <v>573</v>
+      </c>
+      <c r="M39" s="73" t="s">
+        <v>577</v>
+      </c>
+      <c r="N39" s="76"/>
+      <c r="O39" s="76"/>
+      <c r="P39" s="73" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="73"/>
+      <c r="U39" s="73"/>
+      <c r="V39" s="73"/>
+      <c r="W39" s="73"/>
+      <c r="X39" s="49"/>
+      <c r="Y39" s="26"/>
+    </row>
+    <row r="40" spans="1:25" ht="75" customHeight="1" thickBot="1">
+      <c r="A40" s="96"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="77" t="s">
+        <v>567</v>
+      </c>
+      <c r="E40" s="77"/>
+      <c r="F40" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="G40" s="36" t="s">
+        <v>568</v>
+      </c>
+      <c r="H40" s="36" t="s">
+        <v>570</v>
+      </c>
+      <c r="I40" s="77" t="s">
+        <v>566</v>
+      </c>
+      <c r="J40" s="77"/>
+      <c r="K40" s="36" t="s">
+        <v>568</v>
+      </c>
+      <c r="L40" s="36" t="s">
+        <v>574</v>
+      </c>
+      <c r="M40" s="77" t="s">
+        <v>578</v>
+      </c>
+      <c r="N40" s="77"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="74" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q40" s="74"/>
+      <c r="R40" s="74"/>
+      <c r="S40" s="74"/>
+      <c r="T40" s="74"/>
+      <c r="U40" s="74"/>
+      <c r="V40" s="74"/>
+      <c r="W40" s="74"/>
+      <c r="X40" s="49"/>
+      <c r="Y40" s="26"/>
+    </row>
+    <row r="41" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A41" s="97"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="47"/>
+      <c r="W41" s="47"/>
+      <c r="X41" s="48"/>
+      <c r="Y41" s="26"/>
+    </row>
+    <row r="42" spans="1:25" ht="15" customHeight="1" thickTop="1">
+      <c r="A42" s="32"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="42"/>
+    </row>
+    <row r="43" spans="1:25" ht="15" customHeight="1">
+      <c r="A43" s="32"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
+      <c r="T43" s="31"/>
+      <c r="U43" s="31"/>
+      <c r="V43" s="31"/>
+      <c r="W43" s="31"/>
+      <c r="X43" s="33"/>
+    </row>
+    <row r="44" spans="1:25" ht="15" customHeight="1">
+      <c r="A44" s="90"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="33"/>
+    </row>
+    <row r="45" spans="1:25" ht="15" customHeight="1">
+      <c r="A45" s="90"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="33"/>
+    </row>
+    <row r="46" spans="1:25" ht="15" customHeight="1">
+      <c r="A46" s="90"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
+      <c r="T46" s="31"/>
+      <c r="U46" s="31"/>
+      <c r="V46" s="31"/>
+      <c r="W46" s="31"/>
+      <c r="X46" s="33"/>
+    </row>
+    <row r="47" spans="1:25" ht="15" customHeight="1">
+      <c r="A47" s="90"/>
+      <c r="B47" s="90"/>
+    </row>
+    <row r="48" spans="1:25" ht="15" customHeight="1">
+      <c r="A48" s="90"/>
+      <c r="B48" s="90"/>
     </row>
     <row r="49" spans="1:2" ht="15" customHeight="1">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
+      <c r="A49" s="90"/>
+      <c r="B49" s="90"/>
     </row>
     <row r="50" spans="1:2" ht="15" customHeight="1">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
+      <c r="A50" s="90"/>
+      <c r="B50" s="90"/>
     </row>
     <row r="51" spans="1:2" ht="15" customHeight="1">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
+      <c r="A51" s="90"/>
+      <c r="B51" s="90"/>
     </row>
     <row r="52" spans="1:2" ht="15" customHeight="1">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
+      <c r="A52" s="90"/>
+      <c r="B52" s="90"/>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
+      <c r="A53" s="90"/>
+      <c r="B53" s="90"/>
     </row>
     <row r="54" spans="1:2" ht="15" customHeight="1">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
+      <c r="A54" s="90"/>
+      <c r="B54" s="90"/>
     </row>
     <row r="55" spans="1:2" ht="15" customHeight="1">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
+      <c r="A55" s="90"/>
+      <c r="B55" s="90"/>
     </row>
     <row r="56" spans="1:2" ht="15" customHeight="1">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
+      <c r="A56" s="90"/>
+      <c r="B56" s="90"/>
     </row>
     <row r="57" spans="1:2" ht="15" customHeight="1">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
+      <c r="A57" s="90"/>
+      <c r="B57" s="90"/>
     </row>
     <row r="58" spans="1:2" ht="15" customHeight="1">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
+      <c r="A58" s="90"/>
+      <c r="B58" s="90"/>
     </row>
     <row r="59" spans="1:2" ht="15" customHeight="1">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
+      <c r="A59" s="90"/>
+      <c r="B59" s="90"/>
     </row>
     <row r="60" spans="1:2" ht="15" customHeight="1">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
+      <c r="A60" s="90"/>
+      <c r="B60" s="90"/>
     </row>
     <row r="61" spans="1:2" ht="15" customHeight="1">
-      <c r="A61" s="30"/>
-      <c r="B61" s="30"/>
+      <c r="A61" s="90"/>
+      <c r="B61" s="90"/>
     </row>
     <row r="62" spans="1:2" ht="15" customHeight="1">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30"/>
+      <c r="A62" s="90"/>
+      <c r="B62" s="90"/>
     </row>
     <row r="63" spans="1:2" ht="15" customHeight="1">
-      <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
+      <c r="A63" s="90"/>
+      <c r="B63" s="90"/>
     </row>
     <row r="64" spans="1:2" ht="15" customHeight="1">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
+      <c r="A64" s="90"/>
+      <c r="B64" s="90"/>
     </row>
     <row r="65" spans="1:2" ht="15" customHeight="1">
-      <c r="A65" s="30"/>
-      <c r="B65" s="30"/>
+      <c r="A65" s="90"/>
+      <c r="B65" s="90"/>
     </row>
     <row r="66" spans="1:2" ht="15" customHeight="1">
-      <c r="A66" s="30"/>
-      <c r="B66" s="30"/>
+      <c r="A66" s="90"/>
+      <c r="B66" s="90"/>
     </row>
     <row r="67" spans="1:2" ht="15" customHeight="1">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
+      <c r="A67" s="90"/>
+      <c r="B67" s="90"/>
     </row>
     <row r="68" spans="1:2" ht="15" customHeight="1">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
+      <c r="A68" s="90"/>
+      <c r="B68" s="90"/>
     </row>
     <row r="69" spans="1:2" ht="15" customHeight="1">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
+      <c r="A69" s="90"/>
+      <c r="B69" s="90"/>
     </row>
     <row r="70" spans="1:2" ht="15" customHeight="1">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
+      <c r="A70" s="90"/>
+      <c r="B70" s="90"/>
     </row>
     <row r="71" spans="1:2" ht="15" customHeight="1">
-      <c r="A71" s="30"/>
-      <c r="B71" s="30"/>
+      <c r="A71" s="90"/>
+      <c r="B71" s="90"/>
     </row>
     <row r="72" spans="1:2" ht="15" customHeight="1">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
+      <c r="A72" s="90"/>
+      <c r="B72" s="90"/>
     </row>
     <row r="73" spans="1:2" ht="15" customHeight="1">
-      <c r="A73" s="30"/>
-      <c r="B73" s="30"/>
+      <c r="A73" s="90"/>
+      <c r="B73" s="90"/>
     </row>
     <row r="74" spans="1:2" ht="15" customHeight="1">
-      <c r="A74" s="30"/>
-      <c r="B74" s="30"/>
+      <c r="A74" s="90"/>
+      <c r="B74" s="90"/>
     </row>
     <row r="75" spans="1:2" ht="15" customHeight="1">
-      <c r="A75" s="30"/>
-      <c r="B75" s="30"/>
+      <c r="A75" s="90"/>
+      <c r="B75" s="90"/>
     </row>
     <row r="76" spans="1:2" ht="15" customHeight="1">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
+      <c r="A76" s="90"/>
+      <c r="B76" s="90"/>
     </row>
     <row r="77" spans="1:2" ht="15" customHeight="1">
-      <c r="A77" s="30"/>
-      <c r="B77" s="30"/>
+      <c r="A77" s="90"/>
+      <c r="B77" s="90"/>
     </row>
     <row r="78" spans="1:2" ht="15" customHeight="1">
-      <c r="A78" s="30"/>
-      <c r="B78" s="30"/>
+      <c r="A78" s="90"/>
+      <c r="B78" s="90"/>
     </row>
     <row r="79" spans="1:2" ht="15" customHeight="1">
-      <c r="A79" s="30"/>
-      <c r="B79" s="30"/>
+      <c r="A79" s="90"/>
+      <c r="B79" s="90"/>
     </row>
     <row r="80" spans="1:2" ht="15" customHeight="1">
-      <c r="A80" s="30"/>
-      <c r="B80" s="30"/>
+      <c r="A80" s="90"/>
+      <c r="B80" s="90"/>
     </row>
     <row r="81" spans="1:2" ht="15" customHeight="1">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30"/>
+      <c r="A81" s="90"/>
+      <c r="B81" s="90"/>
+    </row>
+    <row r="82" spans="1:2" ht="15" customHeight="1">
+      <c r="A82" s="90"/>
+      <c r="B82" s="90"/>
     </row>
   </sheetData>
-  <mergeCells count="145">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D4:R4"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C1:S2"/>
-    <mergeCell ref="C3:C12"/>
-    <mergeCell ref="D12:R12"/>
-    <mergeCell ref="S3:S12"/>
-    <mergeCell ref="D13:R13"/>
-    <mergeCell ref="C13:C29"/>
-    <mergeCell ref="S13:S30"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
+  <mergeCells count="130">
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A33:B41"/>
     <mergeCell ref="A3:B12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
     <mergeCell ref="D14:R14"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
     <mergeCell ref="O11:R11"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="E7:N7"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="E9:N9"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D3:R3"/>
-    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D4:R4"/>
     <mergeCell ref="G20:R20"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:R21"/>
@@ -11233,6 +12115,50 @@
     <mergeCell ref="G15:R15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:R16"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="E9:N9"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="E10:N10"/>
     <mergeCell ref="E11:N11"/>
     <mergeCell ref="O6:R6"/>
@@ -11240,40 +12166,62 @@
     <mergeCell ref="O8:R8"/>
     <mergeCell ref="O9:R9"/>
     <mergeCell ref="O10:R10"/>
-    <mergeCell ref="G26:R26"/>
-    <mergeCell ref="D27:F27"/>
     <mergeCell ref="G27:R27"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="G28:R28"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:R29"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="G23:R23"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="G24:R24"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:R26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A13:B32"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:R25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:R38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:R39"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:R35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:R36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:R37"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:R32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:R33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:R34"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:R29"/>
+    <mergeCell ref="D34:W34"/>
+    <mergeCell ref="D35:E36"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="M35:O36"/>
+    <mergeCell ref="P35:W36"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="G30:R30"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="G31:R31"/>
+    <mergeCell ref="C42:X42"/>
+    <mergeCell ref="C33:X33"/>
+    <mergeCell ref="C32:X32"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="C41:X41"/>
+    <mergeCell ref="X34:X40"/>
+    <mergeCell ref="C3:W3"/>
+    <mergeCell ref="S4:X11"/>
+    <mergeCell ref="C1:X2"/>
+    <mergeCell ref="S14:X31"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="C12:X12"/>
+    <mergeCell ref="C13:X13"/>
+    <mergeCell ref="C14:C31"/>
+    <mergeCell ref="P37:W37"/>
+    <mergeCell ref="P38:W38"/>
+    <mergeCell ref="P39:W39"/>
+    <mergeCell ref="P40:W40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Others\Kamal\IP\IP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" r:id="rId1"/>
@@ -5744,8 +5749,30 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">→ Soft real-time garbage collector, meaning that you can set specific performance goals; you can request the stop-the-world pauses to be no longer than x milliseconds within any given y-millisecond long time range.
-</t>
+      <t xml:space="preserve">→ Specific performance goals can be set i.e. you can request the stop-the-world pauses to be no longer than x milliseconds within any given y-millisecond long time range
+→ It is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Soft real-time garbage collector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>, meaning that it meets the set pause time target with high probability but not absolute certainty..
+→ Apt on multi-core machines with large heap if your primary target is latency and not throughput</t>
     </r>
     <r>
       <rPr>
@@ -5755,7 +5782,7 @@
         <family val="1"/>
         <scheme val="major"/>
       </rPr>
-      <t xml:space="preserve">→ Apt on multi-core machines if your primary target is latency and not throughput
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -5773,8 +5800,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6288,120 +6315,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6437,6 +6367,103 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6453,6 +6480,687 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>63</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2438400</xdr:colOff>
+          <xdr:row>63</xdr:row>
+          <xdr:rowOff>533400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>704850</xdr:colOff>
+          <xdr:row>96</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2562225</xdr:colOff>
+          <xdr:row>96</xdr:row>
+          <xdr:rowOff>781050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>704850</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>666750</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1771650</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>1076325</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>476250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2619375</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>990600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Object 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>828675</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2171700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>600075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Object 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2276475</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>390525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Object 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1200150</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2486025</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>771525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="Object 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1514475</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2286000</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>619125</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="Object 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1266825</xdr:colOff>
+          <xdr:row>71</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2466975</xdr:colOff>
+          <xdr:row>71</xdr:row>
+          <xdr:rowOff>466725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1042" name="Object 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1042"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>990600</xdr:colOff>
+          <xdr:row>72</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2019300</xdr:colOff>
+          <xdr:row>72</xdr:row>
+          <xdr:rowOff>733425</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1043" name="Object 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1043"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>866775</xdr:colOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2505075</xdr:colOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>638175</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1044" name="Object 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1044"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1238250</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2171700</xdr:colOff>
+          <xdr:row>74</xdr:row>
+          <xdr:rowOff>590550</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1045" name="Object 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1045"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1876425</xdr:colOff>
+          <xdr:row>78</xdr:row>
+          <xdr:rowOff>1724025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>2647950</xdr:colOff>
+          <xdr:row>78</xdr:row>
+          <xdr:rowOff>2238375</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1046" name="Object 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1046"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6498,7 +7206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6530,9 +7238,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6564,6 +7273,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6739,14 +7449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -6755,7 +7465,7 @@
     <col min="5" max="5" width="97.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6772,14 +7482,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="102.75">
+    <row r="3" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>236</v>
       </c>
@@ -6790,7 +7500,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="90">
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>391</v>
       </c>
@@ -6801,7 +7511,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="115.5">
+    <row r="5" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>391</v>
       </c>
@@ -6812,7 +7522,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51.75">
+    <row r="9" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>391</v>
       </c>
@@ -6823,7 +7533,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30.75" customHeight="1">
+    <row r="10" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>456</v>
       </c>
@@ -6831,7 +7541,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="39">
+    <row r="11" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>391</v>
       </c>
@@ -6842,7 +7552,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="64.5">
+    <row r="12" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>391</v>
       </c>
@@ -6853,7 +7563,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="39">
+    <row r="13" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>391</v>
       </c>
@@ -6864,7 +7574,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="26.25">
+    <row r="14" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>391</v>
       </c>
@@ -6875,7 +7585,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="39">
+    <row r="15" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>391</v>
       </c>
@@ -6886,7 +7596,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="51.75">
+    <row r="16" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>462</v>
       </c>
@@ -6894,7 +7604,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="26.25">
+    <row r="17" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>463</v>
       </c>
@@ -6902,7 +7612,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="179.25">
+    <row r="26" spans="1:3" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>391</v>
       </c>
@@ -6913,7 +7623,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="26.25">
+    <row r="27" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>391</v>
       </c>
@@ -6924,7 +7634,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="51.75">
+    <row r="28" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>391</v>
       </c>
@@ -6935,7 +7645,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="77.25">
+    <row r="29" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>391</v>
       </c>
@@ -6946,7 +7656,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="39">
+    <row r="30" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>391</v>
       </c>
@@ -6957,7 +7667,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="90">
+    <row r="31" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>391</v>
       </c>
@@ -6968,7 +7678,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="64.5">
+    <row r="32" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>391</v>
       </c>
@@ -6979,7 +7689,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="51.75">
+    <row r="33" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>391</v>
       </c>
@@ -6990,7 +7700,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="64.5">
+    <row r="34" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>391</v>
       </c>
@@ -7001,7 +7711,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>391</v>
       </c>
@@ -7009,7 +7719,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>391</v>
       </c>
@@ -7017,7 +7727,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="26.25">
+    <row r="37" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>391</v>
       </c>
@@ -7028,7 +7738,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>391</v>
       </c>
@@ -7036,7 +7746,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="51.75">
+    <row r="39" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>391</v>
       </c>
@@ -7047,7 +7757,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="64.5">
+    <row r="40" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>391</v>
       </c>
@@ -7058,7 +7768,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="39">
+    <row r="41" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>391</v>
       </c>
@@ -7069,7 +7779,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>391</v>
       </c>
@@ -7080,12 +7790,12 @@
         <v>435</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="64.5">
+    <row r="52" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>391</v>
       </c>
@@ -7096,7 +7806,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="128.25">
+    <row r="53" spans="1:3" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>391</v>
       </c>
@@ -7107,7 +7817,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>391</v>
       </c>
@@ -7115,7 +7825,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="26.25">
+    <row r="62" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>226</v>
       </c>
@@ -7126,7 +7836,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="39">
+    <row r="63" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>226</v>
       </c>
@@ -7137,7 +7847,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="64.5">
+    <row r="64" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>226</v>
       </c>
@@ -7148,7 +7858,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="39">
+    <row r="65" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>226</v>
       </c>
@@ -7159,7 +7869,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="39">
+    <row r="66" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>5</v>
       </c>
@@ -7170,7 +7880,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="51.75">
+    <row r="67" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>5</v>
       </c>
@@ -7181,7 +7891,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="90">
+    <row r="69" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>5</v>
       </c>
@@ -7192,7 +7902,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="102.75">
+    <row r="70" spans="1:5" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>5</v>
       </c>
@@ -7203,7 +7913,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="64.5">
+    <row r="71" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>5</v>
       </c>
@@ -7215,7 +7925,7 @@
       </c>
       <c r="E71" s="22"/>
     </row>
-    <row r="72" spans="1:5" ht="39">
+    <row r="72" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
         <v>5</v>
       </c>
@@ -7226,7 +7936,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="77.25">
+    <row r="73" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A73" s="29" t="s">
         <v>5</v>
       </c>
@@ -7238,7 +7948,7 @@
       </c>
       <c r="E73" s="29"/>
     </row>
-    <row r="74" spans="1:5" ht="64.5">
+    <row r="74" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
         <v>5</v>
       </c>
@@ -7250,7 +7960,7 @@
       </c>
       <c r="E74" s="29"/>
     </row>
-    <row r="75" spans="1:5" ht="51.75">
+    <row r="75" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
         <v>5</v>
       </c>
@@ -7262,7 +7972,7 @@
       </c>
       <c r="E75" s="29"/>
     </row>
-    <row r="76" spans="1:5" ht="64.5">
+    <row r="76" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A76" s="29" t="s">
         <v>5</v>
       </c>
@@ -7274,7 +7984,7 @@
       </c>
       <c r="E76" s="29"/>
     </row>
-    <row r="77" spans="1:5" ht="141">
+    <row r="77" spans="1:5" ht="141" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
         <v>5</v>
       </c>
@@ -7286,7 +7996,7 @@
       </c>
       <c r="E77" s="29"/>
     </row>
-    <row r="78" spans="1:5" ht="170.25" customHeight="1">
+    <row r="78" spans="1:5" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
         <v>5</v>
       </c>
@@ -7298,7 +8008,7 @@
       </c>
       <c r="E78" s="29"/>
     </row>
-    <row r="79" spans="1:5" ht="345" customHeight="1">
+    <row r="79" spans="1:5" ht="345" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
         <v>5</v>
       </c>
@@ -7310,17 +8020,17 @@
       </c>
       <c r="E79" s="29"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="30"/>
       <c r="B81" s="30"/>
       <c r="E81" s="30"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="30"/>
       <c r="B82" s="30"/>
       <c r="E82" s="30"/>
     </row>
-    <row r="83" spans="1:5" ht="77.25">
+    <row r="83" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>5</v>
       </c>
@@ -7331,7 +8041,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="90">
+    <row r="84" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>5</v>
       </c>
@@ -7342,7 +8052,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="39">
+    <row r="87" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>236</v>
       </c>
@@ -7353,7 +8063,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="153.75">
+    <row r="89" spans="1:5" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>172</v>
       </c>
@@ -7367,7 +8077,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="26.25">
+    <row r="90" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>23</v>
       </c>
@@ -7378,7 +8088,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>23</v>
       </c>
@@ -7389,7 +8099,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="26.25">
+    <row r="92" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>23</v>
       </c>
@@ -7400,7 +8110,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="64.5">
+    <row r="93" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>23</v>
       </c>
@@ -7414,7 +8124,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="51.75">
+    <row r="94" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>23</v>
       </c>
@@ -7425,7 +8135,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="39">
+    <row r="95" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>23</v>
       </c>
@@ -7436,7 +8146,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="51.75">
+    <row r="96" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>23</v>
       </c>
@@ -7447,7 +8157,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="102.75">
+    <row r="97" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>23</v>
       </c>
@@ -7458,7 +8168,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="26.25">
+    <row r="98" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>23</v>
       </c>
@@ -7469,7 +8179,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="26.25">
+    <row r="99" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>23</v>
       </c>
@@ -7480,7 +8190,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="166.5">
+    <row r="100" spans="1:4" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>23</v>
       </c>
@@ -7494,7 +8204,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="39">
+    <row r="101" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>23</v>
       </c>
@@ -7508,7 +8218,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="64.5">
+    <row r="102" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>23</v>
       </c>
@@ -7519,7 +8229,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="26.25">
+    <row r="103" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>23</v>
       </c>
@@ -7530,7 +8240,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="64.5">
+    <row r="104" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>23</v>
       </c>
@@ -7541,7 +8251,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="102.75">
+    <row r="105" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>23</v>
       </c>
@@ -7552,7 +8262,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="77.25">
+    <row r="106" spans="1:4" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>23</v>
       </c>
@@ -7566,7 +8276,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="39">
+    <row r="107" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>23</v>
       </c>
@@ -7580,7 +8290,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="26.25">
+    <row r="108" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>23</v>
       </c>
@@ -7591,7 +8301,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="39">
+    <row r="109" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>23</v>
       </c>
@@ -7602,7 +8312,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="26.25">
+    <row r="110" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>23</v>
       </c>
@@ -7613,7 +8323,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="26.25">
+    <row r="111" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>23</v>
       </c>
@@ -7624,7 +8334,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="26.25">
+    <row r="112" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>23</v>
       </c>
@@ -7635,7 +8345,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="51.75">
+    <row r="113" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>23</v>
       </c>
@@ -7646,7 +8356,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="77.25">
+    <row r="114" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>23</v>
       </c>
@@ -7657,7 +8367,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="26.25">
+    <row r="115" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>23</v>
       </c>
@@ -7668,7 +8378,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="39">
+    <row r="116" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>23</v>
       </c>
@@ -7679,7 +8389,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="39">
+    <row r="117" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>23</v>
       </c>
@@ -7690,7 +8400,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="39">
+    <row r="118" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>23</v>
       </c>
@@ -7707,7 +8417,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="128.25">
+    <row r="119" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
       <c r="B119" s="12" t="s">
         <v>197</v>
       </c>
@@ -7718,7 +8428,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="314.25" customHeight="1">
+    <row r="120" spans="1:5" ht="314.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="2" t="s">
         <v>313</v>
       </c>
@@ -7726,7 +8436,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B123" s="2" t="s">
         <v>6</v>
       </c>
@@ -7734,59 +8444,372 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId3"/>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId4"/>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId5"/>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId6"/>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId7"/>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId8"/>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1040" r:id="rId9"/>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1041" r:id="rId10"/>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1042" r:id="rId11"/>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId12"/>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId13"/>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId14"/>
-    <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1046" r:id="rId15"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>63</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2438400</xdr:colOff>
+                <xdr:row>63</xdr:row>
+                <xdr:rowOff>533400</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId6">
+          <objectPr locked="0" defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>704850</xdr:colOff>
+                <xdr:row>96</xdr:row>
+                <xdr:rowOff>342900</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2562225</xdr:colOff>
+                <xdr:row>96</xdr:row>
+                <xdr:rowOff>781050</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>704850</xdr:colOff>
+                <xdr:row>52</xdr:row>
+                <xdr:rowOff>666750</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1771650</xdr:colOff>
+                <xdr:row>52</xdr:row>
+                <xdr:rowOff>1076325</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId10">
+          <objectPr defaultSize="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>762000</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>476250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2619375</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>990600</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId12">
+          <objectPr defaultSize="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2171700</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>600075</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId14">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2276475</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>390525</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1040" r:id="rId16">
+          <objectPr defaultSize="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1200150</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2486025</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>771525</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1040" r:id="rId16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1041" r:id="rId18">
+          <objectPr defaultSize="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1514475</xdr:colOff>
+                <xdr:row>70</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2286000</xdr:colOff>
+                <xdr:row>70</xdr:row>
+                <xdr:rowOff>619125</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1041" r:id="rId18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1042" r:id="rId20">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1266825</xdr:colOff>
+                <xdr:row>71</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2466975</xdr:colOff>
+                <xdr:row>71</xdr:row>
+                <xdr:rowOff>466725</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1042" r:id="rId20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId22">
+          <objectPr defaultSize="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>990600</xdr:colOff>
+                <xdr:row>72</xdr:row>
+                <xdr:rowOff>219075</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2019300</xdr:colOff>
+                <xdr:row>72</xdr:row>
+                <xdr:rowOff>733425</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId24">
+          <objectPr defaultSize="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>866775</xdr:colOff>
+                <xdr:row>73</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2505075</xdr:colOff>
+                <xdr:row>73</xdr:row>
+                <xdr:rowOff>638175</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId26">
+          <objectPr defaultSize="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1238250</xdr:colOff>
+                <xdr:row>74</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2171700</xdr:colOff>
+                <xdr:row>74</xdr:row>
+                <xdr:rowOff>590550</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1046" r:id="rId28">
+          <objectPr defaultSize="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1876425</xdr:colOff>
+                <xdr:row>78</xdr:row>
+                <xdr:rowOff>1724025</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2647950</xdr:colOff>
+                <xdr:row>78</xdr:row>
+                <xdr:rowOff>2238375</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1046" r:id="rId28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>535</v>
       </c>
@@ -7797,20 +8820,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="127.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1">
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7818,7 +8841,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="51.75">
+    <row r="2" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -7826,7 +8849,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -7834,7 +8857,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -7845,14 +8868,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F174"/>
   <sheetViews>
     <sheetView topLeftCell="A102" workbookViewId="0">
       <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.140625" bestFit="1" customWidth="1"/>
@@ -7862,7 +8885,7 @@
     <col min="6" max="6" width="96" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7882,7 +8905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="90">
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>172</v>
       </c>
@@ -7897,7 +8920,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="39">
+    <row r="3" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>172</v>
       </c>
@@ -7912,7 +8935,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25">
+    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>226</v>
       </c>
@@ -7929,7 +8952,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51.75">
+    <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>226</v>
       </c>
@@ -7946,7 +8969,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="39">
+    <row r="6" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>226</v>
       </c>
@@ -7964,7 +8987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.25">
+    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>226</v>
       </c>
@@ -7979,7 +9002,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="26.25">
+    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>226</v>
       </c>
@@ -7999,7 +9022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="26.25">
+    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -8014,7 +9037,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="39">
+    <row r="10" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -8029,7 +9052,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="26.25">
+    <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -8044,7 +9067,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="26.25">
+    <row r="12" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -8059,7 +9082,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="26.25">
+    <row r="13" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -8074,7 +9097,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -8089,7 +9112,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -8104,7 +9127,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="26.25">
+    <row r="16" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -8119,7 +9142,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -8134,7 +9157,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="26.25">
+    <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -8149,7 +9172,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="39">
+    <row r="19" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -8164,7 +9187,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="39">
+    <row r="20" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -8179,7 +9202,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="39">
+    <row r="21" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -8194,7 +9217,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -8209,7 +9232,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -8222,7 +9245,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -8235,7 +9258,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -8248,7 +9271,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -8261,7 +9284,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -8274,7 +9297,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
@@ -8287,7 +9310,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -8300,7 +9323,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -8313,7 +9336,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="26.25">
+    <row r="31" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>23</v>
       </c>
@@ -8328,7 +9351,7 @@
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="26.25">
+    <row r="32" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
@@ -8343,7 +9366,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="26.25">
+    <row r="33" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
@@ -8358,7 +9381,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="26.25">
+    <row r="34" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
@@ -8373,7 +9396,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" ht="26.25">
+    <row r="35" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>23</v>
       </c>
@@ -8388,7 +9411,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="26.25">
+    <row r="36" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
@@ -8405,7 +9428,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28.5" customHeight="1">
+    <row r="37" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
@@ -8422,7 +9445,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="192">
+    <row r="38" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -8437,7 +9460,7 @@
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" ht="77.25">
+    <row r="39" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>23</v>
       </c>
@@ -8452,7 +9475,7 @@
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>23</v>
       </c>
@@ -8465,7 +9488,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" ht="51.75">
+    <row r="41" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>23</v>
       </c>
@@ -8482,7 +9505,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="39">
+    <row r="42" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
@@ -8497,7 +9520,7 @@
       </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>23</v>
       </c>
@@ -8511,7 +9534,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="26.25">
+    <row r="44" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>198</v>
       </c>
@@ -8526,7 +9549,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" ht="39">
+    <row r="45" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>198</v>
       </c>
@@ -8543,7 +9566,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="64.5">
+    <row r="46" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>198</v>
       </c>
@@ -8560,7 +9583,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="64.5">
+    <row r="47" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>198</v>
       </c>
@@ -8575,7 +9598,7 @@
       </c>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" ht="51.75">
+    <row r="48" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>198</v>
       </c>
@@ -8590,7 +9613,7 @@
       </c>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:6" ht="77.25">
+    <row r="49" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>198</v>
       </c>
@@ -8607,7 +9630,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="26.25">
+    <row r="50" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>198</v>
       </c>
@@ -8622,7 +9645,7 @@
       </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:6" ht="39">
+    <row r="51" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>198</v>
       </c>
@@ -8637,7 +9660,7 @@
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:6" ht="64.5">
+    <row r="52" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>198</v>
       </c>
@@ -8654,7 +9677,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="51.75">
+    <row r="53" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>23</v>
       </c>
@@ -8674,7 +9697,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="102.75">
+    <row r="54" spans="1:6" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>23</v>
       </c>
@@ -8694,7 +9717,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="39">
+    <row r="55" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>23</v>
       </c>
@@ -8711,7 +9734,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="39">
+    <row r="56" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>23</v>
       </c>
@@ -8728,7 +9751,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="51.75">
+    <row r="57" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>23</v>
       </c>
@@ -8743,7 +9766,7 @@
       </c>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="64.5">
+    <row r="58" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>23</v>
       </c>
@@ -8760,7 +9783,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>23</v>
       </c>
@@ -8775,7 +9798,7 @@
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>23</v>
       </c>
@@ -8790,7 +9813,7 @@
       </c>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="64.5">
+    <row r="61" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>23</v>
       </c>
@@ -8805,7 +9828,7 @@
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>23</v>
       </c>
@@ -8820,7 +9843,7 @@
       </c>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:6" ht="26.25">
+    <row r="63" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>23</v>
       </c>
@@ -8835,7 +9858,7 @@
       </c>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:6" ht="77.25">
+    <row r="64" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>23</v>
       </c>
@@ -8852,7 +9875,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="26.25">
+    <row r="65" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>23</v>
       </c>
@@ -8867,7 +9890,7 @@
       </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" ht="39">
+    <row r="66" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>23</v>
       </c>
@@ -8882,7 +9905,7 @@
       </c>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" ht="26.25">
+    <row r="67" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
         <v>252</v>
@@ -8895,7 +9918,7 @@
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" ht="26.25">
+    <row r="68" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>23</v>
       </c>
@@ -8912,7 +9935,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="26.25">
+    <row r="69" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>23</v>
       </c>
@@ -8927,7 +9950,7 @@
       </c>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" ht="51.75">
+    <row r="70" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>23</v>
       </c>
@@ -8942,7 +9965,7 @@
       </c>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" ht="26.25">
+    <row r="71" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>23</v>
       </c>
@@ -8957,7 +9980,7 @@
       </c>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>23</v>
       </c>
@@ -8972,7 +9995,7 @@
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" ht="26.25">
+    <row r="73" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>23</v>
       </c>
@@ -8987,7 +10010,7 @@
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" ht="26.25">
+    <row r="74" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>23</v>
       </c>
@@ -9002,7 +10025,7 @@
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" ht="26.25">
+    <row r="75" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>23</v>
       </c>
@@ -9019,7 +10042,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="26.25">
+    <row r="76" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>23</v>
       </c>
@@ -9034,7 +10057,7 @@
       </c>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" ht="39">
+    <row r="77" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>23</v>
       </c>
@@ -9051,7 +10074,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="39">
+    <row r="78" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>23</v>
       </c>
@@ -9068,7 +10091,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="141">
+    <row r="79" spans="1:5" ht="141" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>23</v>
       </c>
@@ -9085,7 +10108,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>23</v>
       </c>
@@ -9100,7 +10123,7 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" ht="115.5">
+    <row r="81" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>23</v>
       </c>
@@ -9117,7 +10140,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="26.25">
+    <row r="82" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>23</v>
       </c>
@@ -9134,7 +10157,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="26.25">
+    <row r="83" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>23</v>
       </c>
@@ -9149,7 +10172,7 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" ht="64.5">
+    <row r="84" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>23</v>
       </c>
@@ -9166,7 +10189,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="39">
+    <row r="85" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>23</v>
       </c>
@@ -9183,7 +10206,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="90">
+    <row r="86" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>23</v>
       </c>
@@ -9200,7 +10223,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="128.25">
+    <row r="87" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>23</v>
       </c>
@@ -9217,7 +10240,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="64.5">
+    <row r="88" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>23</v>
       </c>
@@ -9234,7 +10257,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="39">
+    <row r="89" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>23</v>
       </c>
@@ -9251,7 +10274,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>23</v>
       </c>
@@ -9268,7 +10291,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="26.25">
+    <row r="91" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>23</v>
       </c>
@@ -9283,7 +10306,7 @@
       </c>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" ht="115.5">
+    <row r="92" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>23</v>
       </c>
@@ -9298,7 +10321,7 @@
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" ht="51.75">
+    <row r="93" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>23</v>
       </c>
@@ -9315,7 +10338,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="51.75">
+    <row r="94" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>23</v>
       </c>
@@ -9332,7 +10355,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>23</v>
       </c>
@@ -9349,7 +10372,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="128.25">
+    <row r="96" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>198</v>
       </c>
@@ -9363,7 +10386,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="77.25">
+    <row r="97" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>198</v>
       </c>
@@ -9377,7 +10400,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="26.25">
+    <row r="98" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>198</v>
       </c>
@@ -9391,7 +10414,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="26.25">
+    <row r="99" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>198</v>
       </c>
@@ -9405,7 +10428,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="26.25">
+    <row r="100" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>198</v>
       </c>
@@ -9419,7 +10442,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="39">
+    <row r="101" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>198</v>
       </c>
@@ -9433,7 +10456,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="26.25">
+    <row r="102" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>198</v>
       </c>
@@ -9447,7 +10470,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="26.25">
+    <row r="103" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>198</v>
       </c>
@@ -9461,7 +10484,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="26.25">
+    <row r="104" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>198</v>
       </c>
@@ -9475,7 +10498,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="26.25">
+    <row r="105" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>198</v>
       </c>
@@ -9489,7 +10512,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="26.25">
+    <row r="106" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>198</v>
       </c>
@@ -9503,7 +10526,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="26.25">
+    <row r="107" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>198</v>
       </c>
@@ -9517,7 +10540,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="39">
+    <row r="108" spans="1:6" ht="39" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>198</v>
       </c>
@@ -9531,7 +10554,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>23</v>
       </c>
@@ -9545,7 +10568,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="64.5">
+    <row r="110" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>23</v>
       </c>
@@ -9565,21 +10588,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
       <c r="E112" s="2"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>153</v>
       </c>
@@ -9592,427 +10615,427 @@
       <c r="D113" s="3"/>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="3"/>
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="3"/>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="3"/>
       <c r="E116" s="2"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="3"/>
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="3"/>
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="3"/>
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="3"/>
       <c r="E120" s="2"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="3"/>
       <c r="E121" s="2"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
       <c r="E122" s="2"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="3"/>
       <c r="E125" s="2"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="3"/>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="3"/>
       <c r="E127" s="2"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="3"/>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="3"/>
       <c r="E129" s="2"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="3"/>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="3"/>
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="3"/>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="3"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="3"/>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
       <c r="E135" s="2"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="3"/>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="3"/>
       <c r="E137" s="2"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="3"/>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="3"/>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
       <c r="E143" s="2"/>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
       <c r="E144" s="2"/>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="3"/>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="3"/>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
       <c r="E153" s="2"/>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
       <c r="E154" s="2"/>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="3"/>
       <c r="E157" s="2"/>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
       <c r="E160" s="2"/>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
       <c r="E161" s="2"/>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="3"/>
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="3"/>
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="3"/>
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
       <c r="E172" s="2"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -10026,14 +11049,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -10043,7 +11066,7 @@
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -10060,7 +11083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>236</v>
       </c>
@@ -10075,7 +11098,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="26.25">
+    <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>236</v>
       </c>
@@ -10090,7 +11113,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="90">
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>172</v>
       </c>
@@ -10104,7 +11127,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>172</v>
       </c>
@@ -10118,7 +11141,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.25">
+    <row r="6" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -10129,7 +11152,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="77.25">
+    <row r="7" spans="1:5" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -10140,7 +11163,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="26.25">
+    <row r="8" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -10154,7 +11177,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="26.25">
+    <row r="9" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -10165,7 +11188,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="26.25">
+    <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -10176,7 +11199,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="26.25">
+    <row r="11" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -10193,14 +11216,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="2" bestFit="1" customWidth="1"/>
@@ -10208,7 +11231,7 @@
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -10220,7 +11243,7 @@
       </c>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>236</v>
       </c>
@@ -10232,7 +11255,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>236</v>
       </c>
@@ -10244,7 +11267,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>236</v>
       </c>
@@ -10256,7 +11279,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>391</v>
       </c>
@@ -10267,7 +11290,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>391</v>
       </c>
@@ -10278,7 +11301,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>172</v>
       </c>
@@ -10290,7 +11313,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -10307,14 +11330,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView topLeftCell="B15" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="3" customWidth="1"/>
@@ -10322,7 +11345,7 @@
     <col min="4" max="4" width="46" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -10336,7 +11359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="51.75">
+    <row r="3" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>236</v>
       </c>
@@ -10347,7 +11370,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>236</v>
       </c>
@@ -10358,7 +11381,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="90">
+    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>172</v>
       </c>
@@ -10369,7 +11392,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="26.25">
+    <row r="6" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>375</v>
       </c>
@@ -10377,22 +11400,22 @@
         <v>397</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="51.75">
+    <row r="10" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -10406,7 +11429,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="26.25">
+    <row r="11" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -10414,7 +11437,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="102.75">
+    <row r="12" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>236</v>
       </c>
@@ -10428,7 +11451,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="39">
+    <row r="13" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>236</v>
       </c>
@@ -10439,7 +11462,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="225" customHeight="1">
+    <row r="14" spans="1:4" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -10450,7 +11473,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>5</v>
       </c>
@@ -10458,7 +11481,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="64.5">
+    <row r="16" spans="1:4" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -10469,7 +11492,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="64.5">
+    <row r="17" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -10480,7 +11503,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="77.25">
+    <row r="18" spans="1:3" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -10491,7 +11514,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="90">
+    <row r="19" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>236</v>
       </c>
@@ -10502,7 +11525,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="115.5">
+    <row r="20" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>391</v>
       </c>
@@ -10520,14 +11543,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y82"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="Y47" sqref="Y47"/>
+    <sheetView tabSelected="1" topLeftCell="H36" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.7109375" style="2"/>
     <col min="3" max="3" width="2.7109375" style="22" customWidth="1"/>
@@ -10538,1044 +11561,1044 @@
     <col min="25" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:25" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="100" t="s">
         <v>487</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="56"/>
-    </row>
-    <row r="2" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="104"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="59"/>
-    </row>
-    <row r="3" spans="1:25" s="22" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="95" t="s">
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="102"/>
+    </row>
+    <row r="2" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="105"/>
+    </row>
+    <row r="3" spans="1:25" s="22" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
       <c r="Y3" s="26"/>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="98"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="106" t="s">
+    <row r="4" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="55" t="s">
         <v>514</v>
       </c>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="52"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="98"/>
       <c r="Y4" s="26"/>
     </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="98"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="45"/>
+    <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="27" t="s">
         <v>512</v>
       </c>
-      <c r="E5" s="91" t="s">
+      <c r="E5" s="64" t="s">
         <v>513</v>
       </c>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91" t="s">
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64" t="s">
         <v>515</v>
       </c>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="52"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="98"/>
       <c r="Y5" s="26"/>
     </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1">
-      <c r="A6" s="98"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="45"/>
+    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="23">
         <v>1</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="68" t="s">
         <v>518</v>
       </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="87" t="s">
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="65" t="s">
         <v>516</v>
       </c>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="52"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="90"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="98"/>
       <c r="Y6" s="26"/>
     </row>
-    <row r="7" spans="1:25" ht="30" customHeight="1">
-      <c r="A7" s="98"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="45"/>
+    <row r="7" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="24">
         <v>2</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="71" t="s">
         <v>520</v>
       </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="67" t="s">
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="52"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="90"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="98"/>
       <c r="Y7" s="26"/>
     </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1">
-      <c r="A8" s="98"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="45"/>
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="24">
         <v>3</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="71" t="s">
         <v>521</v>
       </c>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="67" t="s">
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="61" t="s">
         <v>500</v>
       </c>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="52"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="98"/>
       <c r="Y8" s="26"/>
     </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1">
-      <c r="A9" s="98"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="45"/>
+    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="24">
         <v>4</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="71" t="s">
         <v>522</v>
       </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="67" t="s">
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="61" t="s">
         <v>507</v>
       </c>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="52"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="98"/>
       <c r="Y9" s="26"/>
     </row>
-    <row r="10" spans="1:25" ht="30" customHeight="1">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="45"/>
+    <row r="10" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="24">
         <v>5</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="71" t="s">
         <v>523</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="67" t="s">
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="61" t="s">
         <v>519</v>
       </c>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="52"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="98"/>
       <c r="Y10" s="26"/>
     </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="98"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="45"/>
+    <row r="11" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="25">
         <v>6</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="74" t="s">
         <v>524</v>
       </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="78" t="s">
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="58" t="s">
         <v>525</v>
       </c>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="80"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="52"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="98"/>
       <c r="Y11" s="26"/>
     </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="100"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
+    <row r="12" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90"/>
       <c r="Y12" s="26"/>
     </row>
-    <row r="13" spans="1:25" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="61" t="s">
+    <row r="13" spans="1:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="81" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="88"/>
       <c r="Y13" s="26"/>
     </row>
-    <row r="14" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="63"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="106" t="s">
+    <row r="14" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="82"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="55" t="s">
         <v>526</v>
       </c>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="108"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="52"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="98"/>
       <c r="Y14" s="26"/>
     </row>
-    <row r="15" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="91" t="s">
+    <row r="15" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="82"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="64" t="s">
         <v>490</v>
       </c>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91" t="s">
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="91"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="52"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="98"/>
       <c r="Y15" s="26"/>
     </row>
-    <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="63"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="87" t="s">
+    <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="82"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="65" t="s">
         <v>527</v>
       </c>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="87" t="s">
+      <c r="E16" s="66"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="65" t="s">
         <v>491</v>
       </c>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="52"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="98"/>
       <c r="Y16" s="26"/>
     </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1">
-      <c r="A17" s="63"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="67" t="s">
+    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="82"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="61" t="s">
         <v>528</v>
       </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="52"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="99"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="98"/>
       <c r="Y17" s="26"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1">
-      <c r="A18" s="63"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="67" t="s">
+    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="82"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="61" t="s">
         <v>492</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="52"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="98"/>
       <c r="Y18" s="26"/>
     </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="67" t="s">
+    <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="82"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="61" t="s">
         <v>529</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="52"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="98"/>
       <c r="Y19" s="26"/>
     </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1">
-      <c r="A20" s="63"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="67" t="s">
+    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="82"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="61" t="s">
         <v>503</v>
       </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="52"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="98"/>
       <c r="Y20" s="26"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1">
-      <c r="A21" s="63"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="67" t="s">
+    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="82"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="61" t="s">
         <v>504</v>
       </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="52"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="90"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="98"/>
       <c r="Y21" s="26"/>
     </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1">
-      <c r="A22" s="63"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="67" t="s">
+    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="82"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="61" t="s">
         <v>505</v>
       </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="52"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="98"/>
       <c r="Y22" s="26"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1">
-      <c r="A23" s="63"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="67" t="s">
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="82"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="61" t="s">
         <v>507</v>
       </c>
-      <c r="E23" s="68"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="69"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="52"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="99"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="90"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="98"/>
       <c r="Y23" s="26"/>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1">
-      <c r="A24" s="63"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="52"/>
+    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="82"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="90"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="98"/>
       <c r="Y24" s="26"/>
     </row>
-    <row r="25" spans="1:25" s="30" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="63"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="52"/>
+    <row r="25" spans="1:25" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="82"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="98"/>
       <c r="Y25" s="26"/>
     </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1">
-      <c r="A26" s="63"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="52"/>
+    <row r="26" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="82"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="90"/>
+      <c r="V26" s="90"/>
+      <c r="W26" s="90"/>
+      <c r="X26" s="98"/>
       <c r="Y26" s="26"/>
     </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1">
-      <c r="A27" s="63"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="52"/>
+    <row r="27" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="82"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="99"/>
+      <c r="T27" s="90"/>
+      <c r="U27" s="90"/>
+      <c r="V27" s="90"/>
+      <c r="W27" s="90"/>
+      <c r="X27" s="98"/>
       <c r="Y27" s="26"/>
     </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1">
-      <c r="A28" s="63"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="52"/>
+    <row r="28" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="82"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="99"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="90"/>
+      <c r="W28" s="90"/>
+      <c r="X28" s="98"/>
       <c r="Y28" s="26"/>
     </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1">
-      <c r="A29" s="63"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="68"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="52"/>
+    <row r="29" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="82"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="99"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="90"/>
+      <c r="V29" s="90"/>
+      <c r="W29" s="90"/>
+      <c r="X29" s="98"/>
       <c r="Y29" s="26"/>
     </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1">
-      <c r="A30" s="63"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="52"/>
+    <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="82"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="99"/>
+      <c r="T30" s="90"/>
+      <c r="U30" s="90"/>
+      <c r="V30" s="90"/>
+      <c r="W30" s="90"/>
+      <c r="X30" s="98"/>
       <c r="Y30" s="26"/>
     </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="63"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="79"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="80"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="52"/>
+    <row r="31" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="82"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="99"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="90"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="90"/>
+      <c r="X31" s="98"/>
       <c r="Y31" s="26"/>
     </row>
-    <row r="32" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="65"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="44"/>
+    <row r="32" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="83"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="90"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="90"/>
+      <c r="T32" s="90"/>
+      <c r="U32" s="90"/>
+      <c r="V32" s="90"/>
+      <c r="W32" s="90"/>
+      <c r="X32" s="90"/>
       <c r="Y32" s="26"/>
     </row>
-    <row r="33" spans="1:25" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A33" s="95" t="s">
+    <row r="33" spans="1:25" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="87"/>
+      <c r="S33" s="87"/>
+      <c r="T33" s="87"/>
+      <c r="U33" s="87"/>
+      <c r="V33" s="87"/>
+      <c r="W33" s="87"/>
+      <c r="X33" s="88"/>
       <c r="Y33" s="26"/>
     </row>
-    <row r="34" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="96"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="70" t="s">
+    <row r="34" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="43"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="84" t="s">
         <v>556</v>
       </c>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="70"/>
-      <c r="O34" s="70"/>
-      <c r="P34" s="70"/>
-      <c r="Q34" s="70"/>
-      <c r="R34" s="70"/>
-      <c r="S34" s="70"/>
-      <c r="T34" s="70"/>
-      <c r="U34" s="70"/>
-      <c r="V34" s="70"/>
-      <c r="W34" s="70"/>
-      <c r="X34" s="49"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="84"/>
+      <c r="T34" s="84"/>
+      <c r="U34" s="84"/>
+      <c r="V34" s="84"/>
+      <c r="W34" s="84"/>
+      <c r="X34" s="95"/>
       <c r="Y34" s="26"/>
     </row>
-    <row r="35" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="96"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="70" t="s">
+    <row r="35" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="43"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="84" t="s">
         <v>557</v>
       </c>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70" t="s">
+      <c r="E35" s="84"/>
+      <c r="F35" s="84" t="s">
         <v>558</v>
       </c>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70" t="s">
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84" t="s">
         <v>562</v>
       </c>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70" t="s">
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84" t="s">
         <v>563</v>
       </c>
-      <c r="N35" s="70"/>
-      <c r="O35" s="70"/>
-      <c r="P35" s="70" t="s">
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84" t="s">
         <v>564</v>
       </c>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="71"/>
-      <c r="V35" s="71"/>
-      <c r="W35" s="71"/>
-      <c r="X35" s="49"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
+      <c r="U35" s="85"/>
+      <c r="V35" s="85"/>
+      <c r="W35" s="85"/>
+      <c r="X35" s="95"/>
       <c r="Y35" s="26"/>
     </row>
-    <row r="36" spans="1:25" ht="30" customHeight="1" thickBot="1">
-      <c r="A36" s="96"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
+    <row r="36" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="43"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
       <c r="F36" s="37" t="s">
         <v>559</v>
       </c>
@@ -11585,38 +12608,38 @@
       <c r="H36" s="38" t="s">
         <v>561</v>
       </c>
-      <c r="I36" s="70" t="s">
+      <c r="I36" s="84" t="s">
         <v>559</v>
       </c>
-      <c r="J36" s="70"/>
+      <c r="J36" s="84"/>
       <c r="K36" s="38" t="s">
         <v>560</v>
       </c>
       <c r="L36" s="38" t="s">
         <v>561</v>
       </c>
-      <c r="M36" s="70"/>
-      <c r="N36" s="70"/>
-      <c r="O36" s="70"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="71"/>
-      <c r="T36" s="71"/>
-      <c r="U36" s="71"/>
-      <c r="V36" s="71"/>
-      <c r="W36" s="71"/>
-      <c r="X36" s="49"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="85"/>
+      <c r="R36" s="85"/>
+      <c r="S36" s="85"/>
+      <c r="T36" s="85"/>
+      <c r="U36" s="85"/>
+      <c r="V36" s="85"/>
+      <c r="W36" s="85"/>
+      <c r="X36" s="95"/>
       <c r="Y36" s="26"/>
     </row>
-    <row r="37" spans="1:25" ht="45" customHeight="1">
-      <c r="A37" s="96"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="75" t="s">
+    <row r="37" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="43"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="79" t="s">
         <v>565</v>
       </c>
-      <c r="E37" s="75"/>
+      <c r="E37" s="79"/>
       <c r="F37" s="34" t="s">
         <v>566</v>
       </c>
@@ -11626,42 +12649,42 @@
       <c r="H37" s="34" t="s">
         <v>570</v>
       </c>
-      <c r="I37" s="75" t="s">
+      <c r="I37" s="79" t="s">
         <v>571</v>
       </c>
-      <c r="J37" s="75"/>
+      <c r="J37" s="79"/>
       <c r="K37" s="34" t="s">
         <v>569</v>
       </c>
       <c r="L37" s="34" t="s">
         <v>570</v>
       </c>
-      <c r="M37" s="75" t="s">
+      <c r="M37" s="79" t="s">
         <v>575</v>
       </c>
-      <c r="N37" s="75"/>
-      <c r="O37" s="75"/>
-      <c r="P37" s="72" t="s">
+      <c r="N37" s="79"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="107" t="s">
         <v>579</v>
       </c>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="72"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="72"/>
-      <c r="W37" s="72"/>
-      <c r="X37" s="49"/>
+      <c r="Q37" s="107"/>
+      <c r="R37" s="107"/>
+      <c r="S37" s="107"/>
+      <c r="T37" s="107"/>
+      <c r="U37" s="107"/>
+      <c r="V37" s="107"/>
+      <c r="W37" s="107"/>
+      <c r="X37" s="95"/>
       <c r="Y37" s="26"/>
     </row>
-    <row r="38" spans="1:25" ht="75" customHeight="1">
-      <c r="A38" s="96"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="76" t="s">
+    <row r="38" spans="1:25" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="77" t="s">
         <v>551</v>
       </c>
-      <c r="E38" s="76"/>
+      <c r="E38" s="77"/>
       <c r="F38" s="35" t="s">
         <v>566</v>
       </c>
@@ -11671,42 +12694,42 @@
       <c r="H38" s="35" t="s">
         <v>570</v>
       </c>
-      <c r="I38" s="76" t="s">
+      <c r="I38" s="77" t="s">
         <v>571</v>
       </c>
-      <c r="J38" s="76"/>
+      <c r="J38" s="77"/>
       <c r="K38" s="35" t="s">
         <v>568</v>
       </c>
       <c r="L38" s="35" t="s">
         <v>570</v>
       </c>
-      <c r="M38" s="76" t="s">
+      <c r="M38" s="77" t="s">
         <v>576</v>
       </c>
-      <c r="N38" s="76"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="73" t="s">
+      <c r="N38" s="77"/>
+      <c r="O38" s="77"/>
+      <c r="P38" s="80" t="s">
         <v>580</v>
       </c>
-      <c r="Q38" s="73"/>
-      <c r="R38" s="73"/>
-      <c r="S38" s="73"/>
-      <c r="T38" s="73"/>
-      <c r="U38" s="73"/>
-      <c r="V38" s="73"/>
-      <c r="W38" s="73"/>
-      <c r="X38" s="49"/>
+      <c r="Q38" s="80"/>
+      <c r="R38" s="80"/>
+      <c r="S38" s="80"/>
+      <c r="T38" s="80"/>
+      <c r="U38" s="80"/>
+      <c r="V38" s="80"/>
+      <c r="W38" s="80"/>
+      <c r="X38" s="95"/>
       <c r="Y38" s="26"/>
     </row>
-    <row r="39" spans="1:25" ht="30" customHeight="1">
-      <c r="A39" s="96"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="73" t="s">
+    <row r="39" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="43"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="80" t="s">
         <v>552</v>
       </c>
-      <c r="E39" s="73"/>
+      <c r="E39" s="80"/>
       <c r="F39" s="35" t="s">
         <v>566</v>
       </c>
@@ -11716,42 +12739,42 @@
       <c r="H39" s="35" t="s">
         <v>570</v>
       </c>
-      <c r="I39" s="76" t="s">
+      <c r="I39" s="77" t="s">
         <v>572</v>
       </c>
-      <c r="J39" s="76"/>
+      <c r="J39" s="77"/>
       <c r="K39" s="35" t="s">
         <v>568</v>
       </c>
       <c r="L39" s="35" t="s">
         <v>573</v>
       </c>
-      <c r="M39" s="73" t="s">
+      <c r="M39" s="80" t="s">
         <v>577</v>
       </c>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="73" t="s">
+      <c r="N39" s="77"/>
+      <c r="O39" s="77"/>
+      <c r="P39" s="80" t="s">
         <v>581</v>
       </c>
-      <c r="Q39" s="73"/>
-      <c r="R39" s="73"/>
-      <c r="S39" s="73"/>
-      <c r="T39" s="73"/>
-      <c r="U39" s="73"/>
-      <c r="V39" s="73"/>
-      <c r="W39" s="73"/>
-      <c r="X39" s="49"/>
+      <c r="Q39" s="80"/>
+      <c r="R39" s="80"/>
+      <c r="S39" s="80"/>
+      <c r="T39" s="80"/>
+      <c r="U39" s="80"/>
+      <c r="V39" s="80"/>
+      <c r="W39" s="80"/>
+      <c r="X39" s="95"/>
       <c r="Y39" s="26"/>
     </row>
-    <row r="40" spans="1:25" ht="75" customHeight="1" thickBot="1">
-      <c r="A40" s="96"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="77" t="s">
+    <row r="40" spans="1:25" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="43"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="78" t="s">
         <v>567</v>
       </c>
-      <c r="E40" s="77"/>
+      <c r="E40" s="78"/>
       <c r="F40" s="36" t="s">
         <v>566</v>
       </c>
@@ -11761,88 +12784,88 @@
       <c r="H40" s="36" t="s">
         <v>570</v>
       </c>
-      <c r="I40" s="77" t="s">
+      <c r="I40" s="78" t="s">
         <v>566</v>
       </c>
-      <c r="J40" s="77"/>
+      <c r="J40" s="78"/>
       <c r="K40" s="36" t="s">
         <v>568</v>
       </c>
       <c r="L40" s="36" t="s">
         <v>574</v>
       </c>
-      <c r="M40" s="77" t="s">
+      <c r="M40" s="78" t="s">
         <v>578</v>
       </c>
-      <c r="N40" s="77"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="74" t="s">
+      <c r="N40" s="78"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="108" t="s">
         <v>582</v>
       </c>
-      <c r="Q40" s="74"/>
-      <c r="R40" s="74"/>
-      <c r="S40" s="74"/>
-      <c r="T40" s="74"/>
-      <c r="U40" s="74"/>
-      <c r="V40" s="74"/>
-      <c r="W40" s="74"/>
-      <c r="X40" s="49"/>
+      <c r="Q40" s="108"/>
+      <c r="R40" s="108"/>
+      <c r="S40" s="108"/>
+      <c r="T40" s="108"/>
+      <c r="U40" s="108"/>
+      <c r="V40" s="108"/>
+      <c r="W40" s="108"/>
+      <c r="X40" s="95"/>
       <c r="Y40" s="26"/>
     </row>
-    <row r="41" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A41" s="97"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="47"/>
-      <c r="W41" s="47"/>
-      <c r="X41" s="48"/>
+    <row r="41" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="45"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="93"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="93"/>
+      <c r="P41" s="93"/>
+      <c r="Q41" s="93"/>
+      <c r="R41" s="93"/>
+      <c r="S41" s="93"/>
+      <c r="T41" s="93"/>
+      <c r="U41" s="93"/>
+      <c r="V41" s="93"/>
+      <c r="W41" s="93"/>
+      <c r="X41" s="94"/>
       <c r="Y41" s="26"/>
     </row>
-    <row r="42" spans="1:25" ht="15" customHeight="1" thickTop="1">
+    <row r="42" spans="1:25" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="32"/>
       <c r="B42" s="39"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="41"/>
-      <c r="W42" s="41"/>
-      <c r="X42" s="42"/>
-    </row>
-    <row r="43" spans="1:25" ht="15" customHeight="1">
+      <c r="C42" s="86"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="87"/>
+      <c r="P42" s="87"/>
+      <c r="Q42" s="87"/>
+      <c r="R42" s="87"/>
+      <c r="S42" s="87"/>
+      <c r="T42" s="87"/>
+      <c r="U42" s="87"/>
+      <c r="V42" s="87"/>
+      <c r="W42" s="87"/>
+      <c r="X42" s="88"/>
+    </row>
+    <row r="43" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="32"/>
       <c r="B43" s="39"/>
       <c r="C43" s="31"/>
@@ -11868,9 +12891,9 @@
       <c r="W43" s="31"/>
       <c r="X43" s="33"/>
     </row>
-    <row r="44" spans="1:25" ht="15" customHeight="1">
-      <c r="A44" s="90"/>
-      <c r="B44" s="90"/>
+    <row r="44" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="31"/>
       <c r="D44" s="31"/>
       <c r="E44" s="31"/>
@@ -11894,9 +12917,9 @@
       <c r="W44" s="31"/>
       <c r="X44" s="33"/>
     </row>
-    <row r="45" spans="1:25" ht="15" customHeight="1">
-      <c r="A45" s="90"/>
-      <c r="B45" s="90"/>
+    <row r="45" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="31"/>
       <c r="D45" s="31"/>
       <c r="E45" s="31"/>
@@ -11920,9 +12943,9 @@
       <c r="W45" s="31"/>
       <c r="X45" s="33"/>
     </row>
-    <row r="46" spans="1:25" ht="15" customHeight="1">
-      <c r="A46" s="90"/>
-      <c r="B46" s="90"/>
+    <row r="46" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="31"/>
       <c r="D46" s="31"/>
       <c r="E46" s="31"/>
@@ -11946,195 +12969,214 @@
       <c r="W46" s="31"/>
       <c r="X46" s="33"/>
     </row>
-    <row r="47" spans="1:25" ht="15" customHeight="1">
-      <c r="A47" s="90"/>
-      <c r="B47" s="90"/>
-    </row>
-    <row r="48" spans="1:25" ht="15" customHeight="1">
-      <c r="A48" s="90"/>
-      <c r="B48" s="90"/>
-    </row>
-    <row r="49" spans="1:2" ht="15" customHeight="1">
-      <c r="A49" s="90"/>
-      <c r="B49" s="90"/>
-    </row>
-    <row r="50" spans="1:2" ht="15" customHeight="1">
-      <c r="A50" s="90"/>
-      <c r="B50" s="90"/>
-    </row>
-    <row r="51" spans="1:2" ht="15" customHeight="1">
-      <c r="A51" s="90"/>
-      <c r="B51" s="90"/>
-    </row>
-    <row r="52" spans="1:2" ht="15" customHeight="1">
-      <c r="A52" s="90"/>
-      <c r="B52" s="90"/>
-    </row>
-    <row r="53" spans="1:2" ht="15" customHeight="1">
-      <c r="A53" s="90"/>
-      <c r="B53" s="90"/>
-    </row>
-    <row r="54" spans="1:2" ht="15" customHeight="1">
-      <c r="A54" s="90"/>
-      <c r="B54" s="90"/>
-    </row>
-    <row r="55" spans="1:2" ht="15" customHeight="1">
-      <c r="A55" s="90"/>
-      <c r="B55" s="90"/>
-    </row>
-    <row r="56" spans="1:2" ht="15" customHeight="1">
-      <c r="A56" s="90"/>
-      <c r="B56" s="90"/>
-    </row>
-    <row r="57" spans="1:2" ht="15" customHeight="1">
-      <c r="A57" s="90"/>
-      <c r="B57" s="90"/>
-    </row>
-    <row r="58" spans="1:2" ht="15" customHeight="1">
-      <c r="A58" s="90"/>
-      <c r="B58" s="90"/>
-    </row>
-    <row r="59" spans="1:2" ht="15" customHeight="1">
-      <c r="A59" s="90"/>
-      <c r="B59" s="90"/>
-    </row>
-    <row r="60" spans="1:2" ht="15" customHeight="1">
-      <c r="A60" s="90"/>
-      <c r="B60" s="90"/>
-    </row>
-    <row r="61" spans="1:2" ht="15" customHeight="1">
-      <c r="A61" s="90"/>
-      <c r="B61" s="90"/>
-    </row>
-    <row r="62" spans="1:2" ht="15" customHeight="1">
-      <c r="A62" s="90"/>
-      <c r="B62" s="90"/>
-    </row>
-    <row r="63" spans="1:2" ht="15" customHeight="1">
-      <c r="A63" s="90"/>
-      <c r="B63" s="90"/>
-    </row>
-    <row r="64" spans="1:2" ht="15" customHeight="1">
-      <c r="A64" s="90"/>
-      <c r="B64" s="90"/>
-    </row>
-    <row r="65" spans="1:2" ht="15" customHeight="1">
-      <c r="A65" s="90"/>
-      <c r="B65" s="90"/>
-    </row>
-    <row r="66" spans="1:2" ht="15" customHeight="1">
-      <c r="A66" s="90"/>
-      <c r="B66" s="90"/>
-    </row>
-    <row r="67" spans="1:2" ht="15" customHeight="1">
-      <c r="A67" s="90"/>
-      <c r="B67" s="90"/>
-    </row>
-    <row r="68" spans="1:2" ht="15" customHeight="1">
-      <c r="A68" s="90"/>
-      <c r="B68" s="90"/>
-    </row>
-    <row r="69" spans="1:2" ht="15" customHeight="1">
-      <c r="A69" s="90"/>
-      <c r="B69" s="90"/>
-    </row>
-    <row r="70" spans="1:2" ht="15" customHeight="1">
-      <c r="A70" s="90"/>
-      <c r="B70" s="90"/>
-    </row>
-    <row r="71" spans="1:2" ht="15" customHeight="1">
-      <c r="A71" s="90"/>
-      <c r="B71" s="90"/>
-    </row>
-    <row r="72" spans="1:2" ht="15" customHeight="1">
-      <c r="A72" s="90"/>
-      <c r="B72" s="90"/>
-    </row>
-    <row r="73" spans="1:2" ht="15" customHeight="1">
-      <c r="A73" s="90"/>
-      <c r="B73" s="90"/>
-    </row>
-    <row r="74" spans="1:2" ht="15" customHeight="1">
-      <c r="A74" s="90"/>
-      <c r="B74" s="90"/>
-    </row>
-    <row r="75" spans="1:2" ht="15" customHeight="1">
-      <c r="A75" s="90"/>
-      <c r="B75" s="90"/>
-    </row>
-    <row r="76" spans="1:2" ht="15" customHeight="1">
-      <c r="A76" s="90"/>
-      <c r="B76" s="90"/>
-    </row>
-    <row r="77" spans="1:2" ht="15" customHeight="1">
-      <c r="A77" s="90"/>
-      <c r="B77" s="90"/>
-    </row>
-    <row r="78" spans="1:2" ht="15" customHeight="1">
-      <c r="A78" s="90"/>
-      <c r="B78" s="90"/>
-    </row>
-    <row r="79" spans="1:2" ht="15" customHeight="1">
-      <c r="A79" s="90"/>
-      <c r="B79" s="90"/>
-    </row>
-    <row r="80" spans="1:2" ht="15" customHeight="1">
-      <c r="A80" s="90"/>
-      <c r="B80" s="90"/>
-    </row>
-    <row r="81" spans="1:2" ht="15" customHeight="1">
-      <c r="A81" s="90"/>
-      <c r="B81" s="90"/>
-    </row>
-    <row r="82" spans="1:2" ht="15" customHeight="1">
-      <c r="A82" s="90"/>
-      <c r="B82" s="90"/>
+    <row r="47" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
+    </row>
+    <row r="48" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
+    </row>
+    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
+    </row>
+    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
+    </row>
+    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+    </row>
+    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
+    </row>
+    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+    </row>
+    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+    </row>
+    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+    </row>
+    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
+    </row>
+    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
+    </row>
+    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
+    </row>
+    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
+    </row>
+    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="40"/>
+      <c r="B60" s="40"/>
+    </row>
+    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+    </row>
+    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
+    </row>
+    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="40"/>
+      <c r="B63" s="40"/>
+    </row>
+    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="40"/>
+      <c r="B64" s="40"/>
+    </row>
+    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="40"/>
+      <c r="B65" s="40"/>
+    </row>
+    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="40"/>
+      <c r="B66" s="40"/>
+    </row>
+    <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="40"/>
+      <c r="B67" s="40"/>
+    </row>
+    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="40"/>
+      <c r="B68" s="40"/>
+    </row>
+    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="40"/>
+      <c r="B69" s="40"/>
+    </row>
+    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="40"/>
+      <c r="B70" s="40"/>
+    </row>
+    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="40"/>
+      <c r="B71" s="40"/>
+    </row>
+    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="40"/>
+      <c r="B72" s="40"/>
+    </row>
+    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="40"/>
+      <c r="B73" s="40"/>
+    </row>
+    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="40"/>
+      <c r="B74" s="40"/>
+    </row>
+    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="40"/>
+      <c r="B75" s="40"/>
+    </row>
+    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
+    </row>
+    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="40"/>
+      <c r="B77" s="40"/>
+    </row>
+    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="40"/>
+      <c r="B78" s="40"/>
+    </row>
+    <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="40"/>
+      <c r="B79" s="40"/>
+    </row>
+    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="40"/>
+      <c r="B80" s="40"/>
+    </row>
+    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="40"/>
+      <c r="B81" s="40"/>
+    </row>
+    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="40"/>
+      <c r="B82" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A33:B41"/>
-    <mergeCell ref="A3:B12"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D14:R14"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="D4:R4"/>
-    <mergeCell ref="G20:R20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:R21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:R22"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:R17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:R18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:R19"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:R15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:R16"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C42:X42"/>
+    <mergeCell ref="C33:X33"/>
+    <mergeCell ref="C32:X32"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="C41:X41"/>
+    <mergeCell ref="X34:X40"/>
+    <mergeCell ref="C3:W3"/>
+    <mergeCell ref="S4:X11"/>
+    <mergeCell ref="C1:X2"/>
+    <mergeCell ref="S14:X31"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="C12:X12"/>
+    <mergeCell ref="C13:X13"/>
+    <mergeCell ref="C14:C31"/>
+    <mergeCell ref="P37:W37"/>
+    <mergeCell ref="P38:W38"/>
+    <mergeCell ref="P39:W39"/>
+    <mergeCell ref="P40:W40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A13:B32"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:R25"/>
+    <mergeCell ref="D34:W34"/>
+    <mergeCell ref="D35:E36"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="M35:O36"/>
+    <mergeCell ref="P35:W36"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:R30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:R31"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:R29"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:R23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:R24"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:R26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="G27:R27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:R28"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="E5:N5"/>
     <mergeCell ref="O5:R5"/>
@@ -12159,69 +13201,50 @@
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A33:B41"/>
+    <mergeCell ref="A3:B12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D14:R14"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="D4:R4"/>
+    <mergeCell ref="G20:R20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:R21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:R22"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:R17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:R18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:R19"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:R15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:R16"/>
     <mergeCell ref="E10:N10"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="G27:R27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:R28"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:R29"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:R23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:R24"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:R26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A13:B32"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:R25"/>
-    <mergeCell ref="D34:W34"/>
-    <mergeCell ref="D35:E36"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="M35:O36"/>
-    <mergeCell ref="P35:W36"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:R30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:R31"/>
-    <mergeCell ref="C42:X42"/>
-    <mergeCell ref="C33:X33"/>
-    <mergeCell ref="C32:X32"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="C41:X41"/>
-    <mergeCell ref="X34:X40"/>
-    <mergeCell ref="C3:W3"/>
-    <mergeCell ref="S4:X11"/>
-    <mergeCell ref="C1:X2"/>
-    <mergeCell ref="S14:X31"/>
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="C12:X12"/>
-    <mergeCell ref="C13:X13"/>
-    <mergeCell ref="C14:C31"/>
-    <mergeCell ref="P37:W37"/>
-    <mergeCell ref="P38:W38"/>
-    <mergeCell ref="P39:W39"/>
-    <mergeCell ref="P40:W40"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12229,14 +13252,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="17.140625" style="5" customWidth="1"/>
@@ -12245,7 +13268,7 @@
     <col min="5" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="15">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="21"/>
       <c r="B1" s="6" t="s">
         <v>380</v>
@@ -12257,7 +13280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>387</v>
@@ -12269,7 +13292,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>393</v>
@@ -12279,7 +13302,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>394</v>
@@ -12289,7 +13312,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="25.5">
+    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>379</v>
@@ -12301,7 +13324,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>383</v>
@@ -12313,7 +13336,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>385</v>
@@ -12325,7 +13348,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>471</v>
@@ -12335,7 +13358,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" ht="51">
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>497</v>
@@ -12347,7 +13370,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>499</v>
@@ -12364,21 +13387,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="107.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -12389,7 +13412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="20" customFormat="1" ht="12">
+    <row r="2" spans="1:3" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
@@ -12398,21 +13421,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="20" customFormat="1" ht="12">
+    <row r="3" spans="1:3" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="20" customFormat="1" ht="12">
+    <row r="4" spans="1:3" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="20" customFormat="1" ht="12">
+    <row r="5" spans="1:3" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="18" t="s">
         <v>441</v>
@@ -12421,7 +13444,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="20" customFormat="1" ht="12">
+    <row r="6" spans="1:3" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="18" t="s">
         <v>406</v>
@@ -12430,7 +13453,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="20" customFormat="1" ht="12">
+    <row r="7" spans="1:3" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="18" t="s">
         <v>468</v>
@@ -12439,14 +13462,14 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="20" customFormat="1" ht="12">
+    <row r="8" spans="1:3" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="20" customFormat="1" ht="12">
+    <row r="9" spans="1:3" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>5</v>
       </c>
@@ -12454,10 +13477,10 @@
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="20" customFormat="1" ht="12"/>
-    <row r="11" spans="1:3" s="20" customFormat="1" ht="12"/>
-    <row r="12" spans="1:3" s="20" customFormat="1" ht="12"/>
-    <row r="13" spans="1:3" s="20" customFormat="1" ht="12"/>
+    <row r="10" spans="1:3" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:3" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" s="20" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="619">
   <si>
     <t>Topic</t>
   </si>
@@ -5795,6 +5795,51 @@
     <t>A primary key is a special relational database table column (or combination of columns) designated to uniquely identify all table records. A primary key's main features are: It must contain a unique value for each row of data and it cannot contain null values.</t>
   </si>
   <si>
+    <t>PL/SQL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">rocedural </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">anguage extension to </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -5860,33 +5905,211 @@
     </r>
   </si>
   <si>
-    <t>PL/SQL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">rocedural </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>RDBMS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">elational </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">atabase </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">anagement </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>ystem</t>
+    </r>
+  </si>
+  <si>
+    <t>DBMS Vs RDMS</t>
+  </si>
+  <si>
+    <t>Simple Key</t>
+  </si>
+  <si>
+    <t>Super Key</t>
+  </si>
+  <si>
+    <t>A simple key consists of a single attribute to uniquely identify an entity occurrence.</t>
+  </si>
+  <si>
+    <t>A superkey is a set of attributes within a table whose values can be used to uniquely identify a tuple (Row). If a relation contains 'n' attributes then maximum number of superkeys possible is 2^n</t>
+  </si>
+  <si>
+    <t>A composite key, in the context of relational databases, is a combination of two or more columns in a table that can be used to uniquely identify each row in the table. Uniqueness is only guaranteed when the columns are combined; when taken individually the columns do not guarantee uniqueness</t>
+  </si>
+  <si>
+    <t>Primay Key</t>
+  </si>
+  <si>
+    <t>Composite Key</t>
+  </si>
+  <si>
+    <t>Candidate Key</t>
+  </si>
+  <si>
+    <t>In database design, a compound key is a key that consists of 2 or more attributes that uniquely identify an entity occurrence. Each attribute that makes up the compound key is a simple key in its own right</t>
+  </si>
+  <si>
+    <t>This is often confused with a composite key whereby even though this is also a key that consists of 2 or more attributes that uniquely identify an entity occurrence, at least one attribute that makes up the composite key is not a simple key in its own right.</t>
+  </si>
+  <si>
+    <t>Compound Key</t>
+  </si>
+  <si>
+    <t>Surrogate Key</t>
+  </si>
+  <si>
+    <t>Natural Key</t>
+  </si>
+  <si>
+    <t>Foreign Key</t>
+  </si>
+  <si>
+    <t>Join</t>
+  </si>
+  <si>
+    <t>The process of refining a database design to ensure that each independent piece of information is in only one place (except for foreign keys) is known as normalization.</t>
+  </si>
+  <si>
+    <t>Normalization</t>
+  </si>
+  <si>
+    <t>Xquery</t>
+  </si>
+  <si>
+    <t>JVM Argumens</t>
+  </si>
+  <si>
+    <t>Table 1-1. Terms and definitions in Page no. 6 of Learning SQL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">tructured </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">uery </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
@@ -5897,69 +6120,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">anguage extension to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">tructured </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>Q</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">uery </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
+        <strike/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Cambria"/>
@@ -5970,130 +6131,36 @@
     </r>
   </si>
   <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>RDBMS</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">elational </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">atabase </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">anagement </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>ystem</t>
-    </r>
-  </si>
-  <si>
-    <t>DBMS Vs RDMS</t>
-  </si>
-  <si>
-    <t>Simple Key</t>
-  </si>
-  <si>
-    <t>Super Key</t>
-  </si>
-  <si>
-    <t>A simple key consists of a single attribute to uniquely identify an entity occurrence.</t>
-  </si>
-  <si>
-    <t>A superkey is a set of attributes within a table whose values can be used to uniquely identify a tuple (Row). If a relation contains 'n' attributes then maximum number of superkeys possible is 2^n</t>
-  </si>
-  <si>
-    <t>A composite key, in the context of relational databases, is a combination of two or more columns in a table that can be used to uniquely identify each row in the table. Uniqueness is only guaranteed when the columns are combined; when taken individually the columns do not guarantee uniqueness</t>
-  </si>
-  <si>
-    <t>Primay Key</t>
-  </si>
-  <si>
-    <t>Composite Key</t>
-  </si>
-  <si>
-    <t>Candidate Key</t>
+    <t>What are the distinct parts of SQL</t>
+  </si>
+  <si>
+    <t>SQL schema statements, SQL data statements and SQL transaction statements</t>
+  </si>
+  <si>
+    <t>SQL schema statements,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SQL data statements </t>
+  </si>
+  <si>
+    <t>SQL transaction statements</t>
+  </si>
+  <si>
+    <t>SQL quries</t>
+  </si>
+  <si>
+    <t>data dictionary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create table with one column for specify DB ventors say Oracle, MS SQL Server, MySQL ,Access etc and list out information in rows that differs for these DBs. One such row item is
+1. Data Dictionary or metadata availability, their table names etc. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6243,6 +6310,23 @@
     <font>
       <i/>
       <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Cambria"/>
@@ -6546,7 +6630,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6757,6 +6841,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7060,10 +7146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123:A127"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8048,10 +8134,10 @@
     </row>
     <row r="123" spans="1:5" ht="39">
       <c r="A123" s="40" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>583</v>
@@ -8059,43 +8145,87 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="40" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B124" s="40" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="26.25">
       <c r="A125" s="40" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B125" s="40" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="39">
       <c r="A126" s="40" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="40" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B127" s="40" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="26.25">
+      <c r="B128" s="17" t="s">
+        <v>600</v>
+      </c>
+      <c r="C128" s="16" t="s">
         <v>598</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" ht="39">
+      <c r="B129" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="B130" s="17" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3">
+      <c r="B131" s="17" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3">
+      <c r="B132" s="40" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3">
+      <c r="B133" s="40" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" ht="26.25">
+      <c r="B134" s="40" t="s">
+        <v>606</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -8122,40 +8252,85 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:B9"/>
+  <dimension ref="B1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="87.28515625" customWidth="1"/>
+    <col min="4" max="6" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="1" spans="2:3">
+      <c r="B1" s="110" t="s">
+        <v>608</v>
+      </c>
+      <c r="C1" s="110" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
       <c r="B2" s="28" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="C2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
+      <c r="C3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
+      <c r="C4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
+      <c r="C5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="C6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>534</v>
+      </c>
+      <c r="C9" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="45">
+      <c r="C18" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -10564,7 +10739,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10670,40 +10845,40 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="40" t="s">
+        <v>586</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>587</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="C9" s="40" t="s">
         <v>588</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="40" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B10" s="40" t="s">
         <v>582</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>584</v>
+      <c r="C10" s="111" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="40" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B11" s="40" t="s">
+        <v>584</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>585</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="40" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -10714,10 +10889,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10927,10 +11102,18 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="40" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="626">
   <si>
     <t>Topic</t>
   </si>
@@ -6140,9 +6140,6 @@
     <t>SQL schema statements,</t>
   </si>
   <si>
-    <t xml:space="preserve"> SQL data statements </t>
-  </si>
-  <si>
     <t>SQL transaction statements</t>
   </si>
   <si>
@@ -6154,6 +6151,30 @@
   <si>
     <t xml:space="preserve">Create table with one column for specify DB ventors say Oracle, MS SQL Server, MySQL ,Access etc and list out information in rows that differs for these DBs. One such row item is
 1. Data Dictionary or metadata availability, their table names etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL data statements </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL schema statements are used to define the data structures like table, views etc stored in the database. </t>
+  </si>
+  <si>
+    <t>SQL data statements are used to manipulate the data structures which were defined using SQL schema statements</t>
+  </si>
+  <si>
+    <t>SQL Data Statements</t>
+  </si>
+  <si>
+    <t>SQL Schema Statements</t>
+  </si>
+  <si>
+    <t>SQL Transaction Statements</t>
+  </si>
+  <si>
+    <t>All database elements created via SQL schema statements are stored in a special set of tables called the data dictionary. This “data about the database” is known collectively as metadata</t>
+  </si>
+  <si>
+    <t>Data Dictionary</t>
   </si>
 </sst>
 </file>
@@ -7146,10 +7167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137:A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8185,6 +8206,9 @@
       </c>
     </row>
     <row r="128" spans="1:5" ht="26.25">
+      <c r="A128" s="40" t="s">
+        <v>586</v>
+      </c>
       <c r="B128" s="17" t="s">
         <v>600</v>
       </c>
@@ -8192,7 +8216,10 @@
         <v>598</v>
       </c>
     </row>
-    <row r="129" spans="2:3" ht="39">
+    <row r="129" spans="1:3" ht="39">
+      <c r="A129" s="40" t="s">
+        <v>586</v>
+      </c>
       <c r="B129" s="17" t="s">
         <v>596</v>
       </c>
@@ -8200,32 +8227,88 @@
         <v>599</v>
       </c>
     </row>
-    <row r="130" spans="2:3">
+    <row r="130" spans="1:3">
+      <c r="A130" s="40" t="s">
+        <v>586</v>
+      </c>
       <c r="B130" s="17" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="131" spans="2:3">
+    <row r="131" spans="1:3">
+      <c r="A131" s="40" t="s">
+        <v>586</v>
+      </c>
       <c r="B131" s="17" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="132" spans="2:3">
+    <row r="132" spans="1:3">
+      <c r="A132" s="40" t="s">
+        <v>586</v>
+      </c>
       <c r="B132" s="40" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="133" spans="2:3">
+    <row r="133" spans="1:3">
+      <c r="A133" s="40" t="s">
+        <v>586</v>
+      </c>
       <c r="B133" s="40" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="134" spans="2:3" ht="26.25">
+    <row r="134" spans="1:3" ht="26.25">
+      <c r="A134" s="40" t="s">
+        <v>586</v>
+      </c>
       <c r="B134" s="40" t="s">
         <v>606</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>605</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="40" t="s">
+        <v>586</v>
+      </c>
+      <c r="B135" s="40" t="s">
+        <v>622</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="40" t="s">
+        <v>586</v>
+      </c>
+      <c r="B136" s="40" t="s">
+        <v>621</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="40" t="s">
+        <v>586</v>
+      </c>
+      <c r="B137" s="40" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="26.25">
+      <c r="A138" s="40" t="s">
+        <v>586</v>
+      </c>
+      <c r="B138" s="40" t="s">
+        <v>625</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -8254,8 +8337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8307,17 +8390,17 @@
     </row>
     <row r="6" spans="2:3">
       <c r="C6" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="C8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -8325,12 +8408,12 @@
         <v>534</v>
       </c>
       <c r="C9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="45">
       <c r="C18" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -8343,7 +8426,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11126,7 +11209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y82"/>
   <sheetViews>
-    <sheetView topLeftCell="H36" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -17,13 +17,15 @@
     <sheet name="Tools" sheetId="8" r:id="rId8"/>
     <sheet name="References" sheetId="6" r:id="rId9"/>
     <sheet name="Sheet1" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="669">
   <si>
     <t>Topic</t>
   </si>
@@ -6176,11 +6178,189 @@
   <si>
     <t>Data Dictionary</t>
   </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>MS SQL Server</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>Modulus</t>
+  </si>
+  <si>
+    <t>To get remainder</t>
+  </si>
+  <si>
+    <t>MOD(x, y)</t>
+  </si>
+  <si>
+    <t>x % y</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Syntax</t>
+  </si>
+  <si>
+    <t>SQL Statement</t>
+  </si>
+  <si>
+    <t>SQL Schema Statement</t>
+  </si>
+  <si>
+    <t>Create Database</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE DATABASE </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>database_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>Run queries from file</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SOURCE </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>filename_with_complete_path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>now()</t>
+  </si>
+  <si>
+    <t>select now();</t>
+  </si>
+  <si>
+    <t>2017-05-19 05:37:46</t>
+  </si>
+  <si>
+    <t>current_timestamp</t>
+  </si>
+  <si>
+    <t>select current_timestamp;</t>
+  </si>
+  <si>
+    <t>create database database_name;</t>
+  </si>
+  <si>
+    <t>source filename_with_path;</t>
+  </si>
+  <si>
+    <t>char Vs varchar i.e Fixed length character type vs Variable-length character type</t>
+  </si>
+  <si>
+    <t>char vs nchar vs varchar vs nvarchar</t>
+  </si>
+  <si>
+    <t>http://www.c-sharpcorner.com/UploadFile/cda5ba/difference-between-char-nchar-varchar-and-nvarchar-data-ty/</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>nchar</t>
+  </si>
+  <si>
+    <t>nvarchar</t>
+  </si>
+  <si>
+    <t>Fixed/Variable</t>
+  </si>
+  <si>
+    <t>Unicode characters</t>
+  </si>
+  <si>
+    <t>maximum size</t>
+  </si>
+  <si>
+    <t>Size per character</t>
+  </si>
+  <si>
+    <t>when to use</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>Oracle Database is an exception when it comes to the use of varchar. Oracle users should use the varchar2 type when defining variable-length character columns</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Exercise</t>
+  </si>
+  <si>
+    <t>select character set;</t>
+  </si>
+  <si>
+    <t>Multibyte character set</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-409]d/mmm/yy;@"/>
+  </numFmts>
   <fonts count="23">
     <font>
       <sz val="11"/>
@@ -6375,7 +6555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -6403,70 +6583,8 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -6504,52 +6622,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -6643,6 +6715,203 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6651,7 +6920,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6693,177 +6962,215 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7167,10 +7474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137:A138"/>
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7654,67 +7961,67 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="77.25">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="26" t="s">
         <v>542</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="E73" s="29"/>
+      <c r="E73" s="26"/>
     </row>
     <row r="74" spans="1:5" ht="64.5">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="26" t="s">
         <v>544</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="E74" s="29"/>
+      <c r="E74" s="26"/>
     </row>
     <row r="75" spans="1:5" ht="51.75">
-      <c r="A75" s="29" t="s">
+      <c r="A75" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="26" t="s">
         <v>546</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="E75" s="29"/>
+      <c r="E75" s="26"/>
     </row>
     <row r="76" spans="1:5" ht="64.5">
-      <c r="A76" s="29" t="s">
+      <c r="A76" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="26" t="s">
         <v>547</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="E76" s="29"/>
+      <c r="E76" s="26"/>
     </row>
     <row r="77" spans="1:5" ht="141">
-      <c r="A77" s="29" t="s">
+      <c r="A77" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="26" t="s">
         <v>550</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="E77" s="29"/>
+      <c r="E77" s="26"/>
     </row>
     <row r="78" spans="1:5" ht="170.25" customHeight="1">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -7723,10 +8030,10 @@
       <c r="C78" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="E78" s="29"/>
+      <c r="E78" s="26"/>
     </row>
     <row r="79" spans="1:5" ht="345" customHeight="1">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -7735,17 +8042,17 @@
       <c r="C79" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="E79" s="29"/>
+      <c r="E79" s="26"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30"/>
-      <c r="E81" s="30"/>
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
+      <c r="E81" s="27"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="30"/>
-      <c r="B82" s="30"/>
-      <c r="E82" s="30"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
+      <c r="E82" s="27"/>
     </row>
     <row r="83" spans="1:5" ht="77.25">
       <c r="A83" s="2" t="s">
@@ -8154,10 +8461,10 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="39">
-      <c r="A123" s="40" t="s">
+      <c r="A123" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="B123" s="40" t="s">
+      <c r="B123" s="31" t="s">
         <v>595</v>
       </c>
       <c r="C123" s="3" t="s">
@@ -8165,10 +8472,10 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="40" t="s">
+      <c r="A124" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="B124" s="40" t="s">
+      <c r="B124" s="31" t="s">
         <v>590</v>
       </c>
       <c r="C124" s="3" t="s">
@@ -8176,10 +8483,10 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="26.25">
-      <c r="A125" s="40" t="s">
+      <c r="A125" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="B125" s="40" t="s">
+      <c r="B125" s="31" t="s">
         <v>591</v>
       </c>
       <c r="C125" s="3" t="s">
@@ -8187,10 +8494,10 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="39">
-      <c r="A126" s="40" t="s">
+      <c r="A126" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="B126" s="40" t="s">
+      <c r="B126" s="31" t="s">
         <v>596</v>
       </c>
       <c r="C126" s="3" t="s">
@@ -8198,15 +8505,15 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="40" t="s">
+      <c r="A127" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="B127" s="40" t="s">
+      <c r="B127" s="31" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="26.25">
-      <c r="A128" s="40" t="s">
+      <c r="A128" s="31" t="s">
         <v>586</v>
       </c>
       <c r="B128" s="17" t="s">
@@ -8217,7 +8524,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" ht="39">
-      <c r="A129" s="40" t="s">
+      <c r="A129" s="31" t="s">
         <v>586</v>
       </c>
       <c r="B129" s="17" t="s">
@@ -8228,7 +8535,7 @@
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="40" t="s">
+      <c r="A130" s="31" t="s">
         <v>586</v>
       </c>
       <c r="B130" s="17" t="s">
@@ -8236,7 +8543,7 @@
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="40" t="s">
+      <c r="A131" s="31" t="s">
         <v>586</v>
       </c>
       <c r="B131" s="17" t="s">
@@ -8244,26 +8551,26 @@
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="40" t="s">
+      <c r="A132" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="B132" s="40" t="s">
+      <c r="B132" s="31" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="40" t="s">
+      <c r="A133" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="B133" s="40" t="s">
+      <c r="B133" s="31" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="26.25">
-      <c r="A134" s="40" t="s">
+      <c r="A134" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="B134" s="40" t="s">
+      <c r="B134" s="31" t="s">
         <v>606</v>
       </c>
       <c r="C134" s="3" t="s">
@@ -8271,10 +8578,10 @@
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="40" t="s">
+      <c r="A135" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="B135" s="40" t="s">
+      <c r="B135" s="33" t="s">
         <v>622</v>
       </c>
       <c r="C135" s="3" t="s">
@@ -8282,10 +8589,10 @@
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="40" t="s">
+      <c r="A136" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="B136" s="40" t="s">
+      <c r="B136" s="31" t="s">
         <v>621</v>
       </c>
       <c r="C136" s="3" t="s">
@@ -8293,22 +8600,27 @@
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="40" t="s">
+      <c r="A137" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="B137" s="40" t="s">
+      <c r="B137" s="33" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="26.25">
-      <c r="A138" s="40" t="s">
+      <c r="A138" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="B138" s="40" t="s">
+      <c r="B138" s="31" t="s">
         <v>625</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>624</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="B139" s="33" t="s">
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -8335,29 +8647,29 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C18"/>
+  <dimension ref="B1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="87.28515625" customWidth="1"/>
+    <col min="3" max="3" width="106.85546875" customWidth="1"/>
     <col min="4" max="6" width="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="34" t="s">
         <v>608</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="34" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="25" t="s">
         <v>529</v>
       </c>
       <c r="C2" t="s">
@@ -8411,9 +8723,738 @@
         <v>616</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="45">
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>652</v>
+      </c>
+      <c r="C15" s="133" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="45">
       <c r="C18" s="1" t="s">
         <v>617</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>648</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C15" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:U39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="2:15">
+      <c r="B3" s="92" t="s">
+        <v>635</v>
+      </c>
+      <c r="C3" s="92"/>
+      <c r="D3" s="124" t="s">
+        <v>633</v>
+      </c>
+      <c r="E3" s="115"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="93" t="s">
+        <v>634</v>
+      </c>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="124"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="124" t="s">
+        <v>639</v>
+      </c>
+      <c r="E4" s="115"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="126" t="s">
+        <v>640</v>
+      </c>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="128"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="92" t="s">
+        <v>636</v>
+      </c>
+      <c r="C5" s="92"/>
+      <c r="D5" s="124" t="s">
+        <v>637</v>
+      </c>
+      <c r="E5" s="115"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="92" t="s">
+        <v>638</v>
+      </c>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92" t="s">
+        <v>628</v>
+      </c>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92" t="s">
+        <v>626</v>
+      </c>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92" t="s">
+        <v>627</v>
+      </c>
+      <c r="M17" s="92"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18" s="129" t="s">
+        <v>629</v>
+      </c>
+      <c r="C18" s="129"/>
+      <c r="D18" s="92" t="s">
+        <v>630</v>
+      </c>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92" t="s">
+        <v>631</v>
+      </c>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92" t="s">
+        <v>632</v>
+      </c>
+      <c r="M18" s="92"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="B19" s="130"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="B20" s="130"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21" s="130"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+    </row>
+    <row r="23" spans="2:21">
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="B27" s="87" t="s">
+        <v>641</v>
+      </c>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="131" t="s">
+        <v>642</v>
+      </c>
+      <c r="L27" s="131"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="131"/>
+      <c r="P27" s="87" t="s">
+        <v>643</v>
+      </c>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="87"/>
+      <c r="S27" s="87"/>
+      <c r="T27" s="87"/>
+    </row>
+    <row r="28" spans="2:21">
+      <c r="B28" s="87" t="s">
+        <v>644</v>
+      </c>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87" t="s">
+        <v>645</v>
+      </c>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="132" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q28" s="132"/>
+      <c r="R28" s="132"/>
+      <c r="S28" s="132"/>
+      <c r="T28" s="132"/>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="B29" s="87" t="s">
+        <v>647</v>
+      </c>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87" t="s">
+        <v>648</v>
+      </c>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="132" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q29" s="132"/>
+      <c r="R29" s="132"/>
+      <c r="S29" s="132"/>
+      <c r="T29" s="132"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="134" t="s">
+        <v>663</v>
+      </c>
+      <c r="C34" s="134" t="s">
+        <v>654</v>
+      </c>
+      <c r="D34" s="134" t="s">
+        <v>655</v>
+      </c>
+      <c r="E34" s="134" t="s">
+        <v>656</v>
+      </c>
+      <c r="F34" s="134" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="134" t="s">
+        <v>658</v>
+      </c>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="134" t="s">
+        <v>661</v>
+      </c>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="134" t="s">
+        <v>659</v>
+      </c>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="134" t="s">
+        <v>660</v>
+      </c>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="134" t="s">
+        <v>662</v>
+      </c>
+      <c r="C39" s="134"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
+    </row>
+  </sheetData>
+  <mergeCells count="88">
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="K29:O29"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:O27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="G14:O14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G12:O12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G13:O13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="G10:O10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="G11:O11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G9:O9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="G6:O6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G7:O7"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="D3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" style="135" customWidth="1"/>
+    <col min="2" max="2" width="83" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="135" t="s">
+        <v>665</v>
+      </c>
+      <c r="B1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="135">
+        <v>42874</v>
+      </c>
+      <c r="B2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -8423,10 +9464,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8462,6 +9503,14 @@
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26.25">
+      <c r="A12" s="33" t="s">
+        <v>586</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>664</v>
       </c>
     </row>
   </sheetData>
@@ -10927,40 +11976,40 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="31" t="s">
         <v>587</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="31" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="31" t="s">
         <v>582</v>
       </c>
-      <c r="C10" s="111" t="s">
+      <c r="C10" s="35" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="31" t="s">
         <v>584</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="31" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="31" t="s">
         <v>586</v>
       </c>
     </row>
@@ -10972,10 +12021,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11178,13 +12227,13 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="40"/>
+      <c r="A21" s="31"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="40"/>
+      <c r="A22" s="31"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="31" t="s">
         <v>586</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -11197,6 +12246,16 @@
       </c>
       <c r="C24" s="3" t="s">
         <v>612</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="3" t="s">
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -11207,10 +12266,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y82"/>
+  <dimension ref="A1:Y98"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+    <sheetView topLeftCell="G67" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79:W86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -11225,1666 +12284,1953 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="55" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="75" t="s">
         <v>486</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="57"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="77"/>
     </row>
     <row r="2" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="60"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="80"/>
     </row>
     <row r="3" spans="1:25" s="22" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="Y3" s="26"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="Y3" s="23"/>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="99"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="107" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="51" t="s">
         <v>513</v>
       </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="26"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="23"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="99"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="27" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="24" t="s">
         <v>511</v>
       </c>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="55" t="s">
         <v>512</v>
       </c>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55" t="s">
         <v>514</v>
       </c>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="26"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="23"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="23">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="103">
         <v>1</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="104" t="s">
         <v>517</v>
       </c>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="85" t="s">
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="107" t="s">
         <v>515</v>
       </c>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="26"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="23"/>
     </row>
     <row r="7" spans="1:25" ht="30" customHeight="1">
-      <c r="A7" s="99"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="24">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="110">
         <v>2</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="111" t="s">
         <v>519</v>
       </c>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="74" t="s">
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="114" t="s">
         <v>516</v>
       </c>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="26"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="23"/>
     </row>
     <row r="8" spans="1:25" ht="15" customHeight="1">
-      <c r="A8" s="99"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="24">
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="110">
         <v>3</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="111" t="s">
         <v>520</v>
       </c>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="74" t="s">
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="114" t="s">
         <v>499</v>
       </c>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="26"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="65"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="23"/>
     </row>
     <row r="9" spans="1:25" ht="15" customHeight="1">
-      <c r="A9" s="99"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="24">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="110">
         <v>4</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="111" t="s">
         <v>521</v>
       </c>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="74" t="s">
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="114" t="s">
         <v>506</v>
       </c>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="26"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="23"/>
     </row>
     <row r="10" spans="1:25" ht="30" customHeight="1">
-      <c r="A10" s="99"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="24">
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="110">
         <v>5</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="111" t="s">
         <v>522</v>
       </c>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="74" t="s">
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="114" t="s">
         <v>518</v>
       </c>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="26"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="23"/>
     </row>
     <row r="11" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="117">
         <v>6</v>
       </c>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="118" t="s">
         <v>523</v>
       </c>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="79" t="s">
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="121" t="s">
         <v>524</v>
       </c>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="26"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="23"/>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="101"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="26"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="23"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="26"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="23"/>
     </row>
     <row r="14" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="107" t="s">
+      <c r="A14" s="57"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="51" t="s">
         <v>525</v>
       </c>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="26"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="23"/>
     </row>
     <row r="15" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="89" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="55" t="s">
         <v>489</v>
       </c>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89" t="s">
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="26"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="23"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="85" t="s">
+      <c r="A16" s="57"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="107" t="s">
         <v>526</v>
       </c>
-      <c r="E16" s="86"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="85" t="s">
+      <c r="E16" s="108"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="107" t="s">
         <v>490</v>
       </c>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="26"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="23"/>
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1">
-      <c r="A17" s="70"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="74" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="114" t="s">
         <v>527</v>
       </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="26"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="23"/>
     </row>
     <row r="18" spans="1:25" ht="15" customHeight="1">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="74" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="114" t="s">
         <v>491</v>
       </c>
-      <c r="E18" s="75"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="53"/>
-      <c r="Y18" s="26"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115"/>
+      <c r="R18" s="116"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="23"/>
     </row>
     <row r="19" spans="1:25" ht="15" customHeight="1">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="74" t="s">
+      <c r="A19" s="57"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="114" t="s">
         <v>528</v>
       </c>
-      <c r="E19" s="75"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="26"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="115"/>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="115"/>
+      <c r="R19" s="116"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="73"/>
+      <c r="Y19" s="23"/>
     </row>
     <row r="20" spans="1:25" ht="15" customHeight="1">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="74" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="114" t="s">
         <v>502</v>
       </c>
-      <c r="E20" s="75"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="26"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="115"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="23"/>
     </row>
     <row r="21" spans="1:25" ht="15" customHeight="1">
-      <c r="A21" s="70"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="74" t="s">
+      <c r="A21" s="57"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="114" t="s">
         <v>503</v>
       </c>
-      <c r="E21" s="75"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="26"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="115"/>
+      <c r="O21" s="115"/>
+      <c r="P21" s="115"/>
+      <c r="Q21" s="115"/>
+      <c r="R21" s="116"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="73"/>
+      <c r="Y21" s="23"/>
     </row>
     <row r="22" spans="1:25" ht="15" customHeight="1">
-      <c r="A22" s="70"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="74" t="s">
+      <c r="A22" s="57"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="114" t="s">
         <v>504</v>
       </c>
-      <c r="E22" s="75"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="26"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="115"/>
+      <c r="Q22" s="115"/>
+      <c r="R22" s="116"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="23"/>
     </row>
     <row r="23" spans="1:25" ht="15" customHeight="1">
-      <c r="A23" s="70"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="74" t="s">
+      <c r="A23" s="57"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="114" t="s">
         <v>506</v>
       </c>
-      <c r="E23" s="75"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="26"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="115"/>
+      <c r="Q23" s="115"/>
+      <c r="R23" s="116"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="23"/>
     </row>
     <row r="24" spans="1:25" ht="15" customHeight="1">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="76"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="26"/>
-    </row>
-    <row r="25" spans="1:25" s="30" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="70"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="76"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="26"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="115"/>
+      <c r="Q24" s="115"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="73"/>
+      <c r="Y24" s="23"/>
+    </row>
+    <row r="25" spans="1:25" s="27" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="57"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="115"/>
+      <c r="O25" s="115"/>
+      <c r="P25" s="115"/>
+      <c r="Q25" s="115"/>
+      <c r="R25" s="116"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="23"/>
     </row>
     <row r="26" spans="1:25" ht="15" customHeight="1">
-      <c r="A26" s="70"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="76"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="26"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="115"/>
+      <c r="O26" s="115"/>
+      <c r="P26" s="115"/>
+      <c r="Q26" s="115"/>
+      <c r="R26" s="116"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="73"/>
+      <c r="Y26" s="23"/>
     </row>
     <row r="27" spans="1:25" ht="15" customHeight="1">
-      <c r="A27" s="70"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="76"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="26"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="115"/>
+      <c r="O27" s="115"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="115"/>
+      <c r="R27" s="116"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="23"/>
     </row>
     <row r="28" spans="1:25" ht="15" customHeight="1">
-      <c r="A28" s="70"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="76"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="26"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="115"/>
+      <c r="O28" s="115"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="115"/>
+      <c r="R28" s="116"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="73"/>
+      <c r="Y28" s="23"/>
     </row>
     <row r="29" spans="1:25" ht="15" customHeight="1">
-      <c r="A29" s="70"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="76"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="26"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="115"/>
+      <c r="O29" s="115"/>
+      <c r="P29" s="115"/>
+      <c r="Q29" s="115"/>
+      <c r="R29" s="116"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="65"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="73"/>
+      <c r="Y29" s="23"/>
     </row>
     <row r="30" spans="1:25" ht="15" customHeight="1">
-      <c r="A30" s="70"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="26"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="115"/>
+      <c r="P30" s="115"/>
+      <c r="Q30" s="115"/>
+      <c r="R30" s="116"/>
+      <c r="S30" s="74"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="65"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="73"/>
+      <c r="Y30" s="23"/>
     </row>
     <row r="31" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="70"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="80"/>
-      <c r="R31" s="81"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="26"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="122"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="122"/>
+      <c r="P31" s="122"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="123"/>
+      <c r="S31" s="74"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="65"/>
+      <c r="X31" s="73"/>
+      <c r="Y31" s="23"/>
     </row>
     <row r="32" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="72"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="26"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="65"/>
+      <c r="R32" s="65"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="65"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="65"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="23"/>
     </row>
     <row r="33" spans="1:25" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A33" s="96" t="s">
+      <c r="A33" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="42"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="26"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="63"/>
+      <c r="Y33" s="23"/>
     </row>
     <row r="34" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="97"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="77" t="s">
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="59" t="s">
         <v>555</v>
       </c>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="77"/>
-      <c r="R34" s="77"/>
-      <c r="S34" s="77"/>
-      <c r="T34" s="77"/>
-      <c r="U34" s="77"/>
-      <c r="V34" s="77"/>
-      <c r="W34" s="77"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="26"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="70"/>
+      <c r="Y34" s="23"/>
     </row>
     <row r="35" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="97"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="77" t="s">
+      <c r="A35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="59" t="s">
         <v>556</v>
       </c>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77" t="s">
+      <c r="E35" s="59"/>
+      <c r="F35" s="59" t="s">
         <v>557</v>
       </c>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77" t="s">
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59" t="s">
         <v>561</v>
       </c>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77" t="s">
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59" t="s">
         <v>562</v>
       </c>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="77" t="s">
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59" t="s">
         <v>563</v>
       </c>
-      <c r="Q35" s="78"/>
-      <c r="R35" s="78"/>
-      <c r="S35" s="78"/>
-      <c r="T35" s="78"/>
-      <c r="U35" s="78"/>
-      <c r="V35" s="78"/>
-      <c r="W35" s="78"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="26"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="70"/>
+      <c r="Y35" s="23"/>
     </row>
     <row r="36" spans="1:25" ht="30" customHeight="1" thickBot="1">
-      <c r="A36" s="97"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="37" t="s">
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="29" t="s">
         <v>558</v>
       </c>
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="30" t="s">
         <v>559</v>
       </c>
-      <c r="H36" s="38" t="s">
+      <c r="H36" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="I36" s="77" t="s">
+      <c r="I36" s="59" t="s">
         <v>558</v>
       </c>
-      <c r="J36" s="77"/>
-      <c r="K36" s="38" t="s">
+      <c r="J36" s="59"/>
+      <c r="K36" s="30" t="s">
         <v>559</v>
       </c>
-      <c r="L36" s="38" t="s">
+      <c r="L36" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="M36" s="77"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="78"/>
-      <c r="Q36" s="78"/>
-      <c r="R36" s="78"/>
-      <c r="S36" s="78"/>
-      <c r="T36" s="78"/>
-      <c r="U36" s="78"/>
-      <c r="V36" s="78"/>
-      <c r="W36" s="78"/>
-      <c r="X36" s="50"/>
-      <c r="Y36" s="26"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="70"/>
+      <c r="Y36" s="23"/>
     </row>
     <row r="37" spans="1:25" ht="45" customHeight="1">
-      <c r="A37" s="97"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="65" t="s">
+      <c r="A37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="94" t="s">
         <v>564</v>
       </c>
-      <c r="E37" s="65"/>
-      <c r="F37" s="34" t="s">
+      <c r="E37" s="94"/>
+      <c r="F37" s="98" t="s">
         <v>565</v>
       </c>
-      <c r="G37" s="34" t="s">
+      <c r="G37" s="98" t="s">
         <v>568</v>
       </c>
-      <c r="H37" s="34" t="s">
+      <c r="H37" s="98" t="s">
         <v>569</v>
       </c>
-      <c r="I37" s="65" t="s">
+      <c r="I37" s="94" t="s">
         <v>570</v>
       </c>
-      <c r="J37" s="65"/>
-      <c r="K37" s="34" t="s">
+      <c r="J37" s="94"/>
+      <c r="K37" s="98" t="s">
         <v>568</v>
       </c>
-      <c r="L37" s="34" t="s">
+      <c r="L37" s="98" t="s">
         <v>569</v>
       </c>
-      <c r="M37" s="65" t="s">
+      <c r="M37" s="94" t="s">
         <v>574</v>
       </c>
-      <c r="N37" s="65"/>
-      <c r="O37" s="65"/>
-      <c r="P37" s="62" t="s">
+      <c r="N37" s="94"/>
+      <c r="O37" s="94"/>
+      <c r="P37" s="99" t="s">
         <v>578</v>
       </c>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="62"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="50"/>
-      <c r="Y37" s="26"/>
+      <c r="Q37" s="99"/>
+      <c r="R37" s="99"/>
+      <c r="S37" s="99"/>
+      <c r="T37" s="99"/>
+      <c r="U37" s="99"/>
+      <c r="V37" s="99"/>
+      <c r="W37" s="99"/>
+      <c r="X37" s="70"/>
+      <c r="Y37" s="23"/>
     </row>
     <row r="38" spans="1:25" ht="75" customHeight="1">
-      <c r="A38" s="97"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="66" t="s">
+      <c r="A38" s="39"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="95" t="s">
         <v>550</v>
       </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="35" t="s">
+      <c r="E38" s="95"/>
+      <c r="F38" s="100" t="s">
         <v>565</v>
       </c>
-      <c r="G38" s="35" t="s">
+      <c r="G38" s="100" t="s">
         <v>567</v>
       </c>
-      <c r="H38" s="35" t="s">
+      <c r="H38" s="100" t="s">
         <v>569</v>
       </c>
-      <c r="I38" s="66" t="s">
+      <c r="I38" s="95" t="s">
         <v>570</v>
       </c>
-      <c r="J38" s="66"/>
-      <c r="K38" s="35" t="s">
+      <c r="J38" s="95"/>
+      <c r="K38" s="100" t="s">
         <v>567</v>
       </c>
-      <c r="L38" s="35" t="s">
+      <c r="L38" s="100" t="s">
         <v>569</v>
       </c>
-      <c r="M38" s="66" t="s">
+      <c r="M38" s="95" t="s">
         <v>575</v>
       </c>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="63" t="s">
+      <c r="N38" s="95"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="96" t="s">
         <v>579</v>
       </c>
-      <c r="Q38" s="63"/>
-      <c r="R38" s="63"/>
-      <c r="S38" s="63"/>
-      <c r="T38" s="63"/>
-      <c r="U38" s="63"/>
-      <c r="V38" s="63"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="50"/>
-      <c r="Y38" s="26"/>
+      <c r="Q38" s="96"/>
+      <c r="R38" s="96"/>
+      <c r="S38" s="96"/>
+      <c r="T38" s="96"/>
+      <c r="U38" s="96"/>
+      <c r="V38" s="96"/>
+      <c r="W38" s="96"/>
+      <c r="X38" s="70"/>
+      <c r="Y38" s="23"/>
     </row>
     <row r="39" spans="1:25" ht="30" customHeight="1">
-      <c r="A39" s="97"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="63" t="s">
+      <c r="A39" s="39"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="96" t="s">
         <v>551</v>
       </c>
-      <c r="E39" s="63"/>
-      <c r="F39" s="35" t="s">
+      <c r="E39" s="96"/>
+      <c r="F39" s="100" t="s">
         <v>565</v>
       </c>
-      <c r="G39" s="35" t="s">
+      <c r="G39" s="100" t="s">
         <v>567</v>
       </c>
-      <c r="H39" s="35" t="s">
+      <c r="H39" s="100" t="s">
         <v>569</v>
       </c>
-      <c r="I39" s="66" t="s">
+      <c r="I39" s="95" t="s">
         <v>571</v>
       </c>
-      <c r="J39" s="66"/>
-      <c r="K39" s="35" t="s">
+      <c r="J39" s="95"/>
+      <c r="K39" s="100" t="s">
         <v>567</v>
       </c>
-      <c r="L39" s="35" t="s">
+      <c r="L39" s="100" t="s">
         <v>572</v>
       </c>
-      <c r="M39" s="63" t="s">
+      <c r="M39" s="96" t="s">
         <v>576</v>
       </c>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="63" t="s">
+      <c r="N39" s="95"/>
+      <c r="O39" s="95"/>
+      <c r="P39" s="96" t="s">
         <v>580</v>
       </c>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="63"/>
-      <c r="S39" s="63"/>
-      <c r="T39" s="63"/>
-      <c r="U39" s="63"/>
-      <c r="V39" s="63"/>
-      <c r="W39" s="63"/>
-      <c r="X39" s="50"/>
-      <c r="Y39" s="26"/>
+      <c r="Q39" s="96"/>
+      <c r="R39" s="96"/>
+      <c r="S39" s="96"/>
+      <c r="T39" s="96"/>
+      <c r="U39" s="96"/>
+      <c r="V39" s="96"/>
+      <c r="W39" s="96"/>
+      <c r="X39" s="70"/>
+      <c r="Y39" s="23"/>
     </row>
     <row r="40" spans="1:25" ht="90" customHeight="1" thickBot="1">
-      <c r="A40" s="97"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="67" t="s">
+      <c r="A40" s="39"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="97" t="s">
         <v>566</v>
       </c>
-      <c r="E40" s="67"/>
-      <c r="F40" s="36" t="s">
+      <c r="E40" s="97"/>
+      <c r="F40" s="101" t="s">
         <v>565</v>
       </c>
-      <c r="G40" s="36" t="s">
+      <c r="G40" s="101" t="s">
         <v>567</v>
       </c>
-      <c r="H40" s="36" t="s">
+      <c r="H40" s="101" t="s">
         <v>569</v>
       </c>
-      <c r="I40" s="67" t="s">
+      <c r="I40" s="97" t="s">
         <v>565</v>
       </c>
-      <c r="J40" s="67"/>
-      <c r="K40" s="36" t="s">
+      <c r="J40" s="97"/>
+      <c r="K40" s="101" t="s">
         <v>567</v>
       </c>
-      <c r="L40" s="36" t="s">
+      <c r="L40" s="101" t="s">
         <v>573</v>
       </c>
-      <c r="M40" s="67" t="s">
+      <c r="M40" s="97" t="s">
         <v>577</v>
       </c>
-      <c r="N40" s="67"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="64" t="s">
+      <c r="N40" s="97"/>
+      <c r="O40" s="97"/>
+      <c r="P40" s="102" t="s">
         <v>581</v>
       </c>
-      <c r="Q40" s="64"/>
-      <c r="R40" s="64"/>
-      <c r="S40" s="64"/>
-      <c r="T40" s="64"/>
-      <c r="U40" s="64"/>
-      <c r="V40" s="64"/>
-      <c r="W40" s="64"/>
-      <c r="X40" s="50"/>
-      <c r="Y40" s="26"/>
+      <c r="Q40" s="102"/>
+      <c r="R40" s="102"/>
+      <c r="S40" s="102"/>
+      <c r="T40" s="102"/>
+      <c r="U40" s="102"/>
+      <c r="V40" s="102"/>
+      <c r="W40" s="102"/>
+      <c r="X40" s="70"/>
+      <c r="Y40" s="23"/>
     </row>
     <row r="41" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A41" s="98"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="48"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="48"/>
-      <c r="W41" s="48"/>
-      <c r="X41" s="49"/>
-      <c r="Y41" s="26"/>
-    </row>
-    <row r="42" spans="1:25" ht="15" customHeight="1" thickTop="1">
-      <c r="A42" s="32"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="42"/>
-      <c r="T42" s="42"/>
-      <c r="U42" s="42"/>
-      <c r="V42" s="42"/>
-      <c r="W42" s="42"/>
-      <c r="X42" s="43"/>
-    </row>
-    <row r="43" spans="1:25" ht="15" customHeight="1">
-      <c r="A43" s="32"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31"/>
-      <c r="W43" s="31"/>
-      <c r="X43" s="33"/>
-    </row>
-    <row r="44" spans="1:25" ht="15" customHeight="1">
-      <c r="A44" s="88"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="31"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="31"/>
-      <c r="X44" s="33"/>
-    </row>
-    <row r="45" spans="1:25" ht="15" customHeight="1">
-      <c r="A45" s="88"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="31"/>
-      <c r="V45" s="31"/>
-      <c r="W45" s="31"/>
-      <c r="X45" s="33"/>
-    </row>
-    <row r="46" spans="1:25" ht="15" customHeight="1">
-      <c r="A46" s="88"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="31"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="31"/>
-      <c r="V46" s="31"/>
-      <c r="W46" s="31"/>
-      <c r="X46" s="33"/>
-    </row>
-    <row r="47" spans="1:25" ht="15" customHeight="1">
-      <c r="A47" s="88"/>
-      <c r="B47" s="88"/>
-    </row>
-    <row r="48" spans="1:25" ht="15" customHeight="1">
-      <c r="A48" s="88"/>
-      <c r="B48" s="88"/>
-    </row>
-    <row r="49" spans="1:2" ht="15" customHeight="1">
-      <c r="A49" s="88"/>
-      <c r="B49" s="88"/>
-    </row>
-    <row r="50" spans="1:2" ht="15" customHeight="1">
-      <c r="A50" s="88"/>
-      <c r="B50" s="88"/>
-    </row>
-    <row r="51" spans="1:2" ht="15" customHeight="1">
-      <c r="A51" s="88"/>
-      <c r="B51" s="88"/>
-    </row>
-    <row r="52" spans="1:2" ht="15" customHeight="1">
-      <c r="A52" s="88"/>
-      <c r="B52" s="88"/>
-    </row>
-    <row r="53" spans="1:2" ht="15" customHeight="1">
-      <c r="A53" s="88"/>
-      <c r="B53" s="88"/>
-    </row>
-    <row r="54" spans="1:2" ht="15" customHeight="1">
-      <c r="A54" s="88"/>
-      <c r="B54" s="88"/>
-    </row>
-    <row r="55" spans="1:2" ht="15" customHeight="1">
-      <c r="A55" s="88"/>
-      <c r="B55" s="88"/>
-    </row>
-    <row r="56" spans="1:2" ht="15" customHeight="1">
-      <c r="A56" s="88"/>
-      <c r="B56" s="88"/>
-    </row>
-    <row r="57" spans="1:2" ht="15" customHeight="1">
-      <c r="A57" s="88"/>
-      <c r="B57" s="88"/>
-    </row>
-    <row r="58" spans="1:2" ht="15" customHeight="1">
-      <c r="A58" s="88"/>
-      <c r="B58" s="88"/>
-    </row>
-    <row r="59" spans="1:2" ht="15" customHeight="1">
-      <c r="A59" s="88"/>
-      <c r="B59" s="88"/>
-    </row>
-    <row r="60" spans="1:2" ht="15" customHeight="1">
-      <c r="A60" s="88"/>
-      <c r="B60" s="88"/>
-    </row>
-    <row r="61" spans="1:2" ht="15" customHeight="1">
-      <c r="A61" s="88"/>
-      <c r="B61" s="88"/>
-    </row>
-    <row r="62" spans="1:2" ht="15" customHeight="1">
-      <c r="A62" s="88"/>
-      <c r="B62" s="88"/>
-    </row>
-    <row r="63" spans="1:2" ht="15" customHeight="1">
-      <c r="A63" s="88"/>
-      <c r="B63" s="88"/>
-    </row>
-    <row r="64" spans="1:2" ht="15" customHeight="1">
-      <c r="A64" s="88"/>
-      <c r="B64" s="88"/>
-    </row>
-    <row r="65" spans="1:2" ht="15" customHeight="1">
-      <c r="A65" s="88"/>
-      <c r="B65" s="88"/>
-    </row>
-    <row r="66" spans="1:2" ht="15" customHeight="1">
-      <c r="A66" s="88"/>
-      <c r="B66" s="88"/>
-    </row>
-    <row r="67" spans="1:2" ht="15" customHeight="1">
-      <c r="A67" s="88"/>
-      <c r="B67" s="88"/>
-    </row>
-    <row r="68" spans="1:2" ht="15" customHeight="1">
-      <c r="A68" s="88"/>
-      <c r="B68" s="88"/>
-    </row>
-    <row r="69" spans="1:2" ht="15" customHeight="1">
-      <c r="A69" s="88"/>
-      <c r="B69" s="88"/>
-    </row>
-    <row r="70" spans="1:2" ht="15" customHeight="1">
-      <c r="A70" s="88"/>
-      <c r="B70" s="88"/>
-    </row>
-    <row r="71" spans="1:2" ht="15" customHeight="1">
-      <c r="A71" s="88"/>
-      <c r="B71" s="88"/>
-    </row>
-    <row r="72" spans="1:2" ht="15" customHeight="1">
-      <c r="A72" s="88"/>
-      <c r="B72" s="88"/>
-    </row>
-    <row r="73" spans="1:2" ht="15" customHeight="1">
-      <c r="A73" s="88"/>
-      <c r="B73" s="88"/>
-    </row>
-    <row r="74" spans="1:2" ht="15" customHeight="1">
-      <c r="A74" s="88"/>
-      <c r="B74" s="88"/>
-    </row>
-    <row r="75" spans="1:2" ht="15" customHeight="1">
-      <c r="A75" s="88"/>
-      <c r="B75" s="88"/>
-    </row>
-    <row r="76" spans="1:2" ht="15" customHeight="1">
-      <c r="A76" s="88"/>
-      <c r="B76" s="88"/>
-    </row>
-    <row r="77" spans="1:2" ht="15" customHeight="1">
-      <c r="A77" s="88"/>
-      <c r="B77" s="88"/>
-    </row>
-    <row r="78" spans="1:2" ht="15" customHeight="1">
-      <c r="A78" s="88"/>
-      <c r="B78" s="88"/>
-    </row>
-    <row r="79" spans="1:2" ht="15" customHeight="1">
-      <c r="A79" s="88"/>
-      <c r="B79" s="88"/>
-    </row>
-    <row r="80" spans="1:2" ht="15" customHeight="1">
-      <c r="A80" s="88"/>
-      <c r="B80" s="88"/>
-    </row>
-    <row r="81" spans="1:2" ht="15" customHeight="1">
-      <c r="A81" s="88"/>
-      <c r="B81" s="88"/>
-    </row>
-    <row r="82" spans="1:2" ht="15" customHeight="1">
-      <c r="A82" s="88"/>
-      <c r="B82" s="88"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="68"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="69"/>
+      <c r="Y41" s="23"/>
+    </row>
+    <row r="42" spans="1:25" ht="15" customHeight="1" thickTop="1"/>
+    <row r="52" spans="1:24" ht="15" customHeight="1">
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="91"/>
+      <c r="G52" s="91"/>
+      <c r="H52" s="91"/>
+      <c r="I52" s="91"/>
+      <c r="J52" s="91"/>
+      <c r="K52" s="91"/>
+      <c r="L52" s="91"/>
+      <c r="M52" s="91"/>
+      <c r="N52" s="91"/>
+      <c r="O52" s="91"/>
+      <c r="P52" s="91"/>
+      <c r="Q52" s="91"/>
+      <c r="R52" s="91"/>
+      <c r="S52" s="91"/>
+      <c r="T52" s="91"/>
+      <c r="U52" s="91"/>
+      <c r="V52" s="91"/>
+      <c r="W52" s="91"/>
+      <c r="X52" s="91"/>
+    </row>
+    <row r="53" spans="1:24" ht="15" customHeight="1">
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+    </row>
+    <row r="54" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+    </row>
+    <row r="55" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+    </row>
+    <row r="56" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+    </row>
+    <row r="57" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+    </row>
+    <row r="58" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
+    </row>
+    <row r="59" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
+    </row>
+    <row r="60" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
+    </row>
+    <row r="61" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
+    </row>
+    <row r="62" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+    </row>
+    <row r="63" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
+    </row>
+    <row r="64" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
+      <c r="D64" s="92" t="s">
+        <v>635</v>
+      </c>
+      <c r="E64" s="92"/>
+      <c r="F64" s="92" t="s">
+        <v>633</v>
+      </c>
+      <c r="G64" s="92"/>
+      <c r="H64" s="93" t="s">
+        <v>634</v>
+      </c>
+      <c r="I64" s="93"/>
+      <c r="J64" s="93"/>
+      <c r="K64" s="93"/>
+      <c r="L64" s="93"/>
+      <c r="M64" s="93"/>
+      <c r="N64" s="93"/>
+      <c r="O64" s="93"/>
+      <c r="P64" s="93"/>
+    </row>
+    <row r="65" spans="1:24" ht="15" customHeight="1">
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
+      <c r="D65" s="92" t="s">
+        <v>636</v>
+      </c>
+      <c r="E65" s="92"/>
+      <c r="F65" s="92" t="s">
+        <v>637</v>
+      </c>
+      <c r="G65" s="92"/>
+      <c r="H65" s="92" t="s">
+        <v>638</v>
+      </c>
+      <c r="I65" s="92"/>
+      <c r="J65" s="92"/>
+      <c r="K65" s="92"/>
+      <c r="L65" s="92"/>
+      <c r="M65" s="92"/>
+      <c r="N65" s="92"/>
+      <c r="O65" s="92"/>
+      <c r="P65" s="92"/>
+    </row>
+    <row r="66" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="92"/>
+      <c r="G66" s="92"/>
+      <c r="H66" s="92"/>
+      <c r="I66" s="92"/>
+      <c r="J66" s="92"/>
+      <c r="K66" s="92"/>
+      <c r="L66" s="92"/>
+      <c r="M66" s="92"/>
+      <c r="N66" s="92"/>
+      <c r="O66" s="92"/>
+      <c r="P66" s="92"/>
+    </row>
+    <row r="67" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="92"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="92"/>
+      <c r="J67" s="92"/>
+      <c r="K67" s="92"/>
+      <c r="L67" s="92"/>
+      <c r="M67" s="92"/>
+      <c r="N67" s="92"/>
+      <c r="O67" s="92"/>
+      <c r="P67" s="92"/>
+    </row>
+    <row r="68" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="92"/>
+      <c r="H68" s="92"/>
+      <c r="I68" s="92"/>
+      <c r="J68" s="92"/>
+      <c r="K68" s="92"/>
+      <c r="L68" s="92"/>
+      <c r="M68" s="92"/>
+      <c r="N68" s="92"/>
+      <c r="O68" s="92"/>
+      <c r="P68" s="92"/>
+    </row>
+    <row r="69" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="92"/>
+      <c r="F69" s="92"/>
+      <c r="G69" s="92"/>
+      <c r="H69" s="92"/>
+      <c r="I69" s="92"/>
+      <c r="J69" s="92"/>
+      <c r="K69" s="92"/>
+      <c r="L69" s="92"/>
+      <c r="M69" s="92"/>
+      <c r="N69" s="92"/>
+      <c r="O69" s="92"/>
+      <c r="P69" s="92"/>
+    </row>
+    <row r="70" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="D70" s="92"/>
+      <c r="E70" s="92"/>
+      <c r="F70" s="92"/>
+      <c r="G70" s="92"/>
+      <c r="H70" s="92"/>
+      <c r="I70" s="92"/>
+      <c r="J70" s="92"/>
+      <c r="K70" s="92"/>
+      <c r="L70" s="92"/>
+      <c r="M70" s="92"/>
+      <c r="N70" s="92"/>
+      <c r="O70" s="92"/>
+      <c r="P70" s="92"/>
+    </row>
+    <row r="71" spans="1:24" ht="15" customHeight="1">
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="92"/>
+      <c r="G71" s="92"/>
+      <c r="H71" s="92"/>
+      <c r="I71" s="92"/>
+      <c r="J71" s="92"/>
+      <c r="K71" s="92"/>
+      <c r="L71" s="92"/>
+      <c r="M71" s="92"/>
+      <c r="N71" s="92"/>
+      <c r="O71" s="92"/>
+      <c r="P71" s="92"/>
+    </row>
+    <row r="72" spans="1:24" ht="15" customHeight="1">
+      <c r="A72" s="36"/>
+      <c r="B72" s="36"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="92"/>
+      <c r="G72" s="92"/>
+      <c r="H72" s="92"/>
+      <c r="I72" s="92"/>
+      <c r="J72" s="92"/>
+      <c r="K72" s="92"/>
+      <c r="L72" s="92"/>
+      <c r="M72" s="92"/>
+      <c r="N72" s="92"/>
+      <c r="O72" s="92"/>
+      <c r="P72" s="92"/>
+    </row>
+    <row r="73" spans="1:24" ht="15" customHeight="1">
+      <c r="A73" s="36"/>
+      <c r="B73" s="36"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="92"/>
+      <c r="G73" s="92"/>
+      <c r="H73" s="92"/>
+      <c r="I73" s="92"/>
+      <c r="J73" s="92"/>
+      <c r="K73" s="92"/>
+      <c r="L73" s="92"/>
+      <c r="M73" s="92"/>
+      <c r="N73" s="92"/>
+      <c r="O73" s="92"/>
+      <c r="P73" s="92"/>
+    </row>
+    <row r="74" spans="1:24" ht="15" customHeight="1">
+      <c r="A74" s="36"/>
+      <c r="B74" s="36"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="92"/>
+      <c r="G74" s="92"/>
+      <c r="H74" s="92"/>
+      <c r="I74" s="92"/>
+      <c r="J74" s="92"/>
+      <c r="K74" s="92"/>
+      <c r="L74" s="92"/>
+      <c r="M74" s="92"/>
+      <c r="N74" s="92"/>
+      <c r="O74" s="92"/>
+      <c r="P74" s="92"/>
+    </row>
+    <row r="75" spans="1:24" ht="15" customHeight="1">
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
+    </row>
+    <row r="76" spans="1:24" ht="15" customHeight="1">
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
+    </row>
+    <row r="77" spans="1:24" ht="15" customHeight="1" thickBot="1">
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
+    </row>
+    <row r="78" spans="1:24" ht="15" customHeight="1" thickTop="1">
+      <c r="A78" s="90"/>
+      <c r="B78" s="89"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="62"/>
+      <c r="J78" s="62"/>
+      <c r="K78" s="62"/>
+      <c r="L78" s="62"/>
+      <c r="M78" s="62"/>
+      <c r="N78" s="62"/>
+      <c r="O78" s="62"/>
+      <c r="P78" s="62"/>
+      <c r="Q78" s="62"/>
+      <c r="R78" s="62"/>
+      <c r="S78" s="62"/>
+      <c r="T78" s="62"/>
+      <c r="U78" s="62"/>
+      <c r="V78" s="62"/>
+      <c r="W78" s="62"/>
+      <c r="X78" s="63"/>
+    </row>
+    <row r="79" spans="1:24" ht="15" customHeight="1">
+      <c r="A79" s="65"/>
+      <c r="B79" s="73"/>
+      <c r="C79" s="71"/>
+      <c r="D79" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="54"/>
+      <c r="F79" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="G79" s="54"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="54" t="s">
+        <v>628</v>
+      </c>
+      <c r="K79" s="54"/>
+      <c r="L79" s="54" t="s">
+        <v>626</v>
+      </c>
+      <c r="M79" s="54"/>
+      <c r="N79" s="54" t="s">
+        <v>627</v>
+      </c>
+      <c r="O79" s="54"/>
+      <c r="P79" s="28"/>
+      <c r="Q79" s="28"/>
+      <c r="R79" s="28"/>
+      <c r="S79" s="28"/>
+      <c r="T79" s="28"/>
+      <c r="U79" s="28"/>
+      <c r="V79" s="28"/>
+      <c r="W79" s="28"/>
+      <c r="X79" s="88"/>
+    </row>
+    <row r="80" spans="1:24" ht="15" customHeight="1">
+      <c r="A80" s="65"/>
+      <c r="B80" s="73"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="83" t="s">
+        <v>629</v>
+      </c>
+      <c r="E80" s="83"/>
+      <c r="F80" s="54" t="s">
+        <v>630</v>
+      </c>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="54"/>
+      <c r="K80" s="54"/>
+      <c r="L80" s="54" t="s">
+        <v>631</v>
+      </c>
+      <c r="M80" s="54"/>
+      <c r="N80" s="54" t="s">
+        <v>632</v>
+      </c>
+      <c r="O80" s="54"/>
+      <c r="P80" s="28"/>
+      <c r="Q80" s="28"/>
+      <c r="R80" s="28"/>
+      <c r="S80" s="28"/>
+      <c r="T80" s="28"/>
+      <c r="U80" s="28"/>
+      <c r="V80" s="28"/>
+      <c r="W80" s="28"/>
+      <c r="X80" s="73"/>
+    </row>
+    <row r="81" spans="1:25" ht="15" customHeight="1">
+      <c r="A81" s="65"/>
+      <c r="B81" s="73"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="82"/>
+      <c r="E81" s="82"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="54"/>
+      <c r="J81" s="54"/>
+      <c r="K81" s="54"/>
+      <c r="L81" s="54"/>
+      <c r="M81" s="54"/>
+      <c r="N81" s="54"/>
+      <c r="O81" s="54"/>
+      <c r="P81" s="28"/>
+      <c r="Q81" s="28"/>
+      <c r="R81" s="28"/>
+      <c r="S81" s="28"/>
+      <c r="T81" s="28"/>
+      <c r="U81" s="28"/>
+      <c r="V81" s="28"/>
+      <c r="W81" s="28"/>
+      <c r="X81" s="73"/>
+    </row>
+    <row r="82" spans="1:25" ht="15" customHeight="1">
+      <c r="A82" s="65"/>
+      <c r="B82" s="73"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="82"/>
+      <c r="E82" s="82"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="54"/>
+      <c r="K82" s="54"/>
+      <c r="L82" s="54"/>
+      <c r="M82" s="54"/>
+      <c r="N82" s="54"/>
+      <c r="O82" s="54"/>
+      <c r="P82" s="28"/>
+      <c r="Q82" s="28"/>
+      <c r="R82" s="28"/>
+      <c r="S82" s="28"/>
+      <c r="T82" s="28"/>
+      <c r="U82" s="28"/>
+      <c r="V82" s="28"/>
+      <c r="W82" s="28"/>
+      <c r="X82" s="73"/>
+    </row>
+    <row r="83" spans="1:25" ht="15" customHeight="1">
+      <c r="A83" s="65"/>
+      <c r="B83" s="73"/>
+      <c r="C83" s="64"/>
+      <c r="D83" s="82"/>
+      <c r="E83" s="82"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="54"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="54"/>
+      <c r="K83" s="54"/>
+      <c r="L83" s="54"/>
+      <c r="M83" s="54"/>
+      <c r="N83" s="54"/>
+      <c r="O83" s="54"/>
+      <c r="X83" s="73"/>
+      <c r="Y83" s="23"/>
+    </row>
+    <row r="84" spans="1:25" ht="15" customHeight="1">
+      <c r="A84" s="65"/>
+      <c r="B84" s="73"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="82"/>
+      <c r="E84" s="82"/>
+      <c r="F84" s="54"/>
+      <c r="G84" s="54"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="54"/>
+      <c r="J84" s="54"/>
+      <c r="K84" s="54"/>
+      <c r="L84" s="54"/>
+      <c r="M84" s="54"/>
+      <c r="N84" s="54"/>
+      <c r="O84" s="54"/>
+      <c r="X84" s="73"/>
+      <c r="Y84" s="23"/>
+    </row>
+    <row r="85" spans="1:25" ht="15" customHeight="1">
+      <c r="A85" s="65"/>
+      <c r="B85" s="73"/>
+      <c r="C85" s="64"/>
+      <c r="D85" s="82"/>
+      <c r="E85" s="82"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="54"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="54"/>
+      <c r="J85" s="54"/>
+      <c r="K85" s="54"/>
+      <c r="L85" s="54"/>
+      <c r="M85" s="54"/>
+      <c r="N85" s="54"/>
+      <c r="O85" s="54"/>
+      <c r="X85" s="73"/>
+      <c r="Y85" s="23"/>
+    </row>
+    <row r="86" spans="1:25" ht="15" customHeight="1">
+      <c r="A86" s="65"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="82"/>
+      <c r="E86" s="82"/>
+      <c r="F86" s="54"/>
+      <c r="G86" s="54"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="54"/>
+      <c r="J86" s="54"/>
+      <c r="K86" s="54"/>
+      <c r="L86" s="54"/>
+      <c r="M86" s="54"/>
+      <c r="N86" s="54"/>
+      <c r="O86" s="54"/>
+      <c r="X86" s="73"/>
+      <c r="Y86" s="23"/>
+    </row>
+    <row r="87" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A87" s="68"/>
+      <c r="B87" s="69"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="H87" s="85"/>
+      <c r="I87" s="85"/>
+      <c r="J87" s="85"/>
+      <c r="K87" s="85"/>
+      <c r="L87" s="85"/>
+      <c r="M87" s="85"/>
+      <c r="N87" s="85"/>
+      <c r="O87" s="85"/>
+      <c r="P87" s="85"/>
+      <c r="Q87" s="85"/>
+      <c r="R87" s="85"/>
+      <c r="S87" s="85"/>
+      <c r="T87" s="85"/>
+      <c r="U87" s="85"/>
+      <c r="V87" s="85"/>
+      <c r="W87" s="85"/>
+      <c r="X87" s="85"/>
+      <c r="Y87" s="23"/>
+    </row>
+    <row r="88" spans="1:25" ht="15" customHeight="1" thickTop="1">
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
+    </row>
+    <row r="89" spans="1:25" ht="15" customHeight="1">
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
+    </row>
+    <row r="90" spans="1:25" ht="15" customHeight="1">
+      <c r="A90" s="36"/>
+      <c r="B90" s="36"/>
+    </row>
+    <row r="91" spans="1:25" ht="15" customHeight="1">
+      <c r="A91" s="36"/>
+      <c r="B91" s="36"/>
+    </row>
+    <row r="92" spans="1:25" ht="15" customHeight="1">
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
+    </row>
+    <row r="93" spans="1:25" ht="15" customHeight="1">
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
+    </row>
+    <row r="94" spans="1:25" ht="15" customHeight="1">
+      <c r="A94" s="36"/>
+      <c r="B94" s="36"/>
+    </row>
+    <row r="95" spans="1:25" ht="15" customHeight="1">
+      <c r="A95" s="36"/>
+      <c r="B95" s="36"/>
+    </row>
+    <row r="96" spans="1:25" ht="15" customHeight="1">
+      <c r="A96" s="36"/>
+      <c r="B96" s="36"/>
+    </row>
+    <row r="97" spans="1:2" ht="15" customHeight="1">
+      <c r="A97" s="36"/>
+      <c r="B97" s="36"/>
+    </row>
+    <row r="98" spans="1:2" ht="15" customHeight="1">
+      <c r="A98" s="36"/>
+      <c r="B98" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="130">
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A33:B41"/>
-    <mergeCell ref="A3:B12"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D14:R14"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="D4:R4"/>
-    <mergeCell ref="G20:R20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:R21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:R22"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:R17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:R18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:R19"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:R15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:R16"/>
-    <mergeCell ref="E10:N10"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
+  <mergeCells count="205">
+    <mergeCell ref="H71:P71"/>
+    <mergeCell ref="H72:P72"/>
+    <mergeCell ref="H73:P73"/>
+    <mergeCell ref="H74:P74"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:P64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="H65:P65"/>
+    <mergeCell ref="H66:P66"/>
+    <mergeCell ref="H67:P67"/>
+    <mergeCell ref="H68:P68"/>
+    <mergeCell ref="H69:P69"/>
+    <mergeCell ref="H70:P70"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="C87:X87"/>
+    <mergeCell ref="X79:X86"/>
+    <mergeCell ref="C79:C86"/>
+    <mergeCell ref="A78:B87"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="E7:N7"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="E9:N9"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="G27:R27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:R28"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:R29"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:R23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:R24"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:R26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A13:B32"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:R25"/>
-    <mergeCell ref="D34:W34"/>
-    <mergeCell ref="D35:E36"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="M35:O36"/>
-    <mergeCell ref="P35:W36"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:R30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:R31"/>
-    <mergeCell ref="C42:X42"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="C78:X78"/>
     <mergeCell ref="C33:X33"/>
     <mergeCell ref="C32:X32"/>
     <mergeCell ref="C34:C40"/>
@@ -12908,6 +14254,97 @@
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A13:B32"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:R25"/>
+    <mergeCell ref="D34:W34"/>
+    <mergeCell ref="D35:E36"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="M35:O36"/>
+    <mergeCell ref="P35:W36"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:R30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:R31"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:R29"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:R23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:R24"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:R26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="G27:R27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:R28"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="E9:N9"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A33:B41"/>
+    <mergeCell ref="A3:B12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D14:R14"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="D4:R4"/>
+    <mergeCell ref="G20:R20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:R21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:R22"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:R17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:R18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:R19"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:R15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:R16"/>
+    <mergeCell ref="E10:N10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="720">
   <si>
     <t>Topic</t>
   </si>
@@ -5052,9 +5052,6 @@
     <t>–XX:+AlwaysTenure</t>
   </si>
   <si>
-    <t>Difference between Program Arguments and VM Arguments</t>
-  </si>
-  <si>
     <t>"Program Arguments" are those arguments that are interpreted by YOUR program, ie. they are what appear in the String [] argument in YOUR main() function. As an example, your program may accept the name of a file that it loads, and the user passes this as a program argument.
 "VM Arguments" are those arguments that are interpreted by the JVM that will execute your program. These are for things like setting the memory allocation parameters and possible garbage collection settings. There are standard arguments that all JVM's should understand and then there are others that are specific to each JVM.</t>
   </si>
@@ -6353,15 +6350,594 @@
   <si>
     <t>Multibyte character set</t>
   </si>
+  <si>
+    <t>Fixed-length Vs Variable-length Character character data</t>
+  </si>
+  <si>
+    <t>Program Arguments Vs VM Arguments</t>
+  </si>
+  <si>
+    <t>Fixed-length strings are right-padded with spaces and always consume the same number of bytes where as variable-length strings are not right-padded with spaces and don’t always consume the same number of bytes.
+CHAR is fixed-lengh character type where VARCHAR (also VARCHAR2 in case of Oracle Database) is variable-length.
+CHAR type should be used when all the values to be stored in the column are of the same length else VARCHAR should be used</t>
+  </si>
+  <si>
+    <t>For languages that use the Latin alphabet, such as English, there is a sufficiently small number of characters such that only a single byte is needed to store each character. Other languages, such as Japanese and Korean, contain large numbers of characters, thus requiring multiple bytes of storage for each character. Such character sets are therefore called multibyte character sets.</t>
+  </si>
+  <si>
+    <t>CLOB</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">haracter </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">arge </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Ob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>ject</t>
+    </r>
+  </si>
+  <si>
+    <t>Modulus function</t>
+  </si>
+  <si>
+    <t>Maximum size of CHAR and VARCHAR datatypes</t>
+  </si>
+  <si>
+    <t>8000 bytes for both</t>
+  </si>
+  <si>
+    <t>2000 and 4000 bytes respectively</t>
+  </si>
+  <si>
+    <t>255 and 65535 bytes respectively</t>
+  </si>
+  <si>
+    <t>Description/Remarks</t>
+  </si>
+  <si>
+    <t>In MySQL, VARCHAR was limited to 255 bytes in version 4.
+VARCHAR type is Oracle database is VARCHAR2</t>
+  </si>
+  <si>
+    <t>Datatype for large text</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>TINYTEXT, TEXT, MEDIUMTEXT, LONGTEXT</t>
+  </si>
+  <si>
+    <t>For DB2, its is CLOB</t>
+  </si>
+  <si>
+    <t>SQL Constraints</t>
+  </si>
+  <si>
+    <t>SQL constraints are used to specify rules for the data in a table. They are used to limit the type of data that can go into a table. This ensures the accuracy and reliability of the data in the table. If there is any violation between the constraint and the data action, the action is aborted. Constraints can be column level or table level. Column level constraints apply to a column, and table level constraints apply to the whole table.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE table_name (
+    column1_name int </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>UNIQUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">,
+    … 
+); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE table_name (
+    column1_name int </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>UNIQUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">,
+    ...
+); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE table_name (
+    column1_name int UNIQUE,
+    ... ,
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>UNIQUE (column1_name)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If multiple columns need to be defined as unique column, then unique constraint need to specified as primary key for all database types. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Example:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+CREATE TABLE table_name (
+    column1_name int,
+ column2_name varchar(255),
+    ... ,
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>CONSTRAINT constraint_name UNIQUE (column1_name,column2_name)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+); </t>
+    </r>
+  </si>
+  <si>
+    <t>Constraint Type</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIQUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMARY KEY </t>
+  </si>
+  <si>
+    <t>FOREIGN KEY</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>By default, a column can hold NULL values. The NOT NULL constraint enforces a column to NOT accept NULL values. This enforces a field to always contain a value, which means that you cannot insert a new record, or update a record without adding a value to this field.</t>
+  </si>
+  <si>
+    <t>The UNIQUE constraint ensures that all values in a column are different. Both the UNIQUE and PRIMARY KEY constraints provide a guarantee for uniqueness for a column or set of columns. A PRIMARY KEY constraint automatically has a UNIQUE constraint. However, you can have many UNIQUE constraints per table, but only one PRIMARY KEY constraint per table.</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE table_name (
+    column1_name int </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>NOT NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">,
+    column2_name varchar(255) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>NOT NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">,
+    ... 
+); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE table_name (
+    column1_name int NOT NULL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>UNIQUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">,
+    column2_name varchar(255) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>UNIQUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">,
+    ... 
+); </t>
+    </r>
+  </si>
+  <si>
+    <t>The PRIMARY KEY constraint uniquely identifies each record in a database table. Primary keys must contain UNIQUE values, and cannot contain NULL values. A table can have only one primary key, which may consist of single or multiple fields.</t>
+  </si>
+  <si>
+    <t>Defining UNIQUE/PRIMARY KEY constraint for just one column</t>
+  </si>
+  <si>
+    <t>A FOREIGN KEY is a key used to link two tables together. A FOREIGN KEY is a field (or collection of fields) in one table that refers to the PRIMARY KEY in another table. The table containing the foreign key is called the child table, and the table containing the candidate key is called the referenced or parent table.</t>
+  </si>
+  <si>
+    <t>Defining FOREIGN KEY constraint</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE table_name (
+    column1_name int </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>PRIMARY KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">,
+    column2_name varchar(255),
+    ... 
+); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE table1_name (
+    column1_name int PRIMARY KEY,    
+    ... 
+    columnN_name int </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>FOREIGN KEY REFERENCES table2_name(column1_name)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+); </t>
+    </r>
+  </si>
+  <si>
+    <t>The CHECK constraint is used to limit the value range that can be placed in a column. If you define a CHECK constraint on a single column it allows only certain values for this column. If you define a CHECK constraint on a table it can limit the values in certain columns based on values in other columns in the row.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE table_name (
+    column1_name int,
+    column2_name varchar(255),
+    ... ,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>CONSTRAINT constraint_name CHECK (column1_name&gt;=18 AND column2_name='X')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+);</t>
+    </r>
+  </si>
+  <si>
+    <t>The DEFAULT constraint is used to provide a default value for a column. The default value will be added to all new records IF no other value is specified.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE TABLE table_name (
+    column1_name int PRIMARY KEY,
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> column2_name varchar(255) DEFAULT 'Default Value',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+    ... 
+); </t>
+    </r>
+  </si>
+  <si>
+    <t>Indexes are used to retrieve data from the database very fast. The users cannot see the indexes, they are just used to speed up searches/queries.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>CREATE INDEX index_name
+ON table_name (column1_name, column2name, ...);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>SQL Constraint Types</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d/mmm/yy;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6534,6 +7110,15 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -6555,7 +7140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -6912,6 +7497,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6920,7 +7516,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6967,7 +7563,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6978,22 +7573,147 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7029,148 +7749,59 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7474,10 +8105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7518,10 +8149,10 @@
         <v>235</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>509</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="90">
@@ -7942,10 +8573,10 @@
         <v>5</v>
       </c>
       <c r="B71" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>536</v>
       </c>
       <c r="E71" s="22"/>
     </row>
@@ -7954,10 +8585,10 @@
         <v>5</v>
       </c>
       <c r="B72" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>537</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="77.25">
@@ -7965,10 +8596,10 @@
         <v>5</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E73" s="26"/>
     </row>
@@ -7977,10 +8608,10 @@
         <v>5</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E74" s="26"/>
     </row>
@@ -7989,10 +8620,10 @@
         <v>5</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E75" s="26"/>
     </row>
@@ -8001,10 +8632,10 @@
         <v>5</v>
       </c>
       <c r="B76" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>548</v>
       </c>
       <c r="E76" s="26"/>
     </row>
@@ -8013,10 +8644,10 @@
         <v>5</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E77" s="26"/>
     </row>
@@ -8025,10 +8656,10 @@
         <v>5</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>551</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>552</v>
       </c>
       <c r="E78" s="26"/>
     </row>
@@ -8037,10 +8668,10 @@
         <v>5</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>553</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>554</v>
       </c>
       <c r="E79" s="26"/>
     </row>
@@ -8062,7 +8693,7 @@
         <v>492</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="90">
@@ -8073,7 +8704,7 @@
         <v>493</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="39">
@@ -8461,166 +9092,177 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="39">
-      <c r="A123" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="B123" s="31" t="s">
+      <c r="A123" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="B123" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="B124" s="30" t="s">
+        <v>589</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="26.25">
+      <c r="A125" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="B125" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="39">
+      <c r="A126" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="B126" s="30" t="s">
         <v>595</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="B124" s="31" t="s">
-        <v>590</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="26.25">
-      <c r="A125" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="B125" s="31" t="s">
-        <v>591</v>
-      </c>
-      <c r="C125" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="39">
-      <c r="A126" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="B126" s="31" t="s">
+    <row r="127" spans="1:5">
+      <c r="A127" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="B127" s="30" t="s">
         <v>596</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="B127" s="31" t="s">
+    </row>
+    <row r="128" spans="1:5" ht="26.25">
+      <c r="A128" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="C128" s="16" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="26.25">
-      <c r="A128" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="B128" s="17" t="s">
+    <row r="129" spans="1:3" ht="39">
+      <c r="A129" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="B130" s="17" t="s">
         <v>600</v>
       </c>
-      <c r="C128" s="16" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="39">
-      <c r="A129" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="B129" s="17" t="s">
-        <v>596</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="B130" s="17" t="s">
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="B131" s="17" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="B131" s="17" t="s">
+    <row r="132" spans="1:3">
+      <c r="A132" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="B132" s="30" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="B132" s="31" t="s">
+    <row r="133" spans="1:3">
+      <c r="A133" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="B133" s="30" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="B133" s="31" t="s">
+    <row r="134" spans="1:3" ht="26.25">
+      <c r="A134" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="B134" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="26.25">
-      <c r="A134" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="B134" s="31" t="s">
-        <v>606</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>605</v>
-      </c>
-    </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="B135" s="33" t="s">
+      <c r="A135" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="B135" s="32" t="s">
+        <v>621</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="B136" s="30" t="s">
+        <v>620</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="B137" s="32" t="s">
         <v>622</v>
       </c>
-      <c r="C135" s="3" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="B136" s="31" t="s">
-        <v>621</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="B137" s="33" t="s">
+    </row>
+    <row r="138" spans="1:3" ht="26.25">
+      <c r="A138" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="B138" s="30" t="s">
+        <v>624</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="26.25">
-      <c r="A138" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="B138" s="31" t="s">
-        <v>625</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="B139" s="33" t="s">
-        <v>668</v>
+    <row r="139" spans="1:3" ht="51.75">
+      <c r="B139" s="32" t="s">
+        <v>667</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="51.75">
+      <c r="B140" s="35" t="s">
+        <v>685</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -8661,27 +9303,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="34" t="s">
-        <v>608</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>586</v>
+      <c r="B1" s="33" t="s">
+        <v>607</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="25" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -8689,71 +9331,71 @@
         <v>416</v>
       </c>
       <c r="C4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="C6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="C8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
+        <v>651</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>652</v>
-      </c>
-      <c r="C15" s="133" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="45">
       <c r="C18" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -8768,613 +9410,584 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:F39"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:15">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="47" t="s">
+        <v>634</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="131" t="s">
+        <v>632</v>
+      </c>
+      <c r="E3" s="92"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="48" t="s">
+        <v>633</v>
+      </c>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="131"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="131" t="s">
+        <v>638</v>
+      </c>
+      <c r="E4" s="92"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="133" t="s">
+        <v>639</v>
+      </c>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="135"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="47" t="s">
         <v>635</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="124" t="s">
-        <v>633</v>
-      </c>
-      <c r="E3" s="115"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="93" t="s">
-        <v>634</v>
-      </c>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="124"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="124" t="s">
-        <v>639</v>
-      </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="126" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="131" t="s">
+        <v>636</v>
+      </c>
+      <c r="E5" s="92"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="47" t="s">
+        <v>637</v>
+      </c>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47" t="s">
+        <v>627</v>
+      </c>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47" t="s">
+        <v>625</v>
+      </c>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47" t="s">
+        <v>626</v>
+      </c>
+      <c r="M17" s="47"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18" s="130" t="s">
+        <v>628</v>
+      </c>
+      <c r="C18" s="130"/>
+      <c r="D18" s="47" t="s">
+        <v>629</v>
+      </c>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47" t="s">
+        <v>630</v>
+      </c>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47" t="s">
+        <v>631</v>
+      </c>
+      <c r="M18" s="47"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="B19" s="128"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21" s="128"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="B22" s="128"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+    </row>
+    <row r="23" spans="2:21">
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="B27" s="126" t="s">
         <v>640</v>
       </c>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="128"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="92" t="s">
-        <v>636</v>
-      </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="124" t="s">
-        <v>637</v>
-      </c>
-      <c r="E5" s="115"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="92" t="s">
-        <v>638</v>
-      </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-    </row>
-    <row r="17" spans="2:21">
-      <c r="B17" s="92" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92" t="s">
+      <c r="C27" s="126"/>
+      <c r="D27" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92" t="s">
-        <v>628</v>
-      </c>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92" t="s">
-        <v>626</v>
-      </c>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92" t="s">
-        <v>627</v>
-      </c>
-      <c r="M17" s="92"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-    </row>
-    <row r="18" spans="2:21">
-      <c r="B18" s="129" t="s">
-        <v>629</v>
-      </c>
-      <c r="C18" s="129"/>
-      <c r="D18" s="92" t="s">
-        <v>630</v>
-      </c>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92" t="s">
-        <v>631</v>
-      </c>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92" t="s">
-        <v>632</v>
-      </c>
-      <c r="M18" s="92"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-    </row>
-    <row r="19" spans="2:21">
-      <c r="B19" s="130"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-    </row>
-    <row r="20" spans="2:21">
-      <c r="B20" s="130"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-    </row>
-    <row r="21" spans="2:21">
-      <c r="B21" s="130"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-    </row>
-    <row r="22" spans="2:21">
-      <c r="B22" s="130"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-    </row>
-    <row r="23" spans="2:21">
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-    </row>
-    <row r="24" spans="2:21">
-      <c r="B24" s="130"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-    </row>
-    <row r="27" spans="2:21">
-      <c r="B27" s="87" t="s">
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="129" t="s">
         <v>641</v>
       </c>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="131" t="s">
+      <c r="L27" s="129"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="126" t="s">
         <v>642</v>
       </c>
-      <c r="L27" s="131"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="131"/>
-      <c r="P27" s="87" t="s">
+      <c r="Q27" s="126"/>
+      <c r="R27" s="126"/>
+      <c r="S27" s="126"/>
+      <c r="T27" s="126"/>
+    </row>
+    <row r="28" spans="2:21">
+      <c r="B28" s="126" t="s">
         <v>643</v>
       </c>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="87"/>
-      <c r="T27" s="87"/>
-    </row>
-    <row r="28" spans="2:21">
-      <c r="B28" s="87" t="s">
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="126"/>
+      <c r="K28" s="126" t="s">
         <v>644</v>
       </c>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87" t="s">
+      <c r="L28" s="126"/>
+      <c r="M28" s="126"/>
+      <c r="N28" s="126"/>
+      <c r="O28" s="126"/>
+      <c r="P28" s="127" t="s">
         <v>645</v>
       </c>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="132" t="s">
+      <c r="Q28" s="127"/>
+      <c r="R28" s="127"/>
+      <c r="S28" s="127"/>
+      <c r="T28" s="127"/>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="B29" s="126" t="s">
         <v>646</v>
       </c>
-      <c r="Q28" s="132"/>
-      <c r="R28" s="132"/>
-      <c r="S28" s="132"/>
-      <c r="T28" s="132"/>
-    </row>
-    <row r="29" spans="2:21">
-      <c r="B29" s="87" t="s">
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="126"/>
+      <c r="K29" s="126" t="s">
         <v>647</v>
       </c>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87" t="s">
-        <v>648</v>
-      </c>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="132" t="s">
-        <v>646</v>
-      </c>
-      <c r="Q29" s="132"/>
-      <c r="R29" s="132"/>
-      <c r="S29" s="132"/>
-      <c r="T29" s="132"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="126"/>
+      <c r="N29" s="126"/>
+      <c r="O29" s="126"/>
+      <c r="P29" s="127" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q29" s="127"/>
+      <c r="R29" s="127"/>
+      <c r="S29" s="127"/>
+      <c r="T29" s="127"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="134" t="s">
-        <v>663</v>
-      </c>
-      <c r="C34" s="134" t="s">
+      <c r="B34" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>653</v>
+      </c>
+      <c r="D34" s="45" t="s">
         <v>654</v>
       </c>
-      <c r="D34" s="134" t="s">
+      <c r="E34" s="45" t="s">
         <v>655</v>
       </c>
-      <c r="E34" s="134" t="s">
+      <c r="F34" s="45" t="s">
         <v>656</v>
       </c>
-      <c r="F34" s="134" t="s">
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="45" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="134" t="s">
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="45" t="s">
         <v>658</v>
       </c>
-      <c r="C35" s="134"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="134" t="s">
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="45" t="s">
         <v>661</v>
       </c>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="134" t="s">
-        <v>659</v>
-      </c>
-      <c r="C37" s="134"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="134"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="134" t="s">
-        <v>660</v>
-      </c>
-      <c r="C38" s="134"/>
-      <c r="D38" s="134"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="134"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="134" t="s">
-        <v>662</v>
-      </c>
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:O28"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="K29:O29"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:O27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="G6:O6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G7:O7"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G9:O9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="G10:O10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="G11:O11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="G14:O14"/>
@@ -9391,26 +10004,58 @@
     <mergeCell ref="G13:O13"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="G10:O10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="G11:O11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:O9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="G6:O6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G7:O7"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="K29:O29"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:O27"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="P28:T28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9426,35 +10071,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="135" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="46" customWidth="1"/>
     <col min="2" max="2" width="83" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="46" t="s">
+        <v>664</v>
+      </c>
+      <c r="B1" t="s">
         <v>665</v>
       </c>
-      <c r="B1" t="s">
-        <v>666</v>
-      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="135">
+      <c r="A2" s="46">
         <v>42874</v>
       </c>
       <c r="B2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -9506,11 +10151,11 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.25">
-      <c r="A12" s="33" t="s">
-        <v>586</v>
+      <c r="A12" s="32" t="s">
+        <v>585</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -11871,7 +12516,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11976,41 +12621,47 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>586</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>587</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>588</v>
-      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>582</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>610</v>
+      <c r="A10" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>581</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="B11" s="31" t="s">
+      <c r="A11" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>584</v>
       </c>
-      <c r="C11" s="31" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="30" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="31" t="s">
-        <v>586</v>
+      <c r="B12" s="35" t="s">
+        <v>672</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -12021,10 +12672,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12182,7 +12833,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="64.5">
+    <row r="17" spans="1:4" ht="64.5">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -12193,7 +12844,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="77.25">
+    <row r="18" spans="1:4" ht="77.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -12204,58 +12855,76 @@
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="90">
+    <row r="19" spans="1:4" ht="90">
       <c r="A19" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="115.5">
+    </row>
+    <row r="20" spans="1:4" ht="115.5">
       <c r="A20" s="22" t="s">
         <v>390</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="31"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="31"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="31" t="s">
-        <v>586</v>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="30"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="30"/>
+    </row>
+    <row r="23" spans="1:4" s="36" customFormat="1" ht="90">
+      <c r="A23" s="35" t="s">
+        <v>585</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" s="36" customFormat="1">
+      <c r="A24" s="35"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" s="3" t="s">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" s="3" t="s">
         <v>651</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" s="3" t="s">
-        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -12266,10 +12935,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y98"/>
+  <dimension ref="A1:Y126"/>
   <sheetViews>
-    <sheetView topLeftCell="G67" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79:W86"/>
+    <sheetView tabSelected="1" topLeftCell="D68" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82:O82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -12284,1953 +12953,2455 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="75" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="72" t="s">
         <v>486</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="77"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="74"/>
     </row>
     <row r="2" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="80"/>
+      <c r="A2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="77"/>
     </row>
     <row r="3" spans="1:25" s="22" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="112" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
       <c r="Y3" s="23"/>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="123" t="s">
+        <v>512</v>
+      </c>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="23"/>
+    </row>
+    <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="115"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="E5" s="105" t="s">
+        <v>511</v>
+      </c>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105" t="s">
         <v>513</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="23"/>
-    </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="24" t="s">
-        <v>511</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>512</v>
-      </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55" t="s">
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="23"/>
+    </row>
+    <row r="6" spans="1:25" ht="15" customHeight="1">
+      <c r="A6" s="115"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="41">
+        <v>1</v>
+      </c>
+      <c r="E6" s="106" t="s">
+        <v>516</v>
+      </c>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="102" t="s">
         <v>514</v>
       </c>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="23"/>
-    </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="103">
-        <v>1</v>
-      </c>
-      <c r="E6" s="104" t="s">
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="23"/>
+    </row>
+    <row r="7" spans="1:25" ht="30" customHeight="1">
+      <c r="A7" s="115"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="42">
+        <v>2</v>
+      </c>
+      <c r="E7" s="109" t="s">
+        <v>518</v>
+      </c>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="91" t="s">
+        <v>515</v>
+      </c>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="23"/>
+    </row>
+    <row r="8" spans="1:25" ht="15" customHeight="1">
+      <c r="A8" s="115"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="42">
+        <v>3</v>
+      </c>
+      <c r="E8" s="109" t="s">
+        <v>519</v>
+      </c>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="91" t="s">
+        <v>499</v>
+      </c>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="23"/>
+    </row>
+    <row r="9" spans="1:25" ht="15" customHeight="1">
+      <c r="A9" s="115"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="42">
+        <v>4</v>
+      </c>
+      <c r="E9" s="109" t="s">
+        <v>520</v>
+      </c>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="91" t="s">
+        <v>506</v>
+      </c>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="23"/>
+    </row>
+    <row r="10" spans="1:25" ht="30" customHeight="1">
+      <c r="A10" s="115"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="42">
+        <v>5</v>
+      </c>
+      <c r="E10" s="109" t="s">
+        <v>521</v>
+      </c>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="91" t="s">
         <v>517</v>
       </c>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="107" t="s">
-        <v>515</v>
-      </c>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="23"/>
-    </row>
-    <row r="7" spans="1:25" ht="30" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="110">
-        <v>2</v>
-      </c>
-      <c r="E7" s="111" t="s">
-        <v>519</v>
-      </c>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="114" t="s">
-        <v>516</v>
-      </c>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="116"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="23"/>
-    </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="110">
-        <v>3</v>
-      </c>
-      <c r="E8" s="111" t="s">
-        <v>520</v>
-      </c>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="114" t="s">
-        <v>499</v>
-      </c>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="23"/>
-    </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="110">
-        <v>4</v>
-      </c>
-      <c r="E9" s="111" t="s">
-        <v>521</v>
-      </c>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="114" t="s">
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="23"/>
+    </row>
+    <row r="11" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A11" s="115"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="43">
+        <v>6</v>
+      </c>
+      <c r="E11" s="99" t="s">
+        <v>522</v>
+      </c>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="96" t="s">
+        <v>523</v>
+      </c>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="23"/>
+    </row>
+    <row r="12" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A12" s="117"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="23"/>
+    </row>
+    <row r="13" spans="1:25" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A13" s="85" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="86"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="23"/>
+    </row>
+    <row r="14" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A14" s="87"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="123" t="s">
+        <v>524</v>
+      </c>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="125"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="23"/>
+    </row>
+    <row r="15" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A15" s="87"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="105" t="s">
+        <v>489</v>
+      </c>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="23"/>
+    </row>
+    <row r="16" spans="1:25" ht="15" customHeight="1">
+      <c r="A16" s="87"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="102" t="s">
+        <v>525</v>
+      </c>
+      <c r="E16" s="103"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="102" t="s">
+        <v>490</v>
+      </c>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="23"/>
+    </row>
+    <row r="17" spans="1:25" ht="15" customHeight="1">
+      <c r="A17" s="87"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="91" t="s">
+        <v>526</v>
+      </c>
+      <c r="E17" s="92"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="23"/>
+    </row>
+    <row r="18" spans="1:25" ht="15" customHeight="1">
+      <c r="A18" s="87"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="91" t="s">
+        <v>491</v>
+      </c>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="23"/>
+    </row>
+    <row r="19" spans="1:25" ht="15" customHeight="1">
+      <c r="A19" s="87"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="91" t="s">
+        <v>527</v>
+      </c>
+      <c r="E19" s="92"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="23"/>
+    </row>
+    <row r="20" spans="1:25" ht="15" customHeight="1">
+      <c r="A20" s="87"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="91" t="s">
+        <v>502</v>
+      </c>
+      <c r="E20" s="92"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="23"/>
+    </row>
+    <row r="21" spans="1:25" ht="15" customHeight="1">
+      <c r="A21" s="87"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="91" t="s">
+        <v>503</v>
+      </c>
+      <c r="E21" s="92"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="93"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="23"/>
+    </row>
+    <row r="22" spans="1:25" ht="15" customHeight="1">
+      <c r="A22" s="87"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="91" t="s">
+        <v>504</v>
+      </c>
+      <c r="E22" s="92"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="23"/>
+    </row>
+    <row r="23" spans="1:25" ht="15" customHeight="1">
+      <c r="A23" s="87"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="91" t="s">
         <v>506</v>
       </c>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="23"/>
-    </row>
-    <row r="10" spans="1:25" ht="30" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="110">
+      <c r="E23" s="92"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="93"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="23"/>
+    </row>
+    <row r="24" spans="1:25" ht="15" customHeight="1">
+      <c r="A24" s="87"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="93"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="23"/>
+    </row>
+    <row r="25" spans="1:25" s="27" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="87"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="23"/>
+    </row>
+    <row r="26" spans="1:25" ht="15" customHeight="1">
+      <c r="A26" s="87"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="93"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="23"/>
+    </row>
+    <row r="27" spans="1:25" ht="15" customHeight="1">
+      <c r="A27" s="87"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="23"/>
+    </row>
+    <row r="28" spans="1:25" ht="15" customHeight="1">
+      <c r="A28" s="87"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="93"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="23"/>
+    </row>
+    <row r="29" spans="1:25" ht="15" customHeight="1">
+      <c r="A29" s="87"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="92"/>
+      <c r="Q29" s="92"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="23"/>
+    </row>
+    <row r="30" spans="1:25" ht="15" customHeight="1">
+      <c r="A30" s="87"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="92"/>
+      <c r="Q30" s="92"/>
+      <c r="R30" s="93"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="23"/>
+    </row>
+    <row r="31" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A31" s="87"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="97"/>
+      <c r="M31" s="97"/>
+      <c r="N31" s="97"/>
+      <c r="O31" s="97"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="98"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="23"/>
+    </row>
+    <row r="32" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A32" s="89"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="23"/>
+    </row>
+    <row r="33" spans="1:25" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A33" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="111" t="s">
-        <v>522</v>
-      </c>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="114" t="s">
-        <v>518</v>
-      </c>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="23"/>
-    </row>
-    <row r="11" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="117">
-        <v>6</v>
-      </c>
-      <c r="E11" s="118" t="s">
-        <v>523</v>
-      </c>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="121" t="s">
-        <v>524</v>
-      </c>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="23"/>
-    </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="23"/>
-    </row>
-    <row r="13" spans="1:25" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="56" t="s">
-        <v>235</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="63"/>
-      <c r="Y13" s="23"/>
-    </row>
-    <row r="14" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A14" s="57"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="51" t="s">
-        <v>525</v>
-      </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="23"/>
-    </row>
-    <row r="15" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="57"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="55" t="s">
-        <v>489</v>
-      </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="23"/>
-    </row>
-    <row r="16" spans="1:25" ht="15" customHeight="1">
-      <c r="A16" s="57"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="107" t="s">
-        <v>526</v>
-      </c>
-      <c r="E16" s="108"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="107" t="s">
-        <v>490</v>
-      </c>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="23"/>
-    </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1">
-      <c r="A17" s="57"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="114" t="s">
-        <v>527</v>
-      </c>
-      <c r="E17" s="115"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="116"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="23"/>
-    </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1">
-      <c r="A18" s="57"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="114" t="s">
-        <v>491</v>
-      </c>
-      <c r="E18" s="115"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="115"/>
-      <c r="R18" s="116"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="23"/>
-    </row>
-    <row r="19" spans="1:25" ht="15" customHeight="1">
-      <c r="A19" s="57"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="114" t="s">
-        <v>528</v>
-      </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="115"/>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="115"/>
-      <c r="R19" s="116"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="23"/>
-    </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1">
-      <c r="A20" s="57"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="114" t="s">
-        <v>502</v>
-      </c>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="116"/>
-      <c r="S20" s="74"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="73"/>
-      <c r="Y20" s="23"/>
-    </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1">
-      <c r="A21" s="57"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="114" t="s">
-        <v>503</v>
-      </c>
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="115"/>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="115"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="74"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="23"/>
-    </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1">
-      <c r="A22" s="57"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="114" t="s">
-        <v>504</v>
-      </c>
-      <c r="E22" s="115"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="115"/>
-      <c r="O22" s="115"/>
-      <c r="P22" s="115"/>
-      <c r="Q22" s="115"/>
-      <c r="R22" s="116"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="73"/>
-      <c r="Y22" s="23"/>
-    </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1">
-      <c r="A23" s="57"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="114" t="s">
-        <v>506</v>
-      </c>
-      <c r="E23" s="115"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="115"/>
-      <c r="M23" s="115"/>
-      <c r="N23" s="115"/>
-      <c r="O23" s="115"/>
-      <c r="P23" s="115"/>
-      <c r="Q23" s="115"/>
-      <c r="R23" s="116"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="23"/>
-    </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1">
-      <c r="A24" s="57"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="115"/>
-      <c r="N24" s="115"/>
-      <c r="O24" s="115"/>
-      <c r="P24" s="115"/>
-      <c r="Q24" s="115"/>
-      <c r="R24" s="116"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="73"/>
-      <c r="Y24" s="23"/>
-    </row>
-    <row r="25" spans="1:25" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="57"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="115"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="115"/>
-      <c r="O25" s="115"/>
-      <c r="P25" s="115"/>
-      <c r="Q25" s="115"/>
-      <c r="R25" s="116"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="73"/>
-      <c r="Y25" s="23"/>
-    </row>
-    <row r="26" spans="1:25" ht="15" customHeight="1">
-      <c r="A26" s="57"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="115"/>
-      <c r="L26" s="115"/>
-      <c r="M26" s="115"/>
-      <c r="N26" s="115"/>
-      <c r="O26" s="115"/>
-      <c r="P26" s="115"/>
-      <c r="Q26" s="115"/>
-      <c r="R26" s="116"/>
-      <c r="S26" s="74"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="73"/>
-      <c r="Y26" s="23"/>
-    </row>
-    <row r="27" spans="1:25" ht="15" customHeight="1">
-      <c r="A27" s="57"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="115"/>
-      <c r="O27" s="115"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="115"/>
-      <c r="R27" s="116"/>
-      <c r="S27" s="74"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="65"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="65"/>
-      <c r="X27" s="73"/>
-      <c r="Y27" s="23"/>
-    </row>
-    <row r="28" spans="1:25" ht="15" customHeight="1">
-      <c r="A28" s="57"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="115"/>
-      <c r="O28" s="115"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="115"/>
-      <c r="R28" s="116"/>
-      <c r="S28" s="74"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="65"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="65"/>
-      <c r="X28" s="73"/>
-      <c r="Y28" s="23"/>
-    </row>
-    <row r="29" spans="1:25" ht="15" customHeight="1">
-      <c r="A29" s="57"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="115"/>
-      <c r="K29" s="115"/>
-      <c r="L29" s="115"/>
-      <c r="M29" s="115"/>
-      <c r="N29" s="115"/>
-      <c r="O29" s="115"/>
-      <c r="P29" s="115"/>
-      <c r="Q29" s="115"/>
-      <c r="R29" s="116"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="23"/>
-    </row>
-    <row r="30" spans="1:25" ht="15" customHeight="1">
-      <c r="A30" s="57"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="115"/>
-      <c r="N30" s="115"/>
-      <c r="O30" s="115"/>
-      <c r="P30" s="115"/>
-      <c r="Q30" s="115"/>
-      <c r="R30" s="116"/>
-      <c r="S30" s="74"/>
-      <c r="T30" s="65"/>
-      <c r="U30" s="65"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="65"/>
-      <c r="X30" s="73"/>
-      <c r="Y30" s="23"/>
-    </row>
-    <row r="31" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="57"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="122"/>
-      <c r="M31" s="122"/>
-      <c r="N31" s="122"/>
-      <c r="O31" s="122"/>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="122"/>
-      <c r="R31" s="123"/>
-      <c r="S31" s="74"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="65"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="65"/>
-      <c r="X31" s="73"/>
-      <c r="Y31" s="23"/>
-    </row>
-    <row r="32" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="58"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="65"/>
-      <c r="R32" s="65"/>
-      <c r="S32" s="65"/>
-      <c r="T32" s="65"/>
-      <c r="U32" s="65"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="65"/>
-      <c r="X32" s="65"/>
-      <c r="Y32" s="23"/>
-    </row>
-    <row r="33" spans="1:25" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A33" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="63"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="64"/>
+      <c r="T33" s="64"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="64"/>
+      <c r="X33" s="65"/>
       <c r="Y33" s="23"/>
     </row>
     <row r="34" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="39"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="59" t="s">
+      <c r="A34" s="113"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="94" t="s">
+        <v>554</v>
+      </c>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="94"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="69"/>
+      <c r="Y34" s="23"/>
+    </row>
+    <row r="35" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A35" s="113"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="94" t="s">
         <v>555</v>
       </c>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="70"/>
-      <c r="Y34" s="23"/>
-    </row>
-    <row r="35" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="39"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="59" t="s">
+      <c r="E35" s="94"/>
+      <c r="F35" s="94" t="s">
         <v>556</v>
       </c>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59" t="s">
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94" t="s">
+        <v>560</v>
+      </c>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94" t="s">
+        <v>561</v>
+      </c>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="95"/>
+      <c r="S35" s="95"/>
+      <c r="T35" s="95"/>
+      <c r="U35" s="95"/>
+      <c r="V35" s="95"/>
+      <c r="W35" s="95"/>
+      <c r="X35" s="69"/>
+      <c r="Y35" s="23"/>
+    </row>
+    <row r="36" spans="1:25" ht="30" customHeight="1" thickBot="1">
+      <c r="A36" s="113"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59" t="s">
-        <v>561</v>
-      </c>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59" t="s">
-        <v>562</v>
-      </c>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59" t="s">
+      <c r="G36" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="I36" s="94" t="s">
+        <v>557</v>
+      </c>
+      <c r="J36" s="94"/>
+      <c r="K36" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="L36" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="95"/>
+      <c r="S36" s="95"/>
+      <c r="T36" s="95"/>
+      <c r="U36" s="95"/>
+      <c r="V36" s="95"/>
+      <c r="W36" s="95"/>
+      <c r="X36" s="69"/>
+      <c r="Y36" s="23"/>
+    </row>
+    <row r="37" spans="1:25" ht="45" customHeight="1">
+      <c r="A37" s="113"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="82" t="s">
         <v>563</v>
       </c>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="60"/>
-      <c r="U35" s="60"/>
-      <c r="V35" s="60"/>
-      <c r="W35" s="60"/>
-      <c r="X35" s="70"/>
-      <c r="Y35" s="23"/>
-    </row>
-    <row r="36" spans="1:25" ht="30" customHeight="1" thickBot="1">
-      <c r="A36" s="39"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="29" t="s">
-        <v>558</v>
-      </c>
-      <c r="G36" s="30" t="s">
-        <v>559</v>
-      </c>
-      <c r="H36" s="30" t="s">
-        <v>560</v>
-      </c>
-      <c r="I36" s="59" t="s">
-        <v>558</v>
-      </c>
-      <c r="J36" s="59"/>
-      <c r="K36" s="30" t="s">
-        <v>559</v>
-      </c>
-      <c r="L36" s="30" t="s">
-        <v>560</v>
-      </c>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="60"/>
-      <c r="U36" s="60"/>
-      <c r="V36" s="60"/>
-      <c r="W36" s="60"/>
-      <c r="X36" s="70"/>
-      <c r="Y36" s="23"/>
-    </row>
-    <row r="37" spans="1:25" ht="45" customHeight="1">
-      <c r="A37" s="39"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="94" t="s">
+      <c r="E37" s="82"/>
+      <c r="F37" s="38" t="s">
         <v>564</v>
       </c>
-      <c r="E37" s="94"/>
-      <c r="F37" s="98" t="s">
+      <c r="G37" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="I37" s="82" t="s">
+        <v>569</v>
+      </c>
+      <c r="J37" s="82"/>
+      <c r="K37" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="L37" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="M37" s="82" t="s">
+        <v>573</v>
+      </c>
+      <c r="N37" s="82"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="79" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="79"/>
+      <c r="W37" s="79"/>
+      <c r="X37" s="69"/>
+      <c r="Y37" s="23"/>
+    </row>
+    <row r="38" spans="1:25" ht="75" customHeight="1">
+      <c r="A38" s="113"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="83" t="s">
+        <v>549</v>
+      </c>
+      <c r="E38" s="83"/>
+      <c r="F38" s="39" t="s">
+        <v>564</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>566</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>568</v>
+      </c>
+      <c r="I38" s="83" t="s">
+        <v>569</v>
+      </c>
+      <c r="J38" s="83"/>
+      <c r="K38" s="39" t="s">
+        <v>566</v>
+      </c>
+      <c r="L38" s="39" t="s">
+        <v>568</v>
+      </c>
+      <c r="M38" s="83" t="s">
+        <v>574</v>
+      </c>
+      <c r="N38" s="83"/>
+      <c r="O38" s="83"/>
+      <c r="P38" s="80" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q38" s="80"/>
+      <c r="R38" s="80"/>
+      <c r="S38" s="80"/>
+      <c r="T38" s="80"/>
+      <c r="U38" s="80"/>
+      <c r="V38" s="80"/>
+      <c r="W38" s="80"/>
+      <c r="X38" s="69"/>
+      <c r="Y38" s="23"/>
+    </row>
+    <row r="39" spans="1:25" ht="30" customHeight="1">
+      <c r="A39" s="113"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="80" t="s">
+        <v>550</v>
+      </c>
+      <c r="E39" s="80"/>
+      <c r="F39" s="39" t="s">
+        <v>564</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>566</v>
+      </c>
+      <c r="H39" s="39" t="s">
+        <v>568</v>
+      </c>
+      <c r="I39" s="83" t="s">
+        <v>570</v>
+      </c>
+      <c r="J39" s="83"/>
+      <c r="K39" s="39" t="s">
+        <v>566</v>
+      </c>
+      <c r="L39" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="M39" s="80" t="s">
+        <v>575</v>
+      </c>
+      <c r="N39" s="83"/>
+      <c r="O39" s="83"/>
+      <c r="P39" s="80" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q39" s="80"/>
+      <c r="R39" s="80"/>
+      <c r="S39" s="80"/>
+      <c r="T39" s="80"/>
+      <c r="U39" s="80"/>
+      <c r="V39" s="80"/>
+      <c r="W39" s="80"/>
+      <c r="X39" s="69"/>
+      <c r="Y39" s="23"/>
+    </row>
+    <row r="40" spans="1:25" ht="90" customHeight="1" thickBot="1">
+      <c r="A40" s="113"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="84" t="s">
         <v>565</v>
       </c>
-      <c r="G37" s="98" t="s">
+      <c r="E40" s="84"/>
+      <c r="F40" s="40" t="s">
+        <v>564</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>566</v>
+      </c>
+      <c r="H40" s="40" t="s">
         <v>568</v>
       </c>
-      <c r="H37" s="98" t="s">
-        <v>569</v>
-      </c>
-      <c r="I37" s="94" t="s">
-        <v>570</v>
-      </c>
-      <c r="J37" s="94"/>
-      <c r="K37" s="98" t="s">
-        <v>568</v>
-      </c>
-      <c r="L37" s="98" t="s">
-        <v>569</v>
-      </c>
-      <c r="M37" s="94" t="s">
-        <v>574</v>
-      </c>
-      <c r="N37" s="94"/>
-      <c r="O37" s="94"/>
-      <c r="P37" s="99" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q37" s="99"/>
-      <c r="R37" s="99"/>
-      <c r="S37" s="99"/>
-      <c r="T37" s="99"/>
-      <c r="U37" s="99"/>
-      <c r="V37" s="99"/>
-      <c r="W37" s="99"/>
-      <c r="X37" s="70"/>
-      <c r="Y37" s="23"/>
-    </row>
-    <row r="38" spans="1:25" ht="75" customHeight="1">
-      <c r="A38" s="39"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="95" t="s">
-        <v>550</v>
-      </c>
-      <c r="E38" s="95"/>
-      <c r="F38" s="100" t="s">
-        <v>565</v>
-      </c>
-      <c r="G38" s="100" t="s">
-        <v>567</v>
-      </c>
-      <c r="H38" s="100" t="s">
-        <v>569</v>
-      </c>
-      <c r="I38" s="95" t="s">
-        <v>570</v>
-      </c>
-      <c r="J38" s="95"/>
-      <c r="K38" s="100" t="s">
-        <v>567</v>
-      </c>
-      <c r="L38" s="100" t="s">
-        <v>569</v>
-      </c>
-      <c r="M38" s="95" t="s">
-        <v>575</v>
-      </c>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="96" t="s">
-        <v>579</v>
-      </c>
-      <c r="Q38" s="96"/>
-      <c r="R38" s="96"/>
-      <c r="S38" s="96"/>
-      <c r="T38" s="96"/>
-      <c r="U38" s="96"/>
-      <c r="V38" s="96"/>
-      <c r="W38" s="96"/>
-      <c r="X38" s="70"/>
-      <c r="Y38" s="23"/>
-    </row>
-    <row r="39" spans="1:25" ht="30" customHeight="1">
-      <c r="A39" s="39"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="96" t="s">
-        <v>551</v>
-      </c>
-      <c r="E39" s="96"/>
-      <c r="F39" s="100" t="s">
-        <v>565</v>
-      </c>
-      <c r="G39" s="100" t="s">
-        <v>567</v>
-      </c>
-      <c r="H39" s="100" t="s">
-        <v>569</v>
-      </c>
-      <c r="I39" s="95" t="s">
-        <v>571</v>
-      </c>
-      <c r="J39" s="95"/>
-      <c r="K39" s="100" t="s">
-        <v>567</v>
-      </c>
-      <c r="L39" s="100" t="s">
+      <c r="I40" s="84" t="s">
+        <v>564</v>
+      </c>
+      <c r="J40" s="84"/>
+      <c r="K40" s="40" t="s">
+        <v>566</v>
+      </c>
+      <c r="L40" s="40" t="s">
         <v>572</v>
       </c>
-      <c r="M39" s="96" t="s">
+      <c r="M40" s="84" t="s">
         <v>576</v>
       </c>
-      <c r="N39" s="95"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="96" t="s">
+      <c r="N40" s="84"/>
+      <c r="O40" s="84"/>
+      <c r="P40" s="81" t="s">
         <v>580</v>
       </c>
-      <c r="Q39" s="96"/>
-      <c r="R39" s="96"/>
-      <c r="S39" s="96"/>
-      <c r="T39" s="96"/>
-      <c r="U39" s="96"/>
-      <c r="V39" s="96"/>
-      <c r="W39" s="96"/>
-      <c r="X39" s="70"/>
-      <c r="Y39" s="23"/>
-    </row>
-    <row r="40" spans="1:25" ht="90" customHeight="1" thickBot="1">
-      <c r="A40" s="39"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="97" t="s">
-        <v>566</v>
-      </c>
-      <c r="E40" s="97"/>
-      <c r="F40" s="101" t="s">
-        <v>565</v>
-      </c>
-      <c r="G40" s="101" t="s">
-        <v>567</v>
-      </c>
-      <c r="H40" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="I40" s="97" t="s">
-        <v>565</v>
-      </c>
-      <c r="J40" s="97"/>
-      <c r="K40" s="101" t="s">
-        <v>567</v>
-      </c>
-      <c r="L40" s="101" t="s">
-        <v>573</v>
-      </c>
-      <c r="M40" s="97" t="s">
-        <v>577</v>
-      </c>
-      <c r="N40" s="97"/>
-      <c r="O40" s="97"/>
-      <c r="P40" s="102" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q40" s="102"/>
-      <c r="R40" s="102"/>
-      <c r="S40" s="102"/>
-      <c r="T40" s="102"/>
-      <c r="U40" s="102"/>
-      <c r="V40" s="102"/>
-      <c r="W40" s="102"/>
-      <c r="X40" s="70"/>
+      <c r="Q40" s="81"/>
+      <c r="R40" s="81"/>
+      <c r="S40" s="81"/>
+      <c r="T40" s="81"/>
+      <c r="U40" s="81"/>
+      <c r="V40" s="81"/>
+      <c r="W40" s="81"/>
+      <c r="X40" s="69"/>
       <c r="Y40" s="23"/>
     </row>
     <row r="41" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A41" s="41"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="68"/>
-      <c r="Q41" s="68"/>
-      <c r="R41" s="68"/>
-      <c r="S41" s="68"/>
-      <c r="T41" s="68"/>
-      <c r="U41" s="68"/>
-      <c r="V41" s="68"/>
-      <c r="W41" s="68"/>
-      <c r="X41" s="69"/>
+      <c r="A41" s="114"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="59"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="59"/>
+      <c r="U41" s="59"/>
+      <c r="V41" s="59"/>
+      <c r="W41" s="59"/>
+      <c r="X41" s="60"/>
       <c r="Y41" s="23"/>
     </row>
     <row r="42" spans="1:25" ht="15" customHeight="1" thickTop="1"/>
     <row r="52" spans="1:24" ht="15" customHeight="1">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="91"/>
-      <c r="E52" s="91"/>
-      <c r="F52" s="91"/>
-      <c r="G52" s="91"/>
-      <c r="H52" s="91"/>
-      <c r="I52" s="91"/>
-      <c r="J52" s="91"/>
-      <c r="K52" s="91"/>
-      <c r="L52" s="91"/>
-      <c r="M52" s="91"/>
-      <c r="N52" s="91"/>
-      <c r="O52" s="91"/>
-      <c r="P52" s="91"/>
-      <c r="Q52" s="91"/>
-      <c r="R52" s="91"/>
-      <c r="S52" s="91"/>
-      <c r="T52" s="91"/>
-      <c r="U52" s="91"/>
-      <c r="V52" s="91"/>
-      <c r="W52" s="91"/>
-      <c r="X52" s="91"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37"/>
+      <c r="W52" s="37"/>
+      <c r="X52" s="37"/>
     </row>
     <row r="53" spans="1:24" ht="15" customHeight="1">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
-    </row>
-    <row r="54" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="36"/>
-      <c r="B54" s="36"/>
-    </row>
-    <row r="55" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="36"/>
-      <c r="B55" s="36"/>
-    </row>
-    <row r="56" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="A56" s="36"/>
-      <c r="B56" s="36"/>
-    </row>
-    <row r="57" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="A57" s="36"/>
-      <c r="B57" s="36"/>
-    </row>
-    <row r="58" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="36"/>
-      <c r="B58" s="36"/>
-    </row>
-    <row r="59" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="36"/>
-      <c r="B59" s="36"/>
-    </row>
-    <row r="60" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="36"/>
-      <c r="B60" s="36"/>
-    </row>
-    <row r="61" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="36"/>
-      <c r="B61" s="36"/>
-    </row>
-    <row r="62" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="36"/>
-      <c r="B62" s="36"/>
-    </row>
-    <row r="63" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="A63" s="36"/>
-      <c r="B63" s="36"/>
-    </row>
-    <row r="64" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="A64" s="36"/>
-      <c r="B64" s="36"/>
-      <c r="D64" s="92" t="s">
+      <c r="A53" s="61"/>
+      <c r="B53" s="61"/>
+    </row>
+    <row r="54" spans="1:24" s="32" customFormat="1" ht="15" customHeight="1">
+      <c r="A54" s="61"/>
+      <c r="B54" s="61"/>
+    </row>
+    <row r="55" spans="1:24" s="32" customFormat="1" ht="15" customHeight="1">
+      <c r="A55" s="61"/>
+      <c r="B55" s="61"/>
+    </row>
+    <row r="56" spans="1:24" s="32" customFormat="1" ht="15" customHeight="1">
+      <c r="A56" s="61"/>
+      <c r="B56" s="61"/>
+    </row>
+    <row r="57" spans="1:24" s="32" customFormat="1" ht="15" customHeight="1">
+      <c r="A57" s="61"/>
+      <c r="B57" s="61"/>
+    </row>
+    <row r="58" spans="1:24" s="32" customFormat="1" ht="15" customHeight="1">
+      <c r="A58" s="61"/>
+      <c r="B58" s="61"/>
+    </row>
+    <row r="59" spans="1:24" s="32" customFormat="1" ht="15" customHeight="1">
+      <c r="A59" s="61"/>
+      <c r="B59" s="61"/>
+    </row>
+    <row r="60" spans="1:24" s="32" customFormat="1" ht="15" customHeight="1">
+      <c r="A60" s="61"/>
+      <c r="B60" s="61"/>
+    </row>
+    <row r="61" spans="1:24" s="32" customFormat="1" ht="15" customHeight="1">
+      <c r="A61" s="61"/>
+      <c r="B61" s="61"/>
+    </row>
+    <row r="62" spans="1:24" s="32" customFormat="1" ht="15" customHeight="1">
+      <c r="A62" s="61"/>
+      <c r="B62" s="61"/>
+    </row>
+    <row r="63" spans="1:24" s="32" customFormat="1" ht="15" customHeight="1">
+      <c r="A63" s="61"/>
+      <c r="B63" s="61"/>
+    </row>
+    <row r="64" spans="1:24" s="32" customFormat="1" ht="15" customHeight="1">
+      <c r="A64" s="61"/>
+      <c r="B64" s="61"/>
+      <c r="D64" s="47" t="s">
+        <v>634</v>
+      </c>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47" t="s">
+        <v>632</v>
+      </c>
+      <c r="G64" s="47"/>
+      <c r="H64" s="48" t="s">
+        <v>633</v>
+      </c>
+      <c r="I64" s="48"/>
+      <c r="J64" s="48"/>
+      <c r="K64" s="48"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="48"/>
+      <c r="N64" s="48"/>
+      <c r="O64" s="48"/>
+      <c r="P64" s="48"/>
+    </row>
+    <row r="65" spans="1:24" ht="15" customHeight="1">
+      <c r="A65" s="61"/>
+      <c r="B65" s="61"/>
+      <c r="D65" s="47" t="s">
         <v>635</v>
       </c>
-      <c r="E64" s="92"/>
-      <c r="F64" s="92" t="s">
-        <v>633</v>
-      </c>
-      <c r="G64" s="92"/>
-      <c r="H64" s="93" t="s">
-        <v>634</v>
-      </c>
-      <c r="I64" s="93"/>
-      <c r="J64" s="93"/>
-      <c r="K64" s="93"/>
-      <c r="L64" s="93"/>
-      <c r="M64" s="93"/>
-      <c r="N64" s="93"/>
-      <c r="O64" s="93"/>
-      <c r="P64" s="93"/>
-    </row>
-    <row r="65" spans="1:24" ht="15" customHeight="1">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
-      <c r="D65" s="92" t="s">
+      <c r="E65" s="47"/>
+      <c r="F65" s="47" t="s">
         <v>636</v>
       </c>
-      <c r="E65" s="92"/>
-      <c r="F65" s="92" t="s">
+      <c r="G65" s="47"/>
+      <c r="H65" s="47" t="s">
         <v>637</v>
       </c>
-      <c r="G65" s="92"/>
-      <c r="H65" s="92" t="s">
-        <v>638</v>
-      </c>
-      <c r="I65" s="92"/>
-      <c r="J65" s="92"/>
-      <c r="K65" s="92"/>
-      <c r="L65" s="92"/>
-      <c r="M65" s="92"/>
-      <c r="N65" s="92"/>
-      <c r="O65" s="92"/>
-      <c r="P65" s="92"/>
-    </row>
-    <row r="66" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="A66" s="36"/>
-      <c r="B66" s="36"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="92"/>
-      <c r="G66" s="92"/>
-      <c r="H66" s="92"/>
-      <c r="I66" s="92"/>
-      <c r="J66" s="92"/>
-      <c r="K66" s="92"/>
-      <c r="L66" s="92"/>
-      <c r="M66" s="92"/>
-      <c r="N66" s="92"/>
-      <c r="O66" s="92"/>
-      <c r="P66" s="92"/>
-    </row>
-    <row r="67" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="A67" s="36"/>
-      <c r="B67" s="36"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="92"/>
-      <c r="G67" s="92"/>
-      <c r="H67" s="92"/>
-      <c r="I67" s="92"/>
-      <c r="J67" s="92"/>
-      <c r="K67" s="92"/>
-      <c r="L67" s="92"/>
-      <c r="M67" s="92"/>
-      <c r="N67" s="92"/>
-      <c r="O67" s="92"/>
-      <c r="P67" s="92"/>
-    </row>
-    <row r="68" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="A68" s="36"/>
-      <c r="B68" s="36"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="92"/>
-      <c r="F68" s="92"/>
-      <c r="G68" s="92"/>
-      <c r="H68" s="92"/>
-      <c r="I68" s="92"/>
-      <c r="J68" s="92"/>
-      <c r="K68" s="92"/>
-      <c r="L68" s="92"/>
-      <c r="M68" s="92"/>
-      <c r="N68" s="92"/>
-      <c r="O68" s="92"/>
-      <c r="P68" s="92"/>
-    </row>
-    <row r="69" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="A69" s="36"/>
-      <c r="B69" s="36"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="92"/>
-      <c r="F69" s="92"/>
-      <c r="G69" s="92"/>
-      <c r="H69" s="92"/>
-      <c r="I69" s="92"/>
-      <c r="J69" s="92"/>
-      <c r="K69" s="92"/>
-      <c r="L69" s="92"/>
-      <c r="M69" s="92"/>
-      <c r="N69" s="92"/>
-      <c r="O69" s="92"/>
-      <c r="P69" s="92"/>
-    </row>
-    <row r="70" spans="1:24" s="33" customFormat="1" ht="15" customHeight="1">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36"/>
-      <c r="D70" s="92"/>
-      <c r="E70" s="92"/>
-      <c r="F70" s="92"/>
-      <c r="G70" s="92"/>
-      <c r="H70" s="92"/>
-      <c r="I70" s="92"/>
-      <c r="J70" s="92"/>
-      <c r="K70" s="92"/>
-      <c r="L70" s="92"/>
-      <c r="M70" s="92"/>
-      <c r="N70" s="92"/>
-      <c r="O70" s="92"/>
-      <c r="P70" s="92"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
+      <c r="M65" s="47"/>
+      <c r="N65" s="47"/>
+      <c r="O65" s="47"/>
+      <c r="P65" s="47"/>
+    </row>
+    <row r="66" spans="1:24" s="32" customFormat="1" ht="15" customHeight="1">
+      <c r="A66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="47"/>
+      <c r="M66" s="47"/>
+      <c r="N66" s="47"/>
+      <c r="O66" s="47"/>
+      <c r="P66" s="47"/>
+    </row>
+    <row r="67" spans="1:24" s="32" customFormat="1" ht="15" customHeight="1">
+      <c r="A67" s="61"/>
+      <c r="B67" s="61"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="47"/>
+      <c r="N67" s="47"/>
+      <c r="O67" s="47"/>
+      <c r="P67" s="47"/>
+    </row>
+    <row r="68" spans="1:24" s="32" customFormat="1" ht="15" customHeight="1">
+      <c r="A68" s="61"/>
+      <c r="B68" s="61"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="47"/>
+      <c r="O68" s="47"/>
+      <c r="P68" s="47"/>
+    </row>
+    <row r="69" spans="1:24" s="32" customFormat="1" ht="15" customHeight="1">
+      <c r="A69" s="61"/>
+      <c r="B69" s="61"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="47"/>
+      <c r="P69" s="47"/>
+    </row>
+    <row r="70" spans="1:24" s="32" customFormat="1" ht="15" customHeight="1">
+      <c r="A70" s="61"/>
+      <c r="B70" s="61"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="47"/>
+      <c r="O70" s="47"/>
+      <c r="P70" s="47"/>
     </row>
     <row r="71" spans="1:24" ht="15" customHeight="1">
-      <c r="A71" s="36"/>
-      <c r="B71" s="36"/>
-      <c r="D71" s="92"/>
-      <c r="E71" s="92"/>
-      <c r="F71" s="92"/>
-      <c r="G71" s="92"/>
-      <c r="H71" s="92"/>
-      <c r="I71" s="92"/>
-      <c r="J71" s="92"/>
-      <c r="K71" s="92"/>
-      <c r="L71" s="92"/>
-      <c r="M71" s="92"/>
-      <c r="N71" s="92"/>
-      <c r="O71" s="92"/>
-      <c r="P71" s="92"/>
+      <c r="A71" s="61"/>
+      <c r="B71" s="61"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="47"/>
     </row>
     <row r="72" spans="1:24" ht="15" customHeight="1">
-      <c r="A72" s="36"/>
-      <c r="B72" s="36"/>
-      <c r="D72" s="92"/>
-      <c r="E72" s="92"/>
-      <c r="F72" s="92"/>
-      <c r="G72" s="92"/>
-      <c r="H72" s="92"/>
-      <c r="I72" s="92"/>
-      <c r="J72" s="92"/>
-      <c r="K72" s="92"/>
-      <c r="L72" s="92"/>
-      <c r="M72" s="92"/>
-      <c r="N72" s="92"/>
-      <c r="O72" s="92"/>
-      <c r="P72" s="92"/>
+      <c r="A72" s="61"/>
+      <c r="B72" s="61"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47"/>
+      <c r="O72" s="47"/>
+      <c r="P72" s="47"/>
     </row>
     <row r="73" spans="1:24" ht="15" customHeight="1">
-      <c r="A73" s="36"/>
-      <c r="B73" s="36"/>
-      <c r="D73" s="92"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="92"/>
-      <c r="G73" s="92"/>
-      <c r="H73" s="92"/>
-      <c r="I73" s="92"/>
-      <c r="J73" s="92"/>
-      <c r="K73" s="92"/>
-      <c r="L73" s="92"/>
-      <c r="M73" s="92"/>
-      <c r="N73" s="92"/>
-      <c r="O73" s="92"/>
-      <c r="P73" s="92"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="61"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="47"/>
+      <c r="N73" s="47"/>
+      <c r="O73" s="47"/>
+      <c r="P73" s="47"/>
     </row>
     <row r="74" spans="1:24" ht="15" customHeight="1">
-      <c r="A74" s="36"/>
-      <c r="B74" s="36"/>
-      <c r="D74" s="92"/>
-      <c r="E74" s="92"/>
-      <c r="F74" s="92"/>
-      <c r="G74" s="92"/>
-      <c r="H74" s="92"/>
-      <c r="I74" s="92"/>
-      <c r="J74" s="92"/>
-      <c r="K74" s="92"/>
-      <c r="L74" s="92"/>
-      <c r="M74" s="92"/>
-      <c r="N74" s="92"/>
-      <c r="O74" s="92"/>
-      <c r="P74" s="92"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="61"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="47"/>
+      <c r="M74" s="47"/>
+      <c r="N74" s="47"/>
+      <c r="O74" s="47"/>
+      <c r="P74" s="47"/>
     </row>
     <row r="75" spans="1:24" ht="15" customHeight="1">
-      <c r="A75" s="36"/>
-      <c r="B75" s="36"/>
-    </row>
-    <row r="76" spans="1:24" ht="15" customHeight="1">
-      <c r="A76" s="36"/>
-      <c r="B76" s="36"/>
-    </row>
-    <row r="77" spans="1:24" ht="15" customHeight="1" thickBot="1">
-      <c r="A77" s="36"/>
-      <c r="B77" s="36"/>
-    </row>
-    <row r="78" spans="1:24" ht="15" customHeight="1" thickTop="1">
-      <c r="A78" s="90"/>
-      <c r="B78" s="89"/>
-      <c r="C78" s="84"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="62"/>
-      <c r="J78" s="62"/>
-      <c r="K78" s="62"/>
-      <c r="L78" s="62"/>
-      <c r="M78" s="62"/>
-      <c r="N78" s="62"/>
-      <c r="O78" s="62"/>
-      <c r="P78" s="62"/>
-      <c r="Q78" s="62"/>
-      <c r="R78" s="62"/>
-      <c r="S78" s="62"/>
-      <c r="T78" s="62"/>
-      <c r="U78" s="62"/>
-      <c r="V78" s="62"/>
-      <c r="W78" s="62"/>
-      <c r="X78" s="63"/>
-    </row>
-    <row r="79" spans="1:24" ht="15" customHeight="1">
-      <c r="A79" s="65"/>
-      <c r="B79" s="73"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="54" t="s">
+      <c r="A75" s="61"/>
+      <c r="B75" s="61"/>
+    </row>
+    <row r="76" spans="1:24" s="35" customFormat="1" ht="15" customHeight="1"/>
+    <row r="77" spans="1:24" s="35" customFormat="1" ht="15" customHeight="1"/>
+    <row r="78" spans="1:24" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1"/>
+    <row r="79" spans="1:24" s="35" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A79" s="112" t="s">
+        <v>585</v>
+      </c>
+      <c r="B79" s="86"/>
+      <c r="C79" s="144"/>
+      <c r="D79" s="145"/>
+      <c r="E79" s="145"/>
+      <c r="F79" s="145"/>
+      <c r="G79" s="145"/>
+      <c r="H79" s="145"/>
+      <c r="I79" s="145"/>
+      <c r="J79" s="145"/>
+      <c r="K79" s="145"/>
+      <c r="L79" s="145"/>
+      <c r="M79" s="145"/>
+      <c r="N79" s="145"/>
+      <c r="O79" s="145"/>
+      <c r="P79" s="145"/>
+      <c r="Q79" s="145"/>
+      <c r="R79" s="145"/>
+      <c r="S79" s="145"/>
+      <c r="T79" s="145"/>
+      <c r="U79" s="145"/>
+      <c r="V79" s="145"/>
+      <c r="W79" s="145"/>
+      <c r="X79" s="146"/>
+    </row>
+    <row r="80" spans="1:24" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A80" s="113"/>
+      <c r="B80" s="88"/>
+      <c r="C80" s="150"/>
+      <c r="D80" s="123" t="s">
+        <v>719</v>
+      </c>
+      <c r="E80" s="124"/>
+      <c r="F80" s="124"/>
+      <c r="G80" s="124"/>
+      <c r="H80" s="124"/>
+      <c r="I80" s="124"/>
+      <c r="J80" s="124"/>
+      <c r="K80" s="124"/>
+      <c r="L80" s="124"/>
+      <c r="M80" s="124"/>
+      <c r="N80" s="124"/>
+      <c r="O80" s="124"/>
+      <c r="P80" s="124"/>
+      <c r="Q80" s="124"/>
+      <c r="R80" s="124"/>
+      <c r="S80" s="124"/>
+      <c r="T80" s="124"/>
+      <c r="U80" s="124"/>
+      <c r="V80" s="124"/>
+      <c r="W80" s="125"/>
+      <c r="X80" s="151"/>
+    </row>
+    <row r="81" spans="1:24" s="35" customFormat="1" ht="15" customHeight="1">
+      <c r="A81" s="115"/>
+      <c r="B81" s="116"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="141" t="s">
+        <v>704</v>
+      </c>
+      <c r="E81" s="142" t="s">
+        <v>691</v>
+      </c>
+      <c r="F81" s="142"/>
+      <c r="G81" s="142" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" s="142"/>
+      <c r="I81" s="142"/>
+      <c r="J81" s="142"/>
+      <c r="K81" s="142"/>
+      <c r="L81" s="142"/>
+      <c r="M81" s="142"/>
+      <c r="N81" s="142"/>
+      <c r="O81" s="142"/>
+      <c r="P81" s="143" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q81" s="142" t="s">
+        <v>641</v>
+      </c>
+      <c r="R81" s="142"/>
+      <c r="S81" s="142"/>
+      <c r="T81" s="142"/>
+      <c r="U81" s="142"/>
+      <c r="V81" s="142"/>
+      <c r="W81" s="142"/>
+      <c r="X81" s="152"/>
+    </row>
+    <row r="82" spans="1:24" s="35" customFormat="1" ht="65.099999999999994" customHeight="1">
+      <c r="A82" s="115"/>
+      <c r="B82" s="116"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="42">
+        <v>1</v>
+      </c>
+      <c r="E82" s="83" t="s">
+        <v>692</v>
+      </c>
+      <c r="F82" s="83"/>
+      <c r="G82" s="80" t="s">
+        <v>700</v>
+      </c>
+      <c r="H82" s="80"/>
+      <c r="I82" s="80"/>
+      <c r="J82" s="80"/>
+      <c r="K82" s="80"/>
+      <c r="L82" s="80"/>
+      <c r="M82" s="80"/>
+      <c r="N82" s="80"/>
+      <c r="O82" s="80"/>
+      <c r="P82" s="42" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q82" s="80" t="s">
+        <v>705</v>
+      </c>
+      <c r="R82" s="80"/>
+      <c r="S82" s="80"/>
+      <c r="T82" s="80"/>
+      <c r="U82" s="80"/>
+      <c r="V82" s="80"/>
+      <c r="W82" s="80"/>
+      <c r="X82" s="152"/>
+    </row>
+    <row r="83" spans="1:24" s="35" customFormat="1" ht="65.099999999999994" customHeight="1">
+      <c r="A83" s="115"/>
+      <c r="B83" s="116"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="42">
+        <v>2</v>
+      </c>
+      <c r="E83" s="83" t="s">
+        <v>693</v>
+      </c>
+      <c r="F83" s="83"/>
+      <c r="G83" s="80" t="s">
+        <v>701</v>
+      </c>
+      <c r="H83" s="80"/>
+      <c r="I83" s="80"/>
+      <c r="J83" s="80"/>
+      <c r="K83" s="80"/>
+      <c r="L83" s="80"/>
+      <c r="M83" s="80"/>
+      <c r="N83" s="80"/>
+      <c r="O83" s="80"/>
+      <c r="P83" s="42" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q83" s="80" t="s">
+        <v>706</v>
+      </c>
+      <c r="R83" s="80"/>
+      <c r="S83" s="80"/>
+      <c r="T83" s="80"/>
+      <c r="U83" s="80"/>
+      <c r="V83" s="80"/>
+      <c r="W83" s="80"/>
+      <c r="X83" s="152"/>
+    </row>
+    <row r="84" spans="1:24" s="35" customFormat="1" ht="65.099999999999994" customHeight="1">
+      <c r="A84" s="115"/>
+      <c r="B84" s="116"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="42">
+        <v>3</v>
+      </c>
+      <c r="E84" s="83" t="s">
+        <v>694</v>
+      </c>
+      <c r="F84" s="83"/>
+      <c r="G84" s="80" t="s">
+        <v>707</v>
+      </c>
+      <c r="H84" s="80"/>
+      <c r="I84" s="80"/>
+      <c r="J84" s="80"/>
+      <c r="K84" s="80"/>
+      <c r="L84" s="80"/>
+      <c r="M84" s="80"/>
+      <c r="N84" s="80"/>
+      <c r="O84" s="80"/>
+      <c r="P84" s="42" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q84" s="80" t="s">
+        <v>711</v>
+      </c>
+      <c r="R84" s="80"/>
+      <c r="S84" s="80"/>
+      <c r="T84" s="80"/>
+      <c r="U84" s="80"/>
+      <c r="V84" s="80"/>
+      <c r="W84" s="80"/>
+      <c r="X84" s="152"/>
+    </row>
+    <row r="85" spans="1:24" s="35" customFormat="1" ht="65.099999999999994" customHeight="1">
+      <c r="A85" s="115"/>
+      <c r="B85" s="116"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="42">
+        <v>4</v>
+      </c>
+      <c r="E85" s="83" t="s">
+        <v>695</v>
+      </c>
+      <c r="F85" s="83"/>
+      <c r="G85" s="80" t="s">
+        <v>709</v>
+      </c>
+      <c r="H85" s="80"/>
+      <c r="I85" s="80"/>
+      <c r="J85" s="80"/>
+      <c r="K85" s="80"/>
+      <c r="L85" s="80"/>
+      <c r="M85" s="80"/>
+      <c r="N85" s="80"/>
+      <c r="O85" s="80"/>
+      <c r="P85" s="42" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q85" s="80" t="s">
+        <v>712</v>
+      </c>
+      <c r="R85" s="80"/>
+      <c r="S85" s="80"/>
+      <c r="T85" s="80"/>
+      <c r="U85" s="80"/>
+      <c r="V85" s="80"/>
+      <c r="W85" s="80"/>
+      <c r="X85" s="152"/>
+    </row>
+    <row r="86" spans="1:24" s="35" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A86" s="115"/>
+      <c r="B86" s="116"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="42">
+        <v>5</v>
+      </c>
+      <c r="E86" s="83" t="s">
+        <v>696</v>
+      </c>
+      <c r="F86" s="83"/>
+      <c r="G86" s="80" t="s">
+        <v>713</v>
+      </c>
+      <c r="H86" s="80"/>
+      <c r="I86" s="80"/>
+      <c r="J86" s="80"/>
+      <c r="K86" s="80"/>
+      <c r="L86" s="80"/>
+      <c r="M86" s="80"/>
+      <c r="N86" s="80"/>
+      <c r="O86" s="80"/>
+      <c r="P86" s="42" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q86" s="80" t="s">
+        <v>714</v>
+      </c>
+      <c r="R86" s="80"/>
+      <c r="S86" s="80"/>
+      <c r="T86" s="80"/>
+      <c r="U86" s="80"/>
+      <c r="V86" s="80"/>
+      <c r="W86" s="80"/>
+      <c r="X86" s="152"/>
+    </row>
+    <row r="87" spans="1:24" s="35" customFormat="1" ht="65.099999999999994" customHeight="1">
+      <c r="A87" s="115"/>
+      <c r="B87" s="116"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="42">
+        <v>6</v>
+      </c>
+      <c r="E87" s="83" t="s">
+        <v>697</v>
+      </c>
+      <c r="F87" s="83"/>
+      <c r="G87" s="80" t="s">
+        <v>715</v>
+      </c>
+      <c r="H87" s="80"/>
+      <c r="I87" s="80"/>
+      <c r="J87" s="80"/>
+      <c r="K87" s="80"/>
+      <c r="L87" s="80"/>
+      <c r="M87" s="80"/>
+      <c r="N87" s="80"/>
+      <c r="O87" s="80"/>
+      <c r="P87" s="42" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q87" s="80" t="s">
+        <v>716</v>
+      </c>
+      <c r="R87" s="80"/>
+      <c r="S87" s="80"/>
+      <c r="T87" s="80"/>
+      <c r="U87" s="80"/>
+      <c r="V87" s="80"/>
+      <c r="W87" s="80"/>
+      <c r="X87" s="152"/>
+    </row>
+    <row r="88" spans="1:24" s="35" customFormat="1" ht="65.099999999999994" customHeight="1" thickBot="1">
+      <c r="A88" s="115"/>
+      <c r="B88" s="116"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="43">
+        <v>7</v>
+      </c>
+      <c r="E88" s="84" t="s">
+        <v>698</v>
+      </c>
+      <c r="F88" s="84"/>
+      <c r="G88" s="81" t="s">
+        <v>717</v>
+      </c>
+      <c r="H88" s="81"/>
+      <c r="I88" s="81"/>
+      <c r="J88" s="81"/>
+      <c r="K88" s="81"/>
+      <c r="L88" s="81"/>
+      <c r="M88" s="81"/>
+      <c r="N88" s="81"/>
+      <c r="O88" s="81"/>
+      <c r="P88" s="43" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q88" s="81" t="s">
+        <v>718</v>
+      </c>
+      <c r="R88" s="84"/>
+      <c r="S88" s="84"/>
+      <c r="T88" s="84"/>
+      <c r="U88" s="84"/>
+      <c r="V88" s="84"/>
+      <c r="W88" s="84"/>
+      <c r="X88" s="152"/>
+    </row>
+    <row r="89" spans="1:24" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A89" s="117"/>
+      <c r="B89" s="118"/>
+      <c r="C89" s="147"/>
+      <c r="D89" s="148"/>
+      <c r="E89" s="148"/>
+      <c r="F89" s="148"/>
+      <c r="G89" s="148"/>
+      <c r="H89" s="148"/>
+      <c r="I89" s="148"/>
+      <c r="J89" s="148"/>
+      <c r="K89" s="148"/>
+      <c r="L89" s="148"/>
+      <c r="M89" s="148"/>
+      <c r="N89" s="148"/>
+      <c r="O89" s="148"/>
+      <c r="P89" s="148"/>
+      <c r="Q89" s="148"/>
+      <c r="R89" s="148"/>
+      <c r="S89" s="148"/>
+      <c r="T89" s="148"/>
+      <c r="U89" s="148"/>
+      <c r="V89" s="148"/>
+      <c r="W89" s="148"/>
+      <c r="X89" s="149"/>
+    </row>
+    <row r="90" spans="1:24" s="35" customFormat="1" ht="15" customHeight="1" thickTop="1"/>
+    <row r="91" spans="1:24" s="35" customFormat="1" ht="15" customHeight="1"/>
+    <row r="92" spans="1:24" s="35" customFormat="1" ht="15" customHeight="1"/>
+    <row r="93" spans="1:24" s="35" customFormat="1" ht="15" customHeight="1"/>
+    <row r="94" spans="1:24" s="35" customFormat="1" ht="15" customHeight="1"/>
+    <row r="95" spans="1:24" s="35" customFormat="1" ht="15" customHeight="1"/>
+    <row r="96" spans="1:24" s="35" customFormat="1" ht="15" customHeight="1"/>
+    <row r="97" spans="1:25" s="35" customFormat="1" ht="15" customHeight="1"/>
+    <row r="98" spans="1:25" s="35" customFormat="1" ht="15" customHeight="1"/>
+    <row r="99" spans="1:25" s="35" customFormat="1" ht="15" customHeight="1"/>
+    <row r="100" spans="1:25" s="35" customFormat="1" ht="15" customHeight="1"/>
+    <row r="101" spans="1:25" s="35" customFormat="1" ht="15" customHeight="1"/>
+    <row r="102" spans="1:25" s="35" customFormat="1" ht="15" customHeight="1"/>
+    <row r="103" spans="1:25" s="35" customFormat="1" ht="15" customHeight="1"/>
+    <row r="104" spans="1:25" ht="15" customHeight="1">
+      <c r="A104" s="61"/>
+      <c r="B104" s="61"/>
+    </row>
+    <row r="105" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A105" s="61"/>
+      <c r="B105" s="61"/>
+    </row>
+    <row r="106" spans="1:25" ht="15" customHeight="1" thickTop="1">
+      <c r="A106" s="56"/>
+      <c r="B106" s="57"/>
+      <c r="C106" s="63"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="64"/>
+      <c r="G106" s="64"/>
+      <c r="H106" s="64"/>
+      <c r="I106" s="64"/>
+      <c r="J106" s="64"/>
+      <c r="K106" s="64"/>
+      <c r="L106" s="64"/>
+      <c r="M106" s="64"/>
+      <c r="N106" s="64"/>
+      <c r="O106" s="64"/>
+      <c r="P106" s="64"/>
+      <c r="Q106" s="64"/>
+      <c r="R106" s="64"/>
+      <c r="S106" s="64"/>
+      <c r="T106" s="64"/>
+      <c r="U106" s="64"/>
+      <c r="V106" s="64"/>
+      <c r="W106" s="64"/>
+      <c r="X106" s="65"/>
+    </row>
+    <row r="107" spans="1:25" ht="15" customHeight="1">
+      <c r="A107" s="58"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="E79" s="54"/>
-      <c r="F79" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="G79" s="54"/>
-      <c r="H79" s="54"/>
-      <c r="I79" s="54"/>
-      <c r="J79" s="54" t="s">
-        <v>628</v>
-      </c>
-      <c r="K79" s="54"/>
-      <c r="L79" s="54" t="s">
+      <c r="E107" s="62"/>
+      <c r="F107" s="62"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="136" t="s">
+        <v>625</v>
+      </c>
+      <c r="I107" s="136"/>
+      <c r="J107" s="136"/>
+      <c r="K107" s="49" t="s">
         <v>626</v>
       </c>
-      <c r="M79" s="54"/>
-      <c r="N79" s="54" t="s">
+      <c r="L107" s="49"/>
+      <c r="M107" s="49"/>
+      <c r="N107" s="137" t="s">
         <v>627</v>
       </c>
-      <c r="O79" s="54"/>
-      <c r="P79" s="28"/>
-      <c r="Q79" s="28"/>
-      <c r="R79" s="28"/>
-      <c r="S79" s="28"/>
-      <c r="T79" s="28"/>
-      <c r="U79" s="28"/>
-      <c r="V79" s="28"/>
-      <c r="W79" s="28"/>
-      <c r="X79" s="88"/>
-    </row>
-    <row r="80" spans="1:24" ht="15" customHeight="1">
-      <c r="A80" s="65"/>
-      <c r="B80" s="73"/>
-      <c r="C80" s="64"/>
-      <c r="D80" s="83" t="s">
-        <v>629</v>
-      </c>
-      <c r="E80" s="83"/>
-      <c r="F80" s="54" t="s">
+      <c r="O107" s="137"/>
+      <c r="P107" s="137"/>
+      <c r="Q107" s="49" t="s">
+        <v>679</v>
+      </c>
+      <c r="R107" s="49"/>
+      <c r="S107" s="49"/>
+      <c r="T107" s="49"/>
+      <c r="U107" s="49"/>
+      <c r="V107" s="49"/>
+      <c r="W107" s="49"/>
+      <c r="X107" s="52"/>
+    </row>
+    <row r="108" spans="1:25" ht="15" customHeight="1">
+      <c r="A108" s="58"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="55"/>
+      <c r="D108" s="62" t="s">
+        <v>674</v>
+      </c>
+      <c r="E108" s="62"/>
+      <c r="F108" s="62"/>
+      <c r="G108" s="62"/>
+      <c r="H108" s="136" t="s">
         <v>630</v>
       </c>
-      <c r="G80" s="54"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="54" t="s">
+      <c r="I108" s="136"/>
+      <c r="J108" s="136"/>
+      <c r="K108" s="136" t="s">
         <v>631</v>
       </c>
-      <c r="M80" s="54"/>
-      <c r="N80" s="54" t="s">
-        <v>632</v>
-      </c>
-      <c r="O80" s="54"/>
-      <c r="P80" s="28"/>
-      <c r="Q80" s="28"/>
-      <c r="R80" s="28"/>
-      <c r="S80" s="28"/>
-      <c r="T80" s="28"/>
-      <c r="U80" s="28"/>
-      <c r="V80" s="28"/>
-      <c r="W80" s="28"/>
-      <c r="X80" s="73"/>
-    </row>
-    <row r="81" spans="1:25" ht="15" customHeight="1">
-      <c r="A81" s="65"/>
-      <c r="B81" s="73"/>
-      <c r="C81" s="64"/>
-      <c r="D81" s="82"/>
-      <c r="E81" s="82"/>
-      <c r="F81" s="54"/>
-      <c r="G81" s="54"/>
-      <c r="H81" s="54"/>
-      <c r="I81" s="54"/>
-      <c r="J81" s="54"/>
-      <c r="K81" s="54"/>
-      <c r="L81" s="54"/>
-      <c r="M81" s="54"/>
-      <c r="N81" s="54"/>
-      <c r="O81" s="54"/>
-      <c r="P81" s="28"/>
-      <c r="Q81" s="28"/>
-      <c r="R81" s="28"/>
-      <c r="S81" s="28"/>
-      <c r="T81" s="28"/>
-      <c r="U81" s="28"/>
-      <c r="V81" s="28"/>
-      <c r="W81" s="28"/>
-      <c r="X81" s="73"/>
-    </row>
-    <row r="82" spans="1:25" ht="15" customHeight="1">
-      <c r="A82" s="65"/>
-      <c r="B82" s="73"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="82"/>
-      <c r="E82" s="82"/>
-      <c r="F82" s="54"/>
-      <c r="G82" s="54"/>
-      <c r="H82" s="54"/>
-      <c r="I82" s="54"/>
-      <c r="J82" s="54"/>
-      <c r="K82" s="54"/>
-      <c r="L82" s="54"/>
-      <c r="M82" s="54"/>
-      <c r="N82" s="54"/>
-      <c r="O82" s="54"/>
-      <c r="P82" s="28"/>
-      <c r="Q82" s="28"/>
-      <c r="R82" s="28"/>
-      <c r="S82" s="28"/>
-      <c r="T82" s="28"/>
-      <c r="U82" s="28"/>
-      <c r="V82" s="28"/>
-      <c r="W82" s="28"/>
-      <c r="X82" s="73"/>
-    </row>
-    <row r="83" spans="1:25" ht="15" customHeight="1">
-      <c r="A83" s="65"/>
-      <c r="B83" s="73"/>
-      <c r="C83" s="64"/>
-      <c r="D83" s="82"/>
-      <c r="E83" s="82"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="54"/>
-      <c r="J83" s="54"/>
-      <c r="K83" s="54"/>
-      <c r="L83" s="54"/>
-      <c r="M83" s="54"/>
-      <c r="N83" s="54"/>
-      <c r="O83" s="54"/>
-      <c r="X83" s="73"/>
-      <c r="Y83" s="23"/>
-    </row>
-    <row r="84" spans="1:25" ht="15" customHeight="1">
-      <c r="A84" s="65"/>
-      <c r="B84" s="73"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="82"/>
-      <c r="E84" s="82"/>
-      <c r="F84" s="54"/>
-      <c r="G84" s="54"/>
-      <c r="H84" s="54"/>
-      <c r="I84" s="54"/>
-      <c r="J84" s="54"/>
-      <c r="K84" s="54"/>
-      <c r="L84" s="54"/>
-      <c r="M84" s="54"/>
-      <c r="N84" s="54"/>
-      <c r="O84" s="54"/>
-      <c r="X84" s="73"/>
-      <c r="Y84" s="23"/>
-    </row>
-    <row r="85" spans="1:25" ht="15" customHeight="1">
-      <c r="A85" s="65"/>
-      <c r="B85" s="73"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="82"/>
-      <c r="E85" s="82"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="54"/>
-      <c r="H85" s="54"/>
-      <c r="I85" s="54"/>
-      <c r="J85" s="54"/>
-      <c r="K85" s="54"/>
-      <c r="L85" s="54"/>
-      <c r="M85" s="54"/>
-      <c r="N85" s="54"/>
-      <c r="O85" s="54"/>
-      <c r="X85" s="73"/>
-      <c r="Y85" s="23"/>
-    </row>
-    <row r="86" spans="1:25" ht="15" customHeight="1">
-      <c r="A86" s="65"/>
-      <c r="B86" s="73"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="82"/>
-      <c r="E86" s="82"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="54"/>
-      <c r="H86" s="54"/>
-      <c r="I86" s="54"/>
-      <c r="J86" s="54"/>
-      <c r="K86" s="54"/>
-      <c r="L86" s="54"/>
-      <c r="M86" s="54"/>
-      <c r="N86" s="54"/>
-      <c r="O86" s="54"/>
-      <c r="X86" s="73"/>
-      <c r="Y86" s="23"/>
-    </row>
-    <row r="87" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A87" s="68"/>
-      <c r="B87" s="69"/>
-      <c r="C87" s="86"/>
-      <c r="D87" s="85"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="85"/>
-      <c r="G87" s="85"/>
-      <c r="H87" s="85"/>
-      <c r="I87" s="85"/>
-      <c r="J87" s="85"/>
-      <c r="K87" s="85"/>
-      <c r="L87" s="85"/>
-      <c r="M87" s="85"/>
-      <c r="N87" s="85"/>
-      <c r="O87" s="85"/>
-      <c r="P87" s="85"/>
-      <c r="Q87" s="85"/>
-      <c r="R87" s="85"/>
-      <c r="S87" s="85"/>
-      <c r="T87" s="85"/>
-      <c r="U87" s="85"/>
-      <c r="V87" s="85"/>
-      <c r="W87" s="85"/>
-      <c r="X87" s="85"/>
-      <c r="Y87" s="23"/>
-    </row>
-    <row r="88" spans="1:25" ht="15" customHeight="1" thickTop="1">
-      <c r="A88" s="36"/>
-      <c r="B88" s="36"/>
-    </row>
-    <row r="89" spans="1:25" ht="15" customHeight="1">
-      <c r="A89" s="36"/>
-      <c r="B89" s="36"/>
-    </row>
-    <row r="90" spans="1:25" ht="15" customHeight="1">
-      <c r="A90" s="36"/>
-      <c r="B90" s="36"/>
-    </row>
-    <row r="91" spans="1:25" ht="15" customHeight="1">
-      <c r="A91" s="36"/>
-      <c r="B91" s="36"/>
-    </row>
-    <row r="92" spans="1:25" ht="15" customHeight="1">
-      <c r="A92" s="36"/>
-      <c r="B92" s="36"/>
-    </row>
-    <row r="93" spans="1:25" ht="15" customHeight="1">
-      <c r="A93" s="36"/>
-      <c r="B93" s="36"/>
-    </row>
-    <row r="94" spans="1:25" ht="15" customHeight="1">
-      <c r="A94" s="36"/>
-      <c r="B94" s="36"/>
-    </row>
-    <row r="95" spans="1:25" ht="15" customHeight="1">
-      <c r="A95" s="36"/>
-      <c r="B95" s="36"/>
-    </row>
-    <row r="96" spans="1:25" ht="15" customHeight="1">
-      <c r="A96" s="36"/>
-      <c r="B96" s="36"/>
-    </row>
-    <row r="97" spans="1:2" ht="15" customHeight="1">
-      <c r="A97" s="36"/>
-      <c r="B97" s="36"/>
-    </row>
-    <row r="98" spans="1:2" ht="15" customHeight="1">
-      <c r="A98" s="36"/>
-      <c r="B98" s="36"/>
+      <c r="L108" s="136"/>
+      <c r="M108" s="136"/>
+      <c r="N108" s="61"/>
+      <c r="O108" s="61"/>
+      <c r="P108" s="61"/>
+      <c r="Q108" s="49"/>
+      <c r="R108" s="49"/>
+      <c r="S108" s="49"/>
+      <c r="T108" s="49"/>
+      <c r="U108" s="49"/>
+      <c r="V108" s="49"/>
+      <c r="W108" s="49"/>
+      <c r="X108" s="53"/>
+    </row>
+    <row r="109" spans="1:25" ht="30" customHeight="1">
+      <c r="A109" s="58"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="55"/>
+      <c r="D109" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="E109" s="62"/>
+      <c r="F109" s="62"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="136" t="s">
+        <v>677</v>
+      </c>
+      <c r="I109" s="136"/>
+      <c r="J109" s="136"/>
+      <c r="K109" s="136" t="s">
+        <v>676</v>
+      </c>
+      <c r="L109" s="136"/>
+      <c r="M109" s="136"/>
+      <c r="N109" s="136" t="s">
+        <v>678</v>
+      </c>
+      <c r="O109" s="136"/>
+      <c r="P109" s="136"/>
+      <c r="Q109" s="139" t="s">
+        <v>680</v>
+      </c>
+      <c r="R109" s="49"/>
+      <c r="S109" s="49"/>
+      <c r="T109" s="49"/>
+      <c r="U109" s="49"/>
+      <c r="V109" s="49"/>
+      <c r="W109" s="49"/>
+      <c r="X109" s="53"/>
+    </row>
+    <row r="110" spans="1:25" ht="30" customHeight="1">
+      <c r="A110" s="58"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="55"/>
+      <c r="D110" s="62" t="s">
+        <v>681</v>
+      </c>
+      <c r="E110" s="62"/>
+      <c r="F110" s="62"/>
+      <c r="G110" s="62"/>
+      <c r="H110" s="136" t="s">
+        <v>672</v>
+      </c>
+      <c r="I110" s="136"/>
+      <c r="J110" s="136"/>
+      <c r="K110" s="136" t="s">
+        <v>682</v>
+      </c>
+      <c r="L110" s="136"/>
+      <c r="M110" s="136"/>
+      <c r="N110" s="139" t="s">
+        <v>683</v>
+      </c>
+      <c r="O110" s="139"/>
+      <c r="P110" s="139"/>
+      <c r="Q110" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="R110" s="49"/>
+      <c r="S110" s="49"/>
+      <c r="T110" s="49"/>
+      <c r="U110" s="49"/>
+      <c r="V110" s="49"/>
+      <c r="W110" s="49"/>
+      <c r="X110" s="53"/>
+    </row>
+    <row r="111" spans="1:25" ht="120" customHeight="1">
+      <c r="A111" s="58"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="55"/>
+      <c r="D111" s="140" t="s">
+        <v>708</v>
+      </c>
+      <c r="E111" s="140"/>
+      <c r="F111" s="140"/>
+      <c r="G111" s="140"/>
+      <c r="H111" s="139" t="s">
+        <v>687</v>
+      </c>
+      <c r="I111" s="136"/>
+      <c r="J111" s="136"/>
+      <c r="K111" s="139" t="s">
+        <v>688</v>
+      </c>
+      <c r="L111" s="136"/>
+      <c r="M111" s="136"/>
+      <c r="N111" s="139" t="s">
+        <v>689</v>
+      </c>
+      <c r="O111" s="136"/>
+      <c r="P111" s="136"/>
+      <c r="Q111" s="139" t="s">
+        <v>690</v>
+      </c>
+      <c r="R111" s="139"/>
+      <c r="S111" s="139"/>
+      <c r="T111" s="139"/>
+      <c r="U111" s="139"/>
+      <c r="V111" s="139"/>
+      <c r="W111" s="139"/>
+      <c r="X111" s="53"/>
+      <c r="Y111" s="23"/>
+    </row>
+    <row r="112" spans="1:25" ht="15" customHeight="1">
+      <c r="A112" s="58"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="55"/>
+      <c r="D112" s="62" t="s">
+        <v>710</v>
+      </c>
+      <c r="E112" s="62"/>
+      <c r="F112" s="62"/>
+      <c r="G112" s="62"/>
+      <c r="H112" s="136"/>
+      <c r="I112" s="136"/>
+      <c r="J112" s="136"/>
+      <c r="K112" s="136"/>
+      <c r="L112" s="136"/>
+      <c r="M112" s="136"/>
+      <c r="N112" s="136"/>
+      <c r="O112" s="136"/>
+      <c r="P112" s="136"/>
+      <c r="Q112" s="49"/>
+      <c r="R112" s="49"/>
+      <c r="S112" s="49"/>
+      <c r="T112" s="49"/>
+      <c r="U112" s="49"/>
+      <c r="V112" s="49"/>
+      <c r="W112" s="49"/>
+      <c r="X112" s="53"/>
+      <c r="Y112" s="23"/>
+    </row>
+    <row r="113" spans="1:25" ht="15" customHeight="1">
+      <c r="A113" s="58"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="55"/>
+      <c r="D113" s="62"/>
+      <c r="E113" s="62"/>
+      <c r="F113" s="62"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="136"/>
+      <c r="I113" s="136"/>
+      <c r="J113" s="136"/>
+      <c r="K113" s="136"/>
+      <c r="L113" s="136"/>
+      <c r="M113" s="136"/>
+      <c r="N113" s="136"/>
+      <c r="O113" s="136"/>
+      <c r="P113" s="136"/>
+      <c r="Q113" s="49"/>
+      <c r="R113" s="49"/>
+      <c r="S113" s="49"/>
+      <c r="T113" s="49"/>
+      <c r="U113" s="49"/>
+      <c r="V113" s="49"/>
+      <c r="W113" s="49"/>
+      <c r="X113" s="53"/>
+      <c r="Y113" s="23"/>
+    </row>
+    <row r="114" spans="1:25" ht="15" customHeight="1">
+      <c r="A114" s="58"/>
+      <c r="B114" s="53"/>
+      <c r="C114" s="55"/>
+      <c r="D114" s="62"/>
+      <c r="E114" s="62"/>
+      <c r="F114" s="62"/>
+      <c r="G114" s="62"/>
+      <c r="H114" s="136"/>
+      <c r="I114" s="136"/>
+      <c r="J114" s="136"/>
+      <c r="K114" s="136"/>
+      <c r="L114" s="136"/>
+      <c r="M114" s="136"/>
+      <c r="N114" s="136"/>
+      <c r="O114" s="136"/>
+      <c r="P114" s="136"/>
+      <c r="Q114" s="49"/>
+      <c r="R114" s="49"/>
+      <c r="S114" s="49"/>
+      <c r="T114" s="49"/>
+      <c r="U114" s="49"/>
+      <c r="V114" s="49"/>
+      <c r="W114" s="49"/>
+      <c r="X114" s="53"/>
+      <c r="Y114" s="23"/>
+    </row>
+    <row r="115" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A115" s="59"/>
+      <c r="B115" s="60"/>
+      <c r="C115" s="50"/>
+      <c r="D115" s="51"/>
+      <c r="E115" s="51"/>
+      <c r="F115" s="51"/>
+      <c r="G115" s="51"/>
+      <c r="H115" s="51"/>
+      <c r="I115" s="51"/>
+      <c r="J115" s="51"/>
+      <c r="K115" s="51"/>
+      <c r="L115" s="51"/>
+      <c r="M115" s="51"/>
+      <c r="N115" s="51"/>
+      <c r="O115" s="51"/>
+      <c r="P115" s="51"/>
+      <c r="Q115" s="51"/>
+      <c r="R115" s="51"/>
+      <c r="S115" s="51"/>
+      <c r="T115" s="51"/>
+      <c r="U115" s="51"/>
+      <c r="V115" s="51"/>
+      <c r="W115" s="51"/>
+      <c r="X115" s="138"/>
+      <c r="Y115" s="23"/>
+    </row>
+    <row r="116" spans="1:25" ht="15" customHeight="1" thickTop="1">
+      <c r="A116" s="61"/>
+      <c r="B116" s="61"/>
+    </row>
+    <row r="117" spans="1:25" ht="15" customHeight="1">
+      <c r="A117" s="61"/>
+      <c r="B117" s="61"/>
+    </row>
+    <row r="118" spans="1:25" ht="15" customHeight="1">
+      <c r="A118" s="61"/>
+      <c r="B118" s="61"/>
+    </row>
+    <row r="119" spans="1:25" ht="15" customHeight="1">
+      <c r="A119" s="61"/>
+      <c r="B119" s="61"/>
+    </row>
+    <row r="120" spans="1:25" ht="15" customHeight="1">
+      <c r="A120" s="61"/>
+      <c r="B120" s="61"/>
+    </row>
+    <row r="121" spans="1:25" ht="15" customHeight="1">
+      <c r="A121" s="61"/>
+      <c r="B121" s="61"/>
+    </row>
+    <row r="122" spans="1:25" ht="15" customHeight="1">
+      <c r="A122" s="61"/>
+      <c r="B122" s="61"/>
+    </row>
+    <row r="123" spans="1:25" ht="15" customHeight="1">
+      <c r="A123" s="61"/>
+      <c r="B123" s="61"/>
+    </row>
+    <row r="124" spans="1:25" ht="15" customHeight="1">
+      <c r="A124" s="61"/>
+      <c r="B124" s="61"/>
+    </row>
+    <row r="125" spans="1:25" ht="15" customHeight="1">
+      <c r="A125" s="61"/>
+      <c r="B125" s="61"/>
+    </row>
+    <row r="126" spans="1:25" ht="15" customHeight="1">
+      <c r="A126" s="61"/>
+      <c r="B126" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="205">
-    <mergeCell ref="H71:P71"/>
-    <mergeCell ref="H72:P72"/>
-    <mergeCell ref="H73:P73"/>
-    <mergeCell ref="H74:P74"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:P64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="H65:P65"/>
-    <mergeCell ref="H66:P66"/>
-    <mergeCell ref="H67:P67"/>
-    <mergeCell ref="H68:P68"/>
-    <mergeCell ref="H69:P69"/>
-    <mergeCell ref="H70:P70"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="C87:X87"/>
-    <mergeCell ref="X79:X86"/>
-    <mergeCell ref="C79:C86"/>
-    <mergeCell ref="A78:B87"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="C78:X78"/>
+  <mergeCells count="235">
+    <mergeCell ref="A79:B89"/>
+    <mergeCell ref="C89:X89"/>
+    <mergeCell ref="C79:X79"/>
+    <mergeCell ref="C80:C88"/>
+    <mergeCell ref="D80:W80"/>
+    <mergeCell ref="X80:X88"/>
+    <mergeCell ref="Q81:W81"/>
+    <mergeCell ref="Q82:W82"/>
+    <mergeCell ref="Q83:W83"/>
+    <mergeCell ref="Q84:W84"/>
+    <mergeCell ref="Q85:W85"/>
+    <mergeCell ref="Q86:W86"/>
+    <mergeCell ref="Q87:W87"/>
+    <mergeCell ref="Q88:W88"/>
+    <mergeCell ref="G81:O81"/>
+    <mergeCell ref="G82:O82"/>
+    <mergeCell ref="G83:O83"/>
+    <mergeCell ref="G84:O84"/>
+    <mergeCell ref="G85:O85"/>
+    <mergeCell ref="G86:O86"/>
+    <mergeCell ref="G87:O87"/>
+    <mergeCell ref="G88:O88"/>
+    <mergeCell ref="Q110:W110"/>
+    <mergeCell ref="Q111:W111"/>
+    <mergeCell ref="Q112:W112"/>
+    <mergeCell ref="Q113:W113"/>
+    <mergeCell ref="Q114:W114"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="K112:M112"/>
+    <mergeCell ref="K113:M113"/>
+    <mergeCell ref="K114:M114"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="N109:P109"/>
+    <mergeCell ref="N110:P110"/>
+    <mergeCell ref="N111:P111"/>
+    <mergeCell ref="N112:P112"/>
+    <mergeCell ref="N113:P113"/>
+    <mergeCell ref="N114:P114"/>
+    <mergeCell ref="N107:P107"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="D109:G109"/>
+    <mergeCell ref="D110:G110"/>
+    <mergeCell ref="D111:G111"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="H109:J109"/>
+    <mergeCell ref="H110:J110"/>
+    <mergeCell ref="H111:J111"/>
+    <mergeCell ref="K109:M109"/>
+    <mergeCell ref="K110:M110"/>
+    <mergeCell ref="K111:M111"/>
+    <mergeCell ref="Q107:W107"/>
+    <mergeCell ref="Q108:W108"/>
+    <mergeCell ref="Q109:W109"/>
+    <mergeCell ref="D4:R4"/>
+    <mergeCell ref="G20:R20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:R21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:R22"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:R17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:R18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:R19"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:R15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:R16"/>
+    <mergeCell ref="E10:N10"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A33:B41"/>
+    <mergeCell ref="A3:B12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="E5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="E6:N6"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="E9:N9"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="E11:N11"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="G27:R27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:R28"/>
+    <mergeCell ref="D14:R14"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:R29"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:R23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:R24"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:R26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A13:B32"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:R25"/>
+    <mergeCell ref="D34:W34"/>
+    <mergeCell ref="D35:E36"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="M35:O36"/>
+    <mergeCell ref="P35:W36"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:R30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:R31"/>
+    <mergeCell ref="C106:X106"/>
     <mergeCell ref="C33:X33"/>
     <mergeCell ref="C32:X32"/>
     <mergeCell ref="C34:C40"/>
@@ -14254,97 +15425,74 @@
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A13:B32"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:R25"/>
-    <mergeCell ref="D34:W34"/>
-    <mergeCell ref="D35:E36"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="M35:O36"/>
-    <mergeCell ref="P35:W36"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:R30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:R31"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:R29"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:R23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:R24"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:R26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="E11:N11"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="G27:R27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:R28"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="E5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="E6:N6"/>
-    <mergeCell ref="E7:N7"/>
-    <mergeCell ref="E8:N8"/>
-    <mergeCell ref="E9:N9"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="D112:G112"/>
+    <mergeCell ref="D113:G113"/>
+    <mergeCell ref="D114:G114"/>
+    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="D64:E64"/>
     <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A33:B41"/>
-    <mergeCell ref="A3:B12"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D14:R14"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="D4:R4"/>
-    <mergeCell ref="G20:R20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:R21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:R22"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:R17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:R18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:R19"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:R15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:R16"/>
-    <mergeCell ref="E10:N10"/>
+    <mergeCell ref="C115:X115"/>
+    <mergeCell ref="X107:X114"/>
+    <mergeCell ref="C107:C114"/>
+    <mergeCell ref="A106:B115"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:P64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="H65:P65"/>
+    <mergeCell ref="H66:P66"/>
+    <mergeCell ref="H67:P67"/>
+    <mergeCell ref="H68:P68"/>
+    <mergeCell ref="H69:P69"/>
+    <mergeCell ref="H70:P70"/>
+    <mergeCell ref="H71:P71"/>
+    <mergeCell ref="H72:P72"/>
+    <mergeCell ref="H73:P73"/>
+    <mergeCell ref="H74:P74"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/IP Notes.xlsx
+++ b/IP Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="729">
   <si>
     <t>Topic</t>
   </si>
@@ -5791,9 +5791,6 @@
     <t>SQL</t>
   </si>
   <si>
-    <t>A primary key is a special relational database table column (or combination of columns) designated to uniquely identify all table records. A primary key's main features are: It must contain a unique value for each row of data and it cannot contain null values.</t>
-  </si>
-  <si>
     <t>PL/SQL</t>
   </si>
   <si>
@@ -6021,12 +6018,6 @@
   </si>
   <si>
     <t>Candidate Key</t>
-  </si>
-  <si>
-    <t>In database design, a compound key is a key that consists of 2 or more attributes that uniquely identify an entity occurrence. Each attribute that makes up the compound key is a simple key in its own right</t>
-  </si>
-  <si>
-    <t>This is often confused with a composite key whereby even though this is also a key that consists of 2 or more attributes that uniquely identify an entity occurrence, at least one attribute that makes up the composite key is not a simple key in its own right.</t>
   </si>
   <si>
     <t>Compound Key</t>
@@ -6928,6 +6919,48 @@
   </si>
   <si>
     <t>SQL Constraint Types</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Candidate Key can be any column or a combination of columns that can qualify as unique key in database. There can be multiple Candidate Keys in one table. Each Candidate Key can qualify as Primary Key</t>
+  </si>
+  <si>
+    <t>In database design, a compound key is a key that consists of 2 or more attributes that uniquely identify an entity occurrence. Each attribute that makes up the compound key is a simple key in its own right.
+This is often confused with a composite key whereby even though this is also a key that consists of 2 or more attributes that uniquely identify an entity occurrence, at least one attribute that makes up the composite key is not a simple key in its own right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A surrogate key (or synthetic key, entity identifier, system-generated key, database sequence number, factless key, technical key, or arbitrary unique identifier) is an artificially generated key which is used to uniquely identify a record in the absence of natural key. For example Person table doesn't have natural key (since it's possible for two people born on the same date to have the same name) so surrogate key is used to uniquely identify each records in the Person table. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A natural key (also known as business key) is a type of unique key, that is formed of attributes that already exist in the table. It is meaningful (not artificially generated as surrogate key) and has a logical relationship to the attributes within that row. A natural key is sometimes called domain key. </t>
+  </si>
+  <si>
+    <t>A Foreign key is a key used to link two tables together. A foreign key is a field (or collection of fields) in one table that refers to the primayr key in another table. The table containing the foreign key is called the child table, and the table containing the candidate key is called the referenced or parent table.</t>
+  </si>
+  <si>
+    <t>Can a foreign key reference a non-primary key</t>
+  </si>
+  <si>
+    <t>A foreign key constraint does not have to be linked only to a primary key constraint in another table; it can also be defined to reference the columns of a UNIQUE constraint in another table.</t>
+  </si>
+  <si>
+    <t>Alternate key</t>
+  </si>
+  <si>
+    <t>Out of all candidate keys, only one gets selected as primary key, remaining keys are known as alternative or secondary keys.</t>
+  </si>
+  <si>
+    <t>Prime Attribute</t>
+  </si>
+  <si>
+    <t>Non-Prime Attribute</t>
+  </si>
+  <si>
+    <t>A primary key is a special relational database table column (or combination of columns) designated to uniquely identify all table records. 
+A primary key's main features are: 
+ → It must contain a unique value for each row of data. 
+ → It cannot contain null values.
+ → It cannot be changed.
+ → It must be given a value when a new record is created/inserted.</t>
   </si>
 </sst>
 </file>
@@ -7516,7 +7549,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7584,36 +7617,175 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7637,171 +7809,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8105,10 +8140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E140"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9091,178 +9126,221 @@
         <v>313</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="39">
+    <row r="123" spans="1:5" ht="90">
       <c r="A123" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B123" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="26.25">
+      <c r="A124" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="B124" s="30" t="s">
+        <v>595</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="B125" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="26.25">
+      <c r="A126" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="B126" s="30" t="s">
+        <v>589</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="39">
+      <c r="A127" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="B127" s="30" t="s">
         <v>594</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="B124" s="30" t="s">
-        <v>589</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="26.25">
-      <c r="A125" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="B125" s="30" t="s">
-        <v>590</v>
-      </c>
-      <c r="C125" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="39">
-      <c r="A126" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="B126" s="30" t="s">
-        <v>595</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="B127" s="30" t="s">
+    <row r="128" spans="1:5" ht="64.5">
+      <c r="A128" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="B128" s="47" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="26.25">
-      <c r="A128" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="B128" s="17" t="s">
+      <c r="C128" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="39">
+      <c r="A129" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="B129" s="47" t="s">
+        <v>598</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="51.75">
+      <c r="A130" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="B130" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="39">
+      <c r="A131" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="B131" s="30" t="s">
         <v>599</v>
       </c>
-      <c r="C128" s="16" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="39">
-      <c r="A129" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="B129" s="17" t="s">
-        <v>595</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="B130" s="17" t="s">
+      <c r="C131" s="3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" s="48" customFormat="1" ht="26.25">
+      <c r="A132" s="47" t="s">
+        <v>584</v>
+      </c>
+      <c r="B132" s="47" t="s">
+        <v>724</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="D132" s="3"/>
+      <c r="E132" s="47"/>
+    </row>
+    <row r="133" spans="1:5" s="48" customFormat="1">
+      <c r="A133" s="47" t="s">
+        <v>584</v>
+      </c>
+      <c r="B133" s="47" t="s">
+        <v>726</v>
+      </c>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="47"/>
+    </row>
+    <row r="134" spans="1:5" s="48" customFormat="1">
+      <c r="A134" s="47" t="s">
+        <v>584</v>
+      </c>
+      <c r="B134" s="47" t="s">
+        <v>727</v>
+      </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="47"/>
+    </row>
+    <row r="135" spans="1:5" s="48" customFormat="1">
+      <c r="A135" s="47"/>
+      <c r="B135" s="47"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="47"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="B136" s="30" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="B131" s="17" t="s">
+    <row r="137" spans="1:5" ht="26.25">
+      <c r="A137" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="B137" s="30" t="s">
+        <v>602</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="B132" s="30" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="B133" s="30" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="26.25">
-      <c r="A134" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="B134" s="30" t="s">
-        <v>605</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="B135" s="32" t="s">
+    <row r="138" spans="1:5">
+      <c r="A138" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="B138" s="32" t="s">
+        <v>618</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="B139" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="B140" s="32" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="26.25">
+      <c r="A141" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="B141" s="30" t="s">
         <v>621</v>
       </c>
-      <c r="C135" s="3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="B136" s="30" t="s">
+      <c r="C141" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C136" s="3" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="B137" s="32" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="26.25">
-      <c r="A138" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="B138" s="30" t="s">
-        <v>624</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="51.75">
-      <c r="B139" s="32" t="s">
-        <v>667</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="51.75">
-      <c r="B140" s="35" t="s">
-        <v>685</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>686</v>
+    </row>
+    <row r="142" spans="1:5" ht="51.75">
+      <c r="B142" s="32" t="s">
+        <v>664</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="51.75">
+      <c r="B143" s="35" t="s">
+        <v>682</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -9304,10 +9382,10 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="33" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" spans="2:3">
@@ -9323,7 +9401,7 @@
         <v>529</v>
       </c>
       <c r="C3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -9331,7 +9409,7 @@
         <v>416</v>
       </c>
       <c r="C4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -9339,22 +9417,22 @@
         <v>530</v>
       </c>
       <c r="C5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="C6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="C8" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -9362,40 +9440,40 @@
         <v>533</v>
       </c>
       <c r="C9" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="45">
       <c r="C18" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -9420,236 +9498,236 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="137" t="s">
+        <v>631</v>
+      </c>
+      <c r="C3" s="137"/>
+      <c r="D3" s="145" t="s">
+        <v>629</v>
+      </c>
+      <c r="E3" s="84"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="144" t="s">
+        <v>630</v>
+      </c>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="144"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="145"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="145" t="s">
+        <v>635</v>
+      </c>
+      <c r="E4" s="84"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="147" t="s">
+        <v>636</v>
+      </c>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="149"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="137" t="s">
+        <v>632</v>
+      </c>
+      <c r="C5" s="137"/>
+      <c r="D5" s="145" t="s">
+        <v>633</v>
+      </c>
+      <c r="E5" s="84"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="137" t="s">
         <v>634</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="131" t="s">
-        <v>632</v>
-      </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="48" t="s">
-        <v>633</v>
-      </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="131"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="131" t="s">
-        <v>638</v>
-      </c>
-      <c r="E4" s="92"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="133" t="s">
-        <v>639</v>
-      </c>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="135"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="47" t="s">
-        <v>635</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="131" t="s">
-        <v>636</v>
-      </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="47" t="s">
-        <v>637</v>
-      </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="137"/>
+      <c r="O6" s="137"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="137"/>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="137"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="137"/>
+      <c r="N11" s="137"/>
+      <c r="O11" s="137"/>
     </row>
     <row r="12" spans="2:15">
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="137"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="137"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="137"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="137"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47" t="s">
+      <c r="C17" s="137"/>
+      <c r="D17" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47" t="s">
-        <v>627</v>
-      </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47" t="s">
-        <v>625</v>
-      </c>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47" t="s">
-        <v>626</v>
-      </c>
-      <c r="M17" s="47"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137" t="s">
+        <v>624</v>
+      </c>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137" t="s">
+        <v>622</v>
+      </c>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137" t="s">
+        <v>623</v>
+      </c>
+      <c r="M17" s="137"/>
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
       <c r="P17" s="31"/>
@@ -9660,26 +9738,26 @@
       <c r="U17" s="31"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="130" t="s">
+      <c r="B18" s="151" t="s">
+        <v>625</v>
+      </c>
+      <c r="C18" s="151"/>
+      <c r="D18" s="137" t="s">
+        <v>626</v>
+      </c>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137" t="s">
+        <v>627</v>
+      </c>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137" t="s">
         <v>628</v>
       </c>
-      <c r="C18" s="130"/>
-      <c r="D18" s="47" t="s">
-        <v>629</v>
-      </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47" t="s">
-        <v>630</v>
-      </c>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47" t="s">
-        <v>631</v>
-      </c>
-      <c r="M18" s="47"/>
+      <c r="M18" s="137"/>
       <c r="N18" s="31"/>
       <c r="O18" s="31"/>
       <c r="P18" s="31"/>
@@ -9690,18 +9768,18 @@
       <c r="U18" s="31"/>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="128"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
       <c r="P19" s="31"/>
@@ -9712,18 +9790,18 @@
       <c r="U19" s="31"/>
     </row>
     <row r="20" spans="2:21">
-      <c r="B20" s="128"/>
-      <c r="C20" s="128"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="137"/>
       <c r="N20" s="31"/>
       <c r="O20" s="31"/>
       <c r="P20" s="31"/>
@@ -9734,18 +9812,18 @@
       <c r="U20" s="31"/>
     </row>
     <row r="21" spans="2:21">
-      <c r="B21" s="128"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
       <c r="N21" s="32"/>
       <c r="O21" s="32"/>
       <c r="P21" s="32"/>
@@ -9756,18 +9834,18 @@
       <c r="U21" s="32"/>
     </row>
     <row r="22" spans="2:21">
-      <c r="B22" s="128"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="137"/>
       <c r="N22" s="32"/>
       <c r="O22" s="32"/>
       <c r="P22" s="32"/>
@@ -9778,18 +9856,18 @@
       <c r="U22" s="32"/>
     </row>
     <row r="23" spans="2:21">
-      <c r="B23" s="128"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="137"/>
       <c r="N23" s="32"/>
       <c r="O23" s="32"/>
       <c r="P23" s="32"/>
@@ -9800,18 +9878,18 @@
       <c r="U23" s="32"/>
     </row>
     <row r="24" spans="2:21">
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
+      <c r="B24" s="150"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="137"/>
+      <c r="M24" s="137"/>
       <c r="N24" s="32"/>
       <c r="O24" s="32"/>
       <c r="P24" s="32"/>
@@ -9822,108 +9900,108 @@
       <c r="U24" s="32"/>
     </row>
     <row r="27" spans="2:21">
-      <c r="B27" s="126" t="s">
+      <c r="B27" s="152" t="s">
+        <v>637</v>
+      </c>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="154" t="s">
+        <v>638</v>
+      </c>
+      <c r="L27" s="154"/>
+      <c r="M27" s="154"/>
+      <c r="N27" s="154"/>
+      <c r="O27" s="154"/>
+      <c r="P27" s="152" t="s">
+        <v>639</v>
+      </c>
+      <c r="Q27" s="152"/>
+      <c r="R27" s="152"/>
+      <c r="S27" s="152"/>
+      <c r="T27" s="152"/>
+    </row>
+    <row r="28" spans="2:21">
+      <c r="B28" s="152" t="s">
         <v>640</v>
       </c>
-      <c r="C27" s="126"/>
-      <c r="D27" s="126" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="129" t="s">
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="152" t="s">
         <v>641</v>
       </c>
-      <c r="L27" s="129"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="129"/>
-      <c r="O27" s="129"/>
-      <c r="P27" s="126" t="s">
+      <c r="L28" s="152"/>
+      <c r="M28" s="152"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="152"/>
+      <c r="P28" s="153" t="s">
         <v>642</v>
       </c>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="126"/>
-      <c r="S27" s="126"/>
-      <c r="T27" s="126"/>
-    </row>
-    <row r="28" spans="2:21">
-      <c r="B28" s="126" t="s">
+      <c r="Q28" s="153"/>
+      <c r="R28" s="153"/>
+      <c r="S28" s="153"/>
+      <c r="T28" s="153"/>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="B29" s="152" t="s">
         <v>643</v>
       </c>
-      <c r="C28" s="126"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="126"/>
-      <c r="J28" s="126"/>
-      <c r="K28" s="126" t="s">
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="152" t="s">
         <v>644</v>
       </c>
-      <c r="L28" s="126"/>
-      <c r="M28" s="126"/>
-      <c r="N28" s="126"/>
-      <c r="O28" s="126"/>
-      <c r="P28" s="127" t="s">
-        <v>645</v>
-      </c>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="127"/>
-      <c r="S28" s="127"/>
-      <c r="T28" s="127"/>
-    </row>
-    <row r="29" spans="2:21">
-      <c r="B29" s="126" t="s">
-        <v>646</v>
-      </c>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
-      <c r="K29" s="126" t="s">
-        <v>647</v>
-      </c>
-      <c r="L29" s="126"/>
-      <c r="M29" s="126"/>
-      <c r="N29" s="126"/>
-      <c r="O29" s="126"/>
-      <c r="P29" s="127" t="s">
-        <v>645</v>
-      </c>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="127"/>
-      <c r="S29" s="127"/>
-      <c r="T29" s="127"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="153" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q29" s="153"/>
+      <c r="R29" s="153"/>
+      <c r="S29" s="153"/>
+      <c r="T29" s="153"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="45" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C34" s="45" t="s">
+        <v>650</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>651</v>
+      </c>
+      <c r="E34" s="45" t="s">
+        <v>652</v>
+      </c>
+      <c r="F34" s="45" t="s">
         <v>653</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>654</v>
-      </c>
-      <c r="E34" s="45" t="s">
-        <v>655</v>
-      </c>
-      <c r="F34" s="45" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="45" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C35" s="45"/>
       <c r="D35" s="45"/>
@@ -9932,7 +10010,7 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="45" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C36" s="45"/>
       <c r="D36" s="45"/>
@@ -9941,7 +10019,7 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="45" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C37" s="45"/>
       <c r="D37" s="45"/>
@@ -9950,7 +10028,7 @@
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="45" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C38" s="45"/>
       <c r="D38" s="45"/>
@@ -9959,7 +10037,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="45" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C39" s="45"/>
       <c r="D39" s="45"/>
@@ -9968,26 +10046,58 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="G6:O6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G7:O7"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:O9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="G10:O10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="G11:O11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="K29:O29"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:O27"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="G14:O14"/>
@@ -10004,58 +10114,26 @@
     <mergeCell ref="G13:O13"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="K29:O29"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:O27"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:O28"/>
-    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="G10:O10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="G11:O11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G9:O9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="G6:O6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G7:O7"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10078,10 +10156,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="46" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -10089,17 +10167,17 @@
         <v>42874</v>
       </c>
       <c r="B2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -10152,10 +10230,10 @@
     </row>
     <row r="12" spans="1:2" ht="26.25">
       <c r="A12" s="32" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -12622,46 +12700,46 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>585</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="C9" s="30" t="s">
         <v>586</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>581</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B11" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>583</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -12674,8 +12752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12860,7 +12938,7 @@
         <v>235</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>507</v>
@@ -12883,48 +12961,54 @@
     <row r="22" spans="1:4">
       <c r="A22" s="30"/>
     </row>
-    <row r="23" spans="1:4" s="36" customFormat="1" ht="90">
+    <row r="23" spans="1:4" s="36" customFormat="1" ht="90" customHeight="1">
       <c r="A23" s="35" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" s="36" customFormat="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+    <row r="24" spans="1:4" s="36" customFormat="1" ht="26.25">
+      <c r="A24" s="47" t="s">
+        <v>584</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>723</v>
+      </c>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" s="3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="B28" s="3" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -12937,8 +13021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D68" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82:O82"/>
+    <sheetView topLeftCell="E34" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38:W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -12953,1043 +13037,1043 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="72" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="129" t="s">
         <v>486</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="74"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="131"/>
     </row>
     <row r="2" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="121"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="77"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="134"/>
     </row>
     <row r="3" spans="1:25" s="22" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
       <c r="Y3" s="23"/>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="115"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="123" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="67" t="s">
         <v>512</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="53"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="124"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="127"/>
       <c r="Y4" s="23"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="115"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="67"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="120"/>
       <c r="D5" s="24" t="s">
         <v>510</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="86" t="s">
         <v>511</v>
       </c>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105" t="s">
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86" t="s">
         <v>513</v>
       </c>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="53"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
+      <c r="X5" s="127"/>
       <c r="Y5" s="23"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1">
-      <c r="A6" s="115"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="67"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="120"/>
       <c r="D6" s="41">
         <v>1</v>
       </c>
-      <c r="E6" s="106" t="s">
+      <c r="E6" s="99" t="s">
         <v>516</v>
       </c>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="102" t="s">
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="87" t="s">
         <v>514</v>
       </c>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="53"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="128"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="127"/>
       <c r="Y6" s="23"/>
     </row>
     <row r="7" spans="1:25" ht="30" customHeight="1">
-      <c r="A7" s="115"/>
-     